--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E6A9C-BF39-4B21-A06B-2B50D64D91B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DFFCBC-40F2-458E-B32E-A4EAE7C90EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1365" windowWidth="18705" windowHeight="11955" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -20551,11 +20551,11 @@
       </c>
       <c r="F8" s="23">
         <f>'06_24'!G2</f>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>163818.08000000002</v>
+        <v>163603.78000000003</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
@@ -20601,7 +20601,7 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>162012.22000000003</v>
+        <v>161797.92000000004</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20650,7 +20650,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>162012.22000000003</v>
+        <v>161797.92000000004</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -20696,7 +20696,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>162012.22000000003</v>
+        <v>161797.92000000004</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -20745,7 +20745,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>162012.22000000003</v>
+        <v>161797.92000000004</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -20794,7 +20794,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>162012.22000000003</v>
+        <v>161797.92000000004</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>162012.22000000003</v>
+        <v>161797.92000000004</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -20888,11 +20888,11 @@
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-405538.10999999993</v>
+        <v>-405752.40999999992</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>162012.22000000015</v>
+        <v>161797.92000000016</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -20932,11 +20932,11 @@
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-33794.842499999992</v>
+        <v>-33812.700833333329</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>13501.018333333346</v>
+        <v>13483.160000000013</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
@@ -55814,8 +55814,8 @@
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55859,26 +55859,33 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G31)</f>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4">
+        <v>29.5</v>
+      </c>
       <c r="B4" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="92">
         <v>-152</v>
+      </c>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92">
+        <v>-166.9</v>
       </c>
       <c r="H4" s="77">
         <f>H3+F4+G4</f>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -55893,10 +55900,13 @@
       </c>
       <c r="H5" s="77">
         <f t="shared" ref="H5:H29" si="0">H4+F5+G5</f>
-        <v>0</v>
+        <v>-166.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6">
+        <v>29.5</v>
+      </c>
       <c r="B6" s="80" t="s">
         <v>124</v>
       </c>
@@ -55906,9 +55916,12 @@
       <c r="E6" s="77">
         <v>-150</v>
       </c>
+      <c r="G6" s="77">
+        <v>-47.4</v>
+      </c>
       <c r="H6" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -55936,7 +55949,7 @@
       </c>
       <c r="H8" s="77">
         <f>H6+F8+G8</f>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -55956,7 +55969,7 @@
     <row r="10" spans="1:8">
       <c r="H10" s="77">
         <f>H8+F10+G10</f>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -55969,7 +55982,7 @@
       </c>
       <c r="H11" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -55981,7 +55994,7 @@
       </c>
       <c r="H12" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -55994,7 +56007,7 @@
       </c>
       <c r="H13" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -56007,7 +56020,7 @@
       </c>
       <c r="H14" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -56020,7 +56033,7 @@
       </c>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -56035,7 +56048,7 @@
       </c>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -56050,13 +56063,13 @@
       </c>
       <c r="H17" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="H18" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -56069,7 +56082,7 @@
       </c>
       <c r="H19" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -56082,13 +56095,13 @@
       </c>
       <c r="H20" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -56100,7 +56113,7 @@
       </c>
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -56112,7 +56125,7 @@
       </c>
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -56124,13 +56137,13 @@
       </c>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -56142,7 +56155,7 @@
       </c>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -56155,20 +56168,20 @@
       </c>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="89"/>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="H29" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75">
@@ -57236,7 +57249,7 @@
       </c>
       <c r="E122" s="77">
         <f>H2</f>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -57245,7 +57258,7 @@
       </c>
       <c r="E124" s="77">
         <f>SUM(E114:E123)</f>
-        <v>0</v>
+        <v>-214.3</v>
       </c>
     </row>
   </sheetData>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DFFCBC-40F2-458E-B32E-A4EAE7C90EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059F429D-71EA-4EB5-BC81-A3FA05CD9832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1365" windowWidth="18705" windowHeight="11955" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2070" yWindow="1365" windowWidth="18705" windowHeight="11955" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -4955,7 +4955,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5421,6 +5421,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6237,8 +6238,8 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -6279,7 +6280,7 @@
       </c>
       <c r="F2" s="77">
         <f>SUM(F5:F26)</f>
-        <v>0</v>
+        <v>10427.620000000001</v>
       </c>
       <c r="G2" s="77">
         <f>SUM(G5:G26)</f>
@@ -6287,7 +6288,7 @@
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-64483.92</v>
+        <v>-54056.299999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6596,7 +6597,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="89"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="100" t="s">
         <v>128</v>
       </c>
@@ -6617,12 +6618,14 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="322">
+      <c r="A19" s="327">
         <v>45439</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="22" t="s">
         <v>84</v>
       </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="92">
         <v>-5000</v>
       </c>
@@ -6636,12 +6639,14 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="322">
+      <c r="A20" s="327">
         <v>45439</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="22" t="s">
         <v>85</v>
       </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="92">
         <v>-5000</v>
       </c>
@@ -6655,12 +6660,14 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="322">
+      <c r="A21" s="327">
         <v>45439</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="22" t="s">
         <v>134</v>
       </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="92">
         <v>-5000</v>
       </c>
@@ -6674,15 +6681,22 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="77">
+      <c r="C22" s="22"/>
+      <c r="D22" s="92">
         <v>10000</v>
       </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92">
+        <v>10427.620000000001</v>
+      </c>
+      <c r="G22" s="92"/>
       <c r="H22" s="92">
         <f t="shared" si="0"/>
-        <v>-63808.92</v>
+        <v>-53381.299999999996</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6695,7 +6709,7 @@
       </c>
       <c r="H23" s="92">
         <f t="shared" si="0"/>
-        <v>-63808.92</v>
+        <v>-53381.299999999996</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6711,7 +6725,7 @@
       </c>
       <c r="H24" s="92">
         <f t="shared" si="0"/>
-        <v>-63808.92</v>
+        <v>-53381.299999999996</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6731,7 +6745,7 @@
       </c>
       <c r="H25" s="92">
         <f t="shared" si="0"/>
-        <v>-64048.92</v>
+        <v>-53621.299999999996</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6751,7 +6765,7 @@
       </c>
       <c r="H26" s="92">
         <f t="shared" si="0"/>
-        <v>-64483.92</v>
+        <v>-54056.299999999996</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7717,7 +7731,7 @@
       </c>
       <c r="E122" s="113">
         <f>H2</f>
-        <v>-64483.92</v>
+        <v>-54056.299999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7737,7 +7751,7 @@
   </sheetPr>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
@@ -9439,7 +9453,7 @@
   </sheetPr>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -20504,7 +20518,7 @@
       </c>
       <c r="E7" s="23">
         <f>'05_24'!F2</f>
-        <v>0</v>
+        <v>10427.620000000001</v>
       </c>
       <c r="F7" s="23">
         <f>'05_24'!G2</f>
@@ -20512,7 +20526,7 @@
       </c>
       <c r="G7" s="24">
         <f t="shared" si="1"/>
-        <v>163818.08000000002</v>
+        <v>174245.7</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="32" t="s">
@@ -20555,7 +20569,7 @@
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>163603.78000000003</v>
+        <v>174031.40000000002</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
@@ -20601,7 +20615,7 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>161797.92000000004</v>
+        <v>172225.54000000004</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20650,7 +20664,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>161797.92000000004</v>
+        <v>172225.54000000004</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -20696,7 +20710,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>161797.92000000004</v>
+        <v>172225.54000000004</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -20745,7 +20759,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>161797.92000000004</v>
+        <v>172225.54000000004</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -20794,7 +20808,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>161797.92000000004</v>
+        <v>172225.54000000004</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -20843,7 +20857,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>161797.92000000004</v>
+        <v>172225.54000000004</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -20884,7 +20898,7 @@
       </c>
       <c r="E15" s="24">
         <f>SUM(E3:E14)</f>
-        <v>567550.33000000007</v>
+        <v>577977.95000000007</v>
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
@@ -20892,7 +20906,7 @@
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>161797.92000000016</v>
+        <v>172225.54000000015</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -20928,7 +20942,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="46">
         <f>E15/A16</f>
-        <v>47295.86083333334</v>
+        <v>48164.82916666667</v>
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
@@ -20936,7 +20950,7 @@
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>13483.160000000013</v>
+        <v>14352.128333333347</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
@@ -55814,8 +55828,8 @@
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55883,7 +55897,7 @@
       <c r="G4" s="92">
         <v>-166.9</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="92">
         <f>H3+F4+G4</f>
         <v>-166.9</v>
       </c>
@@ -55895,10 +55909,12 @@
       <c r="C5" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="92">
         <v>-250</v>
       </c>
-      <c r="H5" s="77">
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92">
         <f t="shared" ref="H5:H29" si="0">H4+F5+G5</f>
         <v>-166.9</v>
       </c>
@@ -55913,13 +55929,14 @@
       <c r="C6" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="92">
         <v>-150</v>
       </c>
-      <c r="G6" s="77">
+      <c r="F6" s="92"/>
+      <c r="G6" s="92">
         <v>-47.4</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="92">
         <f t="shared" si="0"/>
         <v>-214.3</v>
       </c>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059F429D-71EA-4EB5-BC81-A3FA05CD9832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8255E9EE-AC71-4D1F-80BF-96A275146982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2070" yWindow="1365" windowWidth="18705" windowHeight="11955" tabRatio="500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1250">
   <si>
     <t>hacı</t>
   </si>
@@ -4021,6 +4021,15 @@
   </si>
   <si>
     <t xml:space="preserve">Kira Adem Özen 1/12 Mrmr Ryl A Blok 82 </t>
+  </si>
+  <si>
+    <t>KK 5165 Denizbank artı hesaptan</t>
+  </si>
+  <si>
+    <t>KK 5165 Denizbank nakit ödeme</t>
+  </si>
+  <si>
+    <t>KK 4876 İşbank EUR BAKU     35,5039</t>
   </si>
 </sst>
 </file>
@@ -5417,11 +5426,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="17" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6234,12 +6243,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF9BC2E6"/>
+    <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -6272,7 +6281,7 @@
       </c>
       <c r="D2" s="77">
         <f>SUM(D5:D26)</f>
-        <v>33500</v>
+        <v>25000</v>
       </c>
       <c r="E2" s="77">
         <f>SUM(E5:E26)</f>
@@ -6280,7 +6289,7 @@
       </c>
       <c r="F2" s="77">
         <f>SUM(F5:F26)</f>
-        <v>10427.620000000001</v>
+        <v>25427.620000000003</v>
       </c>
       <c r="G2" s="77">
         <f>SUM(G5:G26)</f>
@@ -6288,7 +6297,7 @@
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-54056.299999999996</v>
+        <v>-39056.299999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6618,7 +6627,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="327">
+      <c r="A19" s="325">
         <v>45439</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -6639,7 +6648,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="327">
+      <c r="A20" s="325">
         <v>45439</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -6660,7 +6669,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="327">
+      <c r="A21" s="325">
         <v>45439</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -6700,32 +6709,29 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="89"/>
-      <c r="B23" t="s">
+      <c r="A23" s="102">
+        <v>45447</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="77">
+      <c r="C23" s="22"/>
+      <c r="D23" s="92">
         <v>15000</v>
       </c>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92">
+        <v>15000</v>
+      </c>
       <c r="H23" s="92">
         <f t="shared" si="0"/>
-        <v>-53381.299999999996</v>
+        <v>-38381.299999999996</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="96">
-        <v>45351</v>
-      </c>
-      <c r="B24" s="103" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="104">
-        <v>8500</v>
-      </c>
       <c r="H24" s="92">
         <f t="shared" si="0"/>
-        <v>-53381.299999999996</v>
+        <v>-38381.299999999996</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6745,7 +6751,7 @@
       </c>
       <c r="H25" s="92">
         <f t="shared" si="0"/>
-        <v>-53621.299999999996</v>
+        <v>-38621.299999999996</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6765,7 +6771,7 @@
       </c>
       <c r="H26" s="92">
         <f t="shared" si="0"/>
-        <v>-54056.299999999996</v>
+        <v>-39056.299999999996</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7731,7 +7737,7 @@
       </c>
       <c r="E122" s="113">
         <f>H2</f>
-        <v>-54056.299999999996</v>
+        <v>-39056.299999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7751,7 +7757,7 @@
   </sheetPr>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
@@ -20266,10 +20272,10 @@
       <c r="K1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="325" t="s">
+      <c r="L1" s="326" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="325"/>
+      <c r="M1" s="326"/>
       <c r="N1" t="s">
         <v>31</v>
       </c>
@@ -20506,7 +20512,7 @@
       </c>
       <c r="B7" s="23">
         <f>'05_24'!D2</f>
-        <v>33500</v>
+        <v>25000</v>
       </c>
       <c r="C7" s="23">
         <f>'05_24'!E2</f>
@@ -20514,11 +20520,11 @@
       </c>
       <c r="D7" s="24">
         <f t="shared" si="0"/>
-        <v>97440.859999999986</v>
+        <v>88940.859999999986</v>
       </c>
       <c r="E7" s="23">
         <f>'05_24'!F2</f>
-        <v>10427.620000000001</v>
+        <v>25427.620000000003</v>
       </c>
       <c r="F7" s="23">
         <f>'05_24'!G2</f>
@@ -20526,7 +20532,7 @@
       </c>
       <c r="G7" s="24">
         <f t="shared" si="1"/>
-        <v>174245.7</v>
+        <v>189245.7</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="32" t="s">
@@ -20549,15 +20555,15 @@
       </c>
       <c r="B8" s="23">
         <f>'06_24'!D2</f>
-        <v>25000</v>
+        <v>33500</v>
       </c>
       <c r="C8" s="23">
         <f>'06_24'!E2</f>
-        <v>-78199.8</v>
+        <v>-78240.073692999998</v>
       </c>
       <c r="D8" s="24">
         <f t="shared" si="0"/>
-        <v>44241.059999999983</v>
+        <v>44200.786306999988</v>
       </c>
       <c r="E8" s="23">
         <f>'06_24'!F2</f>
@@ -20565,11 +20571,11 @@
       </c>
       <c r="F8" s="23">
         <f>'06_24'!G2</f>
-        <v>-214.3</v>
+        <v>-81723.663692999995</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>174031.40000000002</v>
+        <v>107522.03630700002</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
@@ -20585,7 +20591,7 @@
         <v>56.25</v>
       </c>
       <c r="N8">
-        <f>'06_24'!E119/1000</f>
+        <f>'06_24'!E124/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -20603,7 +20609,7 @@
       </c>
       <c r="D9" s="24">
         <f t="shared" si="0"/>
-        <v>26708.909999999982</v>
+        <v>26668.636306999986</v>
       </c>
       <c r="E9" s="23">
         <f>'07_24'!F2</f>
@@ -20615,7 +20621,7 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>172225.54000000004</v>
+        <v>105716.17630700002</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20652,7 +20658,7 @@
       </c>
       <c r="D10" s="24">
         <f t="shared" si="0"/>
-        <v>156728.41999999998</v>
+        <v>156688.14630699999</v>
       </c>
       <c r="E10" s="23">
         <f>'08_24'!F2</f>
@@ -20664,7 +20670,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>172225.54000000004</v>
+        <v>105716.17630700002</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -20698,7 +20704,7 @@
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>287347.73</v>
+        <v>287307.45630700001</v>
       </c>
       <c r="E11" s="23">
         <f>'09_24'!F2</f>
@@ -20710,7 +20716,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>172225.54000000004</v>
+        <v>105716.17630700002</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -20747,7 +20753,7 @@
       </c>
       <c r="D12" s="24">
         <f t="shared" si="0"/>
-        <v>294478.46999999997</v>
+        <v>294438.19630700001</v>
       </c>
       <c r="E12" s="23">
         <f>'10_24'!F2</f>
@@ -20759,7 +20765,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>172225.54000000004</v>
+        <v>105716.17630700002</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -20796,7 +20802,7 @@
       </c>
       <c r="D13" s="24">
         <f t="shared" si="0"/>
-        <v>531609.21</v>
+        <v>531568.936307</v>
       </c>
       <c r="E13" s="23">
         <f>'11_24'!F2</f>
@@ -20808,7 +20814,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>172225.54000000004</v>
+        <v>105716.17630700002</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -20845,7 +20851,7 @@
       </c>
       <c r="D14" s="24">
         <f t="shared" si="0"/>
-        <v>517709.18999999994</v>
+        <v>517668.91630699998</v>
       </c>
       <c r="E14" s="23">
         <f>'12_24'!F2</f>
@@ -20857,7 +20863,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>172225.54000000004</v>
+        <v>105716.17630700002</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -20890,23 +20896,23 @@
       </c>
       <c r="C15" s="24">
         <f>SUM(C3:C14)</f>
-        <v>-791355.41</v>
+        <v>-791395.68369300012</v>
       </c>
       <c r="D15" s="24">
         <f>B15+C15</f>
-        <v>517709.19000000006</v>
+        <v>517668.91630699998</v>
       </c>
       <c r="E15" s="24">
         <f>SUM(E3:E14)</f>
-        <v>577977.95000000007</v>
+        <v>592977.95000000007</v>
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-405752.40999999992</v>
+        <v>-487261.77369299991</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>172225.54000000015</v>
+        <v>105716.17630700016</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -20937,20 +20943,20 @@
       </c>
       <c r="C16" s="46">
         <f>C15/A16</f>
-        <v>-65946.284166666665</v>
+        <v>-65949.640307750014</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46">
         <f>E15/A16</f>
-        <v>48164.82916666667</v>
+        <v>49414.82916666667</v>
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-33812.700833333329</v>
+        <v>-40605.147807749992</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>14352.128333333347</v>
+        <v>8809.6813589166795</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
@@ -20984,11 +20990,11 @@
       <c r="K17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="326" t="e">
+      <c r="L17" s="327" t="e">
         <f>L15+M15</f>
         <v>#REF!</v>
       </c>
-      <c r="M17" s="326"/>
+      <c r="M17" s="327"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="55" t="s">
@@ -55826,10 +55832,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55860,24 +55866,24 @@
         <v>106</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D31)</f>
-        <v>25000</v>
+        <f>SUM(D4:D36)</f>
+        <v>33500</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E31)</f>
-        <v>-78199.8</v>
+        <f>SUM(E4:E36)</f>
+        <v>-78240.073692999998</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F31)</f>
+        <f>SUM(F4:F36)</f>
         <v>0</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G31)</f>
-        <v>-214.3</v>
+        <f>SUM(G4:G36)</f>
+        <v>-81723.663692999995</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-214.3</v>
+        <v>-81723.663692999995</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -55913,10 +55919,13 @@
         <v>-250</v>
       </c>
       <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="G5" s="92">
+        <f>E5</f>
+        <v>-250</v>
+      </c>
       <c r="H5" s="92">
         <f t="shared" ref="H5:H29" si="0">H4+F5+G5</f>
-        <v>-166.9</v>
+        <v>-416.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -55938,757 +55947,820 @@
       </c>
       <c r="H6" s="92">
         <f t="shared" si="0"/>
-        <v>-214.3</v>
+        <v>-464.29999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="88">
+      <c r="A7" s="101">
         <v>45446</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="77">
-        <f>E60</f>
+      <c r="C7" s="22"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92">
+        <f>E65</f>
         <v>-19997.71</v>
       </c>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92">
+        <f>E7</f>
+        <v>-19997.71</v>
+      </c>
+      <c r="H7" s="92">
+        <f t="shared" si="0"/>
+        <v>-20462.009999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="322">
+      <c r="A8" s="101">
+        <v>45446</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92">
+        <v>-7860.53</v>
+      </c>
+      <c r="H8" s="92">
+        <f t="shared" si="0"/>
+        <v>-28322.539999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="101">
         <v>45447</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B9" s="100" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92">
+        <v>-11998.63</v>
+      </c>
+      <c r="H9" s="92">
+        <f t="shared" si="0"/>
+        <v>-40321.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="325">
+        <v>45447</v>
+      </c>
+      <c r="B10" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="77">
-        <f>E45</f>
+      <c r="C10" s="22"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92">
+        <f>E50</f>
         <v>-4300.09</v>
       </c>
-      <c r="H8" s="77">
-        <f>H6+F8+G8</f>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="322">
+      <c r="F10" s="92"/>
+      <c r="G10" s="92">
+        <v>-4300.09</v>
+      </c>
+      <c r="H10" s="92">
+        <f t="shared" si="0"/>
+        <v>-44621.259999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="325">
         <v>45447</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B11" s="100" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C11" s="22">
+        <v>227.87</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92">
+        <f>-1*C11*C12</f>
+        <v>-8090.2736930000001</v>
+      </c>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92">
+        <f>E11</f>
+        <v>-8090.2736930000001</v>
+      </c>
+      <c r="H11" s="92">
+        <f t="shared" si="0"/>
+        <v>-52711.533692999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="325">
+        <v>45447</v>
+      </c>
+      <c r="B12" s="100" t="s">
         <v>1245</v>
       </c>
-      <c r="C9">
-        <v>227.87</v>
-      </c>
-      <c r="E9" s="77">
-        <v>-8050</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="H10" s="77">
-        <f>H8+F10+G10</f>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="80" t="s">
+      <c r="C12" s="22">
+        <v>35.503900000000002</v>
+      </c>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92">
+        <f t="shared" si="0"/>
+        <v>-52711.533692999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="322">
+        <v>45447</v>
+      </c>
+      <c r="B13" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="E11" s="77">
+      <c r="C13" s="80"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92">
         <v>-1500</v>
       </c>
-      <c r="H11" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
+      <c r="F13" s="92"/>
+      <c r="G13" s="92">
+        <v>-1512.13</v>
+      </c>
+      <c r="H13" s="92">
+        <f t="shared" si="0"/>
+        <v>-54223.663692999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="322">
+        <v>45450</v>
+      </c>
+      <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="77">
-        <v>-10000</v>
-      </c>
-      <c r="H12" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="80" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="E13" s="77">
-        <v>-7500</v>
-      </c>
-      <c r="H13" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="80"/>
       <c r="E14" s="77">
         <v>-10000</v>
       </c>
-      <c r="H14" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
+      <c r="G14" s="77">
+        <f>E14</f>
+        <v>-10000</v>
+      </c>
+      <c r="H14" s="92">
+        <f t="shared" si="0"/>
+        <v>-64223.663692999995</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="87" t="s">
+      <c r="A15" s="322">
+        <v>45450</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="E15" s="77">
+        <v>-7500</v>
+      </c>
+      <c r="G15" s="77">
+        <f>E15</f>
+        <v>-7500</v>
+      </c>
+      <c r="H15" s="92">
+        <f t="shared" si="0"/>
+        <v>-71723.663692999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="322">
+        <v>45450</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="E16" s="77">
+        <v>-10000</v>
+      </c>
+      <c r="G16" s="77">
+        <f>E16</f>
+        <v>-10000</v>
+      </c>
+      <c r="H16" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="322"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="H17" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="322"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="H18" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="322"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="H19" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12" customHeight="1">
+      <c r="B20" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="77">
-        <f>E42*-1</f>
+      <c r="E20" s="77">
+        <f>E47*-1</f>
         <v>0</v>
       </c>
-      <c r="H15" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="84" t="s">
+      <c r="H20" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C21" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E21" s="77">
         <v>-300</v>
       </c>
-      <c r="H16" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="84" t="s">
+      <c r="H21" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C22" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E22" s="77">
         <v>-100</v>
       </c>
-      <c r="H17" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="H18" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="80" t="s">
+      <c r="H22" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="H23" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="E19" s="77">
+      <c r="C24" s="80"/>
+      <c r="E24" s="77">
         <v>-400</v>
       </c>
-      <c r="H19" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="80" t="s">
+      <c r="H24" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="E20" s="77">
+      <c r="C25" s="80"/>
+      <c r="E25" s="77">
         <v>-500</v>
       </c>
-      <c r="H20" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="H21" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
+      <c r="H25" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="H26" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E27" s="77">
         <v>-5000</v>
       </c>
-      <c r="H22" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" t="s">
+      <c r="H27" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E28" s="77">
         <v>-5000</v>
       </c>
-      <c r="H23" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" t="s">
+      <c r="H28" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E29" s="77">
         <v>-5000</v>
       </c>
-      <c r="H24" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="H25" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
+      <c r="H29" s="92">
+        <f t="shared" si="0"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="H30" s="77">
+        <f t="shared" ref="H25:H34" si="1">H29+F30+G30</f>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D31" s="77">
         <v>10000</v>
       </c>
-      <c r="H26" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="89"/>
-      <c r="B27" t="s">
+      <c r="H31" s="77">
+        <f t="shared" si="1"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="89"/>
+      <c r="B32" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D32" s="77">
         <v>15000</v>
       </c>
-      <c r="H27" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="89"/>
-      <c r="H28" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="H29" s="77">
-        <f t="shared" si="0"/>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="B31" s="91"/>
+      <c r="H32" s="77">
+        <f t="shared" si="1"/>
+        <v>-81723.663692999995</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" t="s">
-        <v>139</v>
+      <c r="A33" s="96">
+        <v>45351</v>
+      </c>
+      <c r="B33" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104">
+        <v>8500</v>
+      </c>
+      <c r="H33" s="77">
+        <f t="shared" si="1"/>
+        <v>-81723.663692999995</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-    </row>
-    <row r="35" spans="1:8" s="22" customFormat="1">
-      <c r="A35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="93">
-        <v>44929</v>
-      </c>
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="77">
-        <f>SUM(D37:D42)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="77">
-        <f>SUM(E37:E42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="89"/>
-      <c r="B37" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="22"/>
+      <c r="H34" s="77">
+        <f t="shared" si="1"/>
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75">
+      <c r="B36" s="91"/>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1">
+      <c r="A40" s="89"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="93">
+        <v>44929</v>
+      </c>
+      <c r="B41" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="70"/>
+      <c r="D41" s="77">
+        <f>SUM(D42:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="77">
+        <f>SUM(E42:E47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="89"/>
+      <c r="B42" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="22"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="B40" t="s">
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="B42" t="s">
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="84"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="C43" s="84"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="95"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="70"/>
-      <c r="B45" s="69" t="s">
+      <c r="C47" s="84"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="C48" s="84"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" s="95"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="70"/>
+      <c r="B50" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="E45" s="77">
-        <f>SUM(E46:E57)</f>
+      <c r="C50" s="70"/>
+      <c r="E50" s="77">
+        <f>SUM(E51:E62)</f>
         <v>-4300.09</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="89"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="89">
+    <row r="52" spans="1:6">
+      <c r="A52" s="89"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="89">
         <v>45187</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B53" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="84">
+      <c r="C53" s="84">
         <v>7648.33</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D53" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="77">
+      <c r="E53" s="77">
         <v>-849.85</v>
       </c>
-      <c r="F48" s="77">
+      <c r="F53" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="96">
+    <row r="54" spans="1:6">
+      <c r="A54" s="96">
         <v>45348</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B54" t="s">
         <v>175</v>
       </c>
-      <c r="C49">
+      <c r="C54">
         <v>1406</v>
       </c>
-      <c r="D49" s="77" t="s">
+      <c r="D54" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="77">
+      <c r="E54" s="77">
         <v>-234.33</v>
       </c>
-      <c r="F49" s="77">
+      <c r="F54" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="96">
+    <row r="55" spans="1:6">
+      <c r="A55" s="96">
         <v>45373</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B55" t="s">
         <v>149</v>
       </c>
-      <c r="C50">
+      <c r="C55">
         <v>10176.39</v>
       </c>
-      <c r="D50" s="77" t="s">
+      <c r="D55" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="77">
+      <c r="E55" s="77">
         <v>-1130.71</v>
-      </c>
-      <c r="F50" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="96">
-        <v>45375</v>
-      </c>
-      <c r="B51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51">
-        <v>5999</v>
-      </c>
-      <c r="D51" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" s="77">
-        <v>-666.56</v>
-      </c>
-      <c r="F51" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="96">
-        <v>45358</v>
-      </c>
-      <c r="B52" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52">
-        <v>2273</v>
-      </c>
-      <c r="D52" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="77">
-        <v>-378.87</v>
-      </c>
-      <c r="F52" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="96">
-        <v>45371</v>
-      </c>
-      <c r="B53" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="E53" s="77">
-        <v>101.77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="96"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="89">
-        <v>45418</v>
-      </c>
-      <c r="B55" s="97" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C55" s="84"/>
-      <c r="E55" s="77">
-        <v>-251.54</v>
       </c>
       <c r="F55" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="89">
-        <v>45418</v>
-      </c>
-      <c r="B56" s="97" t="s">
-        <v>1243</v>
+      <c r="A56" s="96">
+        <v>45375</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56">
+        <v>5999</v>
+      </c>
+      <c r="D56" s="77" t="s">
+        <v>205</v>
       </c>
       <c r="E56" s="77">
-        <v>-890</v>
+        <v>-666.56</v>
       </c>
       <c r="F56" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15">
-      <c r="A57" s="89">
+    <row r="57" spans="1:6">
+      <c r="A57" s="96">
+        <v>45358</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57">
+        <v>2273</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="77">
+        <v>-378.87</v>
+      </c>
+      <c r="F57" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="96">
+        <v>45371</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58" s="77">
+        <v>101.77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="96"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="89">
         <v>45418</v>
       </c>
-      <c r="B57" s="97" t="s">
+      <c r="B60" s="97" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C60" s="84"/>
+      <c r="E60" s="77">
+        <v>-251.54</v>
+      </c>
+      <c r="F60" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="89">
+        <v>45418</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E61" s="77">
+        <v>-890</v>
+      </c>
+      <c r="F61" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15">
+      <c r="A62" s="89">
+        <v>45418</v>
+      </c>
+      <c r="B62" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="84">
+      <c r="C62" s="84">
         <v>4278.51</v>
       </c>
-      <c r="D57" s="120"/>
-      <c r="E57" s="105" t="s">
+      <c r="D62" s="120"/>
+      <c r="E62" s="105" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="89"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="89"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="70"/>
-      <c r="B60" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="77">
-        <v>19997.71</v>
-      </c>
-      <c r="E60" s="77">
-        <f>SUM(E61:E109)</f>
-        <v>-19997.71</v>
-      </c>
-      <c r="F60" s="77">
-        <f>D60+E60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="89"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="88">
-        <v>45285</v>
-      </c>
-      <c r="B62" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="84"/>
-      <c r="D62" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="E62" s="77">
-        <v>-3551.66</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="89"/>
-      <c r="B63" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63" s="77">
-        <v>-649.78</v>
-      </c>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="89"/>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="70"/>
+      <c r="B65" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="70"/>
+      <c r="D65" s="77">
+        <v>19997.71</v>
+      </c>
+      <c r="E65" s="77">
+        <f>SUM(E66:E114)</f>
+        <v>-19997.71</v>
+      </c>
+      <c r="F65" s="77">
+        <f>D65+E65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="89"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="88">
+        <v>45285</v>
+      </c>
+      <c r="B67" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="84"/>
+      <c r="D67" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="77">
+        <v>-3551.66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="89"/>
+      <c r="B68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="84"/>
+      <c r="D68" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="77">
+        <v>-649.78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="89"/>
+      <c r="B69" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="84">
+      <c r="C69" s="84">
         <v>49.98</v>
       </c>
-      <c r="D64" s="77" t="s">
+      <c r="D69" s="77" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="89"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="84"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="89">
+    <row r="70" spans="1:6">
+      <c r="A70" s="89"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="84"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="89">
         <v>45408</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="C66" s="84"/>
-      <c r="E66" s="77">
+      <c r="C71" s="84"/>
+      <c r="E71" s="77">
         <v>-1407.23</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="89">
-        <v>45420</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C67" s="84">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="89">
-        <v>45426</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C68" s="84"/>
-      <c r="E68" s="77">
-        <v>-1469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="89">
-        <v>45426</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C69" s="84"/>
-      <c r="E69" s="77">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="89">
-        <v>45427</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C70" s="84"/>
-      <c r="E70" s="77">
-        <v>905.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="89"/>
-      <c r="C71" s="84"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="89">
-        <v>45407</v>
+        <v>45420</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C72" s="84"/>
-      <c r="E72" s="77">
-        <v>-800</v>
-      </c>
-      <c r="F72" s="77">
-        <v>0</v>
+        <v>402</v>
+      </c>
+      <c r="C72" s="84">
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="89">
-        <v>45408</v>
+        <v>45426</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C73" s="84"/>
       <c r="E73" s="77">
-        <v>-550</v>
-      </c>
-      <c r="F73" s="77">
-        <v>0</v>
+        <v>-1469</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="89">
-        <v>45411</v>
+        <v>45426</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="C74" s="84"/>
       <c r="E74" s="77">
-        <v>-70</v>
-      </c>
-      <c r="F74" s="77">
-        <v>0</v>
+        <v>-1453</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="89">
-        <v>45412</v>
+        <v>45427</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C75" s="84" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D75" s="77">
-        <f>E75</f>
-        <v>-250</v>
-      </c>
+        <v>1219</v>
+      </c>
+      <c r="C75" s="84"/>
       <c r="E75" s="77">
-        <v>-250</v>
-      </c>
-      <c r="F75" s="77">
-        <v>0</v>
+        <v>905.5</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="89">
-        <v>45412</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>1224</v>
-      </c>
+      <c r="A76" s="89"/>
       <c r="C76" s="84"/>
-      <c r="E76" s="77">
-        <v>-1508</v>
-      </c>
-      <c r="F76" s="77">
-        <v>0</v>
-      </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="89">
-        <v>45412</v>
+        <v>45407</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C77" s="84"/>
       <c r="E77" s="77">
-        <v>-70</v>
+        <v>-800</v>
       </c>
       <c r="F77" s="77">
         <v>0</v>
@@ -56696,14 +56768,14 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="89">
-        <v>45413</v>
+        <v>45408</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="C78" s="84"/>
       <c r="E78" s="77">
-        <v>-516</v>
+        <v>-550</v>
       </c>
       <c r="F78" s="77">
         <v>0</v>
@@ -56711,14 +56783,14 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="89">
-        <v>45413</v>
+        <v>45411</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="C79" s="84"/>
       <c r="E79" s="77">
-        <v>-150</v>
+        <v>-70</v>
       </c>
       <c r="F79" s="77">
         <v>0</v>
@@ -56726,14 +56798,20 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="89">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C80" s="84"/>
+        <v>232</v>
+      </c>
+      <c r="C80" s="84" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D80" s="77">
+        <f>E80</f>
+        <v>-250</v>
+      </c>
       <c r="E80" s="77">
-        <v>-150</v>
+        <v>-250</v>
       </c>
       <c r="F80" s="77">
         <v>0</v>
@@ -56741,14 +56819,14 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="89">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>277</v>
+        <v>1224</v>
       </c>
       <c r="C81" s="84"/>
       <c r="E81" s="77">
-        <v>-530</v>
+        <v>-1508</v>
       </c>
       <c r="F81" s="77">
         <v>0</v>
@@ -56756,25 +56834,29 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="89">
-        <v>45418</v>
+        <v>45412</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="84">
-        <v>23491.02</v>
+        <v>1225</v>
+      </c>
+      <c r="C82" s="84"/>
+      <c r="E82" s="77">
+        <v>-70</v>
+      </c>
+      <c r="F82" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="89">
-        <v>45420</v>
+        <v>45413</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>279</v>
+        <v>1226</v>
       </c>
       <c r="C83" s="84"/>
       <c r="E83" s="77">
-        <v>-518.4</v>
+        <v>-516</v>
       </c>
       <c r="F83" s="77">
         <v>0</v>
@@ -56782,14 +56864,14 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="89">
-        <v>45422</v>
+        <v>45413</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C84" s="84"/>
       <c r="E84" s="77">
-        <v>-80</v>
+        <v>-150</v>
       </c>
       <c r="F84" s="77">
         <v>0</v>
@@ -56797,14 +56879,14 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="89">
-        <v>45424</v>
+        <v>45413</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>279</v>
+        <v>1227</v>
       </c>
       <c r="C85" s="84"/>
       <c r="E85" s="77">
-        <v>-173.82</v>
+        <v>-150</v>
       </c>
       <c r="F85" s="77">
         <v>0</v>
@@ -56812,20 +56894,14 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="89">
-        <v>45425</v>
+        <v>45413</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="84" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D86" s="77">
-        <f>E86</f>
-        <v>-200</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C86" s="84"/>
       <c r="E86" s="77">
-        <v>-200</v>
+        <v>-530</v>
       </c>
       <c r="F86" s="77">
         <v>0</v>
@@ -56833,35 +56909,25 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="89">
-        <v>45426</v>
+        <v>45418</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="84" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D87" s="77">
-        <f>E87</f>
-        <v>-300</v>
-      </c>
-      <c r="E87" s="77">
-        <v>-300</v>
-      </c>
-      <c r="F87" s="77">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C87" s="84">
+        <v>23491.02</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="89">
-        <v>45426</v>
+        <v>45420</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1230</v>
+        <v>279</v>
       </c>
       <c r="C88" s="84"/>
       <c r="E88" s="77">
-        <v>-600</v>
+        <v>-518.4</v>
       </c>
       <c r="F88" s="77">
         <v>0</v>
@@ -56869,83 +56935,100 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="89">
-        <v>45427</v>
+        <v>45422</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C89" s="84">
-        <v>95.08</v>
+        <v>1229</v>
+      </c>
+      <c r="C89" s="84"/>
+      <c r="E89" s="77">
+        <v>-80</v>
       </c>
       <c r="F89" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="322">
-        <v>45427</v>
+      <c r="A90" s="89">
+        <v>45424</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1232</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C90" s="84"/>
       <c r="E90" s="77">
-        <v>-1123.1500000000001</v>
+        <v>-173.82</v>
       </c>
       <c r="F90" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="322">
-        <v>45427</v>
+      <c r="A91" s="89">
+        <v>45425</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C91">
-        <v>1.26</v>
+        <v>232</v>
+      </c>
+      <c r="C91" s="84" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D91" s="77">
+        <f>E91</f>
+        <v>-200</v>
+      </c>
+      <c r="E91" s="77">
+        <v>-200</v>
       </c>
       <c r="F91" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="322">
-        <v>45427</v>
+      <c r="A92" s="89">
+        <v>45426</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1235</v>
+        <v>232</v>
+      </c>
+      <c r="C92" s="84" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D92" s="77">
+        <f>E92</f>
+        <v>-300</v>
       </c>
       <c r="E92" s="77">
-        <v>-16</v>
+        <v>-300</v>
       </c>
       <c r="F92" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="322">
-        <v>45427</v>
+      <c r="A93" s="89">
+        <v>45426</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1234</v>
-      </c>
+        <v>1230</v>
+      </c>
+      <c r="C93" s="84"/>
       <c r="E93" s="77">
-        <v>-375</v>
+        <v>-600</v>
       </c>
       <c r="F93" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="322">
+      <c r="A94" s="89">
         <v>45427</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E94" s="77">
-        <v>-11.5</v>
+        <v>1231</v>
+      </c>
+      <c r="C94" s="84">
+        <v>95.08</v>
       </c>
       <c r="F94" s="77">
         <v>0</v>
@@ -56953,13 +57036,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="322">
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="E95" s="77">
-        <v>-500</v>
+        <v>-1123.1500000000001</v>
       </c>
       <c r="F95" s="77">
         <v>0</v>
@@ -56967,13 +57050,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="322">
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E96" s="77">
-        <v>-594.67999999999995</v>
+        <v>1233</v>
+      </c>
+      <c r="C96">
+        <v>1.26</v>
       </c>
       <c r="F96" s="77">
         <v>0</v>
@@ -56981,13 +57064,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="322">
-        <v>45430</v>
+        <v>45427</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E97" s="77">
-        <v>-169.99</v>
+        <v>-16</v>
       </c>
       <c r="F97" s="77">
         <v>0</v>
@@ -56995,13 +57078,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="322">
-        <v>45430</v>
+        <v>45427</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E98" s="77">
-        <v>-330</v>
+        <v>-375</v>
       </c>
       <c r="F98" s="77">
         <v>0</v>
@@ -57009,13 +57092,13 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="322">
-        <v>45430</v>
+        <v>45427</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E99" s="77">
-        <v>-139.9</v>
+        <v>-11.5</v>
       </c>
       <c r="F99" s="77">
         <v>0</v>
@@ -57023,7 +57106,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="322">
-        <v>45430</v>
+        <v>45428</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>1236</v>
@@ -57037,13 +57120,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="322">
-        <v>45431</v>
+        <v>45428</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E101" s="77">
-        <v>-266</v>
+        <v>-594.67999999999995</v>
       </c>
       <c r="F101" s="77">
         <v>0</v>
@@ -57051,13 +57134,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="322">
-        <v>45432</v>
+        <v>45430</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E102" s="77">
-        <v>-22.1</v>
+        <v>-169.99</v>
       </c>
       <c r="F102" s="77">
         <v>0</v>
@@ -57065,13 +57148,13 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="322">
-        <v>45432</v>
+        <v>45430</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="E103" s="77">
-        <v>-11.5</v>
+        <v>-330</v>
       </c>
       <c r="F103" s="77">
         <v>0</v>
@@ -57079,13 +57162,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="322">
-        <v>45432</v>
+        <v>45430</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="E104" s="77">
-        <v>-335</v>
+        <v>-139.9</v>
       </c>
       <c r="F104" s="77">
         <v>0</v>
@@ -57093,13 +57176,13 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="322">
-        <v>45432</v>
+        <v>45430</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E105" s="77">
-        <v>-11.5</v>
+        <v>-500</v>
       </c>
       <c r="F105" s="77">
         <v>0</v>
@@ -57107,13 +57190,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="322">
-        <v>45432</v>
+        <v>45431</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E106" s="77">
-        <v>-650</v>
+        <v>-266</v>
       </c>
       <c r="F106" s="77">
         <v>0</v>
@@ -57121,20 +57204,13 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="322">
-        <v>45435</v>
+        <v>45432</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D107" s="77">
-        <f>E107</f>
-        <v>-300</v>
+        <v>1239</v>
       </c>
       <c r="E107" s="77">
-        <v>-300</v>
+        <v>-22.1</v>
       </c>
       <c r="F107" s="77">
         <v>0</v>
@@ -57142,140 +57218,217 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="322">
-        <v>45435</v>
+        <v>45432</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="E108" s="77">
-        <v>-550</v>
+        <v>-11.5</v>
       </c>
       <c r="F108" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15">
-      <c r="A109" s="322"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="323" t="s">
+    <row r="109" spans="1:6">
+      <c r="A109" s="322">
+        <v>45432</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E109" s="77">
+        <v>-335</v>
+      </c>
+      <c r="F109" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="322">
+        <v>45432</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E110" s="77">
+        <v>-11.5</v>
+      </c>
+      <c r="F110" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="322">
+        <v>45432</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E111" s="77">
+        <v>-650</v>
+      </c>
+      <c r="F111" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="322">
+        <v>45435</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D112" s="77">
+        <f>E112</f>
+        <v>-300</v>
+      </c>
+      <c r="E112" s="77">
+        <v>-300</v>
+      </c>
+      <c r="F112" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="322">
+        <v>45435</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E113" s="77">
+        <v>-550</v>
+      </c>
+      <c r="F113" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15">
+      <c r="A114" s="322"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="323" t="s">
         <v>282</v>
       </c>
-      <c r="D109" s="324">
-        <f>SUM(D74:D108)</f>
+      <c r="D114" s="324">
+        <f>SUM(D79:D113)</f>
         <v>-1050</v>
       </c>
-      <c r="E109" s="105" t="s">
+      <c r="E114" s="105" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="322"/>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="322"/>
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="322"/>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="70"/>
-      <c r="B113" s="69" t="s">
+    <row r="115" spans="1:6">
+      <c r="A115" s="322"/>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="322"/>
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="322"/>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="70"/>
+      <c r="B118" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="C113" s="70"/>
-      <c r="E113" s="77">
-        <f>SUM(E114:E121)</f>
+      <c r="C118" s="70"/>
+      <c r="E118" s="77">
+        <f>SUM(E119:E126)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="89"/>
-      <c r="B114" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="89"/>
-      <c r="B115" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="89"/>
-      <c r="B116" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="89"/>
-      <c r="B117" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="89"/>
-      <c r="B118" t="s">
-        <v>157</v>
-      </c>
-      <c r="D118" s="77">
-        <v>111</v>
-      </c>
-      <c r="E118" s="77">
-        <f>D118*C118</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="89"/>
       <c r="B119" t="s">
-        <v>158</v>
-      </c>
-      <c r="D119" s="77">
-        <v>850</v>
-      </c>
-      <c r="E119" s="77">
-        <f>D119*C119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="89"/>
       <c r="B120" t="s">
-        <v>159</v>
-      </c>
-      <c r="D120" s="77">
-        <v>100</v>
-      </c>
-      <c r="E120" s="77">
-        <f>D120*C120</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="89"/>
       <c r="B121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="89"/>
+      <c r="B122" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="89"/>
+      <c r="B123" t="s">
+        <v>157</v>
+      </c>
+      <c r="D123" s="77">
+        <v>111</v>
+      </c>
+      <c r="E123" s="77">
+        <f>D123*C123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="89"/>
+      <c r="B124" t="s">
+        <v>158</v>
+      </c>
+      <c r="D124" s="77">
+        <v>850</v>
+      </c>
+      <c r="E124" s="77">
+        <f>D124*C124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="89"/>
+      <c r="B125" t="s">
+        <v>159</v>
+      </c>
+      <c r="D125" s="77">
+        <v>100</v>
+      </c>
+      <c r="E125" s="77">
+        <f>D125*C125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="89"/>
+      <c r="B126" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="B122" t="s">
+    <row r="127" spans="1:6">
+      <c r="B127" t="s">
         <v>161</v>
       </c>
-      <c r="E122" s="77">
+      <c r="E127" s="77">
         <f>H2</f>
-        <v>-214.3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="D124" s="77" t="s">
+        <v>-81723.663692999995</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="E124" s="77">
-        <f>SUM(E114:E123)</f>
-        <v>-214.3</v>
+      <c r="E129" s="77">
+        <f>SUM(E119:E128)</f>
+        <v>-81723.663692999995</v>
       </c>
     </row>
   </sheetData>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8255E9EE-AC71-4D1F-80BF-96A275146982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5E857F-0193-4163-829A-CA0C03D3C761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1253">
   <si>
     <t>hacı</t>
   </si>
@@ -4030,6 +4030,15 @@
   </si>
   <si>
     <t>KK 4876 İşbank EUR BAKU     35,5039</t>
+  </si>
+  <si>
+    <t>audi kaza için alınan</t>
+  </si>
+  <si>
+    <t>audi kaza için harcanan</t>
+  </si>
+  <si>
+    <t>hacı ödeme</t>
   </si>
 </sst>
 </file>
@@ -5869,10 +5878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G30"/>
+  <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -5885,128 +5894,154 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="27" customHeight="1">
-      <c r="C4" s="5">
+    <row r="1" spans="2:7">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:7" ht="27" customHeight="1">
+      <c r="C2" s="5">
         <v>2024</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1">
+        <v>45306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3450</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6:G30" si="0">G5+E6-F6</f>
+        <v>-2378</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1">
-        <v>45291</v>
+        <v>45309</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1072</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>899</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>-1479</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1">
-        <v>45306</v>
+        <v>45309</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3450</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1093.6500000000001</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8:G30" si="0">G7+E8-F8</f>
-        <v>-2378</v>
+        <f t="shared" si="0"/>
+        <v>-385.34999999999991</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
-        <v>899</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>-1479</v>
+        <v>614.65000000000009</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1">
-        <v>45309</v>
+        <v>45319</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1093.6500000000001</v>
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>713.25</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>-385.34999999999991</v>
+        <v>614.65000000000009</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="1">
-        <v>45310</v>
-      </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>614.65000000000009</v>
+        <v>1814.65</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1">
-        <v>45319</v>
+        <v>45366</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>713.25</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4100</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>614.65000000000009</v>
+        <v>5914.65</v>
       </c>
     </row>
     <row r="13" spans="2:7">
+      <c r="B13" s="1">
+        <v>45366</v>
+      </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1200</v>
+        <v>13</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6300</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>1814.65</v>
+        <v>-385.35000000000036</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -6014,14 +6049,14 @@
         <v>45366</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
-        <v>4100</v>
+        <v>3450</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>5914.65</v>
+        <v>3064.6499999999996</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -6029,124 +6064,137 @@
         <v>45366</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2">
-        <v>6300</v>
+        <v>3461</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>-385.35000000000036</v>
+        <v>-396.35000000000036</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="1">
-        <v>45366</v>
+        <v>45371</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3450</v>
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>3350</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>3064.6499999999996</v>
+        <v>-396.35000000000036</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1">
-        <v>45366</v>
+        <v>45412</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2">
-        <v>3461</v>
+        <v>500</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>-396.35000000000036</v>
+        <v>-896.35000000000036</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1">
-        <v>45371</v>
+        <v>45398</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <v>3350</v>
+        <v>14</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3467</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3461</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>-396.35000000000036</v>
+        <v>-890.35000000000036</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2">
-        <v>500</v>
+        <v>7680</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>-896.35000000000036</v>
+        <v>-8570.35</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="1">
-        <v>45398</v>
+        <v>45427</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3467</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3461</v>
+        <v>1244</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>-890.35000000000036</v>
+        <v>-8570.35</v>
       </c>
     </row>
     <row r="21" spans="2:7">
+      <c r="B21" s="1">
+        <v>45442</v>
+      </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2">
-        <v>7680</v>
+        <v>500</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>-8570.35</v>
+        <v>-9070.35</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="1">
-        <v>45427</v>
+        <v>45442</v>
       </c>
       <c r="C22" t="s">
-        <v>1244</v>
+        <v>1250</v>
+      </c>
+      <c r="F22" s="2">
+        <v>120000</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>-129070.35</v>
       </c>
     </row>
     <row r="23" spans="2:7">
+      <c r="B23" s="1">
+        <v>45442</v>
+      </c>
       <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="2">
-        <v>500</v>
+        <v>1251</v>
+      </c>
+      <c r="E23" s="2">
+        <v>21000</v>
       </c>
       <c r="G23" s="2">
-        <f>G21+E23-F23</f>
-        <v>-9070.35</v>
+        <f t="shared" si="0"/>
+        <v>-108070.35</v>
       </c>
     </row>
     <row r="24" spans="2:7">
+      <c r="B24" s="1">
+        <v>45473</v>
+      </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
@@ -6155,10 +6203,13 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>-9570.35</v>
+        <v>-108570.35</v>
       </c>
     </row>
     <row r="25" spans="2:7">
+      <c r="B25" s="1">
+        <v>45503</v>
+      </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -6167,10 +6218,13 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>-10070.35</v>
+        <v>-109070.35</v>
       </c>
     </row>
     <row r="26" spans="2:7">
+      <c r="B26" s="1">
+        <v>45534</v>
+      </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
@@ -6179,10 +6233,13 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>-10570.35</v>
+        <v>-109570.35</v>
       </c>
     </row>
     <row r="27" spans="2:7">
+      <c r="B27" s="1">
+        <v>45565</v>
+      </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -6191,10 +6248,13 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>-11070.35</v>
+        <v>-110070.35</v>
       </c>
     </row>
     <row r="28" spans="2:7">
+      <c r="B28" s="1">
+        <v>45595</v>
+      </c>
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -6203,10 +6263,13 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>-11570.35</v>
+        <v>-110570.35</v>
       </c>
     </row>
     <row r="29" spans="2:7">
+      <c r="B29" s="1">
+        <v>45626</v>
+      </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
@@ -6215,10 +6278,13 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>-12070.35</v>
+        <v>-111070.35</v>
       </c>
     </row>
     <row r="30" spans="2:7">
+      <c r="B30" s="1">
+        <v>45656</v>
+      </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
@@ -6227,7 +6293,7 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>-12570.35</v>
+        <v>-111570.35</v>
       </c>
     </row>
   </sheetData>
@@ -20559,11 +20625,11 @@
       </c>
       <c r="C8" s="23">
         <f>'06_24'!E2</f>
-        <v>-78240.073692999998</v>
+        <v>-78277.563693000004</v>
       </c>
       <c r="D8" s="24">
         <f t="shared" si="0"/>
-        <v>44200.786306999988</v>
+        <v>44163.296306999982</v>
       </c>
       <c r="E8" s="23">
         <f>'06_24'!F2</f>
@@ -20609,7 +20675,7 @@
       </c>
       <c r="D9" s="24">
         <f t="shared" si="0"/>
-        <v>26668.636306999986</v>
+        <v>26631.146306999981</v>
       </c>
       <c r="E9" s="23">
         <f>'07_24'!F2</f>
@@ -20658,7 +20724,7 @@
       </c>
       <c r="D10" s="24">
         <f t="shared" si="0"/>
-        <v>156688.14630699999</v>
+        <v>156650.656307</v>
       </c>
       <c r="E10" s="23">
         <f>'08_24'!F2</f>
@@ -20704,7 +20770,7 @@
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>287307.45630700001</v>
+        <v>287269.96630700002</v>
       </c>
       <c r="E11" s="23">
         <f>'09_24'!F2</f>
@@ -20753,7 +20819,7 @@
       </c>
       <c r="D12" s="24">
         <f t="shared" si="0"/>
-        <v>294438.19630700001</v>
+        <v>294400.70630700001</v>
       </c>
       <c r="E12" s="23">
         <f>'10_24'!F2</f>
@@ -20802,7 +20868,7 @@
       </c>
       <c r="D13" s="24">
         <f t="shared" si="0"/>
-        <v>531568.936307</v>
+        <v>531531.44630700001</v>
       </c>
       <c r="E13" s="23">
         <f>'11_24'!F2</f>
@@ -20851,7 +20917,7 @@
       </c>
       <c r="D14" s="24">
         <f t="shared" si="0"/>
-        <v>517668.91630699998</v>
+        <v>517631.42630699999</v>
       </c>
       <c r="E14" s="23">
         <f>'12_24'!F2</f>
@@ -20896,11 +20962,11 @@
       </c>
       <c r="C15" s="24">
         <f>SUM(C3:C14)</f>
-        <v>-791395.68369300012</v>
+        <v>-791433.17369300011</v>
       </c>
       <c r="D15" s="24">
         <f>B15+C15</f>
-        <v>517668.91630699998</v>
+        <v>517631.42630699999</v>
       </c>
       <c r="E15" s="24">
         <f>SUM(E3:E14)</f>
@@ -20943,7 +21009,7 @@
       </c>
       <c r="C16" s="46">
         <f>C15/A16</f>
-        <v>-65949.640307750014</v>
+        <v>-65952.764474416676</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46">
@@ -55834,8 +55900,8 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55871,7 +55937,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E36)</f>
-        <v>-78240.073692999998</v>
+        <v>-78277.563693000004</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F36)</f>
@@ -56185,12 +56251,15 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="12" customHeight="1">
+      <c r="A20" s="322">
+        <v>45454</v>
+      </c>
       <c r="B20" s="87" t="s">
         <v>128</v>
       </c>
       <c r="E20" s="77">
         <f>E47*-1</f>
-        <v>0</v>
+        <v>-37.49</v>
       </c>
       <c r="H20" s="92">
         <f t="shared" si="0"/>
@@ -56303,7 +56372,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="H30" s="77">
-        <f t="shared" ref="H25:H34" si="1">H29+F30+G30</f>
+        <f t="shared" ref="H30:H34" si="1">H29+F30+G30</f>
         <v>-81723.663692999995</v>
       </c>
     </row>
@@ -56388,11 +56457,11 @@
       <c r="C41" s="70"/>
       <c r="D41" s="77">
         <f>SUM(D42:D47)</f>
-        <v>0</v>
+        <v>5364.16</v>
       </c>
       <c r="E41" s="77">
         <f>SUM(E42:E47)</f>
-        <v>0</v>
+        <v>1297.49</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -56401,32 +56470,56 @@
         <v>142</v>
       </c>
       <c r="C42" s="22"/>
+      <c r="D42" s="77">
+        <v>468.65</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
         <v>143</v>
       </c>
+      <c r="D43" s="77">
+        <v>1257.73</v>
+      </c>
+      <c r="E43" s="77">
+        <v>1260</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
         <v>144</v>
       </c>
+      <c r="D44" s="77">
+        <v>919.84</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
         <v>145</v>
       </c>
+      <c r="D45" s="77">
+        <v>2358.0300000000002</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
         <v>146</v>
       </c>
+      <c r="D46" s="77">
+        <v>322.42</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
         <v>147</v>
       </c>
       <c r="C47" s="84"/>
+      <c r="D47" s="77">
+        <v>37.49</v>
+      </c>
+      <c r="E47" s="77">
+        <v>37.49</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="C48" s="84"/>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5E857F-0193-4163-829A-CA0C03D3C761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3441E7-80BC-40A5-8628-5162B7FC4FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="1254">
   <si>
     <t>hacı</t>
   </si>
@@ -4039,6 +4039,9 @@
   </si>
   <si>
     <t>hacı ödeme</t>
+  </si>
+  <si>
+    <t>iphone 7+ ferro 3600 mA batarya</t>
   </si>
 </sst>
 </file>
@@ -5880,7 +5883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -20297,7 +20300,7 @@
   </sheetPr>
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -20637,11 +20640,11 @@
       </c>
       <c r="F8" s="23">
         <f>'06_24'!G2</f>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>107522.03630700002</v>
+        <v>106517.03630700002</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
@@ -20687,7 +20690,7 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>105716.17630700002</v>
+        <v>104711.17630700002</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20736,7 +20739,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>105716.17630700002</v>
+        <v>104711.17630700002</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -20782,7 +20785,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>105716.17630700002</v>
+        <v>104711.17630700002</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -20831,7 +20834,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>105716.17630700002</v>
+        <v>104711.17630700002</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -20880,7 +20883,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>105716.17630700002</v>
+        <v>104711.17630700002</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -20929,7 +20932,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>105716.17630700002</v>
+        <v>104711.17630700002</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -20974,11 +20977,11 @@
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-487261.77369299991</v>
+        <v>-488266.77369299991</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>105716.17630700016</v>
+        <v>104711.17630700016</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -21018,11 +21021,11 @@
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-40605.147807749992</v>
+        <v>-40688.897807749992</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>8809.6813589166795</v>
+        <v>8725.9313589166795</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
@@ -55900,8 +55903,8 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55945,11 +55948,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G36)</f>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -56171,10 +56174,11 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="92">
         <v>-10000</v>
       </c>
-      <c r="G14" s="77">
+      <c r="F14" s="92"/>
+      <c r="G14" s="92">
         <f>E14</f>
         <v>-10000</v>
       </c>
@@ -56191,10 +56195,11 @@
         <v>1246</v>
       </c>
       <c r="C15" s="80"/>
-      <c r="E15" s="77">
+      <c r="E15" s="92">
         <v>-7500</v>
       </c>
-      <c r="G15" s="77">
+      <c r="F15" s="92"/>
+      <c r="G15" s="92">
         <f>E15</f>
         <v>-7500</v>
       </c>
@@ -56211,10 +56216,11 @@
         <v>132</v>
       </c>
       <c r="C16" s="80"/>
-      <c r="E16" s="77">
+      <c r="E16" s="92">
         <v>-10000</v>
       </c>
-      <c r="G16" s="77">
+      <c r="F16" s="92"/>
+      <c r="G16" s="92">
         <f>E16</f>
         <v>-10000</v>
       </c>
@@ -56225,11 +56231,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="322"/>
-      <c r="B17" s="80"/>
+      <c r="B17" s="80" t="s">
+        <v>1253</v>
+      </c>
       <c r="C17" s="80"/>
+      <c r="G17" s="92">
+        <v>-700</v>
+      </c>
       <c r="H17" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82423.663692999995</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -56238,7 +56249,7 @@
       <c r="C18" s="80"/>
       <c r="H18" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82423.663692999995</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -56247,7 +56258,7 @@
       <c r="C19" s="80"/>
       <c r="H19" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82423.663692999995</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12" customHeight="1">
@@ -56263,10 +56274,13 @@
       </c>
       <c r="H20" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82423.663692999995</v>
       </c>
     </row>
     <row r="21" spans="1:8">
+      <c r="A21" s="322">
+        <v>45463</v>
+      </c>
       <c r="B21" s="84" t="s">
         <v>126</v>
       </c>
@@ -56276,12 +56290,18 @@
       <c r="E21" s="77">
         <v>-300</v>
       </c>
+      <c r="G21" s="77">
+        <v>-305</v>
+      </c>
       <c r="H21" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="22" spans="1:8">
+      <c r="A22" s="322">
+        <v>45463</v>
+      </c>
       <c r="B22" s="84" t="s">
         <v>127</v>
       </c>
@@ -56291,15 +56311,18 @@
       <c r="E22" s="77">
         <v>-100</v>
       </c>
+      <c r="G22" s="77">
+        <v>0</v>
+      </c>
       <c r="H22" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="H23" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -56312,7 +56335,7 @@
       </c>
       <c r="H24" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -56325,13 +56348,13 @@
       </c>
       <c r="H25" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="H26" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -56343,7 +56366,7 @@
       </c>
       <c r="H27" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -56355,7 +56378,7 @@
       </c>
       <c r="H28" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -56367,13 +56390,13 @@
       </c>
       <c r="H29" s="92">
         <f t="shared" si="0"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="H30" s="77">
         <f t="shared" ref="H30:H34" si="1">H29+F30+G30</f>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -56385,7 +56408,7 @@
       </c>
       <c r="H31" s="77">
         <f t="shared" si="1"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -56398,7 +56421,7 @@
       </c>
       <c r="H32" s="77">
         <f t="shared" si="1"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -56414,13 +56437,13 @@
       </c>
       <c r="H33" s="77">
         <f t="shared" si="1"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="H34" s="77">
         <f t="shared" si="1"/>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
@@ -57512,7 +57535,7 @@
       </c>
       <c r="E127" s="77">
         <f>H2</f>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
     <row r="129" spans="4:5">
@@ -57521,7 +57544,7 @@
       </c>
       <c r="E129" s="77">
         <f>SUM(E119:E128)</f>
-        <v>-81723.663692999995</v>
+        <v>-82728.663692999995</v>
       </c>
     </row>
   </sheetData>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2116B49B-DB44-499B-A50D-3D012A2A117B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874974C-C5AE-49F8-9077-825BC5B59BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20652,11 +20652,11 @@
       </c>
       <c r="F8" s="23">
         <f>'06_24'!G2</f>
-        <v>-82728.663692999995</v>
+        <v>-82766.153693</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>109517.03630700002</v>
+        <v>109479.54630700001</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
@@ -20702,7 +20702,7 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>107711.17630700002</v>
+        <v>107673.68630700001</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20751,7 +20751,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>107711.17630700002</v>
+        <v>107673.68630700001</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -20797,7 +20797,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>107711.17630700002</v>
+        <v>107673.68630700001</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -20846,7 +20846,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>107711.17630700002</v>
+        <v>107673.68630700001</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -20895,7 +20895,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>107711.17630700002</v>
+        <v>107673.68630700001</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -20944,7 +20944,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>107711.17630700002</v>
+        <v>107673.68630700001</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -20989,11 +20989,11 @@
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-488266.77369299991</v>
+        <v>-488304.26369299996</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>107711.17630700016</v>
+        <v>107673.68630700011</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -21033,11 +21033,11 @@
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-40688.897807749992</v>
+        <v>-40692.021974416661</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>8975.9313589166795</v>
+        <v>8972.8071922500094</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
@@ -55915,8 +55915,8 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55960,11 +55960,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G36)</f>
-        <v>-82728.663692999995</v>
+        <v>-82766.153693</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -56265,35 +56265,44 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="322">
+      <c r="A19" s="325">
         <v>45454</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>1257</v>
       </c>
       <c r="C19" s="80"/>
-      <c r="F19" s="77">
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92">
         <v>3000</v>
       </c>
+      <c r="G19" s="92"/>
       <c r="H19" s="92">
         <f t="shared" si="0"/>
         <v>-79423.663692999995</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12" customHeight="1">
-      <c r="A20" s="322">
+      <c r="A20" s="325">
         <v>45454</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="77">
+      <c r="C20" s="22"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92">
         <f>E47*-1</f>
         <v>-37.49</v>
       </c>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92">
+        <v>-37.49</v>
+      </c>
       <c r="H20" s="92">
         <f t="shared" si="0"/>
-        <v>-79423.663692999995</v>
+        <v>-79461.153693</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -56314,7 +56323,7 @@
       </c>
       <c r="H21" s="92">
         <f t="shared" si="0"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -56335,13 +56344,13 @@
       </c>
       <c r="H22" s="92">
         <f t="shared" si="0"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="H23" s="92">
         <f t="shared" si="0"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -56354,7 +56363,7 @@
       </c>
       <c r="H24" s="92">
         <f t="shared" si="0"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -56367,13 +56376,13 @@
       </c>
       <c r="H25" s="92">
         <f t="shared" si="0"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="H26" s="92">
         <f t="shared" si="0"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -56385,7 +56394,7 @@
       </c>
       <c r="H27" s="92">
         <f t="shared" si="0"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -56397,7 +56406,7 @@
       </c>
       <c r="H28" s="92">
         <f t="shared" si="0"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -56409,13 +56418,13 @@
       </c>
       <c r="H29" s="92">
         <f t="shared" si="0"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="H30" s="77">
         <f t="shared" ref="H30:H34" si="1">H29+F30+G30</f>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -56427,7 +56436,7 @@
       </c>
       <c r="H31" s="77">
         <f t="shared" si="1"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -56440,7 +56449,7 @@
       </c>
       <c r="H32" s="77">
         <f t="shared" si="1"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -56456,13 +56465,13 @@
       </c>
       <c r="H33" s="77">
         <f t="shared" si="1"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="H34" s="77">
         <f t="shared" si="1"/>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
@@ -56573,6 +56582,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
+      <c r="B48">
+        <v>-4625</v>
+      </c>
       <c r="C48" s="84"/>
     </row>
     <row r="49" spans="1:6">
@@ -57563,7 +57575,7 @@
       </c>
       <c r="E127" s="77">
         <f>H2</f>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
     <row r="129" spans="4:5">
@@ -57572,7 +57584,7 @@
       </c>
       <c r="E129" s="77">
         <f>SUM(E119:E128)</f>
-        <v>-79728.663692999995</v>
+        <v>-79766.153693</v>
       </c>
     </row>
   </sheetData>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874974C-C5AE-49F8-9077-825BC5B59BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE075EE4-0FB9-4A6D-AB4C-9D15933E9AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <sheet name="22_1" sheetId="43" r:id="rId43"/>
     <sheet name="PROCESS" sheetId="44" r:id="rId44"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="1266">
   <si>
     <t>hacı</t>
   </si>
@@ -4054,6 +4054,30 @@
   </si>
   <si>
     <t>maaş kurban ikramiyesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 / 2</t>
+  </si>
+  <si>
+    <t>Kızılay kurban 11750/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 / 3</t>
+  </si>
+  <si>
+    <t>Kızılay kurban 11750/2</t>
+  </si>
+  <si>
+    <t>Kızılay kurban 4300*2 = 8600/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 / 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 / 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 / 3</t>
   </si>
 </sst>
 </file>
@@ -20686,11 +20710,11 @@
       </c>
       <c r="C9" s="23">
         <f>'07_24'!E2</f>
-        <v>-52312.15</v>
+        <v>-46012.15</v>
       </c>
       <c r="D9" s="24">
         <f t="shared" si="0"/>
-        <v>21851.146306999981</v>
+        <v>28151.146306999981</v>
       </c>
       <c r="E9" s="23">
         <f>'07_24'!F2</f>
@@ -20735,11 +20759,11 @@
       </c>
       <c r="C10" s="23">
         <f>'08_24'!E2</f>
-        <v>-43980.49</v>
+        <v>-37680.490000000005</v>
       </c>
       <c r="D10" s="24">
         <f t="shared" si="0"/>
-        <v>151870.656307</v>
+        <v>164470.656307</v>
       </c>
       <c r="E10" s="23">
         <f>'08_24'!F2</f>
@@ -20781,11 +20805,11 @@
       </c>
       <c r="C11" s="23">
         <f>'09_24'!E2</f>
-        <v>-43380.69</v>
+        <v>-47380.69</v>
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>282489.96630700002</v>
+        <v>291089.96630700002</v>
       </c>
       <c r="E11" s="23">
         <f>'09_24'!F2</f>
@@ -20834,7 +20858,7 @@
       </c>
       <c r="D12" s="24">
         <f t="shared" si="0"/>
-        <v>289620.70630700001</v>
+        <v>298220.70630700001</v>
       </c>
       <c r="E12" s="23">
         <f>'10_24'!F2</f>
@@ -20883,7 +20907,7 @@
       </c>
       <c r="D13" s="24">
         <f t="shared" si="0"/>
-        <v>526751.44630700001</v>
+        <v>535351.44630700001</v>
       </c>
       <c r="E13" s="23">
         <f>'11_24'!F2</f>
@@ -20932,7 +20956,7 @@
       </c>
       <c r="D14" s="24">
         <f t="shared" si="0"/>
-        <v>512851.42630699999</v>
+        <v>521451.42630699999</v>
       </c>
       <c r="E14" s="23">
         <f>'12_24'!F2</f>
@@ -20977,11 +21001,11 @@
       </c>
       <c r="C15" s="24">
         <f>SUM(C3:C14)</f>
-        <v>-796213.17369300011</v>
+        <v>-787613.17369300011</v>
       </c>
       <c r="D15" s="24">
         <f>B15+C15</f>
-        <v>512851.42630699999</v>
+        <v>521451.42630699999</v>
       </c>
       <c r="E15" s="24">
         <f>SUM(E3:E14)</f>
@@ -21024,7 +21048,7 @@
       </c>
       <c r="C16" s="46">
         <f>C15/A16</f>
-        <v>-66351.097807750004</v>
+        <v>-65634.431141083347</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46">
@@ -52399,7 +52423,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E54" sqref="A54:E56"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -53238,7 +53262,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E57" sqref="A57:E58"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -53274,7 +53298,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E34)</f>
-        <v>-43380.69</v>
+        <v>-47380.69</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F34)</f>
@@ -53433,7 +53457,7 @@
       </c>
       <c r="E15" s="77">
         <f>E50</f>
-        <v>-2308.69</v>
+        <v>-6308.6900000000005</v>
       </c>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
@@ -53714,7 +53738,7 @@
       <c r="C50" s="70"/>
       <c r="E50" s="77">
         <f>SUM(E51:E62)</f>
-        <v>-2308.69</v>
+        <v>-6308.6900000000005</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -53800,7 +53824,18 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="96"/>
+      <c r="A57" s="96">
+        <v>45456</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E57" s="77">
+        <v>-4000</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="89"/>
@@ -54116,8 +54151,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E57" sqref="A57:E58"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -54153,7 +54188,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E34)</f>
-        <v>-43980.49</v>
+        <v>-37680.490000000005</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F34)</f>
@@ -54312,7 +54347,7 @@
       </c>
       <c r="E15" s="77">
         <f>E50</f>
-        <v>-2308.69</v>
+        <v>-6308.6900000000005</v>
       </c>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
@@ -54328,7 +54363,7 @@
       </c>
       <c r="E16" s="77">
         <f>E65</f>
-        <v>-599.79999999999995</v>
+        <v>9700.2000000000007</v>
       </c>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
@@ -54593,7 +54628,7 @@
       <c r="C50" s="70"/>
       <c r="E50" s="77">
         <f>SUM(E51:E62)</f>
-        <v>-2308.69</v>
+        <v>-6308.6900000000005</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -54679,7 +54714,18 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="96"/>
+      <c r="A57" s="96">
+        <v>45456</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E57" s="77">
+        <v>-4000</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="89"/>
@@ -54722,7 +54768,7 @@
       <c r="C65" s="70"/>
       <c r="E65" s="77">
         <f>SUM(E66:E74)</f>
-        <v>-599.79999999999995</v>
+        <v>9700.2000000000007</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -54762,14 +54808,34 @@
       <c r="C69" s="84"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="89"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="89">
+        <v>45456</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1261</v>
+      </c>
       <c r="C70" s="84"/>
+      <c r="D70" s="77" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E70" s="77">
+        <v>6000</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="89"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="89">
+        <v>45456</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1262</v>
+      </c>
       <c r="C71" s="84"/>
+      <c r="D71" s="77" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E71" s="77">
+        <v>4300</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="89"/>
@@ -55011,8 +55077,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55048,7 +55114,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E34)</f>
-        <v>-52312.15</v>
+        <v>-46012.15</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F34)</f>
@@ -55207,7 +55273,7 @@
       </c>
       <c r="E15" s="77">
         <f>E50</f>
-        <v>-2308.69</v>
+        <v>-6308.6900000000005</v>
       </c>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
@@ -55223,7 +55289,7 @@
       </c>
       <c r="E16" s="77">
         <f>E65</f>
-        <v>-4151.46</v>
+        <v>6148.54</v>
       </c>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
@@ -55487,7 +55553,7 @@
       <c r="C50" s="70"/>
       <c r="E50" s="77">
         <f>SUM(E51:E62)</f>
-        <v>-2308.69</v>
+        <v>-6308.6900000000005</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -55573,7 +55639,18 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="96"/>
+      <c r="A57" s="96">
+        <v>45456</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E57" s="77">
+        <v>-4000</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="89"/>
@@ -55616,7 +55693,7 @@
       <c r="C65" s="70"/>
       <c r="E65" s="77">
         <f>SUM(E66:E74)</f>
-        <v>-4151.46</v>
+        <v>6148.54</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -55671,14 +55748,34 @@
       <c r="C70" s="84"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="89"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="89">
+        <v>45456</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1261</v>
+      </c>
       <c r="C71" s="84"/>
+      <c r="D71" s="77" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E71" s="77">
+        <v>6000</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="89"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="89">
+        <v>45456</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1262</v>
+      </c>
       <c r="C72" s="84"/>
+      <c r="D72" s="77" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E72" s="77">
+        <v>4300</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="89"/>
@@ -55915,7 +56012,7 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE075EE4-0FB9-4A6D-AB4C-9D15933E9AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B7AEC5-01F1-434B-BFA2-27AED1A86D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3210" windowWidth="27240" windowHeight="12270" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -20676,11 +20676,11 @@
       </c>
       <c r="F8" s="23">
         <f>'06_24'!G2</f>
-        <v>-82766.153693</v>
+        <v>-83201.153693</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>109479.54630700001</v>
+        <v>109044.54630700001</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
@@ -20726,7 +20726,7 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>107673.68630700001</v>
+        <v>107238.68630700001</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20775,7 +20775,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>107673.68630700001</v>
+        <v>107238.68630700001</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -20821,7 +20821,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>107673.68630700001</v>
+        <v>107238.68630700001</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -20870,7 +20870,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>107673.68630700001</v>
+        <v>107238.68630700001</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -20919,7 +20919,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>107673.68630700001</v>
+        <v>107238.68630700001</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>107673.68630700001</v>
+        <v>107238.68630700001</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -21013,11 +21013,11 @@
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-488304.26369299996</v>
+        <v>-488739.26369299996</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>107673.68630700011</v>
+        <v>107238.68630700011</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -21057,11 +21057,11 @@
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-40692.021974416661</v>
+        <v>-40728.271974416661</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>8972.8071922500094</v>
+        <v>8936.5571922500094</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
@@ -56012,8 +56012,8 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -56057,11 +56057,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G36)</f>
-        <v>-82766.153693</v>
+        <v>-83201.153693</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -56451,6 +56451,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
+      <c r="A24" s="322">
+        <v>45467</v>
+      </c>
       <c r="B24" s="80" t="s">
         <v>109</v>
       </c>
@@ -56458,12 +56461,18 @@
       <c r="E24" s="77">
         <v>-400</v>
       </c>
+      <c r="G24" s="77">
+        <v>-435</v>
+      </c>
       <c r="H24" s="92">
         <f t="shared" si="0"/>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="25" spans="1:8">
+      <c r="A25" s="322">
+        <v>45467</v>
+      </c>
       <c r="B25" s="80" t="s">
         <v>110</v>
       </c>
@@ -56473,13 +56482,13 @@
       </c>
       <c r="H25" s="92">
         <f t="shared" si="0"/>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="H26" s="92">
         <f t="shared" si="0"/>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -56491,7 +56500,7 @@
       </c>
       <c r="H27" s="92">
         <f t="shared" si="0"/>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -56503,7 +56512,7 @@
       </c>
       <c r="H28" s="92">
         <f t="shared" si="0"/>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -56515,13 +56524,13 @@
       </c>
       <c r="H29" s="92">
         <f t="shared" si="0"/>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="H30" s="77">
         <f t="shared" ref="H30:H34" si="1">H29+F30+G30</f>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -56533,7 +56542,7 @@
       </c>
       <c r="H31" s="77">
         <f t="shared" si="1"/>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -56546,7 +56555,7 @@
       </c>
       <c r="H32" s="77">
         <f t="shared" si="1"/>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -56562,13 +56571,13 @@
       </c>
       <c r="H33" s="77">
         <f t="shared" si="1"/>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="H34" s="77">
         <f t="shared" si="1"/>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
@@ -57672,7 +57681,7 @@
       </c>
       <c r="E127" s="77">
         <f>H2</f>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
     <row r="129" spans="4:5">
@@ -57681,7 +57690,7 @@
       </c>
       <c r="E129" s="77">
         <f>SUM(E119:E128)</f>
-        <v>-79766.153693</v>
+        <v>-80201.153693</v>
       </c>
     </row>
   </sheetData>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625840DB-765E-400F-A0AD-5E40DDCD46F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DB7A35-E6F8-4E2F-A23E-64BD8CFF6200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1830" windowWidth="27240" windowHeight="12270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <sheet name="22_1" sheetId="43" r:id="rId43"/>
     <sheet name="PROCESS" sheetId="44" r:id="rId44"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="1287">
   <si>
     <t>hacı</t>
   </si>
@@ -4053,9 +4053,6 @@
     <t xml:space="preserve"> 1 / 2</t>
   </si>
   <si>
-    <t>Kızılay kurban 11750/3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 / 3</t>
   </si>
   <si>
@@ -4084,6 +4081,66 @@
   </si>
   <si>
     <t>audi teker porya-yazlık lastik değişimi</t>
+  </si>
+  <si>
+    <t>vergi</t>
+  </si>
+  <si>
+    <t>ulusu mak eksoz için</t>
+  </si>
+  <si>
+    <t>sivas döner</t>
+  </si>
+  <si>
+    <t>tavukçu</t>
+  </si>
+  <si>
+    <t>tat lok</t>
+  </si>
+  <si>
+    <t>inş</t>
+  </si>
+  <si>
+    <t>çorba</t>
+  </si>
+  <si>
+    <t>çalışkan fide</t>
+  </si>
+  <si>
+    <t>örükçüoğlu toyota kapak contası</t>
+  </si>
+  <si>
+    <t>yağlı kamil</t>
+  </si>
+  <si>
+    <t>kebap-kamil</t>
+  </si>
+  <si>
+    <t>çörek-kamil</t>
+  </si>
+  <si>
+    <t>çorba-kamil</t>
+  </si>
+  <si>
+    <t>yıllık ücret</t>
+  </si>
+  <si>
+    <t>adıgüzel market</t>
+  </si>
+  <si>
+    <t>gecikme faizi bsmv</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>bosch matkap 500maxipuan</t>
+  </si>
+  <si>
+    <t>avans maximil</t>
+  </si>
+  <si>
+    <t>kurban kızılay</t>
   </si>
 </sst>
 </file>
@@ -5018,7 +5075,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5485,6 +5542,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -5925,7 +5983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -6124,7 +6182,7 @@
         <v>45371</v>
       </c>
       <c r="C16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D16">
         <v>3350</v>
@@ -6184,7 +6242,7 @@
         <v>45427</v>
       </c>
       <c r="C20" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
@@ -6241,7 +6299,7 @@
         <v>45458</v>
       </c>
       <c r="C24" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E24" s="2">
         <v>3450</v>
@@ -6256,7 +6314,7 @@
         <v>45458</v>
       </c>
       <c r="C25" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F25" s="2">
         <v>3467</v>
@@ -20761,11 +20819,11 @@
       </c>
       <c r="C9" s="23">
         <f>'07_24'!E2</f>
-        <v>-46012.15</v>
+        <v>-81416.06</v>
       </c>
       <c r="D9" s="24">
         <f t="shared" si="0"/>
-        <v>29051.146306999981</v>
+        <v>-6352.7636930000153</v>
       </c>
       <c r="E9" s="23">
         <f>'07_24'!F2</f>
@@ -20773,11 +20831,11 @@
       </c>
       <c r="F9" s="23">
         <f>'07_24'!G2</f>
-        <v>-2600.8599999999997</v>
+        <v>-2767.8599999999997</v>
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>101878.68630700001</v>
+        <v>101711.68630700001</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20796,7 +20854,7 @@
       </c>
       <c r="M9" s="34"/>
       <c r="N9">
-        <f>'07_24'!E111/1000</f>
+        <f>'07_24'!E134/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -20810,11 +20868,11 @@
       </c>
       <c r="C10" s="23">
         <f>'08_24'!E2</f>
-        <v>-37680.490000000005</v>
+        <v>-38657.96</v>
       </c>
       <c r="D10" s="24">
         <f t="shared" si="0"/>
-        <v>165370.656307</v>
+        <v>128989.27630699999</v>
       </c>
       <c r="E10" s="23">
         <f>'08_24'!F2</f>
@@ -20826,7 +20884,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>101878.68630700001</v>
+        <v>101711.68630700001</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -20856,11 +20914,11 @@
       </c>
       <c r="C11" s="23">
         <f>'09_24'!E2</f>
-        <v>-47380.69</v>
+        <v>-47304.020000000004</v>
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>291989.96630700002</v>
+        <v>255685.256307</v>
       </c>
       <c r="E11" s="23">
         <f>'09_24'!F2</f>
@@ -20872,7 +20930,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>101878.68630700001</v>
+        <v>101711.68630700001</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -20909,7 +20967,7 @@
       </c>
       <c r="D12" s="24">
         <f t="shared" si="0"/>
-        <v>299120.70630700001</v>
+        <v>262815.99630699999</v>
       </c>
       <c r="E12" s="23">
         <f>'10_24'!F2</f>
@@ -20921,7 +20979,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>101878.68630700001</v>
+        <v>101711.68630700001</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -20958,7 +21016,7 @@
       </c>
       <c r="D13" s="24">
         <f t="shared" si="0"/>
-        <v>536251.44630700001</v>
+        <v>499946.73630699998</v>
       </c>
       <c r="E13" s="23">
         <f>'11_24'!F2</f>
@@ -20970,7 +21028,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>101878.68630700001</v>
+        <v>101711.68630700001</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -21007,7 +21065,7 @@
       </c>
       <c r="D14" s="24">
         <f t="shared" si="0"/>
-        <v>522351.42630699999</v>
+        <v>486046.71630699997</v>
       </c>
       <c r="E14" s="23">
         <f>'12_24'!F2</f>
@@ -21019,7 +21077,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>101878.68630700001</v>
+        <v>101711.68630700001</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -21052,11 +21110,11 @@
       </c>
       <c r="C15" s="24">
         <f>SUM(C3:C14)</f>
-        <v>-786713.17369300011</v>
+        <v>-823017.88369300007</v>
       </c>
       <c r="D15" s="24">
         <f>B15+C15</f>
-        <v>522351.42630699999</v>
+        <v>486046.71630700002</v>
       </c>
       <c r="E15" s="24">
         <f>SUM(E3:E14)</f>
@@ -21064,11 +21122,11 @@
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-494099.26369299996</v>
+        <v>-494266.26369299996</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>101878.68630700011</v>
+        <v>101711.68630700011</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -21099,7 +21157,7 @@
       </c>
       <c r="C16" s="46">
         <f>C15/A16</f>
-        <v>-65559.431141083347</v>
+        <v>-68584.823641083334</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46">
@@ -21108,11 +21166,11 @@
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-41174.938641083332</v>
+        <v>-41188.855307749996</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>8489.8905255833433</v>
+        <v>8475.9738589166755</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
@@ -53313,7 +53371,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -53349,7 +53407,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E34)</f>
-        <v>-47380.69</v>
+        <v>-47304.020000000004</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F34)</f>
@@ -53508,7 +53566,7 @@
       </c>
       <c r="E15" s="77">
         <f>E50</f>
-        <v>-6308.6900000000005</v>
+        <v>-6232.02</v>
       </c>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
@@ -53789,7 +53847,7 @@
       <c r="C50" s="70"/>
       <c r="E50" s="77">
         <f>SUM(E51:E62)</f>
-        <v>-6308.6900000000005</v>
+        <v>-6232.02</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -53875,17 +53933,18 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="96">
+      <c r="A57" s="89">
         <v>45456</v>
       </c>
-      <c r="B57" t="s">
-        <v>1257</v>
-      </c>
+      <c r="B57" s="97" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C57" s="84"/>
       <c r="D57" s="77" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E57" s="77">
-        <v>-4000</v>
+        <v>-3923.33</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -54203,7 +54262,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:E57"/>
+      <selection activeCell="A58" sqref="A58:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -54239,7 +54298,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E34)</f>
-        <v>-37680.490000000005</v>
+        <v>-38657.96</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F34)</f>
@@ -54398,7 +54457,7 @@
       </c>
       <c r="E15" s="77">
         <f>E50</f>
-        <v>-6308.6900000000005</v>
+        <v>-7286.16</v>
       </c>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
@@ -54679,7 +54738,7 @@
       <c r="C50" s="70"/>
       <c r="E50" s="77">
         <f>SUM(E51:E62)</f>
-        <v>-6308.6900000000005</v>
+        <v>-7286.16</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -54765,23 +54824,34 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="96">
+      <c r="A57" s="89">
+        <v>45442</v>
+      </c>
+      <c r="B57" s="328" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C57" s="84"/>
+      <c r="D57" s="77" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E57" s="77">
+        <v>-1054.1400000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="89">
         <v>45456</v>
       </c>
-      <c r="B57" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D57" s="77" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E57" s="77">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="89"/>
-      <c r="B58" s="84"/>
+      <c r="B58" s="97" t="s">
+        <v>1286</v>
+      </c>
       <c r="C58" s="84"/>
+      <c r="D58" s="77" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E58" s="77">
+        <v>-3923.33</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="89"/>
@@ -54863,11 +54933,11 @@
         <v>45456</v>
       </c>
       <c r="B70" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C70" s="84"/>
       <c r="D70" s="77" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E70" s="77">
         <v>6000</v>
@@ -54878,11 +54948,11 @@
         <v>45456</v>
       </c>
       <c r="B71" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C71" s="84"/>
       <c r="D71" s="77" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E71" s="77">
         <v>4300</v>
@@ -55126,10 +55196,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55165,7 +55235,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E34)</f>
-        <v>-46012.15</v>
+        <v>-81416.06</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F34)</f>
@@ -55173,26 +55243,33 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G34)</f>
-        <v>-2600.8599999999997</v>
+        <v>-2767.8599999999997</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-2600.8599999999997</v>
+        <v>-2767.8599999999997</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="61"/>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" s="322">
+        <v>45468</v>
+      </c>
       <c r="B4" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="92">
         <v>-152</v>
+      </c>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92">
+        <v>-167</v>
       </c>
       <c r="H4" s="77">
         <f>H3+F4+G4</f>
-        <v>0</v>
+        <v>-167</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -55219,7 +55296,7 @@
       </c>
       <c r="H6" s="77">
         <f>H4+F6+G6</f>
-        <v>-275</v>
+        <v>-442</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -55238,7 +55315,7 @@
       </c>
       <c r="H7" s="77">
         <f t="shared" ref="H7:H32" si="0">H6+F7+G7</f>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -55253,7 +55330,7 @@
       </c>
       <c r="H8" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -55261,7 +55338,7 @@
       <c r="C9" s="80"/>
       <c r="H9" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -55276,7 +55353,7 @@
       </c>
       <c r="H10" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -55291,7 +55368,7 @@
       </c>
       <c r="H11" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -55306,7 +55383,7 @@
       </c>
       <c r="H12" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -55314,7 +55391,7 @@
       <c r="C13" s="80"/>
       <c r="H13" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -55327,7 +55404,7 @@
       </c>
       <c r="H14" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -55336,11 +55413,11 @@
       </c>
       <c r="E15" s="77">
         <f>E50</f>
-        <v>-6308.6900000000005</v>
+        <v>-8944.5400000000009</v>
       </c>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -55351,12 +55428,12 @@
         <v>129</v>
       </c>
       <c r="E16" s="77">
-        <f>E65</f>
-        <v>6148.54</v>
+        <f>E67</f>
+        <v>-26619.52</v>
       </c>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -55370,7 +55447,7 @@
       </c>
       <c r="H17" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -55384,7 +55461,7 @@
       </c>
       <c r="H18" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -55397,25 +55474,25 @@
       </c>
       <c r="H19" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="H20" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="H21" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -55424,7 +55501,7 @@
       </c>
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -55436,7 +55513,7 @@
       </c>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -55448,7 +55525,7 @@
       </c>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -55460,13 +55537,13 @@
       </c>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -55478,7 +55555,7 @@
       </c>
       <c r="H28" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -55488,7 +55565,7 @@
       </c>
       <c r="H29" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -55501,7 +55578,7 @@
       </c>
       <c r="H30" s="77">
         <f t="shared" si="0"/>
-        <v>-795</v>
+        <v>-962</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -55516,13 +55593,13 @@
       </c>
       <c r="H31" s="77">
         <f t="shared" si="0"/>
-        <v>-2600.8599999999997</v>
+        <v>-2767.8599999999997</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="H32" s="77">
         <f t="shared" si="0"/>
-        <v>-2600.8599999999997</v>
+        <v>-2767.8599999999997</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
@@ -55615,8 +55692,8 @@
       </c>
       <c r="C50" s="70"/>
       <c r="E50" s="77">
-        <f>SUM(E51:E62)</f>
-        <v>-6308.6900000000005</v>
+        <f>SUM(E51:E63)</f>
+        <v>-8944.5400000000009</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -55667,7 +55744,7 @@
         <v>192</v>
       </c>
       <c r="E54" s="77">
-        <v>-666.55</v>
+        <v>-666.56</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -55702,62 +55779,79 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="96">
+      <c r="A57" s="96"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="89">
+        <v>45442</v>
+      </c>
+      <c r="B58" s="328" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C58" s="84"/>
+      <c r="D58" s="77" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E58" s="77">
+        <v>-1054.1400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="89">
         <v>45456</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" s="97" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C59" s="84"/>
+      <c r="D59" s="77" t="s">
         <v>1257</v>
       </c>
-      <c r="D57" s="77" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E57" s="77">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="89"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="89"/>
-      <c r="B59" s="97"/>
-      <c r="C59" s="84"/>
+      <c r="E59" s="77">
+        <v>-3923.33</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="89"/>
-      <c r="B60" s="97"/>
+      <c r="A60" s="89">
+        <v>45442</v>
+      </c>
+      <c r="B60" s="84" t="s">
+        <v>1267</v>
+      </c>
       <c r="C60" s="84"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="89"/>
-      <c r="B61" s="97"/>
+      <c r="E60" s="77">
+        <v>-278.97000000000003</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="89"/>
-      <c r="B62" s="97"/>
+      <c r="A62" s="89">
+        <v>45444</v>
+      </c>
+      <c r="B62" s="97" t="s">
+        <v>1285</v>
+      </c>
       <c r="C62" s="84"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="89"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="89"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
+      <c r="E62" s="77">
+        <v>-1379.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="89">
+        <v>45447</v>
+      </c>
+      <c r="B63" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="77">
+        <v>4300</v>
+      </c>
+      <c r="E63" s="105" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="70"/>
-      <c r="B65" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="70"/>
-      <c r="E65" s="77">
-        <f>SUM(E66:E74)</f>
-        <v>6148.54</v>
-      </c>
+      <c r="A65" s="89"/>
+      <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="89"/>
@@ -55765,302 +55859,822 @@
       <c r="C66" s="84"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="88">
-        <v>45285</v>
-      </c>
-      <c r="B67" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="77" t="s">
-        <v>196</v>
-      </c>
+      <c r="A67" s="70"/>
+      <c r="B67" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="70"/>
       <c r="E67" s="77">
-        <v>-3551.66</v>
+        <f>SUM(E68:E125)</f>
+        <v>-26619.52</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="89"/>
-      <c r="B68" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="B68" s="84"/>
       <c r="C68" s="84"/>
-      <c r="D68" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="E68" s="77">
-        <v>-649.78</v>
-      </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="89"/>
-      <c r="B69" s="3" t="s">
-        <v>187</v>
+      <c r="A69" s="88">
+        <v>45285</v>
+      </c>
+      <c r="B69" s="84" t="s">
+        <v>195</v>
       </c>
       <c r="C69" s="84"/>
       <c r="D69" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E69" s="77">
-        <v>49.98</v>
+        <v>-3551.68</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="89"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="C70" s="84"/>
+      <c r="D70" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="77">
+        <v>-649.78</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1259</v>
+      <c r="A71" s="89"/>
+      <c r="B71" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C71" s="84"/>
       <c r="D71" s="77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="89"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="84"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="89">
+        <v>45456</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C73" s="84"/>
+      <c r="D73" s="77" t="s">
         <v>1256</v>
       </c>
-      <c r="E71" s="77">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="89">
+      <c r="E73" s="77">
+        <v>-5875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="89">
         <v>45456</v>
       </c>
-      <c r="B72" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C72" s="84"/>
-      <c r="D72" s="77" t="s">
+      <c r="B74" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C74" s="84"/>
+      <c r="D74" s="77" t="s">
         <v>1256</v>
       </c>
-      <c r="E72" s="77">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="89"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="84"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="89"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="84"/>
+      <c r="E74" s="77">
+        <v>-4300</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="89"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="89">
+        <v>45465</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1267</v>
+      </c>
       <c r="C75" s="84"/>
+      <c r="E75" s="77">
+        <v>-483.01</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="89"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="89">
+        <v>45436</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="C76" s="84"/>
+      <c r="E76" s="77">
+        <v>-80</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="89"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="89">
+        <v>45436</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1268</v>
+      </c>
       <c r="C77" s="84"/>
+      <c r="E77" s="77">
+        <v>-1000</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="89"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="89">
+        <v>45437</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="C78" s="84"/>
+      <c r="E78" s="77">
+        <v>-70</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="89"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="89">
+        <v>45438</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="C79" s="84"/>
+      <c r="E79" s="77">
+        <v>-232.27</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="89"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="89">
+        <v>45438</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1269</v>
+      </c>
       <c r="C80" s="84"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="89"/>
-      <c r="B81" s="3"/>
+      <c r="E80" s="77">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="89">
+        <v>45469</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>356</v>
+      </c>
       <c r="C81" s="84"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="89"/>
-      <c r="B82" s="3"/>
+      <c r="E81" s="77">
+        <v>-246.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="89">
+        <v>45439</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="C82" s="84"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="89"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="84"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="89"/>
-      <c r="B84" s="3"/>
+      <c r="E82" s="77">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="89">
+        <v>45440</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C83" s="84">
+        <v>300</v>
+      </c>
+      <c r="E83" s="77">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="89">
+        <v>45440</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1271</v>
+      </c>
       <c r="C84" s="84"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="89"/>
-      <c r="B85" s="3"/>
+      <c r="E84" s="77">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="89">
+        <v>45441</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="C85" s="84"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="89"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="84"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="89"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="84"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="89"/>
-      <c r="B88" s="3"/>
+      <c r="E85" s="77">
+        <v>-27.66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="89">
+        <v>45441</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C86" s="84">
+        <v>400</v>
+      </c>
+      <c r="E86" s="77">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="89">
+        <v>45442</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C87" s="84">
+        <v>200</v>
+      </c>
+      <c r="E87" s="77">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="89">
+        <v>45442</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1272</v>
+      </c>
       <c r="C88" s="84"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="89"/>
-      <c r="B89" s="3"/>
+      <c r="E88" s="77">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="89">
+        <v>45444</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1273</v>
+      </c>
       <c r="C89" s="84"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="89"/>
-      <c r="B90" s="3"/>
+      <c r="E89" s="77">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="89">
+        <v>45444</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="C90" s="84"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="89"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="84"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="89"/>
-      <c r="B92" s="3"/>
+      <c r="E90" s="77">
+        <v>-12.26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="89">
+        <v>45444</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C91" s="84">
+        <v>350</v>
+      </c>
+      <c r="E91" s="77">
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="89">
+        <v>45444</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1274</v>
+      </c>
       <c r="C92" s="84"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="89"/>
-      <c r="B93" s="3"/>
+      <c r="E92" s="77">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="89">
+        <v>45446</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="C93" s="84"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="89"/>
-      <c r="B94" s="3"/>
+      <c r="E93" s="77">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="89">
+        <v>45446</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1270</v>
+      </c>
       <c r="C94" s="84"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="89"/>
-      <c r="B95" s="3"/>
+      <c r="E94" s="77">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="89">
+        <v>45446</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C95" s="84"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="89"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="84"/>
+      <c r="D95" s="77">
+        <v>7949.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="89">
+        <v>45447</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C96" s="84">
+        <v>240</v>
+      </c>
+      <c r="E96" s="77">
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="89">
+        <v>45447</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C97" s="84"/>
+      <c r="E97" s="77">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="89">
+        <v>45447</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="84"/>
+      <c r="D98" s="77">
+        <v>11998.63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="322">
+        <v>45448</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C99">
+        <v>280</v>
+      </c>
+      <c r="E99" s="77">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="322">
+        <v>45448</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="322">
+        <v>45449</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C101">
+        <v>300</v>
+      </c>
+      <c r="E101" s="77">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="322">
+        <v>45449</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E102" s="77">
+        <v>-84.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="322">
+        <v>45450</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C103">
+        <v>300</v>
+      </c>
+      <c r="E103" s="77">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="322">
+        <v>45450</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E104" s="77">
+        <v>-80</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="70"/>
-      <c r="B105" s="69" t="s">
+      <c r="A105" s="322">
+        <v>45451</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C105">
+        <v>250</v>
+      </c>
+      <c r="E105" s="77">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="322">
+        <v>45451</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E106" s="77">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="322">
+        <v>45454</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C107">
+        <v>400</v>
+      </c>
+      <c r="E107" s="77">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="322">
+        <v>45455</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E108" s="77">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="322">
+        <v>45456</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C109">
+        <v>300</v>
+      </c>
+      <c r="E109" s="77">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="322">
+        <v>45456</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E110" s="77">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="322">
+        <v>45459</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E111" s="77">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="322">
+        <v>45460</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E112" s="77">
+        <v>-71.95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="322">
+        <v>45460</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E113" s="77">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="322">
+        <v>45463</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E114" s="77">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="322">
+        <v>45464</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E115" s="77">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="322">
+        <v>45464</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E116" s="77">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="322">
+        <v>45464</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E117" s="77">
+        <v>-277.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="322">
+        <v>45465</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E118" s="77">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="322">
+        <v>45466</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E119" s="77">
+        <v>-689.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="322">
+        <v>45466</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E120" s="77">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="322">
+        <v>45466</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E121" s="77">
+        <v>-650</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="322">
+        <v>45466</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E122" s="77">
+        <v>-134.33000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="322">
+        <v>45467</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E123" s="77">
+        <v>-28.05</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="322">
+        <v>45467</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E124" s="77">
+        <v>-28.05</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="322">
+        <v>45467</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E125" s="77">
+        <v>-186.98</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15">
+      <c r="B126" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" s="3">
+        <f>SUM(C81:C125)</f>
+        <v>3320</v>
+      </c>
+      <c r="E126" s="105" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" s="3" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="70"/>
+      <c r="B128" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C105" s="70"/>
-      <c r="E105" s="77">
-        <f>SUM(E106:E113)</f>
+      <c r="C128" s="70"/>
+      <c r="E128" s="77">
+        <f>SUM(E129:E136)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="89"/>
-      <c r="B106" t="s">
+    <row r="129" spans="1:5">
+      <c r="A129" s="89"/>
+      <c r="B129" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="89"/>
-      <c r="B107" t="s">
+    <row r="130" spans="1:5">
+      <c r="A130" s="89"/>
+      <c r="B130" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="89"/>
-      <c r="B108" t="s">
+    <row r="131" spans="1:5">
+      <c r="A131" s="89"/>
+      <c r="B131" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="89"/>
-      <c r="B109" t="s">
+    <row r="132" spans="1:5">
+      <c r="A132" s="89"/>
+      <c r="B132" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="89"/>
-      <c r="B110" t="s">
+    <row r="133" spans="1:5">
+      <c r="A133" s="89"/>
+      <c r="B133" t="s">
         <v>156</v>
       </c>
-      <c r="D110" s="77">
+      <c r="D133" s="77">
         <v>111</v>
       </c>
-      <c r="E110" s="77">
-        <f>D110*C110</f>
+      <c r="E133" s="77">
+        <f>D133*C133</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="89"/>
-      <c r="B111" t="s">
+    <row r="134" spans="1:5">
+      <c r="A134" s="89"/>
+      <c r="B134" t="s">
         <v>157</v>
       </c>
-      <c r="D111" s="77">
+      <c r="D134" s="77">
         <v>850</v>
       </c>
-      <c r="E111" s="77">
-        <f>D111*C111</f>
+      <c r="E134" s="77">
+        <f>D134*C134</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="89"/>
-      <c r="B112" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" s="89"/>
+      <c r="B135" t="s">
         <v>158</v>
       </c>
-      <c r="D112" s="77">
+      <c r="D135" s="77">
         <v>100</v>
       </c>
-      <c r="E112" s="77">
-        <f>D112*C112</f>
+      <c r="E135" s="77">
+        <f>D135*C135</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="89"/>
-      <c r="B113" t="s">
+    <row r="136" spans="1:5">
+      <c r="A136" s="89"/>
+      <c r="B136" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="B114" t="s">
+    <row r="137" spans="1:5">
+      <c r="B137" t="s">
         <v>160</v>
       </c>
-      <c r="E114" s="77">
+      <c r="E137" s="77">
         <f>H2</f>
-        <v>-2600.8599999999997</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="D116" s="77" t="s">
+        <v>-2767.8599999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="D139" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E116" s="77">
-        <f>SUM(E106:E115)</f>
-        <v>-2600.8599999999997</v>
+      <c r="E139" s="77">
+        <f>SUM(E129:E138)</f>
+        <v>-2767.8599999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -56075,8 +56689,8 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DB7A35-E6F8-4E2F-A23E-64BD8CFF6200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292E8A2F-E63A-4E1C-A4C1-181AFC04E3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1294">
   <si>
     <t>hacı</t>
   </si>
@@ -4142,12 +4142,33 @@
   <si>
     <t>kurban kızılay</t>
   </si>
+  <si>
+    <t>çeyrek 5 ad. 4030 * 5</t>
+  </si>
+  <si>
+    <t>HAZİRANa</t>
+  </si>
+  <si>
+    <t>TEMMUZa</t>
+  </si>
+  <si>
+    <t>iş KOTON</t>
+  </si>
+  <si>
+    <t>iş LILAK</t>
+  </si>
+  <si>
+    <t>usd iş satış-alış                 32,9542</t>
+  </si>
+  <si>
+    <t>eur iş alış                           35,47,85</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="20">
+  <numFmts count="21">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _T_L;[Red]\-#,##0.00\ _T_L"/>
     <numFmt numFmtId="166" formatCode="%0"/>
@@ -4168,6 +4189,7 @@
     <numFmt numFmtId="181" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="183" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
+    <numFmt numFmtId="187" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -5075,7 +5097,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="330">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5538,11 +5560,12 @@
     </xf>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="17" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -5981,10 +6004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G33"/>
+  <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -6041,7 +6064,7 @@
         <v>3450</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G33" si="0">G5+E6-F6</f>
+        <f t="shared" ref="G6:G34" si="0">G5+E6-F6</f>
         <v>-2378</v>
       </c>
     </row>
@@ -6341,107 +6364,122 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1">
-        <v>45473</v>
+        <v>45470</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="2">
-        <v>500</v>
+        <v>1287</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20150</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>-108587.35</v>
+        <v>-87937.35</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1">
-        <v>45503</v>
+        <v>45473</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2">
         <v>500</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>-109087.35</v>
+        <v>-88437.35</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="1">
-        <v>45534</v>
+        <v>45503</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2">
         <v>500</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>-109587.35</v>
+        <v>-88937.35</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="1">
-        <v>45565</v>
+        <v>45534</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2">
         <v>500</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>-110087.35</v>
+        <v>-89437.35</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="1">
-        <v>45595</v>
+        <v>45565</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="2">
         <v>500</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
-        <v>-110587.35</v>
+        <v>-89937.35</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="1">
-        <v>45626</v>
+        <v>45595</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="2">
         <v>500</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>-111087.35</v>
+        <v>-90437.35</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="1">
-        <v>45656</v>
+        <v>45626</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2">
         <v>500</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="0"/>
-        <v>-111587.35</v>
+        <v>-90937.35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1">
+        <v>45656</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2">
+        <v>500</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>-91437.35</v>
       </c>
     </row>
   </sheetData>
@@ -6461,8 +6499,8 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -9673,7 +9711,7 @@
   </sheetPr>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -11431,7 +11469,7 @@
   </sheetPr>
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -20446,7 +20484,7 @@
   <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -20486,10 +20524,10 @@
       <c r="K1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="326" t="s">
+      <c r="L1" s="327" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="326"/>
+      <c r="M1" s="327"/>
       <c r="N1" t="s">
         <v>30</v>
       </c>
@@ -20615,15 +20653,15 @@
         <v>39</v>
       </c>
       <c r="J4" s="22">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="K4" s="30">
         <f>J4*$K$2</f>
-        <v>40.015280000000004</v>
+        <v>20.007640000000002</v>
       </c>
       <c r="L4" s="31">
         <f>J4-K4</f>
-        <v>129.98471999999998</v>
+        <v>64.992359999999991</v>
       </c>
       <c r="M4" s="29"/>
       <c r="N4">
@@ -20663,14 +20701,12 @@
       <c r="I5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="22">
-        <v>90</v>
-      </c>
+      <c r="J5" s="22"/>
       <c r="K5" s="30"/>
       <c r="L5" s="28"/>
       <c r="M5" s="29">
         <f>J5</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <f>'03_24'!E108/1000</f>
@@ -20711,9 +20747,9 @@
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="33" t="e">
+      <c r="M6" s="33">
         <f>E18/1000</f>
-        <v>#REF!</v>
+        <v>78.933189999999996</v>
       </c>
       <c r="N6">
         <f>'04_24'!E111/1000</f>
@@ -20781,7 +20817,7 @@
       </c>
       <c r="E8" s="23">
         <f>'06_24'!F2</f>
-        <v>3000</v>
+        <v>13427.62</v>
       </c>
       <c r="F8" s="23">
         <f>'06_24'!G2</f>
@@ -20789,7 +20825,7 @@
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>104479.54630700001</v>
+        <v>114907.16630700001</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
@@ -20805,8 +20841,8 @@
         <v>56.25</v>
       </c>
       <c r="N8">
-        <f>'06_24'!E124/1000</f>
-        <v>0</v>
+        <f>'06_24'!E118/1000</f>
+        <v>794.30215999999996</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -20835,7 +20871,7 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>101711.68630700001</v>
+        <v>112139.30630700001</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20854,8 +20890,8 @@
       </c>
       <c r="M9" s="34"/>
       <c r="N9">
-        <f>'07_24'!E134/1000</f>
-        <v>0</v>
+        <f>'07_24'!E128/1000</f>
+        <v>981.30372722800007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -20884,20 +20920,20 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>101711.68630700001</v>
+        <v>112139.30630700001</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
         <v>51</v>
       </c>
       <c r="J10" s="22">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="31"/>
       <c r="M10" s="29">
         <f>J10*0.13</f>
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <f>'08_24'!E111/1000</f>
@@ -20930,7 +20966,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>101711.68630700001</v>
+        <v>112139.30630700001</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -20979,7 +21015,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>101711.68630700001</v>
+        <v>112139.30630700001</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -21028,7 +21064,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>101711.68630700001</v>
+        <v>112139.30630700001</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -21077,7 +21113,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>101711.68630700001</v>
+        <v>112139.30630700001</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -21118,7 +21154,7 @@
       </c>
       <c r="E15" s="24">
         <f>SUM(E3:E14)</f>
-        <v>595977.95000000007</v>
+        <v>606405.57000000007</v>
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
@@ -21126,25 +21162,25 @@
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>101711.68630700011</v>
+        <v>112139.30630700011</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
       <c r="J15" s="40">
         <f>SUM(J3:J14)</f>
-        <v>2045</v>
+        <v>1570</v>
       </c>
       <c r="K15" s="41">
         <f>SUM(K4:K14)</f>
-        <v>270.69159999999999</v>
+        <v>250.68396000000004</v>
       </c>
       <c r="L15" s="42">
         <f>SUM(L4:L14)</f>
-        <v>879.30839999999989</v>
-      </c>
-      <c r="M15" s="43" t="e">
+        <v>814.31603999999993</v>
+      </c>
+      <c r="M15" s="43">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>#REF!</v>
+        <v>328.18318999999997</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -21162,7 +21198,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="46">
         <f>E15/A16</f>
-        <v>49664.82916666667</v>
+        <v>50533.797500000008</v>
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
@@ -21170,29 +21206,29 @@
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>8475.9738589166755</v>
+        <v>9344.9421922500096</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
       <c r="J16" s="49">
         <f>J15/12</f>
-        <v>170.41666666666666</v>
+        <v>130.83333333333334</v>
       </c>
       <c r="K16" s="50">
         <f>K15/12</f>
-        <v>22.557633333333332</v>
+        <v>20.890330000000002</v>
       </c>
       <c r="L16" s="51">
         <f>L15/12</f>
-        <v>73.275699999999986</v>
-      </c>
-      <c r="M16" s="52" t="e">
+        <v>67.859669999999994</v>
+      </c>
+      <c r="M16" s="52">
         <f>M15/12</f>
-        <v>#REF!</v>
+        <v>27.348599166666663</v>
       </c>
       <c r="N16" s="53">
         <f>AVERAGE(N2:N15)</f>
-        <v>373.82533222415384</v>
+        <v>510.41040047246156</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -21204,28 +21240,28 @@
       <c r="K17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="327" t="e">
+      <c r="L17" s="328">
         <f>L15+M15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="327"/>
+        <v>1142.4992299999999</v>
+      </c>
+      <c r="M17" s="328"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="2" t="e">
-        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F19+'04_24'!F41+'05_24'!F13+'06_24'!#REF!+'04_24'!F15</f>
-        <v>#REF!</v>
+      <c r="E18" s="2">
+        <f>'01_24'!F27+'02_24'!F14+'02_24'!F25+'03_24'!F19+'04_24'!F41+'05_24'!F22+'06_24'!F19+'05_24'!F22+'06_24'!F31+'04_24'!F15</f>
+        <v>78933.19</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="L18" s="56"/>
-      <c r="M18" s="57" t="e">
+      <c r="M18" s="57">
         <f>L17/12</f>
-        <v>#REF!</v>
+        <v>95.208269166666653</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -21242,9 +21278,9 @@
       <c r="D20" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="62" t="e">
+      <c r="E20" s="62">
         <f>SUM(E18:E19)</f>
-        <v>#REF!</v>
+        <v>78933.19</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15">
@@ -54827,7 +54863,7 @@
       <c r="A57" s="89">
         <v>45442</v>
       </c>
-      <c r="B57" s="328" t="s">
+      <c r="B57" s="326" t="s">
         <v>1284</v>
       </c>
       <c r="C57" s="84"/>
@@ -55196,10 +55232,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A122" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55279,42 +55315,50 @@
       <c r="E5" s="77">
         <v>-10000</v>
       </c>
+      <c r="H5" s="77">
+        <f t="shared" ref="H5:H32" si="0">H4+F5+G5</f>
+        <v>-167</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="322">
+      <c r="A6" s="325">
         <v>45474</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="80"/>
-      <c r="E6" s="77">
+      <c r="D6" s="92"/>
+      <c r="E6" s="92">
         <v>-400</v>
       </c>
-      <c r="G6" s="77">
+      <c r="F6" s="92"/>
+      <c r="G6" s="92">
         <v>-275</v>
       </c>
       <c r="H6" s="77">
-        <f>H4+F6+G6</f>
+        <f t="shared" si="0"/>
         <v>-442</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="322">
+      <c r="A7" s="325">
         <v>45474</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="80"/>
-      <c r="E7" s="77">
+      <c r="D7" s="92"/>
+      <c r="E7" s="92">
         <v>-500</v>
       </c>
-      <c r="G7" s="77">
+      <c r="F7" s="92"/>
+      <c r="G7" s="92">
         <v>-520</v>
       </c>
       <c r="H7" s="77">
-        <f t="shared" ref="H7:H32" si="0">H6+F7+G7</f>
+        <f t="shared" si="0"/>
         <v>-962</v>
       </c>
     </row>
@@ -55785,7 +55829,7 @@
       <c r="A58" s="89">
         <v>45442</v>
       </c>
-      <c r="B58" s="328" t="s">
+      <c r="B58" s="326" t="s">
         <v>1284</v>
       </c>
       <c r="C58" s="84"/>
@@ -56575,100 +56619,390 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="70"/>
+      <c r="A128" s="68" t="s">
+        <v>1289</v>
+      </c>
       <c r="B128" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="C128" s="70"/>
-      <c r="E128" s="77">
-        <f>SUM(E129:E136)</f>
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="C128" s="70">
+        <v>2024</v>
+      </c>
+      <c r="D128" s="71"/>
+      <c r="E128" s="72">
+        <f>SUM(E129:E149)</f>
+        <v>981303.72722800006</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="89"/>
-      <c r="B129" t="s">
+      <c r="A129" s="106">
+        <v>45474</v>
+      </c>
+      <c r="B129" s="22" t="s">
         <v>83</v>
       </c>
+      <c r="C129" s="107"/>
+      <c r="D129" s="107"/>
+      <c r="E129" s="107">
+        <v>64000</v>
+      </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="89"/>
-      <c r="B130" t="s">
-        <v>84</v>
+      <c r="A130" s="106">
+        <f t="shared" ref="A130:A148" si="1">A129</f>
+        <v>45474</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C130" s="107"/>
+      <c r="D130" s="107"/>
+      <c r="E130" s="107">
+        <v>150845</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="89"/>
+      <c r="A131" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
       <c r="B131" t="s">
         <v>85</v>
       </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="62">
+        <v>12712.47</v>
+      </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="89"/>
+      <c r="A132" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
       <c r="B132" t="s">
         <v>86</v>
       </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="89"/>
+      <c r="A133" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
       <c r="B133" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B134" t="s">
+        <v>87</v>
+      </c>
+      <c r="C134" s="108"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B135" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="2">
+        <v>74</v>
+      </c>
+      <c r="D135" s="329">
+        <v>677.53942199999995</v>
+      </c>
+      <c r="E135" s="62">
+        <f>D135*C135</f>
+        <v>50137.917227999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B136" t="s">
+        <v>237</v>
+      </c>
+      <c r="C136" s="109">
+        <v>125000</v>
+      </c>
+      <c r="D136" s="329">
+        <v>0.83506999999999998</v>
+      </c>
+      <c r="E136" s="62">
+        <f t="shared" ref="E136:E146" si="2">D136*C136</f>
+        <v>104383.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B137" t="s">
+        <v>238</v>
+      </c>
+      <c r="C137" s="2">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2">
+        <v>123.7</v>
+      </c>
+      <c r="E137" s="62">
+        <f t="shared" si="2"/>
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C138" s="2">
+        <v>38</v>
+      </c>
+      <c r="D138" s="2">
+        <v>22.78</v>
+      </c>
+      <c r="E138" s="62">
+        <f t="shared" si="2"/>
+        <v>865.6400000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C139" s="2">
+        <v>26</v>
+      </c>
+      <c r="D139" s="2">
+        <v>27.26</v>
+      </c>
+      <c r="E139" s="62">
+        <f t="shared" si="2"/>
+        <v>708.76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B140" t="s">
+        <v>96</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B141" t="s">
+        <v>239</v>
+      </c>
+      <c r="C141" s="2">
+        <v>7500</v>
+      </c>
+      <c r="D141" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="E141" s="62">
+        <f t="shared" si="2"/>
+        <v>183750</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B144" t="s">
+        <v>240</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2375.02</v>
+      </c>
+      <c r="D144" s="2">
         <v>156</v>
       </c>
-      <c r="D133" s="77">
-        <v>111</v>
-      </c>
-      <c r="E133" s="77">
-        <f>D133*C133</f>
+      <c r="E144" s="62">
+        <f t="shared" si="2"/>
+        <v>370503.12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C145" s="75">
+        <v>31.963699999999999</v>
+      </c>
+      <c r="D145" s="2">
+        <v>850</v>
+      </c>
+      <c r="E145" s="62">
+        <f t="shared" si="2"/>
+        <v>27169.145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B146" t="s">
+        <v>242</v>
+      </c>
+      <c r="C146" s="75">
+        <f>C145</f>
+        <v>31.963699999999999</v>
+      </c>
+      <c r="D146" s="2">
+        <v>250</v>
+      </c>
+      <c r="E146" s="62">
+        <f t="shared" si="2"/>
+        <v>7990.9250000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C147" s="75">
+        <v>34.412100000000002</v>
+      </c>
+      <c r="D147" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="89"/>
-      <c r="B134" t="s">
-        <v>157</v>
-      </c>
-      <c r="D134" s="77">
-        <v>850</v>
-      </c>
-      <c r="E134" s="77">
-        <f>D134*C134</f>
+      <c r="E147" s="62">
+        <f>D147*C147</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="89"/>
-      <c r="B135" t="s">
-        <v>158</v>
-      </c>
-      <c r="D135" s="77">
+    <row r="148" spans="1:5">
+      <c r="A148" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B148" t="s">
         <v>100</v>
       </c>
-      <c r="E135" s="77">
-        <f>D135*C135</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="89"/>
-      <c r="B136" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="B137" t="s">
-        <v>160</v>
-      </c>
-      <c r="E137" s="77">
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="62">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="73">
+        <f>A148</f>
+        <v>45474</v>
+      </c>
+      <c r="B149" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="62">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="E150" s="110"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="C151" s="108"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="108"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="C152" s="108"/>
+      <c r="D152" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E152" s="8">
+        <f>SUM(E129:E149)</f>
+        <v>981303.72722800006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="C153" s="111" t="str">
+        <f>A128</f>
+        <v>TEMMUZa</v>
+      </c>
+      <c r="D153" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="E153" s="113">
         <f>H2</f>
-        <v>-2767.8599999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="D139" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="E139" s="77">
-        <f>SUM(E129:E138)</f>
         <v>-2767.8599999999997</v>
       </c>
     </row>
@@ -56687,10 +57021,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -56730,7 +57064,7 @@
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F36)</f>
-        <v>3000</v>
+        <v>13427.62</v>
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G36)</f>
@@ -56738,7 +57072,7 @@
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-84766.153693</v>
+        <v>-74338.533693000005</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -57210,9 +57544,12 @@
       <c r="D31" s="77">
         <v>10000</v>
       </c>
+      <c r="F31" s="77">
+        <v>10427.620000000001</v>
+      </c>
       <c r="H31" s="77">
         <f t="shared" si="1"/>
-        <v>-84766.153693</v>
+        <v>-74338.533693000005</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -57225,7 +57562,7 @@
       </c>
       <c r="H32" s="77">
         <f t="shared" si="1"/>
-        <v>-84766.153693</v>
+        <v>-74338.533693000005</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -57241,13 +57578,13 @@
       </c>
       <c r="H33" s="77">
         <f t="shared" si="1"/>
-        <v>-84766.153693</v>
+        <v>-74338.533693000005</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="H34" s="77">
         <f t="shared" si="1"/>
-        <v>-84766.153693</v>
+        <v>-74338.533693000005</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
@@ -58269,101 +58606,323 @@
       <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="70"/>
+      <c r="A118" s="68" t="s">
+        <v>1288</v>
+      </c>
       <c r="B118" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="C118" s="70"/>
-      <c r="E118" s="77">
-        <f>SUM(E119:E126)</f>
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="C118" s="70">
+        <v>2024</v>
+      </c>
+      <c r="D118" s="71"/>
+      <c r="E118" s="72">
+        <f>SUM(E119:E135)</f>
+        <v>794302.15999999992</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="89"/>
-      <c r="B119" t="s">
+      <c r="A119" s="106">
+        <v>45413</v>
+      </c>
+      <c r="B119" s="22" t="s">
         <v>83</v>
       </c>
+      <c r="C119" s="107"/>
+      <c r="D119" s="107"/>
+      <c r="E119" s="107">
+        <v>64000</v>
+      </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="89"/>
-      <c r="B120" t="s">
-        <v>84</v>
+      <c r="A120" s="106">
+        <f t="shared" ref="A120:A127" si="2">A119</f>
+        <v>45413</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" s="107"/>
+      <c r="D120" s="107"/>
+      <c r="E120" s="107">
+        <v>150845</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="89"/>
+      <c r="A121" s="73">
+        <f t="shared" si="2"/>
+        <v>45413</v>
+      </c>
       <c r="B121" t="s">
         <v>85</v>
       </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="62">
+        <v>4148.6099999999997</v>
+      </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="89"/>
+      <c r="A122" s="73">
+        <f t="shared" si="2"/>
+        <v>45413</v>
+      </c>
       <c r="B122" t="s">
         <v>86</v>
       </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="89"/>
+      <c r="A123" s="73">
+        <f t="shared" si="2"/>
+        <v>45413</v>
+      </c>
       <c r="B123" t="s">
+        <v>236</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="73">
+        <f t="shared" si="2"/>
+        <v>45413</v>
+      </c>
+      <c r="B124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" s="108"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="73">
+        <f t="shared" si="2"/>
+        <v>45413</v>
+      </c>
+      <c r="B125" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="73">
+        <f t="shared" si="2"/>
+        <v>45413</v>
+      </c>
+      <c r="B126" t="s">
+        <v>237</v>
+      </c>
+      <c r="C126" s="109">
+        <v>125000</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.88097599999999998</v>
+      </c>
+      <c r="E126" s="62">
+        <f>D126*C126</f>
+        <v>110122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="73">
+        <f t="shared" si="2"/>
+        <v>45413</v>
+      </c>
+      <c r="B127" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="2">
+        <v>10</v>
+      </c>
+      <c r="D127" s="2">
+        <v>122</v>
+      </c>
+      <c r="E127" s="62">
+        <f>D127*C127</f>
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="73">
+        <f>A126</f>
+        <v>45413</v>
+      </c>
+      <c r="B128" t="s">
+        <v>96</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="62">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="73">
+        <f>A128</f>
+        <v>45413</v>
+      </c>
+      <c r="B129" t="s">
+        <v>239</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D129" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="E129" s="62">
+        <f>D129*C129</f>
+        <v>61250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="73">
+        <f>A128</f>
+        <v>45413</v>
+      </c>
+      <c r="B130" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2308.9699999999998</v>
+      </c>
+      <c r="D130" s="2">
         <v>156</v>
       </c>
-      <c r="D123" s="77">
-        <v>111</v>
-      </c>
-      <c r="E123" s="77">
-        <f>D123*C123</f>
+      <c r="E130" s="62">
+        <f>D130*C130</f>
+        <v>360199.31999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="73">
+        <f>A130</f>
+        <v>45413</v>
+      </c>
+      <c r="B131" t="s">
+        <v>241</v>
+      </c>
+      <c r="C131" s="75">
+        <v>31.879300000000001</v>
+      </c>
+      <c r="D131" s="2">
+        <v>850</v>
+      </c>
+      <c r="E131" s="62">
+        <f>D131*C131</f>
+        <v>27097.404999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="73">
+        <f>A131</f>
+        <v>45413</v>
+      </c>
+      <c r="B132" t="s">
+        <v>242</v>
+      </c>
+      <c r="C132" s="75">
+        <f>C131</f>
+        <v>31.879300000000001</v>
+      </c>
+      <c r="D132" s="2">
+        <v>250</v>
+      </c>
+      <c r="E132" s="62">
+        <f>D132*C132</f>
+        <v>7969.8249999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="73">
+        <f>A132</f>
+        <v>45413</v>
+      </c>
+      <c r="B133" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" s="75">
+        <v>34.394500000000001</v>
+      </c>
+      <c r="D133" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="89"/>
-      <c r="B124" t="s">
-        <v>157</v>
-      </c>
-      <c r="D124" s="77">
-        <v>850</v>
-      </c>
-      <c r="E124" s="77">
-        <f>D124*C124</f>
+      <c r="E133" s="62">
+        <f>D133*C133</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="89"/>
-      <c r="B125" t="s">
-        <v>158</v>
-      </c>
-      <c r="D125" s="77">
+    <row r="134" spans="1:5">
+      <c r="A134" s="73">
+        <f>A133</f>
+        <v>45413</v>
+      </c>
+      <c r="B134" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="77">
-        <f>D125*C125</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="89"/>
-      <c r="B126" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="B127" t="s">
-        <v>160</v>
-      </c>
-      <c r="E127" s="77">
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="62">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="73">
+        <f>A134</f>
+        <v>45413</v>
+      </c>
+      <c r="B135" t="s">
+        <v>101</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="62">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="E136" s="110"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="C137" s="108"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="108"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="C138" s="108"/>
+      <c r="D138" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E138" s="8">
+        <f>SUM(E119:E135)</f>
+        <v>794302.15999999992</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="C139" s="111" t="str">
+        <f>A118</f>
+        <v>HAZİRANa</v>
+      </c>
+      <c r="D139" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="E139" s="113">
         <f>H2</f>
-        <v>-84766.153693</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5">
-      <c r="D129" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="E129" s="77">
-        <f>SUM(E119:E128)</f>
-        <v>-84766.153693</v>
+        <v>-74338.533693000005</v>
       </c>
     </row>
   </sheetData>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292E8A2F-E63A-4E1C-A4C1-181AFC04E3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5FBF0-A034-4196-A912-8DBF57ACBCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="1294">
   <si>
     <t>hacı</t>
   </si>
@@ -4189,7 +4189,7 @@
     <numFmt numFmtId="181" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="183" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
-    <numFmt numFmtId="187" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="184" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -5097,7 +5097,7 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5561,11 +5561,12 @@
     <xf numFmtId="174" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="17" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -20483,8 +20484,8 @@
   </sheetPr>
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -20524,10 +20525,10 @@
       <c r="K1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="327" t="s">
+      <c r="L1" s="328" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="327"/>
+      <c r="M1" s="328"/>
       <c r="N1" t="s">
         <v>30</v>
       </c>
@@ -20821,11 +20822,11 @@
       </c>
       <c r="F8" s="23">
         <f>'06_24'!G2</f>
-        <v>-87766.153693</v>
+        <v>-97778.153693</v>
       </c>
       <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>114907.16630700001</v>
+        <v>104895.16630700001</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
@@ -20851,7 +20852,7 @@
       </c>
       <c r="B9" s="23">
         <f>'07_24'!D2</f>
-        <v>30000</v>
+        <v>53500</v>
       </c>
       <c r="C9" s="23">
         <f>'07_24'!E2</f>
@@ -20859,7 +20860,7 @@
       </c>
       <c r="D9" s="24">
         <f t="shared" si="0"/>
-        <v>-6352.7636930000153</v>
+        <v>17147.236306999985</v>
       </c>
       <c r="E9" s="23">
         <f>'07_24'!F2</f>
@@ -20871,7 +20872,7 @@
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>112139.30630700001</v>
+        <v>102127.30630700001</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20890,7 +20891,7 @@
       </c>
       <c r="M9" s="34"/>
       <c r="N9">
-        <f>'07_24'!E128/1000</f>
+        <f>'07_24'!E130/1000</f>
         <v>981.30372722800007</v>
       </c>
     </row>
@@ -20908,7 +20909,7 @@
       </c>
       <c r="D10" s="24">
         <f t="shared" si="0"/>
-        <v>128989.27630699999</v>
+        <v>152489.27630699999</v>
       </c>
       <c r="E10" s="23">
         <f>'08_24'!F2</f>
@@ -20920,7 +20921,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>112139.30630700001</v>
+        <v>102127.30630700001</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -20954,7 +20955,7 @@
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>255685.256307</v>
+        <v>279185.256307</v>
       </c>
       <c r="E11" s="23">
         <f>'09_24'!F2</f>
@@ -20966,7 +20967,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>112139.30630700001</v>
+        <v>102127.30630700001</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -21003,7 +21004,7 @@
       </c>
       <c r="D12" s="24">
         <f t="shared" si="0"/>
-        <v>262815.99630699999</v>
+        <v>286315.99630699999</v>
       </c>
       <c r="E12" s="23">
         <f>'10_24'!F2</f>
@@ -21015,7 +21016,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>112139.30630700001</v>
+        <v>102127.30630700001</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -21052,7 +21053,7 @@
       </c>
       <c r="D13" s="24">
         <f t="shared" si="0"/>
-        <v>499946.73630699998</v>
+        <v>523446.73630699998</v>
       </c>
       <c r="E13" s="23">
         <f>'11_24'!F2</f>
@@ -21064,7 +21065,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>112139.30630700001</v>
+        <v>102127.30630700001</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -21101,7 +21102,7 @@
       </c>
       <c r="D14" s="24">
         <f t="shared" si="0"/>
-        <v>486046.71630699997</v>
+        <v>509546.71630699997</v>
       </c>
       <c r="E14" s="23">
         <f>'12_24'!F2</f>
@@ -21113,7 +21114,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>112139.30630700001</v>
+        <v>102127.30630700001</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -21142,7 +21143,7 @@
       </c>
       <c r="B15" s="24">
         <f>SUM(B3:B14)</f>
-        <v>1309064.6000000001</v>
+        <v>1332564.6000000001</v>
       </c>
       <c r="C15" s="24">
         <f>SUM(C3:C14)</f>
@@ -21150,7 +21151,7 @@
       </c>
       <c r="D15" s="24">
         <f>B15+C15</f>
-        <v>486046.71630700002</v>
+        <v>509546.71630700002</v>
       </c>
       <c r="E15" s="24">
         <f>SUM(E3:E14)</f>
@@ -21158,11 +21159,11 @@
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-494266.26369299996</v>
+        <v>-504278.26369299996</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>112139.30630700011</v>
+        <v>102127.30630700011</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -21189,7 +21190,7 @@
       </c>
       <c r="B16" s="45">
         <f>B15/A16</f>
-        <v>109088.71666666667</v>
+        <v>111047.05</v>
       </c>
       <c r="C16" s="46">
         <f>C15/A16</f>
@@ -21202,11 +21203,11 @@
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-41188.855307749996</v>
+        <v>-42023.188641083332</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>9344.9421922500096</v>
+        <v>8510.6088589166757</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
@@ -21240,11 +21241,11 @@
       <c r="K17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="328">
+      <c r="L17" s="329">
         <f>L15+M15</f>
         <v>1142.4992299999999</v>
       </c>
-      <c r="M17" s="328"/>
+      <c r="M17" s="329"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="55" t="s">
@@ -55232,10 +55233,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55266,19 +55267,19 @@
         <v>105</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D34)</f>
-        <v>30000</v>
+        <f>SUM(D4:D36)</f>
+        <v>53500</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E34)</f>
+        <f>SUM(E4:E36)</f>
         <v>-81416.06</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F34)</f>
+        <f>SUM(F4:F36)</f>
         <v>0</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G34)</f>
+        <f>SUM(G4:G36)</f>
         <v>-2767.8599999999997</v>
       </c>
       <c r="H2" s="77">
@@ -55316,7 +55317,7 @@
         <v>-10000</v>
       </c>
       <c r="H5" s="77">
-        <f t="shared" ref="H5:H32" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H34" si="0">H4+F5+G5</f>
         <v>-167</v>
       </c>
     </row>
@@ -55443,7 +55444,7 @@
         <v>127</v>
       </c>
       <c r="E14" s="77">
-        <f>E45*-1</f>
+        <f>E47*-1</f>
         <v>0</v>
       </c>
       <c r="H14" s="77">
@@ -55456,7 +55457,7 @@
         <v>128</v>
       </c>
       <c r="E15" s="77">
-        <f>E50</f>
+        <f>E52</f>
         <v>-8944.5400000000009</v>
       </c>
       <c r="H15" s="77">
@@ -55472,7 +55473,7 @@
         <v>129</v>
       </c>
       <c r="E16" s="77">
-        <f>E67</f>
+        <f>E69</f>
         <v>-26619.52</v>
       </c>
       <c r="H16" s="77">
@@ -55522,12 +55523,14 @@
       </c>
     </row>
     <row r="20" spans="1:8">
+      <c r="A20" s="89"/>
       <c r="H20" s="77">
         <f t="shared" si="0"/>
         <v>-962</v>
       </c>
     </row>
     <row r="21" spans="1:8">
+      <c r="A21" s="96"/>
       <c r="H21" s="77">
         <f t="shared" si="0"/>
         <v>-962</v>
@@ -55614,304 +55617,307 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="89"/>
-      <c r="B30" t="s">
+      <c r="B30" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="89"/>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="77">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="89"/>
+      <c r="B32" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D32" s="77">
         <v>15000</v>
       </c>
-      <c r="H30" s="77">
-        <f t="shared" si="0"/>
+      <c r="H32" s="77">
+        <f>H29+F32+G32</f>
         <v>-962</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="89">
+    <row r="33" spans="1:8">
+      <c r="A33" s="89">
         <v>45504</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G33" s="77">
         <v>-1805.86</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H33" s="77">
         <f t="shared" si="0"/>
         <v>-2767.8599999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="H32" s="77">
+    <row r="34" spans="1:8">
+      <c r="H34" s="77">
         <f t="shared" si="0"/>
         <v>-2767.8599999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="B34" s="91"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" t="s">
+    <row r="36" spans="1:8" ht="15.75">
+      <c r="B36" s="91"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="70" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1">
-      <c r="A38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="93">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1">
+      <c r="A40" s="89"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="93">
         <v>44929</v>
       </c>
-      <c r="B39" s="94" t="s">
+      <c r="B41" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="77">
-        <f>SUM(D40:D45)</f>
+      <c r="C41" s="70"/>
+      <c r="D41" s="77">
+        <f>SUM(D42:D47)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="77">
-        <f>SUM(E40:E45)</f>
+      <c r="E41" s="77">
+        <f>SUM(E42:E47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="89"/>
-      <c r="B40" s="84" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="89"/>
+      <c r="B42" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="22"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="84"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="C46" s="84"/>
+      <c r="C47" s="84"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="62"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="B49" s="95"/>
+      <c r="C48" s="84"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="70"/>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="62"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="95"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="70"/>
+      <c r="B52" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="E50" s="77">
-        <f>SUM(E51:E63)</f>
+      <c r="C52" s="70"/>
+      <c r="E52" s="77">
+        <f>SUM(E53:E65)</f>
         <v>-8944.5400000000009</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="96">
-        <v>45348</v>
-      </c>
-      <c r="B52" t="s">
-        <v>174</v>
-      </c>
-      <c r="C52">
-        <v>1406</v>
-      </c>
-      <c r="D52" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E52" s="77">
-        <v>-234.33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="96">
-        <v>45373</v>
-      </c>
-      <c r="B53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53">
-        <v>10176.39</v>
-      </c>
-      <c r="D53" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="E53" s="77">
-        <v>-1130.71</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="96">
-        <v>45375</v>
+        <v>45348</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C54">
-        <v>5999</v>
+        <v>1406</v>
       </c>
       <c r="D54" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E54" s="77">
-        <v>-666.56</v>
+        <v>-234.33</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="96">
-        <v>45358</v>
+        <v>45373</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="C55">
-        <v>2273</v>
+        <v>10176.39</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E55" s="77">
-        <v>-378.87</v>
+        <v>-1130.71</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="96">
+        <v>45375</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56">
+        <v>5999</v>
+      </c>
+      <c r="D56" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="77">
+        <v>-666.56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="96">
+        <v>45358</v>
+      </c>
+      <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57">
+        <v>2273</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="77">
+        <v>-378.87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="96">
         <v>45371</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>177</v>
       </c>
-      <c r="D56" s="77" t="s">
+      <c r="D58" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="E56" s="77">
+      <c r="E58" s="77">
         <v>101.77</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="96"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="89">
-        <v>45442</v>
-      </c>
-      <c r="B58" s="326" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="77" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E58" s="77">
-        <v>-1054.1400000000001</v>
-      </c>
-    </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B59" s="97" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C59" s="84"/>
-      <c r="D59" s="77" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E59" s="77">
-        <v>-3923.33</v>
-      </c>
+      <c r="A59" s="96"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="89">
         <v>45442</v>
       </c>
-      <c r="B60" s="84" t="s">
-        <v>1267</v>
+      <c r="B60" s="326" t="s">
+        <v>1284</v>
       </c>
       <c r="C60" s="84"/>
+      <c r="D60" s="77" t="s">
+        <v>1256</v>
+      </c>
       <c r="E60" s="77">
-        <v>-278.97000000000003</v>
+        <v>-1054.1400000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="89">
+        <v>45456</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C61" s="84"/>
+      <c r="D61" s="77" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E61" s="77">
+        <v>-3923.33</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="89">
-        <v>45444</v>
-      </c>
-      <c r="B62" s="97" t="s">
-        <v>1285</v>
+        <v>45442</v>
+      </c>
+      <c r="B62" s="84" t="s">
+        <v>1267</v>
       </c>
       <c r="C62" s="84"/>
       <c r="E62" s="77">
+        <v>-278.97000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="89">
+        <v>45444</v>
+      </c>
+      <c r="B64" s="97" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C64" s="84"/>
+      <c r="E64" s="77">
         <v>-1379.4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="89">
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="89">
         <v>45447</v>
       </c>
-      <c r="B63" s="97" t="s">
+      <c r="B65" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="77">
+      <c r="D65" s="77">
         <v>4300</v>
       </c>
-      <c r="E63" s="105" t="s">
+      <c r="E65" s="105" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="89"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="89"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-    </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="70"/>
-      <c r="B67" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="70"/>
-      <c r="E67" s="77">
-        <f>SUM(E68:E125)</f>
-        <v>-26619.52</v>
-      </c>
+      <c r="A67" s="89"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="89"/>
@@ -55919,274 +55925,266 @@
       <c r="C68" s="84"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="88">
-        <v>45285</v>
-      </c>
-      <c r="B69" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="77" t="s">
-        <v>196</v>
-      </c>
+      <c r="A69" s="70"/>
+      <c r="B69" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="70"/>
       <c r="E69" s="77">
-        <v>-3551.68</v>
+        <f>SUM(E70:E127)</f>
+        <v>-26619.52</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="89"/>
-      <c r="B70" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="B70" s="84"/>
       <c r="C70" s="84"/>
-      <c r="D70" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="E70" s="77">
-        <v>-649.78</v>
-      </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="89"/>
-      <c r="B71" s="3" t="s">
-        <v>187</v>
+      <c r="A71" s="88">
+        <v>45285</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>195</v>
       </c>
       <c r="C71" s="84"/>
       <c r="D71" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="E71" s="77">
+        <v>-3551.68</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="89"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="C72" s="84"/>
+      <c r="D72" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72" s="77">
+        <v>-649.78</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1258</v>
+      <c r="A73" s="89"/>
+      <c r="B73" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C73" s="84"/>
       <c r="D73" s="77" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E73" s="77">
-        <v>-5875</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1259</v>
-      </c>
+      <c r="A74" s="89"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="84"/>
-      <c r="D74" s="77" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E74" s="77">
-        <v>-4300</v>
-      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="89">
-        <v>45465</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>1267</v>
+        <v>45456</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1258</v>
       </c>
       <c r="C75" s="84"/>
+      <c r="D75" s="77" t="s">
+        <v>1256</v>
+      </c>
       <c r="E75" s="77">
-        <v>-483.01</v>
+        <v>-5875</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="89">
-        <v>45436</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>275</v>
+        <v>45456</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1259</v>
       </c>
       <c r="C76" s="84"/>
+      <c r="D76" s="77" t="s">
+        <v>1256</v>
+      </c>
       <c r="E76" s="77">
-        <v>-80</v>
+        <v>-4300</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="89">
-        <v>45436</v>
+        <v>45465</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C77" s="84"/>
       <c r="E77" s="77">
-        <v>-1000</v>
+        <v>-483.01</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="89">
-        <v>45437</v>
+        <v>45436</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1270</v>
+        <v>275</v>
       </c>
       <c r="C78" s="84"/>
       <c r="E78" s="77">
-        <v>-70</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="89">
-        <v>45438</v>
+        <v>45436</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>277</v>
+        <v>1268</v>
       </c>
       <c r="C79" s="84"/>
       <c r="E79" s="77">
-        <v>-232.27</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="89">
-        <v>45438</v>
+        <v>45437</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C80" s="84"/>
       <c r="E80" s="77">
-        <v>-130</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="89">
-        <v>45469</v>
+        <v>45438</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="C81" s="84"/>
       <c r="E81" s="77">
-        <v>-246.8</v>
+        <v>-232.27</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="89">
-        <v>45439</v>
+        <v>45438</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C82" s="84"/>
       <c r="E82" s="77">
-        <v>-70</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="89">
-        <v>45440</v>
+        <v>45469</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C83" s="84">
-        <v>300</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C83" s="84"/>
       <c r="E83" s="77">
-        <v>-300</v>
+        <v>-246.8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="89">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C84" s="84"/>
       <c r="E84" s="77">
-        <v>-460</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="89">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C85" s="84">
+        <v>300</v>
+      </c>
       <c r="E85" s="77">
-        <v>-27.66</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="89">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C86" s="84">
-        <v>400</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="C86" s="84"/>
       <c r="E86" s="77">
-        <v>-400</v>
+        <v>-460</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="89">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C87" s="84">
-        <v>200</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C87" s="84"/>
       <c r="E87" s="77">
-        <v>-200</v>
+        <v>-27.66</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="89">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C88" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C88" s="84">
+        <v>400</v>
+      </c>
       <c r="E88" s="77">
-        <v>-80</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="89">
-        <v>45444</v>
+        <v>45442</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C89" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C89" s="84">
+        <v>200</v>
+      </c>
       <c r="E89" s="77">
-        <v>-80</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="89">
-        <v>45444</v>
+        <v>45442</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>277</v>
+        <v>1272</v>
       </c>
       <c r="C90" s="84"/>
       <c r="E90" s="77">
-        <v>-12.26</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -56194,13 +56192,11 @@
         <v>45444</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C91" s="84">
-        <v>350</v>
-      </c>
+        <v>1273</v>
+      </c>
+      <c r="C91" s="84"/>
       <c r="E91" s="77">
-        <v>-350</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -56208,35 +56204,37 @@
         <v>45444</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1274</v>
+        <v>277</v>
       </c>
       <c r="C92" s="84"/>
       <c r="E92" s="77">
-        <v>-300</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="89">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C93" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C93" s="84">
+        <v>350</v>
+      </c>
       <c r="E93" s="77">
-        <v>-500</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="89">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="C94" s="84"/>
       <c r="E94" s="77">
-        <v>-70</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -56244,37 +56242,35 @@
         <v>45446</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="C95" s="84"/>
-      <c r="D95" s="77">
-        <v>7949.1</v>
+      <c r="E95" s="77">
+        <v>-500</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="89">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C96" s="84">
-        <v>240</v>
-      </c>
+        <v>1270</v>
+      </c>
+      <c r="C96" s="84"/>
       <c r="E96" s="77">
-        <v>-240</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="89">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1270</v>
+        <v>3</v>
       </c>
       <c r="C97" s="84"/>
-      <c r="E97" s="77">
-        <v>-70</v>
+      <c r="D97" s="77">
+        <v>7949.1</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -56282,63 +56278,64 @@
         <v>45447</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C98" s="84">
+        <v>240</v>
+      </c>
+      <c r="E98" s="77">
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="89">
+        <v>45447</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C99" s="84"/>
+      <c r="E99" s="77">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="89">
+        <v>45447</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="84"/>
-      <c r="D98" s="77">
+      <c r="C100" s="84"/>
+      <c r="D100" s="77">
         <v>11998.63</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="322">
-        <v>45448</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C99">
-        <v>280</v>
-      </c>
-      <c r="E99" s="77">
-        <v>-280</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="322">
-        <v>45448</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="322">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C101">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E101" s="77">
-        <v>-300</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="322">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E102" s="77">
-        <v>-84.7</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="322">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>365</v>
@@ -56352,154 +56349,157 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="322">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1273</v>
+        <v>277</v>
       </c>
       <c r="E104" s="77">
-        <v>-80</v>
+        <v>-84.7</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="322">
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C105">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E105" s="77">
-        <v>-250</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="322">
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="E106" s="77">
-        <v>-145</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="322">
-        <v>45454</v>
+        <v>45451</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C107">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E107" s="77">
-        <v>-400</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="322">
-        <v>45455</v>
+        <v>45451</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="E108" s="77">
-        <v>-300</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="322">
-        <v>45456</v>
+        <v>45454</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C109">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E109" s="77">
-        <v>-300</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="322">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="E110" s="77">
-        <v>-70</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="322">
-        <v>45459</v>
+        <v>45456</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1273</v>
+        <v>365</v>
+      </c>
+      <c r="C111">
+        <v>300</v>
       </c>
       <c r="E111" s="77">
-        <v>-80</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="322">
-        <v>45460</v>
+        <v>45456</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>277</v>
+        <v>1270</v>
       </c>
       <c r="E112" s="77">
-        <v>-71.95</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="322">
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>271</v>
+        <v>1273</v>
       </c>
       <c r="E113" s="77">
-        <v>-500</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="322">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1273</v>
+        <v>277</v>
       </c>
       <c r="E114" s="77">
-        <v>-80</v>
+        <v>-71.95</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="322">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1276</v>
+        <v>271</v>
       </c>
       <c r="E115" s="77">
-        <v>-105</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="322">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="E116" s="77">
-        <v>-800</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -56507,43 +56507,43 @@
         <v>45464</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E117" s="77">
-        <v>-277.5</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="322">
-        <v>45465</v>
+        <v>45464</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E118" s="77">
-        <v>-200</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="322">
-        <v>45466</v>
+        <v>45464</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E119" s="77">
-        <v>-689.5</v>
+        <v>-277.5</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="322">
-        <v>45466</v>
+        <v>45465</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>271</v>
+        <v>1279</v>
       </c>
       <c r="E120" s="77">
-        <v>-500</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -56551,10 +56551,10 @@
         <v>45466</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>355</v>
+        <v>1280</v>
       </c>
       <c r="E121" s="77">
-        <v>-650</v>
+        <v>-689.5</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -56562,32 +56562,32 @@
         <v>45466</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1281</v>
+        <v>271</v>
       </c>
       <c r="E122" s="77">
-        <v>-134.33000000000001</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="322">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>693</v>
+        <v>355</v>
       </c>
       <c r="E123" s="77">
-        <v>-28.05</v>
+        <v>-650</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="322">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E124" s="77">
-        <v>-28.05</v>
+        <v>-134.33000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -56595,98 +56595,92 @@
         <v>45467</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E125" s="77">
+        <v>-28.05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="322">
+        <v>45467</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E126" s="77">
+        <v>-28.05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="322">
+        <v>45467</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="E125" s="77">
+      <c r="E127" s="77">
         <v>-186.98</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15">
-      <c r="B126" s="61" t="s">
+    <row r="128" spans="1:5" ht="15">
+      <c r="B128" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="C126" s="3">
-        <f>SUM(C81:C125)</f>
+      <c r="C128" s="3">
+        <f>SUM(C83:C127)</f>
         <v>3320</v>
       </c>
-      <c r="E126" s="105" t="s">
+      <c r="E128" s="105" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="B127" s="3" t="s">
+    <row r="129" spans="1:5">
+      <c r="B129" s="3" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="68" t="s">
+    <row r="130" spans="1:5">
+      <c r="A130" s="68" t="s">
         <v>1289</v>
       </c>
-      <c r="B128" s="69" t="s">
+      <c r="B130" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C128" s="70">
+      <c r="C130" s="70">
         <v>2024</v>
       </c>
-      <c r="D128" s="71"/>
-      <c r="E128" s="72">
-        <f>SUM(E129:E149)</f>
+      <c r="D130" s="71"/>
+      <c r="E130" s="72">
+        <f>SUM(E131:E151)</f>
         <v>981303.72722800006</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="106">
+    <row r="131" spans="1:5">
+      <c r="A131" s="106">
         <v>45474</v>
       </c>
-      <c r="B129" s="22" t="s">
+      <c r="B131" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C129" s="107"/>
-      <c r="D129" s="107"/>
-      <c r="E129" s="107">
+      <c r="C131" s="107"/>
+      <c r="D131" s="107"/>
+      <c r="E131" s="107">
         <v>64000</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="106">
-        <f t="shared" ref="A130:A148" si="1">A129</f>
+    <row r="132" spans="1:5">
+      <c r="A132" s="106">
+        <f t="shared" ref="A132:A150" si="1">A131</f>
         <v>45474</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B132" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C130" s="107"/>
-      <c r="D130" s="107"/>
-      <c r="E130" s="107">
+      <c r="C132" s="107"/>
+      <c r="D132" s="107"/>
+      <c r="E132" s="107">
         <v>150845</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="73">
-        <f t="shared" si="1"/>
-        <v>45474</v>
-      </c>
-      <c r="B131" t="s">
-        <v>85</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="62">
-        <v>12712.47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="73">
-        <f t="shared" si="1"/>
-        <v>45474</v>
-      </c>
-      <c r="B132" t="s">
-        <v>86</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="62">
-        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -56695,12 +56689,12 @@
         <v>45474</v>
       </c>
       <c r="B133" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="62">
-        <v>0</v>
+        <v>12712.47</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -56709,9 +56703,9 @@
         <v>45474</v>
       </c>
       <c r="B134" t="s">
-        <v>87</v>
-      </c>
-      <c r="C134" s="108"/>
+        <v>86</v>
+      </c>
+      <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="62">
         <v>0</v>
@@ -56723,17 +56717,12 @@
         <v>45474</v>
       </c>
       <c r="B135" t="s">
-        <v>88</v>
-      </c>
-      <c r="C135" s="2">
-        <v>74</v>
-      </c>
-      <c r="D135" s="329">
-        <v>677.53942199999995</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
       <c r="E135" s="62">
-        <f>D135*C135</f>
-        <v>50137.917227999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -56742,17 +56731,12 @@
         <v>45474</v>
       </c>
       <c r="B136" t="s">
-        <v>237</v>
-      </c>
-      <c r="C136" s="109">
-        <v>125000</v>
-      </c>
-      <c r="D136" s="329">
-        <v>0.83506999999999998</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C136" s="108"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="62">
-        <f t="shared" ref="E136:E146" si="2">D136*C136</f>
-        <v>104383.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -56761,17 +56745,17 @@
         <v>45474</v>
       </c>
       <c r="B137" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="C137" s="2">
-        <v>10</v>
-      </c>
-      <c r="D137" s="2">
-        <v>123.7</v>
+        <v>74</v>
+      </c>
+      <c r="D137" s="327">
+        <v>677.53942199999995</v>
       </c>
       <c r="E137" s="62">
-        <f t="shared" si="2"/>
-        <v>1237</v>
+        <f>D137*C137</f>
+        <v>50137.917227999998</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -56780,17 +56764,17 @@
         <v>45474</v>
       </c>
       <c r="B138" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C138" s="2">
-        <v>38</v>
-      </c>
-      <c r="D138" s="2">
-        <v>22.78</v>
+        <v>237</v>
+      </c>
+      <c r="C138" s="109">
+        <v>125000</v>
+      </c>
+      <c r="D138" s="327">
+        <v>0.83506999999999998</v>
       </c>
       <c r="E138" s="62">
-        <f t="shared" si="2"/>
-        <v>865.6400000000001</v>
+        <f t="shared" ref="E138:E148" si="2">D138*C138</f>
+        <v>104383.75</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -56799,17 +56783,17 @@
         <v>45474</v>
       </c>
       <c r="B139" t="s">
-        <v>1291</v>
+        <v>238</v>
       </c>
       <c r="C139" s="2">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D139" s="2">
-        <v>27.26</v>
+        <v>123.7</v>
       </c>
       <c r="E139" s="62">
         <f t="shared" si="2"/>
-        <v>708.76</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -56818,13 +56802,17 @@
         <v>45474</v>
       </c>
       <c r="B140" t="s">
-        <v>96</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+        <v>1290</v>
+      </c>
+      <c r="C140" s="2">
+        <v>38</v>
+      </c>
+      <c r="D140" s="2">
+        <v>22.78</v>
+      </c>
       <c r="E140" s="62">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>865.6400000000001</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -56833,23 +56821,26 @@
         <v>45474</v>
       </c>
       <c r="B141" t="s">
-        <v>239</v>
+        <v>1291</v>
       </c>
       <c r="C141" s="2">
-        <v>7500</v>
+        <v>26</v>
       </c>
       <c r="D141" s="2">
-        <v>24.5</v>
+        <v>27.26</v>
       </c>
       <c r="E141" s="62">
         <f t="shared" si="2"/>
-        <v>183750</v>
+        <v>708.76</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="73">
         <f t="shared" si="1"/>
         <v>45474</v>
+      </c>
+      <c r="B142" t="s">
+        <v>96</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -56863,11 +56854,18 @@
         <f t="shared" si="1"/>
         <v>45474</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="B143" t="s">
+        <v>239</v>
+      </c>
+      <c r="C143" s="2">
+        <v>7500</v>
+      </c>
+      <c r="D143" s="2">
+        <v>24.5</v>
+      </c>
       <c r="E143" s="62">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>183750</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -56875,18 +56873,11 @@
         <f t="shared" si="1"/>
         <v>45474</v>
       </c>
-      <c r="B144" t="s">
-        <v>240</v>
-      </c>
-      <c r="C144" s="2">
-        <v>2375.02</v>
-      </c>
-      <c r="D144" s="2">
-        <v>156</v>
-      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
       <c r="E144" s="62">
         <f t="shared" si="2"/>
-        <v>370503.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -56894,18 +56885,11 @@
         <f t="shared" si="1"/>
         <v>45474</v>
       </c>
-      <c r="B145" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C145" s="75">
-        <v>31.963699999999999</v>
-      </c>
-      <c r="D145" s="2">
-        <v>850</v>
-      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
       <c r="E145" s="62">
         <f t="shared" si="2"/>
-        <v>27169.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -56914,18 +56898,17 @@
         <v>45474</v>
       </c>
       <c r="B146" t="s">
-        <v>242</v>
-      </c>
-      <c r="C146" s="75">
-        <f>C145</f>
-        <v>31.963699999999999</v>
+        <v>240</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2375.02</v>
       </c>
       <c r="D146" s="2">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="E146" s="62">
         <f t="shared" si="2"/>
-        <v>7990.9250000000002</v>
+        <v>370503.12</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -56934,17 +56917,17 @@
         <v>45474</v>
       </c>
       <c r="B147" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C147" s="75">
-        <v>34.412100000000002</v>
+        <v>31.963699999999999</v>
       </c>
       <c r="D147" s="2">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="E147" s="62">
-        <f>D147*C147</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>27169.145</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -56953,55 +56936,94 @@
         <v>45474</v>
       </c>
       <c r="B148" t="s">
-        <v>100</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C148" s="75">
+        <f>C147</f>
+        <v>31.963699999999999</v>
+      </c>
+      <c r="D148" s="2">
+        <v>250</v>
+      </c>
       <c r="E148" s="62">
-        <v>3000</v>
+        <f t="shared" si="2"/>
+        <v>7990.9250000000002</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="73">
-        <f>A148</f>
+        <f t="shared" si="1"/>
         <v>45474</v>
       </c>
       <c r="B149" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C149" s="75">
+        <v>34.412100000000002</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="62">
+        <f>D149*C149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B150" t="s">
+        <v>100</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="62">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="73">
+        <f>A150</f>
+        <v>45474</v>
+      </c>
+      <c r="B151" t="s">
         <v>101</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="62">
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="62">
         <v>4000</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="E150" s="110"/>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="C151" s="108"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="108"/>
-    </row>
     <row r="152" spans="1:5">
-      <c r="C152" s="108"/>
-      <c r="D152" s="61" t="s">
+      <c r="E152" s="110"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="C153" s="108"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="108"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="C154" s="108"/>
+      <c r="D154" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E152" s="8">
-        <f>SUM(E129:E149)</f>
+      <c r="E154" s="8">
+        <f>SUM(E131:E151)</f>
         <v>981303.72722800006</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="C153" s="111" t="str">
-        <f>A128</f>
+    <row r="155" spans="1:5">
+      <c r="C155" s="111" t="str">
+        <f>A130</f>
         <v>TEMMUZa</v>
       </c>
-      <c r="D153" s="112" t="s">
+      <c r="D155" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="E153" s="113">
+      <c r="E155" s="113">
         <f>H2</f>
         <v>-2767.8599999999997</v>
       </c>
@@ -57019,12 +57041,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF9BC2E6"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView topLeftCell="A15" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -57068,11 +57090,11 @@
       </c>
       <c r="G2" s="77">
         <f>SUM(G4:G36)</f>
-        <v>-87766.153693</v>
+        <v>-97778.153693</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-74338.533693000005</v>
+        <v>-84350.533693000005</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -57490,30 +57512,49 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" t="s">
+      <c r="A27" s="325">
+        <v>45476</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="77">
+      <c r="C27" s="22"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92">
         <v>-5000</v>
       </c>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92">
+        <v>-5006</v>
+      </c>
       <c r="H27" s="92">
         <f t="shared" si="0"/>
-        <v>-79766.153693</v>
+        <v>-84772.153693</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" t="s">
+      <c r="A28" s="325">
+        <v>45476</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="77">
+      <c r="C28" s="22"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92">
         <v>-5000</v>
       </c>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92">
+        <v>-5006</v>
+      </c>
       <c r="H28" s="92">
         <f t="shared" si="0"/>
-        <v>-79766.153693</v>
+        <v>-89778.153693</v>
       </c>
     </row>
     <row r="29" spans="1:8">
+      <c r="A29" s="22"/>
       <c r="B29" s="22" t="s">
         <v>133</v>
       </c>
@@ -57528,63 +57569,88 @@
       </c>
       <c r="H29" s="92">
         <f t="shared" si="0"/>
-        <v>-84766.153693</v>
+        <v>-94778.153693</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="H30" s="77">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92">
         <f t="shared" ref="H30:H34" si="1">H29+F30+G30</f>
-        <v>-84766.153693</v>
+        <v>-94778.153693</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="77">
+      <c r="C31" s="22"/>
+      <c r="D31" s="92">
         <v>10000</v>
       </c>
-      <c r="F31" s="77">
+      <c r="E31" s="92"/>
+      <c r="F31" s="92">
         <v>10427.620000000001</v>
       </c>
-      <c r="H31" s="77">
+      <c r="G31" s="92"/>
+      <c r="H31" s="92">
         <f t="shared" si="1"/>
-        <v>-74338.533693000005</v>
+        <v>-84350.533693000005</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="89"/>
-      <c r="B32" t="s">
+      <c r="A32" s="102"/>
+      <c r="B32" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D32" s="77">
+      <c r="C32" s="22"/>
+      <c r="D32" s="92">
         <v>15000</v>
       </c>
-      <c r="H32" s="77">
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92">
         <f t="shared" si="1"/>
-        <v>-74338.533693000005</v>
+        <v>-84350.533693000005</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="96">
+      <c r="A33" s="98">
         <v>45351</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104">
+      <c r="C33" s="133"/>
+      <c r="D33" s="330">
         <v>8500</v>
       </c>
-      <c r="H33" s="77">
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92">
         <f t="shared" si="1"/>
-        <v>-74338.533693000005</v>
+        <v>-84350.533693000005</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="H34" s="77">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92">
         <f t="shared" si="1"/>
-        <v>-74338.533693000005</v>
+        <v>-84350.533693000005</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75">
@@ -58922,7 +58988,7 @@
       </c>
       <c r="E139" s="113">
         <f>H2</f>
-        <v>-74338.533693000005</v>
+        <v>-84350.533693000005</v>
       </c>
     </row>
   </sheetData>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5FBF0-A034-4196-A912-8DBF57ACBCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D8D0ED-A196-4356-ADFD-D4FE9BA05F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="1294">
   <si>
     <t>hacı</t>
   </si>
@@ -5562,11 +5562,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="17" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Accent 1 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -20484,8 +20484,8 @@
   </sheetPr>
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -20525,10 +20525,10 @@
       <c r="K1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="328" t="s">
+      <c r="L1" s="329" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="328"/>
+      <c r="M1" s="329"/>
       <c r="N1" t="s">
         <v>30</v>
       </c>
@@ -20852,27 +20852,27 @@
       </c>
       <c r="B9" s="23">
         <f>'07_24'!D2</f>
-        <v>53500</v>
+        <v>51000</v>
       </c>
       <c r="C9" s="23">
         <f>'07_24'!E2</f>
-        <v>-81416.06</v>
+        <v>-85166.06</v>
       </c>
       <c r="D9" s="24">
         <f t="shared" si="0"/>
-        <v>17147.236306999985</v>
+        <v>10897.236306999985</v>
       </c>
       <c r="E9" s="23">
         <f>'07_24'!F2</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F9" s="23">
         <f>'07_24'!G2</f>
-        <v>-2767.8599999999997</v>
+        <v>-67351.62</v>
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>102127.30630700001</v>
+        <v>52543.546307000011</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20891,7 +20891,7 @@
       </c>
       <c r="M9" s="34"/>
       <c r="N9">
-        <f>'07_24'!E130/1000</f>
+        <f>'07_24'!E131/1000</f>
         <v>981.30372722800007</v>
       </c>
     </row>
@@ -20905,11 +20905,11 @@
       </c>
       <c r="C10" s="23">
         <f>'08_24'!E2</f>
-        <v>-38657.96</v>
+        <v>-64037.96</v>
       </c>
       <c r="D10" s="24">
         <f t="shared" si="0"/>
-        <v>152489.27630699999</v>
+        <v>120859.27630699999</v>
       </c>
       <c r="E10" s="23">
         <f>'08_24'!F2</f>
@@ -20921,7 +20921,7 @@
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>102127.30630700001</v>
+        <v>52543.546307000011</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -20955,7 +20955,7 @@
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>279185.256307</v>
+        <v>247555.256307</v>
       </c>
       <c r="E11" s="23">
         <f>'09_24'!F2</f>
@@ -20967,7 +20967,7 @@
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>102127.30630700001</v>
+        <v>52543.546307000011</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="D12" s="24">
         <f t="shared" si="0"/>
-        <v>286315.99630699999</v>
+        <v>254685.99630699999</v>
       </c>
       <c r="E12" s="23">
         <f>'10_24'!F2</f>
@@ -21016,7 +21016,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>102127.30630700001</v>
+        <v>52543.546307000011</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -21053,7 +21053,7 @@
       </c>
       <c r="D13" s="24">
         <f t="shared" si="0"/>
-        <v>523446.73630699998</v>
+        <v>491816.73630699998</v>
       </c>
       <c r="E13" s="23">
         <f>'11_24'!F2</f>
@@ -21065,7 +21065,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>102127.30630700001</v>
+        <v>52543.546307000011</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -21102,7 +21102,7 @@
       </c>
       <c r="D14" s="24">
         <f t="shared" si="0"/>
-        <v>509546.71630699997</v>
+        <v>477916.71630699997</v>
       </c>
       <c r="E14" s="23">
         <f>'12_24'!F2</f>
@@ -21114,7 +21114,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>102127.30630700001</v>
+        <v>52543.546307000011</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -21143,27 +21143,27 @@
       </c>
       <c r="B15" s="24">
         <f>SUM(B3:B14)</f>
-        <v>1332564.6000000001</v>
+        <v>1330064.6000000001</v>
       </c>
       <c r="C15" s="24">
         <f>SUM(C3:C14)</f>
-        <v>-823017.88369300007</v>
+        <v>-852147.88369300007</v>
       </c>
       <c r="D15" s="24">
         <f>B15+C15</f>
-        <v>509546.71630700002</v>
+        <v>477916.71630700002</v>
       </c>
       <c r="E15" s="24">
         <f>SUM(E3:E14)</f>
-        <v>606405.57000000007</v>
+        <v>621405.57000000007</v>
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-504278.26369299996</v>
+        <v>-568862.02369299997</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>102127.30630700011</v>
+        <v>52543.546307000099</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -21190,24 +21190,24 @@
       </c>
       <c r="B16" s="45">
         <f>B15/A16</f>
-        <v>111047.05</v>
+        <v>110838.71666666667</v>
       </c>
       <c r="C16" s="46">
         <f>C15/A16</f>
-        <v>-68584.823641083334</v>
+        <v>-71012.323641083334</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46">
         <f>E15/A16</f>
-        <v>50533.797500000008</v>
+        <v>51783.797500000008</v>
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-42023.188641083332</v>
+        <v>-47405.168641083328</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>8510.6088589166757</v>
+        <v>4378.6288589166752</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
@@ -21241,11 +21241,11 @@
       <c r="K17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="329">
+      <c r="L17" s="330">
         <f>L15+M15</f>
         <v>1142.4992299999999</v>
       </c>
-      <c r="M17" s="329"/>
+      <c r="M17" s="330"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="55" t="s">
@@ -21271,7 +21271,7 @@
         <v>63</v>
       </c>
       <c r="E19" s="60">
-        <f>'07_24'!F27+'08_24'!F23+'09_24'!F22+'10_24'!F24+'11_24'!F22+'12_24'!F29</f>
+        <f>'07_24'!F29+'08_24'!F23+'09_24'!F22+'10_24'!F24+'11_24'!F22+'12_24'!F29</f>
         <v>0</v>
       </c>
     </row>
@@ -33862,8 +33862,7 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35514,7 +35513,7 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -40319,7 +40318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -41487,7 +41486,7 @@
   </sheetPr>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -42465,7 +42464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -43920,7 +43919,7 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -44675,7 +44674,7 @@
   </sheetPr>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -46509,7 +46508,7 @@
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -48757,7 +48756,7 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -49995,16 +49994,19 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D12" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
@@ -52568,7 +52570,7 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -54298,8 +54300,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:E58"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -54335,7 +54337,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E34)</f>
-        <v>-38657.96</v>
+        <v>-64037.96</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F34)</f>
@@ -54510,7 +54512,7 @@
       </c>
       <c r="E16" s="77">
         <f>E65</f>
-        <v>9700.2000000000007</v>
+        <v>-10899.8</v>
       </c>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
@@ -54524,7 +54526,7 @@
       </c>
       <c r="C17" s="80"/>
       <c r="E17" s="77">
-        <v>-6720</v>
+        <v>-17500</v>
       </c>
       <c r="H17" s="77">
         <f t="shared" si="0"/>
@@ -54533,13 +54535,8 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="89"/>
-      <c r="B18" s="80" t="s">
-        <v>131</v>
-      </c>
+      <c r="B18" s="80"/>
       <c r="C18" s="80"/>
-      <c r="E18" s="77">
-        <v>-6000</v>
-      </c>
       <c r="H18" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -54926,7 +54923,7 @@
       <c r="C65" s="70"/>
       <c r="E65" s="77">
         <f>SUM(E66:E74)</f>
-        <v>9700.2000000000007</v>
+        <v>-10899.8</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -54977,7 +54974,7 @@
         <v>1260</v>
       </c>
       <c r="E70" s="77">
-        <v>6000</v>
+        <v>-6000</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -54992,7 +54989,7 @@
         <v>1260</v>
       </c>
       <c r="E71" s="77">
-        <v>4300</v>
+        <v>-4300</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -55233,10 +55230,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55267,24 +55264,24 @@
         <v>105</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D36)</f>
-        <v>53500</v>
+        <f>SUM(D4:D37)</f>
+        <v>51000</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E36)</f>
-        <v>-81416.06</v>
+        <f>SUM(E4:E37)</f>
+        <v>-85166.06</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F36)</f>
-        <v>0</v>
+        <f>SUM(F4:F37)</f>
+        <v>15000</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G36)</f>
-        <v>-2767.8599999999997</v>
+        <f>SUM(G4:G37)</f>
+        <v>-67351.62</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-2767.8599999999997</v>
+        <v>-52351.619999999995</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -55310,14 +55307,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="77">
-        <v>-10000</v>
-      </c>
       <c r="H5" s="77">
-        <f t="shared" ref="H5:H34" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H35" si="0">H4+F5+G5</f>
         <v>-167</v>
       </c>
     </row>
@@ -55379,662 +55370,710 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
+      <c r="A9" s="325">
+        <v>45478</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92">
+        <f>E53</f>
+        <v>-8944.5400000000009</v>
+      </c>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92">
+        <f>E9</f>
+        <v>-8944.5400000000009</v>
+      </c>
       <c r="H9" s="77">
         <f t="shared" si="0"/>
-        <v>-962</v>
+        <v>-9906.5400000000009</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="80" t="s">
+      <c r="A10" s="101">
+        <v>45478</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92">
+        <f>E70</f>
+        <v>-26619.52</v>
+      </c>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92">
+        <f>E10</f>
+        <v>-26619.52</v>
+      </c>
+      <c r="H10" s="77">
+        <f t="shared" si="0"/>
+        <v>-36526.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="102">
+        <v>45481</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="92">
+        <v>15000</v>
+      </c>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92">
+        <v>15000</v>
+      </c>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92">
+        <f t="shared" si="0"/>
+        <v>-21526.059999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="325">
+        <v>45481</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92">
+        <v>-17500</v>
+      </c>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92">
+        <v>-17500</v>
+      </c>
+      <c r="H12" s="92">
+        <f t="shared" si="0"/>
+        <v>-39026.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="325">
+        <v>45481</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92">
+        <v>-1500</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92">
+        <v>-1519.7</v>
+      </c>
+      <c r="H13" s="92">
+        <f t="shared" si="0"/>
+        <v>-40545.759999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="22"/>
+      <c r="B14" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C14" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="77">
+      <c r="D14" s="92"/>
+      <c r="E14" s="92">
         <v>-150</v>
       </c>
-      <c r="H10" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="84" t="s">
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92">
+        <f t="shared" si="0"/>
+        <v>-40545.759999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="325">
+        <v>45481</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92">
+        <v>-10000</v>
+      </c>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92">
+        <v>-10000</v>
+      </c>
+      <c r="H15" s="92">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="H16" s="92">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="H17" s="92">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" s="92">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C19" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E19" s="77">
         <v>-300</v>
       </c>
-      <c r="H11" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="84" t="s">
+      <c r="H19" s="92">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C20" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E20" s="77">
         <v>-100</v>
       </c>
-      <c r="H12" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="H13" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="87" t="s">
+      <c r="H20" s="77">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="H21" s="77">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="77">
-        <f>E47*-1</f>
+      <c r="E22" s="77">
+        <f>E48*-1</f>
         <v>0</v>
       </c>
-      <c r="H14" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="77">
-        <f>E52</f>
-        <v>-8944.5400000000009</v>
-      </c>
-      <c r="H15" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="88">
-        <v>45173</v>
-      </c>
-      <c r="B16" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="77">
-        <f>E69</f>
-        <v>-26619.52</v>
-      </c>
-      <c r="H16" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="89"/>
-      <c r="B17" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="E17" s="77">
-        <v>-7500</v>
-      </c>
-      <c r="H17" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="89"/>
-      <c r="B18" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="80"/>
-      <c r="E18" s="77">
-        <v>-10000</v>
-      </c>
-      <c r="H18" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="80"/>
-      <c r="E19" s="77">
-        <v>-1500</v>
-      </c>
-      <c r="H19" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="89"/>
-      <c r="H20" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="96"/>
-      <c r="H21" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
       <c r="H22" s="77">
         <f t="shared" si="0"/>
-        <v>-962</v>
+        <v>-50545.759999999995</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
+      <c r="A23" s="96"/>
       <c r="H23" s="77">
         <f t="shared" si="0"/>
-        <v>-962</v>
+        <v>-50545.759999999995</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="77">
-        <v>-5000</v>
-      </c>
       <c r="H24" s="77">
         <f t="shared" si="0"/>
-        <v>-962</v>
+        <v>-50545.759999999995</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="77">
-        <v>-5000</v>
-      </c>
       <c r="H25" s="77">
         <f t="shared" si="0"/>
-        <v>-962</v>
+        <v>-50545.759999999995</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E26" s="77">
-        <v>-5000</v>
+        <v>-6250</v>
       </c>
       <c r="H26" s="77">
         <f t="shared" si="0"/>
-        <v>-962</v>
+        <v>-50545.759999999995</v>
       </c>
     </row>
     <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="77">
+        <v>-6250</v>
+      </c>
       <c r="H27" s="77">
         <f t="shared" si="0"/>
-        <v>-962</v>
+        <v>-50545.759999999995</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="77">
+        <v>-6250</v>
+      </c>
+      <c r="H28" s="77">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="H29" s="77">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="77">
-        <v>15000</v>
-      </c>
-      <c r="H28" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="89"/>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="77">
-        <f t="shared" si="0"/>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="89"/>
-      <c r="B30" s="103" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104">
-        <v>8500</v>
+      <c r="D30" s="77">
+        <v>12500</v>
+      </c>
+      <c r="H30" s="77">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="89"/>
-      <c r="B31" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="77">
-        <v>15000</v>
+      <c r="H31" s="77">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="89"/>
-      <c r="B32" t="s">
+      <c r="B32" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="103"/>
+      <c r="D32" s="104">
+        <v>8500</v>
+      </c>
+      <c r="H32" s="77">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="89"/>
+      <c r="B33" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D33" s="77">
         <v>15000</v>
       </c>
-      <c r="H32" s="77">
-        <f>H29+F32+G32</f>
-        <v>-962</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="89">
+      <c r="H33" s="77">
+        <f t="shared" si="0"/>
+        <v>-50545.759999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="89">
         <v>45504</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G34" s="77">
         <v>-1805.86</v>
       </c>
-      <c r="H33" s="77">
-        <f t="shared" si="0"/>
-        <v>-2767.8599999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
       <c r="H34" s="77">
         <f t="shared" si="0"/>
-        <v>-2767.8599999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75">
-      <c r="B36" s="91"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" t="s">
+        <v>-52351.619999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="H35" s="77">
+        <f t="shared" si="0"/>
+        <v>-52351.619999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75">
+      <c r="B37" s="91"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="70" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-    </row>
-    <row r="40" spans="1:8" s="22" customFormat="1">
-      <c r="A40" s="89"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="93">
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+    </row>
+    <row r="41" spans="1:8" s="22" customFormat="1">
+      <c r="A41" s="89"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="93">
         <v>44929</v>
       </c>
-      <c r="B41" s="94" t="s">
+      <c r="B42" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="77">
-        <f>SUM(D42:D47)</f>
+      <c r="C42" s="70"/>
+      <c r="D42" s="77">
+        <f>SUM(D43:D48)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="77">
-        <f>SUM(E42:E47)</f>
+      <c r="E42" s="77">
+        <f>SUM(E43:E48)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="89"/>
-      <c r="B42" s="84" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="89"/>
+      <c r="B43" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="22"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>142</v>
-      </c>
+      <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="84"/>
-    </row>
-    <row r="48" spans="1:8">
       <c r="C48" s="84"/>
     </row>
-    <row r="50" spans="1:5">
-      <c r="B50" s="62"/>
+    <row r="49" spans="1:5">
+      <c r="C49" s="84"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="B51" s="95"/>
+      <c r="B51" s="62"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="70"/>
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="95"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="70"/>
+      <c r="B53" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="E52" s="77">
-        <f>SUM(E53:E65)</f>
+      <c r="C53" s="70"/>
+      <c r="E53" s="77">
+        <f>SUM(E54:E66)</f>
         <v>-8944.5400000000009</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="96">
-        <v>45348</v>
-      </c>
-      <c r="B54" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54">
-        <v>1406</v>
-      </c>
-      <c r="D54" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="77">
-        <v>-234.33</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="96">
-        <v>45373</v>
+        <v>45348</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C55">
-        <v>10176.39</v>
+        <v>1406</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E55" s="77">
-        <v>-1130.71</v>
+        <v>-234.33</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="96">
-        <v>45375</v>
+        <v>45373</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C56">
-        <v>5999</v>
+        <v>10176.39</v>
       </c>
       <c r="D56" s="77" t="s">
         <v>192</v>
       </c>
       <c r="E56" s="77">
-        <v>-666.56</v>
+        <v>-1130.71</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="96">
-        <v>45358</v>
+        <v>45375</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C57">
-        <v>2273</v>
+        <v>5999</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E57" s="77">
-        <v>-378.87</v>
+        <v>-666.56</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="96">
+        <v>45358</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58">
+        <v>2273</v>
+      </c>
+      <c r="D58" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="77">
+        <v>-378.87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="96">
         <v>45371</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="77" t="s">
+      <c r="D59" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="E58" s="77">
+      <c r="E59" s="77">
         <v>101.77</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="96"/>
-    </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="89">
-        <v>45442</v>
-      </c>
-      <c r="B60" s="326" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C60" s="84"/>
-      <c r="D60" s="77" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E60" s="77">
-        <v>-1054.1400000000001</v>
-      </c>
+      <c r="A60" s="96"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B61" s="97" t="s">
-        <v>1286</v>
+        <v>45442</v>
+      </c>
+      <c r="B61" s="326" t="s">
+        <v>1284</v>
       </c>
       <c r="C61" s="84"/>
       <c r="D61" s="77" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E61" s="77">
-        <v>-3923.33</v>
+        <v>-1054.1400000000001</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="89">
+        <v>45456</v>
+      </c>
+      <c r="B62" s="97" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C62" s="84"/>
+      <c r="D62" s="77" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E62" s="77">
+        <v>-3923.33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="89">
         <v>45442</v>
       </c>
-      <c r="B62" s="84" t="s">
+      <c r="B63" s="84" t="s">
         <v>1267</v>
       </c>
-      <c r="C62" s="84"/>
-      <c r="E62" s="77">
+      <c r="C63" s="84"/>
+      <c r="E63" s="77">
         <v>-278.97000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="89">
+    <row r="65" spans="1:5">
+      <c r="A65" s="89">
         <v>45444</v>
       </c>
-      <c r="B64" s="97" t="s">
+      <c r="B65" s="97" t="s">
         <v>1285</v>
       </c>
-      <c r="C64" s="84"/>
-      <c r="E64" s="77">
+      <c r="C65" s="84"/>
+      <c r="E65" s="77">
         <v>-1379.4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15">
-      <c r="A65" s="89">
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="89">
         <v>45447</v>
       </c>
-      <c r="B65" s="97" t="s">
+      <c r="B66" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="77">
+      <c r="D66" s="77">
         <v>4300</v>
       </c>
-      <c r="E65" s="105" t="s">
+      <c r="E66" s="105" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="89"/>
-      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="89"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="70"/>
-      <c r="B69" s="69" t="s">
+      <c r="A69" s="89"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="70"/>
+      <c r="B70" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="E69" s="77">
-        <f>SUM(E70:E127)</f>
+      <c r="C70" s="70"/>
+      <c r="E70" s="77">
+        <f>SUM(E71:E128)</f>
         <v>-26619.52</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="89"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="84"/>
-    </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="88">
+      <c r="A71" s="89"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="88">
         <v>45285</v>
       </c>
-      <c r="B71" s="84" t="s">
+      <c r="B72" s="84" t="s">
         <v>195</v>
-      </c>
-      <c r="C71" s="84"/>
-      <c r="D71" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="77">
-        <v>-3551.68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="89"/>
-      <c r="B72" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="C72" s="84"/>
       <c r="D72" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E72" s="77">
-        <v>-649.78</v>
+        <v>-3551.68</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="89"/>
       <c r="B73" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C73" s="84"/>
       <c r="D73" s="77" t="s">
         <v>197</v>
       </c>
+      <c r="E73" s="77">
+        <v>-649.78</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="89"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C74" s="84"/>
+      <c r="D74" s="77" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1258</v>
-      </c>
+      <c r="A75" s="89"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="84"/>
-      <c r="D75" s="77" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E75" s="77">
-        <v>-5875</v>
-      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="89">
         <v>45456</v>
       </c>
       <c r="B76" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C76" s="84"/>
       <c r="D76" s="77" t="s">
         <v>1256</v>
       </c>
       <c r="E76" s="77">
-        <v>-4300</v>
+        <v>-5875</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="89">
-        <v>45465</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>1267</v>
+        <v>45456</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1259</v>
       </c>
       <c r="C77" s="84"/>
+      <c r="D77" s="77" t="s">
+        <v>1256</v>
+      </c>
       <c r="E77" s="77">
-        <v>-483.01</v>
+        <v>-4300</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="89">
-        <v>45436</v>
+        <v>45465</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>275</v>
+        <v>1267</v>
       </c>
       <c r="C78" s="84"/>
       <c r="E78" s="77">
-        <v>-80</v>
+        <v>-483.01</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -56042,35 +56081,35 @@
         <v>45436</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1268</v>
+        <v>275</v>
       </c>
       <c r="C79" s="84"/>
       <c r="E79" s="77">
-        <v>-1000</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="89">
-        <v>45437</v>
+        <v>45436</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C80" s="84"/>
       <c r="E80" s="77">
-        <v>-70</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="89">
-        <v>45438</v>
+        <v>45437</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>277</v>
+        <v>1270</v>
       </c>
       <c r="C81" s="84"/>
       <c r="E81" s="77">
-        <v>-232.27</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -56078,49 +56117,47 @@
         <v>45438</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1269</v>
+        <v>277</v>
       </c>
       <c r="C82" s="84"/>
       <c r="E82" s="77">
-        <v>-130</v>
+        <v>-232.27</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="89">
-        <v>45469</v>
+        <v>45438</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>356</v>
+        <v>1269</v>
       </c>
       <c r="C83" s="84"/>
       <c r="E83" s="77">
-        <v>-246.8</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="89">
-        <v>45439</v>
+        <v>45469</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1270</v>
+        <v>356</v>
       </c>
       <c r="C84" s="84"/>
       <c r="E84" s="77">
-        <v>-70</v>
+        <v>-246.8</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="89">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C85" s="84">
-        <v>300</v>
-      </c>
+        <v>1270</v>
+      </c>
+      <c r="C85" s="84"/>
       <c r="E85" s="77">
-        <v>-300</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -56128,23 +56165,25 @@
         <v>45440</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C86" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C86" s="84">
+        <v>300</v>
+      </c>
       <c r="E86" s="77">
-        <v>-460</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="89">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>277</v>
+        <v>1271</v>
       </c>
       <c r="C87" s="84"/>
       <c r="E87" s="77">
-        <v>-27.66</v>
+        <v>-460</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -56152,27 +56191,25 @@
         <v>45441</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C88" s="84">
-        <v>400</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C88" s="84"/>
       <c r="E88" s="77">
-        <v>-400</v>
+        <v>-27.66</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="89">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C89" s="84">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E89" s="77">
-        <v>-200</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -56180,19 +56217,21 @@
         <v>45442</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C90" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C90" s="84">
+        <v>200</v>
+      </c>
       <c r="E90" s="77">
-        <v>-80</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="89">
-        <v>45444</v>
+        <v>45442</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C91" s="84"/>
       <c r="E91" s="77">
@@ -56204,11 +56243,11 @@
         <v>45444</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>277</v>
+        <v>1273</v>
       </c>
       <c r="C92" s="84"/>
       <c r="E92" s="77">
-        <v>-12.26</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -56216,13 +56255,11 @@
         <v>45444</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C93" s="84">
-        <v>350</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C93" s="84"/>
       <c r="E93" s="77">
-        <v>-350</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -56230,23 +56267,25 @@
         <v>45444</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C94" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C94" s="84">
+        <v>350</v>
+      </c>
       <c r="E94" s="77">
-        <v>-300</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="89">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>271</v>
+        <v>1274</v>
       </c>
       <c r="C95" s="84"/>
       <c r="E95" s="77">
-        <v>-500</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -56254,11 +56293,11 @@
         <v>45446</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1270</v>
+        <v>271</v>
       </c>
       <c r="C96" s="84"/>
       <c r="E96" s="77">
-        <v>-70</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -56266,25 +56305,23 @@
         <v>45446</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>3</v>
+        <v>1270</v>
       </c>
       <c r="C97" s="84"/>
-      <c r="D97" s="77">
-        <v>7949.1</v>
+      <c r="E97" s="77">
+        <v>-70</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="89">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C98" s="84">
-        <v>240</v>
-      </c>
-      <c r="E98" s="77">
-        <v>-240</v>
+        <v>3</v>
+      </c>
+      <c r="C98" s="84"/>
+      <c r="D98" s="77">
+        <v>7949.1</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -56292,11 +56329,13 @@
         <v>45447</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C99" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C99" s="84">
+        <v>240</v>
+      </c>
       <c r="E99" s="77">
-        <v>-70</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -56304,25 +56343,23 @@
         <v>45447</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C100" s="84"/>
+      <c r="E100" s="77">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="89">
+        <v>45447</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="84"/>
-      <c r="D100" s="77">
+      <c r="C101" s="84"/>
+      <c r="D101" s="77">
         <v>11998.63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="322">
-        <v>45448</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C101">
-        <v>280</v>
-      </c>
-      <c r="E101" s="77">
-        <v>-280</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -56330,21 +56367,21 @@
         <v>45448</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>400</v>
+        <v>365</v>
+      </c>
+      <c r="C102">
+        <v>280</v>
+      </c>
+      <c r="E102" s="77">
+        <v>-280</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="322">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C103">
-        <v>300</v>
-      </c>
-      <c r="E103" s="77">
-        <v>-300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -56352,24 +56389,24 @@
         <v>45449</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>277</v>
+        <v>365</v>
+      </c>
+      <c r="C104">
+        <v>300</v>
       </c>
       <c r="E104" s="77">
-        <v>-84.7</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="322">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C105">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="E105" s="77">
-        <v>-300</v>
+        <v>-84.7</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -56377,24 +56414,24 @@
         <v>45450</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1273</v>
+        <v>365</v>
+      </c>
+      <c r="C106">
+        <v>300</v>
       </c>
       <c r="E106" s="77">
-        <v>-80</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="322">
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C107">
-        <v>250</v>
+        <v>1273</v>
       </c>
       <c r="E107" s="77">
-        <v>-250</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -56402,46 +56439,46 @@
         <v>45451</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1270</v>
+        <v>365</v>
+      </c>
+      <c r="C108">
+        <v>250</v>
       </c>
       <c r="E108" s="77">
-        <v>-145</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="322">
-        <v>45454</v>
+        <v>45451</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C109">
-        <v>400</v>
+        <v>1270</v>
       </c>
       <c r="E109" s="77">
-        <v>-400</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="322">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1275</v>
+        <v>365</v>
+      </c>
+      <c r="C110">
+        <v>400</v>
       </c>
       <c r="E110" s="77">
-        <v>-300</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="322">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C111">
-        <v>300</v>
+        <v>1275</v>
       </c>
       <c r="E111" s="77">
         <v>-300</v>
@@ -56452,32 +56489,35 @@
         <v>45456</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1270</v>
+        <v>365</v>
+      </c>
+      <c r="C112">
+        <v>300</v>
       </c>
       <c r="E112" s="77">
-        <v>-70</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="322">
-        <v>45459</v>
+        <v>45456</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E113" s="77">
-        <v>-80</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="322">
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>277</v>
+        <v>1273</v>
       </c>
       <c r="E114" s="77">
-        <v>-71.95</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -56485,32 +56525,32 @@
         <v>45460</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E115" s="77">
-        <v>-500</v>
+        <v>-71.95</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="322">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1273</v>
+        <v>271</v>
       </c>
       <c r="E116" s="77">
-        <v>-80</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="322">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E117" s="77">
-        <v>-105</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -56518,10 +56558,10 @@
         <v>45464</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E118" s="77">
-        <v>-800</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -56529,32 +56569,32 @@
         <v>45464</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E119" s="77">
-        <v>-277.5</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="322">
-        <v>45465</v>
+        <v>45464</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E120" s="77">
-        <v>-200</v>
+        <v>-277.5</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="322">
-        <v>45466</v>
+        <v>45465</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E121" s="77">
-        <v>-689.5</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -56562,10 +56602,10 @@
         <v>45466</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>271</v>
+        <v>1280</v>
       </c>
       <c r="E122" s="77">
-        <v>-500</v>
+        <v>-689.5</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -56573,10 +56613,10 @@
         <v>45466</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="E123" s="77">
-        <v>-650</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -56584,21 +56624,21 @@
         <v>45466</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>1281</v>
+        <v>355</v>
       </c>
       <c r="E124" s="77">
-        <v>-134.33000000000001</v>
+        <v>-650</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="322">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>693</v>
+        <v>1281</v>
       </c>
       <c r="E125" s="77">
-        <v>-28.05</v>
+        <v>-134.33000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -56606,7 +56646,7 @@
         <v>45467</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>1282</v>
+        <v>693</v>
       </c>
       <c r="E126" s="77">
         <v>-28.05</v>
@@ -56617,84 +56657,81 @@
         <v>45467</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E127" s="77">
+        <v>-28.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="322">
+        <v>45467</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="E127" s="77">
+      <c r="E128" s="77">
         <v>-186.98</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15">
-      <c r="B128" s="61" t="s">
+    <row r="129" spans="1:5" ht="15">
+      <c r="B129" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="C128" s="3">
-        <f>SUM(C83:C127)</f>
+      <c r="C129" s="3">
+        <f>SUM(C84:C128)</f>
         <v>3320</v>
       </c>
-      <c r="E128" s="105" t="s">
+      <c r="E129" s="105" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="B129" s="3" t="s">
+    <row r="130" spans="1:5">
+      <c r="B130" s="3" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="68" t="s">
+    <row r="131" spans="1:5">
+      <c r="A131" s="68" t="s">
         <v>1289</v>
       </c>
-      <c r="B130" s="69" t="s">
+      <c r="B131" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C130" s="70">
+      <c r="C131" s="70">
         <v>2024</v>
       </c>
-      <c r="D130" s="71"/>
-      <c r="E130" s="72">
-        <f>SUM(E131:E151)</f>
+      <c r="D131" s="71"/>
+      <c r="E131" s="72">
+        <f>SUM(E132:E152)</f>
         <v>981303.72722800006</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="106">
-        <v>45474</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" s="107"/>
-      <c r="D131" s="107"/>
-      <c r="E131" s="107">
-        <v>64000</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="106">
-        <f t="shared" ref="A132:A150" si="1">A131</f>
         <v>45474</v>
       </c>
       <c r="B132" s="22" t="s">
-        <v>235</v>
+        <v>83</v>
       </c>
       <c r="C132" s="107"/>
       <c r="D132" s="107"/>
       <c r="E132" s="107">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="106">
+        <f t="shared" ref="A133:A151" si="1">A132</f>
+        <v>45474</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C133" s="107"/>
+      <c r="D133" s="107"/>
+      <c r="E133" s="107">
         <v>150845</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="73">
-        <f t="shared" si="1"/>
-        <v>45474</v>
-      </c>
-      <c r="B133" t="s">
-        <v>85</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="62">
-        <v>12712.47</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -56703,12 +56740,12 @@
         <v>45474</v>
       </c>
       <c r="B134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="62">
-        <v>0</v>
+        <v>12712.47</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -56717,7 +56754,7 @@
         <v>45474</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -56731,9 +56768,9 @@
         <v>45474</v>
       </c>
       <c r="B136" t="s">
-        <v>87</v>
-      </c>
-      <c r="C136" s="108"/>
+        <v>236</v>
+      </c>
+      <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="62">
         <v>0</v>
@@ -56745,17 +56782,12 @@
         <v>45474</v>
       </c>
       <c r="B137" t="s">
-        <v>88</v>
-      </c>
-      <c r="C137" s="2">
-        <v>74</v>
-      </c>
-      <c r="D137" s="327">
-        <v>677.53942199999995</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C137" s="108"/>
+      <c r="D137" s="2"/>
       <c r="E137" s="62">
-        <f>D137*C137</f>
-        <v>50137.917227999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -56764,17 +56796,17 @@
         <v>45474</v>
       </c>
       <c r="B138" t="s">
-        <v>237</v>
-      </c>
-      <c r="C138" s="109">
-        <v>125000</v>
+        <v>88</v>
+      </c>
+      <c r="C138" s="2">
+        <v>74</v>
       </c>
       <c r="D138" s="327">
-        <v>0.83506999999999998</v>
+        <v>677.53942199999995</v>
       </c>
       <c r="E138" s="62">
-        <f t="shared" ref="E138:E148" si="2">D138*C138</f>
-        <v>104383.75</v>
+        <f>D138*C138</f>
+        <v>50137.917227999998</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -56783,17 +56815,17 @@
         <v>45474</v>
       </c>
       <c r="B139" t="s">
-        <v>238</v>
-      </c>
-      <c r="C139" s="2">
-        <v>10</v>
-      </c>
-      <c r="D139" s="2">
-        <v>123.7</v>
+        <v>237</v>
+      </c>
+      <c r="C139" s="109">
+        <v>125000</v>
+      </c>
+      <c r="D139" s="327">
+        <v>0.83506999999999998</v>
       </c>
       <c r="E139" s="62">
-        <f t="shared" si="2"/>
-        <v>1237</v>
+        <f t="shared" ref="E139:E149" si="2">D139*C139</f>
+        <v>104383.75</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -56802,17 +56834,17 @@
         <v>45474</v>
       </c>
       <c r="B140" t="s">
-        <v>1290</v>
+        <v>238</v>
       </c>
       <c r="C140" s="2">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D140" s="2">
-        <v>22.78</v>
+        <v>123.7</v>
       </c>
       <c r="E140" s="62">
         <f t="shared" si="2"/>
-        <v>865.6400000000001</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -56821,17 +56853,17 @@
         <v>45474</v>
       </c>
       <c r="B141" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C141" s="2">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D141" s="2">
-        <v>27.26</v>
+        <v>22.78</v>
       </c>
       <c r="E141" s="62">
         <f t="shared" si="2"/>
-        <v>708.76</v>
+        <v>865.6400000000001</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -56840,13 +56872,17 @@
         <v>45474</v>
       </c>
       <c r="B142" t="s">
-        <v>96</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+        <v>1291</v>
+      </c>
+      <c r="C142" s="2">
+        <v>26</v>
+      </c>
+      <c r="D142" s="2">
+        <v>27.26</v>
+      </c>
       <c r="E142" s="62">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>708.76</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -56855,17 +56891,13 @@
         <v>45474</v>
       </c>
       <c r="B143" t="s">
-        <v>239</v>
-      </c>
-      <c r="C143" s="2">
-        <v>7500</v>
-      </c>
-      <c r="D143" s="2">
-        <v>24.5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="62">
         <f t="shared" si="2"/>
-        <v>183750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -56873,11 +56905,18 @@
         <f t="shared" si="1"/>
         <v>45474</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="B144" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="2">
+        <v>7500</v>
+      </c>
+      <c r="D144" s="2">
+        <v>24.5</v>
+      </c>
       <c r="E144" s="62">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>183750</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -56897,18 +56936,11 @@
         <f t="shared" si="1"/>
         <v>45474</v>
       </c>
-      <c r="B146" t="s">
-        <v>240</v>
-      </c>
-      <c r="C146" s="2">
-        <v>2375.02</v>
-      </c>
-      <c r="D146" s="2">
-        <v>156</v>
-      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
       <c r="E146" s="62">
         <f t="shared" si="2"/>
-        <v>370503.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -56917,17 +56949,17 @@
         <v>45474</v>
       </c>
       <c r="B147" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C147" s="75">
-        <v>31.963699999999999</v>
+        <v>240</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2375.02</v>
       </c>
       <c r="D147" s="2">
-        <v>850</v>
+        <v>156</v>
       </c>
       <c r="E147" s="62">
         <f t="shared" si="2"/>
-        <v>27169.145</v>
+        <v>370503.12</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -56936,18 +56968,17 @@
         <v>45474</v>
       </c>
       <c r="B148" t="s">
-        <v>242</v>
+        <v>1292</v>
       </c>
       <c r="C148" s="75">
-        <f>C147</f>
         <v>31.963699999999999</v>
       </c>
       <c r="D148" s="2">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="E148" s="62">
         <f t="shared" si="2"/>
-        <v>7990.9250000000002</v>
+        <v>27169.145</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -56956,17 +56987,18 @@
         <v>45474</v>
       </c>
       <c r="B149" t="s">
-        <v>1293</v>
+        <v>242</v>
       </c>
       <c r="C149" s="75">
-        <v>34.412100000000002</v>
+        <f>C148</f>
+        <v>31.963699999999999</v>
       </c>
       <c r="D149" s="2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="E149" s="62">
-        <f>D149*C149</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7990.9250000000002</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -56975,57 +57007,76 @@
         <v>45474</v>
       </c>
       <c r="B150" t="s">
-        <v>100</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+        <v>1293</v>
+      </c>
+      <c r="C150" s="75">
+        <v>34.412100000000002</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
       <c r="E150" s="62">
-        <v>3000</v>
+        <f>D150*C150</f>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="73">
-        <f>A150</f>
+        <f t="shared" si="1"/>
         <v>45474</v>
       </c>
       <c r="B151" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="62">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="73">
+        <f>A151</f>
+        <v>45474</v>
+      </c>
+      <c r="B152" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="62">
         <v>4000</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="E152" s="110"/>
-    </row>
     <row r="153" spans="1:5">
-      <c r="C153" s="108"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="108"/>
+      <c r="E153" s="110"/>
     </row>
     <row r="154" spans="1:5">
       <c r="C154" s="108"/>
-      <c r="D154" s="61" t="s">
+      <c r="D154" s="3"/>
+      <c r="E154" s="108"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="C155" s="108"/>
+      <c r="D155" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E154" s="8">
-        <f>SUM(E131:E151)</f>
+      <c r="E155" s="8">
+        <f>SUM(E132:E152)</f>
         <v>981303.72722800006</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="C155" s="111" t="str">
-        <f>A130</f>
+    <row r="156" spans="1:5">
+      <c r="C156" s="111" t="str">
+        <f>A131</f>
         <v>TEMMUZa</v>
       </c>
-      <c r="D155" s="112" t="s">
+      <c r="D156" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="E155" s="113">
+      <c r="E156" s="113">
         <f>H2</f>
-        <v>-2767.8599999999997</v>
+        <v>-52351.619999999995</v>
       </c>
     </row>
   </sheetData>
@@ -57629,7 +57680,7 @@
         <v>216</v>
       </c>
       <c r="C33" s="133"/>
-      <c r="D33" s="330">
+      <c r="D33" s="328">
         <v>8500</v>
       </c>
       <c r="E33" s="92"/>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D8D0ED-A196-4356-ADFD-D4FE9BA05F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F9EDD-032A-49BC-958E-9A050D8F61BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="1301">
   <si>
     <t>hacı</t>
   </si>
@@ -4162,6 +4162,27 @@
   </si>
   <si>
     <t>eur iş alış                           35,47,85</t>
+  </si>
+  <si>
+    <t>ödendi</t>
+  </si>
+  <si>
+    <t>hepsi</t>
+  </si>
+  <si>
+    <t>3074 usulsuzluk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       5 - 6</t>
+  </si>
+  <si>
+    <t>trafik cezaı yıldızeli</t>
+  </si>
+  <si>
+    <t>elden nakit aliden alınan kredi için</t>
+  </si>
+  <si>
+    <t>peri ziraat kredi ödemesi taksit 76</t>
   </si>
 </sst>
 </file>
@@ -6005,10 +6026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G34"/>
+  <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -6065,7 +6086,7 @@
         <v>3450</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G34" si="0">G5+E6-F6</f>
+        <f t="shared" ref="G6:G37" si="0">G5+E6-F6</f>
         <v>-2378</v>
       </c>
     </row>
@@ -6364,123 +6385,165 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="1">
-        <v>45470</v>
-      </c>
       <c r="C27" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E27" s="2">
-        <v>20150</v>
+        <v>1298</v>
+      </c>
+      <c r="D27">
+        <v>1300</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>-87937.35</v>
+        <v>-108087.35</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1">
-        <v>45473</v>
+        <v>45470</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="2">
-        <v>500</v>
+        <v>1287</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20150</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>-88437.35</v>
+        <v>-87937.35</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="1">
-        <v>45503</v>
+        <v>45473</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2">
         <v>500</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>-88937.35</v>
+        <v>-88437.35</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="1">
-        <v>45534</v>
+        <v>45487</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="2">
-        <v>500</v>
+        <v>1299</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3500</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>-89437.35</v>
+        <v>-84937.35</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="1">
-        <v>45565</v>
+        <v>45487</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>1300</v>
       </c>
       <c r="F31" s="2">
-        <v>500</v>
+        <v>3465.81</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
-        <v>-89937.35</v>
+        <v>-88403.16</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="1">
-        <v>45595</v>
+        <v>45503</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2">
         <v>500</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>-90437.35</v>
+        <v>-88903.16</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="1">
-        <v>45626</v>
+        <v>45534</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2">
         <v>500</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="0"/>
-        <v>-90937.35</v>
+        <v>-89403.16</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="1">
-        <v>45656</v>
+        <v>45565</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F34" s="2">
         <v>500</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="0"/>
-        <v>-91437.35</v>
+        <v>-89903.16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1">
+        <v>45595</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="2">
+        <v>500</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>-90403.16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1">
+        <v>45626</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="2">
+        <v>500</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>-90903.16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="1">
+        <v>45656</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="2">
+        <v>500</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="0"/>
+        <v>-91403.16</v>
       </c>
     </row>
   </sheetData>
@@ -20868,11 +20931,11 @@
       </c>
       <c r="F9" s="23">
         <f>'07_24'!G2</f>
-        <v>-67351.62</v>
+        <v>-68411.62</v>
       </c>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>52543.546307000011</v>
+        <v>51483.546307000011</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
@@ -20891,7 +20954,7 @@
       </c>
       <c r="M9" s="34"/>
       <c r="N9">
-        <f>'07_24'!E131/1000</f>
+        <f>'07_24'!E133/1000</f>
         <v>981.30372722800007</v>
       </c>
     </row>
@@ -20917,11 +20980,11 @@
       </c>
       <c r="F10" s="23">
         <f>'08_24'!G2</f>
-        <v>0</v>
+        <v>-7337.5</v>
       </c>
       <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>52543.546307000011</v>
+        <v>44146.046307000011</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
@@ -20937,7 +21000,7 @@
         <v>13</v>
       </c>
       <c r="N10">
-        <f>'08_24'!E111/1000</f>
+        <f>'08_24'!E120/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -20963,11 +21026,11 @@
       </c>
       <c r="F11" s="23">
         <f>'09_24'!G2</f>
-        <v>0</v>
+        <v>-513.76</v>
       </c>
       <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>52543.546307000011</v>
+        <v>43632.286307000009</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="26" t="s">
@@ -20986,7 +21049,7 @@
       </c>
       <c r="M11" s="29"/>
       <c r="N11">
-        <f>'09_24'!E120/1000</f>
+        <f>'09_24'!E128/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -21016,7 +21079,7 @@
       </c>
       <c r="G12" s="24">
         <f t="shared" si="1"/>
-        <v>52543.546307000011</v>
+        <v>43632.286307000009</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
@@ -21065,7 +21128,7 @@
       </c>
       <c r="G13" s="24">
         <f t="shared" si="1"/>
-        <v>52543.546307000011</v>
+        <v>43632.286307000009</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="26" t="s">
@@ -21114,7 +21177,7 @@
       </c>
       <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>52543.546307000011</v>
+        <v>43632.286307000009</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="35" t="s">
@@ -21159,11 +21222,11 @@
       </c>
       <c r="F15" s="24">
         <f>SUM(F3:F14)</f>
-        <v>-568862.02369299997</v>
+        <v>-577773.28369299998</v>
       </c>
       <c r="G15" s="24">
         <f>E15+F15</f>
-        <v>52543.546307000099</v>
+        <v>43632.286307000089</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
@@ -21203,11 +21266,11 @@
       </c>
       <c r="F16" s="46">
         <f>F15/A16</f>
-        <v>-47405.168641083328</v>
+        <v>-48147.773641083331</v>
       </c>
       <c r="G16" s="46">
         <f>G15/A16</f>
-        <v>4378.6288589166752</v>
+        <v>3636.0238589166743</v>
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="48"/>
@@ -21271,7 +21334,7 @@
         <v>63</v>
       </c>
       <c r="E19" s="60">
-        <f>'07_24'!F29+'08_24'!F23+'09_24'!F22+'10_24'!F24+'11_24'!F22+'12_24'!F29</f>
+        <f>'07_24'!F29+'08_24'!F23+'09_24'!F30+'10_24'!F24+'11_24'!F22+'12_24'!F29</f>
         <v>0</v>
       </c>
     </row>
@@ -53407,10 +53470,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -53441,24 +53504,24 @@
         <v>105</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D34)</f>
+        <f>SUM(D4:D42)</f>
         <v>174000</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E34)</f>
+        <f>SUM(E4:E42)</f>
         <v>-47304.020000000004</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F34)</f>
+        <f>SUM(F4:F42)</f>
         <v>0</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G34)</f>
-        <v>0</v>
+        <f>SUM(G4:G42)</f>
+        <v>-513.76</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>0</v>
+        <v>-513.76</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -53506,7 +53569,7 @@
         <v>-500</v>
       </c>
       <c r="H7" s="77">
-        <f t="shared" ref="H7:H32" si="0">H6+F7+G7</f>
+        <f t="shared" ref="H7:H40" si="0">H6+F7+G7</f>
         <v>0</v>
       </c>
     </row>
@@ -53591,7 +53654,7 @@
         <v>127</v>
       </c>
       <c r="E14" s="77">
-        <f>E45*-1</f>
+        <f>E53*-1</f>
         <v>0</v>
       </c>
       <c r="H14" s="77">
@@ -53604,7 +53667,7 @@
         <v>128</v>
       </c>
       <c r="E15" s="77">
-        <f>E50</f>
+        <f>E58</f>
         <v>-6232.02</v>
       </c>
       <c r="H15" s="77">
@@ -53620,7 +53683,7 @@
         <v>129</v>
       </c>
       <c r="E16" s="77">
-        <f>E65</f>
+        <f>E73</f>
         <v>0</v>
       </c>
       <c r="H16" s="77">
@@ -53676,105 +53739,45 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="H21" s="77">
-        <f t="shared" si="0"/>
+      <c r="A21" s="322">
+        <v>45554</v>
+      </c>
+      <c r="G21" s="77">
+        <v>-136.08000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="322">
+        <v>45554</v>
+      </c>
+      <c r="G22" s="77">
+        <v>-258.61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="322">
+        <v>45554</v>
+      </c>
+      <c r="G23" s="77">
+        <v>-119.07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="H29" s="77">
+        <f>H20+F29+G29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="H22" s="77">
+    <row r="30" spans="1:8">
+      <c r="H30" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="B23" t="s">
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="77">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="77">
-        <v>-5000</v>
-      </c>
-      <c r="H24" s="77">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="77">
-        <v>-5000</v>
-      </c>
-      <c r="H25" s="77">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="77">
-        <v>-5000</v>
-      </c>
-      <c r="H26" s="77">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="H27" s="77">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="77">
-        <v>15000</v>
-      </c>
-      <c r="H28" s="77">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="89"/>
-      <c r="B29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="77">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="89"/>
-      <c r="B30" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="77">
-        <v>15000</v>
-      </c>
-      <c r="H30" s="77">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="89"/>
       <c r="H31" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -53782,252 +53785,292 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="90">
-        <v>0.234011</v>
-      </c>
-      <c r="D32" s="77">
-        <v>144000</v>
+        <v>83</v>
+      </c>
+      <c r="E32" s="77">
+        <v>-5000</v>
       </c>
       <c r="H32" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="B34" s="91"/>
+    <row r="33" spans="1:8">
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="77">
+        <v>-5000</v>
+      </c>
+      <c r="H33" s="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="77">
+        <v>-5000</v>
+      </c>
+      <c r="H34" s="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="H35" s="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="D36" s="77">
+        <v>15000</v>
+      </c>
+      <c r="H36" s="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1">
+      <c r="A37" s="89"/>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="77">
+        <v>15000</v>
+      </c>
+      <c r="H38" s="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="93">
-        <v>44929</v>
-      </c>
-      <c r="B39" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="77">
-        <f>SUM(D40:D45)</f>
+      <c r="A39" s="89"/>
+      <c r="H39" s="77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E39" s="77">
-        <f>SUM(E40:E45)</f>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="90">
+        <v>0.234011</v>
+      </c>
+      <c r="D40" s="77">
+        <v>144000</v>
+      </c>
+      <c r="H40" s="77">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="89"/>
-      <c r="B40" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="22"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>144</v>
-      </c>
+    <row r="42" spans="1:8" ht="15.75">
+      <c r="B42" s="91"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+    </row>
+    <row r="46" spans="1:8" s="22" customFormat="1">
+      <c r="A46" s="89"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="93">
+        <v>44929</v>
+      </c>
+      <c r="B47" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="70"/>
+      <c r="D47" s="77">
+        <f>SUM(D48:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="77">
+        <f>SUM(E48:E53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="89"/>
+      <c r="B48" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="22"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="B45" t="s">
+    <row r="53" spans="1:5">
+      <c r="B53" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="84"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="C46" s="84"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="62"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="B49" s="95"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="70"/>
-      <c r="B50" s="69" t="s">
+      <c r="C53" s="84"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="C54" s="84"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="B56" s="62"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="95"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="70"/>
+      <c r="B58" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="E50" s="77">
-        <f>SUM(E51:E62)</f>
+      <c r="C58" s="70"/>
+      <c r="E58" s="77">
+        <f>SUM(E59:E70)</f>
         <v>-6232.02</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="96">
+    <row r="60" spans="1:5">
+      <c r="A60" s="96">
         <v>45348</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B60" t="s">
         <v>174</v>
       </c>
-      <c r="C52">
+      <c r="C60">
         <v>1406</v>
       </c>
-      <c r="D52" s="77" t="s">
+      <c r="D60" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="E52" s="77">
+      <c r="E60" s="77">
         <v>-234.33</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="96">
+    <row r="61" spans="1:5">
+      <c r="A61" s="96">
         <v>45373</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B61" t="s">
         <v>148</v>
       </c>
-      <c r="C53">
+      <c r="C61">
         <v>10176.39</v>
       </c>
-      <c r="D53" s="77" t="s">
+      <c r="D61" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="E53" s="77">
+      <c r="E61" s="77">
         <v>-1130.71</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="96">
+    <row r="62" spans="1:5">
+      <c r="A62" s="96">
         <v>45375</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B62" t="s">
         <v>150</v>
       </c>
-      <c r="C54">
+      <c r="C62">
         <v>5999</v>
       </c>
-      <c r="D54" s="77" t="s">
+      <c r="D62" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="77">
+      <c r="E62" s="77">
         <v>-666.55</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="96">
+    <row r="63" spans="1:5">
+      <c r="A63" s="96">
         <v>45358</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B63" t="s">
         <v>176</v>
       </c>
-      <c r="C55">
+      <c r="C63">
         <v>2273</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D63" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="E55" s="77">
+      <c r="E63" s="77">
         <v>-378.87</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="96">
+    <row r="64" spans="1:5">
+      <c r="A64" s="96">
         <v>45371</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B64" t="s">
         <v>177</v>
       </c>
-      <c r="D56" s="77" t="s">
+      <c r="D64" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="77">
+      <c r="E64" s="77">
         <v>101.77</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="89">
+    <row r="65" spans="1:5">
+      <c r="A65" s="89">
         <v>45456</v>
       </c>
-      <c r="B57" s="97" t="s">
+      <c r="B65" s="97" t="s">
         <v>1286</v>
       </c>
-      <c r="C57" s="84"/>
-      <c r="D57" s="77" t="s">
+      <c r="C65" s="84"/>
+      <c r="D65" s="77" t="s">
         <v>1262</v>
       </c>
-      <c r="E57" s="77">
+      <c r="E65" s="77">
         <v>-3923.33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="89"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="89"/>
-      <c r="B59" s="97"/>
-      <c r="C59" s="84"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="89"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="84"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="89"/>
-      <c r="B61" s="97"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="89"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="84"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="89"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="89"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="70"/>
-      <c r="B65" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="70"/>
-      <c r="E65" s="77">
-        <f>SUM(E66:E74)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -54037,47 +54080,51 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="89"/>
-      <c r="B67" s="84"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="84"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="89"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="97"/>
       <c r="C68" s="84"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="89"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="84"/>
+      <c r="B69" s="97"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="89"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="84"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="89"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="84"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="89"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="84"/>
       <c r="C72" s="84"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="89"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="84"/>
+      <c r="A73" s="70"/>
+      <c r="B73" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="70"/>
+      <c r="E73" s="77">
+        <f>SUM(E74:E82)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="89"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="84"/>
       <c r="C74" s="84"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="89"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="84"/>
       <c r="C75" s="84"/>
     </row>
     <row r="76" spans="1:5">
@@ -54185,102 +54232,142 @@
       <c r="B96" s="3"/>
       <c r="C96" s="84"/>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="70"/>
-      <c r="B105" s="69" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="89"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="84"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="89"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="84"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="89"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="84"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="89"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="84"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="89"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="84"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="89"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="84"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="89"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="84"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="89"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="84"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="70"/>
+      <c r="B113" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C105" s="70"/>
-      <c r="E105" s="77">
-        <f>SUM(E106:E113)</f>
+      <c r="C113" s="70"/>
+      <c r="E113" s="77">
+        <f>SUM(E114:E121)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="89"/>
-      <c r="B106" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" s="89"/>
+      <c r="B114" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="89"/>
-      <c r="B107" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" s="89"/>
+      <c r="B115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="89"/>
-      <c r="B108" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="89"/>
+      <c r="B116" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="89"/>
-      <c r="B109" t="s">
+    <row r="117" spans="1:5">
+      <c r="A117" s="89"/>
+      <c r="B117" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="89"/>
-      <c r="B110" t="s">
+    <row r="118" spans="1:5">
+      <c r="A118" s="89"/>
+      <c r="B118" t="s">
         <v>156</v>
       </c>
-      <c r="D110" s="77">
+      <c r="D118" s="77">
         <v>111</v>
       </c>
-      <c r="E110" s="77">
-        <f>D110*C110</f>
+      <c r="E118" s="77">
+        <f>D118*C118</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="89"/>
-      <c r="B111" t="s">
+    <row r="119" spans="1:5">
+      <c r="A119" s="89"/>
+      <c r="B119" t="s">
         <v>157</v>
       </c>
-      <c r="D111" s="77">
+      <c r="D119" s="77">
         <v>850</v>
       </c>
-      <c r="E111" s="77">
-        <f>D111*C111</f>
+      <c r="E119" s="77">
+        <f>D119*C119</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="89"/>
-      <c r="B112" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" s="89"/>
+      <c r="B120" t="s">
         <v>158</v>
       </c>
-      <c r="D112" s="77">
+      <c r="D120" s="77">
         <v>100</v>
       </c>
-      <c r="E112" s="77">
-        <f>D112*C112</f>
+      <c r="E120" s="77">
+        <f>D120*C120</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="89"/>
-      <c r="B113" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" s="89"/>
+      <c r="B121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="B114" t="s">
+    <row r="122" spans="1:5">
+      <c r="B122" t="s">
         <v>160</v>
       </c>
-      <c r="E114" s="77">
+      <c r="E122" s="77">
         <f>H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="D116" s="77" t="s">
+        <v>-513.76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="D124" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E116" s="77">
-        <f>SUM(E106:E115)</f>
-        <v>0</v>
+      <c r="E124" s="77">
+        <f>SUM(E114:E123)</f>
+        <v>-513.76</v>
       </c>
     </row>
   </sheetData>
@@ -54298,10 +54385,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -54332,24 +54419,24 @@
         <v>105</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D34)</f>
+        <f>SUM(D4:D43)</f>
         <v>174000</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E34)</f>
+        <f>SUM(E4:E43)</f>
         <v>-64037.96</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F34)</f>
+        <f>SUM(F4:F43)</f>
         <v>0</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G34)</f>
-        <v>0</v>
+        <f>SUM(G4:G43)</f>
+        <v>-7337.5</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>0</v>
+        <v>-7337.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -54482,7 +54569,7 @@
         <v>127</v>
       </c>
       <c r="E14" s="77">
-        <f>E45*-1</f>
+        <f>E54*-1</f>
         <v>0</v>
       </c>
       <c r="H14" s="77">
@@ -54495,7 +54582,7 @@
         <v>128</v>
       </c>
       <c r="E15" s="77">
-        <f>E50</f>
+        <f>E59</f>
         <v>-7286.16</v>
       </c>
       <c r="H15" s="77">
@@ -54511,7 +54598,7 @@
         <v>129</v>
       </c>
       <c r="E16" s="77">
-        <f>E65</f>
+        <f>E74</f>
         <v>-10899.8</v>
       </c>
       <c r="H16" s="77">
@@ -54681,346 +54768,362 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="B34" s="91"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="322">
+        <v>45531</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C33" s="90"/>
+      <c r="G33" s="77">
+        <v>-750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="322">
+        <v>45531</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="G34" s="77">
+        <v>-2137.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="322">
+        <v>45531</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C35" s="90"/>
+      <c r="G35" s="77">
+        <v>-925</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
+      <c r="A36" s="322">
+        <v>45531</v>
+      </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>1296</v>
+      </c>
+      <c r="C36" s="90"/>
+      <c r="G36" s="77">
+        <v>-625</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1">
-      <c r="A38" s="89"/>
+      <c r="A37" s="322">
+        <v>45531</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="G37" s="77">
+        <v>-1075</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="322">
+        <v>45531</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1296</v>
+      </c>
       <c r="C38" s="90"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
+      <c r="G38" s="77">
+        <v>-1825</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="93">
-        <v>44929</v>
-      </c>
-      <c r="B39" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="77">
-        <f>SUM(D40:D45)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="77">
-        <f>SUM(E40:E45)</f>
-        <v>0</v>
-      </c>
+      <c r="C39" s="90"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="89"/>
-      <c r="B40" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="90"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>145</v>
-      </c>
+      <c r="C41" s="90"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75">
+      <c r="B43" s="91"/>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+    </row>
+    <row r="47" spans="1:8" s="22" customFormat="1">
+      <c r="A47" s="89"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="93">
+        <v>44929</v>
+      </c>
+      <c r="B48" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="77">
+        <f>SUM(D49:D54)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="77">
+        <f>SUM(E49:E54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="89"/>
+      <c r="B49" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="22"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="84"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="C46" s="84"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="62"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="B49" s="95"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="70"/>
-      <c r="B50" s="69" t="s">
+      <c r="C54" s="84"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="C55" s="84"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="62"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="95"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="70"/>
+      <c r="B59" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="E50" s="77">
-        <f>SUM(E51:E62)</f>
+      <c r="C59" s="70"/>
+      <c r="E59" s="77">
+        <f>SUM(E60:E71)</f>
         <v>-7286.16</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="96">
+    <row r="61" spans="1:5">
+      <c r="A61" s="96">
         <v>45348</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B61" t="s">
         <v>174</v>
       </c>
-      <c r="C52">
+      <c r="C61">
         <v>1406</v>
       </c>
-      <c r="D52" s="77" t="s">
+      <c r="D61" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="77">
+      <c r="E61" s="77">
         <v>-234.33</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="96">
+    <row r="62" spans="1:5">
+      <c r="A62" s="96">
         <v>45373</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B62" t="s">
         <v>148</v>
       </c>
-      <c r="C53">
+      <c r="C62">
         <v>10176.39</v>
       </c>
-      <c r="D53" s="77" t="s">
+      <c r="D62" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="77">
+      <c r="E62" s="77">
         <v>-1130.71</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="96">
+    <row r="63" spans="1:5">
+      <c r="A63" s="96">
         <v>45375</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B63" t="s">
         <v>150</v>
       </c>
-      <c r="C54">
+      <c r="C63">
         <v>5999</v>
       </c>
-      <c r="D54" s="77" t="s">
+      <c r="D63" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="77">
+      <c r="E63" s="77">
         <v>-666.55</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="96">
+    <row r="64" spans="1:5">
+      <c r="A64" s="96">
         <v>45358</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B64" t="s">
         <v>176</v>
       </c>
-      <c r="C55">
+      <c r="C64">
         <v>2273</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D64" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="E55" s="77">
+      <c r="E64" s="77">
         <v>-378.87</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="96">
+    <row r="65" spans="1:5">
+      <c r="A65" s="96">
         <v>45371</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B65" t="s">
         <v>177</v>
       </c>
-      <c r="D56" s="77" t="s">
+      <c r="D65" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="E56" s="77">
+      <c r="E65" s="77">
         <v>101.77</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="89">
+    <row r="66" spans="1:5">
+      <c r="A66" s="89">
         <v>45442</v>
       </c>
-      <c r="B57" s="326" t="s">
+      <c r="B66" s="326" t="s">
         <v>1284</v>
       </c>
-      <c r="C57" s="84"/>
-      <c r="D57" s="77" t="s">
+      <c r="C66" s="84"/>
+      <c r="D66" s="77" t="s">
         <v>1260</v>
       </c>
-      <c r="E57" s="77">
+      <c r="E66" s="77">
         <v>-1054.1400000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="89">
+    <row r="67" spans="1:5">
+      <c r="A67" s="89">
         <v>45456</v>
       </c>
-      <c r="B58" s="97" t="s">
+      <c r="B67" s="97" t="s">
         <v>1286</v>
-      </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="77" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E58" s="77">
-        <v>-3923.33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="89"/>
-      <c r="B59" s="97"/>
-      <c r="C59" s="84"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="89"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="84"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="89"/>
-      <c r="B61" s="97"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="89"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="84"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="89"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="89"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="70"/>
-      <c r="B65" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="C65" s="70"/>
-      <c r="E65" s="77">
-        <f>SUM(E66:E74)</f>
-        <v>-10899.8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="89"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="89"/>
-      <c r="B67" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="C67" s="84"/>
       <c r="D67" s="77" t="s">
-        <v>186</v>
+        <v>1261</v>
       </c>
       <c r="E67" s="77">
-        <v>-649.78</v>
+        <v>-3923.33</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="89"/>
-      <c r="B68" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="B68" s="97"/>
       <c r="C68" s="84"/>
-      <c r="D68" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="E68" s="77">
-        <v>49.98</v>
-      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="89"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="84"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C70" s="84"/>
-      <c r="D70" s="77" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E70" s="77">
-        <v>-6000</v>
-      </c>
+      <c r="A70" s="89"/>
+      <c r="B70" s="97"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1259</v>
-      </c>
+      <c r="A71" s="89"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="84"/>
-      <c r="D71" s="77" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E71" s="77">
-        <v>-4300</v>
-      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="89"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="84"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="89"/>
-      <c r="B73" s="3"/>
+      <c r="B73" s="84"/>
       <c r="C73" s="84"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="89"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="84"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="70"/>
+      <c r="E74" s="77">
+        <f>SUM(E75:E83)</f>
+        <v>-10899.8</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="89"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="84"/>
       <c r="C75" s="84"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="89"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="C76" s="84"/>
+      <c r="D76" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="77">
+        <v>-649.78</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="89"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C77" s="84"/>
+      <c r="D77" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="E77" s="77">
+        <v>49.98</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="89"/>
@@ -55028,14 +55131,34 @@
       <c r="C78" s="84"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="89"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="89">
+        <v>45456</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1258</v>
+      </c>
       <c r="C79" s="84"/>
+      <c r="D79" s="77" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E79" s="77">
+        <v>-6000</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="89"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="89">
+        <v>45456</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1259</v>
+      </c>
       <c r="C80" s="84"/>
+      <c r="D80" s="77" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E80" s="77">
+        <v>-4300</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="89"/>
@@ -55117,102 +55240,147 @@
       <c r="B96" s="3"/>
       <c r="C96" s="84"/>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="70"/>
-      <c r="B105" s="69" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="89"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="84"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="89"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="84"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="89"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="84"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="89"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="84"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="89"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="84"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="89"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="84"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="89"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="84"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="89"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="84"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="89"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="84"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="70"/>
+      <c r="B114" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C105" s="70"/>
-      <c r="E105" s="77">
-        <f>SUM(E106:E113)</f>
+      <c r="C114" s="70"/>
+      <c r="E114" s="77">
+        <f>SUM(E115:E122)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="89"/>
-      <c r="B106" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" s="89"/>
+      <c r="B115" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="89"/>
-      <c r="B107" t="s">
+    <row r="116" spans="1:5">
+      <c r="A116" s="89"/>
+      <c r="B116" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="89"/>
-      <c r="B108" t="s">
+    <row r="117" spans="1:5">
+      <c r="A117" s="89"/>
+      <c r="B117" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="89"/>
-      <c r="B109" t="s">
+    <row r="118" spans="1:5">
+      <c r="A118" s="89"/>
+      <c r="B118" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="89"/>
-      <c r="B110" t="s">
+    <row r="119" spans="1:5">
+      <c r="A119" s="89"/>
+      <c r="B119" t="s">
         <v>156</v>
       </c>
-      <c r="D110" s="77">
+      <c r="D119" s="77">
         <v>111</v>
       </c>
-      <c r="E110" s="77">
-        <f>D110*C110</f>
+      <c r="E119" s="77">
+        <f>D119*C119</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="89"/>
-      <c r="B111" t="s">
+    <row r="120" spans="1:5">
+      <c r="A120" s="89"/>
+      <c r="B120" t="s">
         <v>157</v>
       </c>
-      <c r="D111" s="77">
+      <c r="D120" s="77">
         <v>850</v>
       </c>
-      <c r="E111" s="77">
-        <f>D111*C111</f>
+      <c r="E120" s="77">
+        <f>D120*C120</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="89"/>
-      <c r="B112" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" s="89"/>
+      <c r="B121" t="s">
         <v>158</v>
       </c>
-      <c r="D112" s="77">
+      <c r="D121" s="77">
         <v>100</v>
       </c>
-      <c r="E112" s="77">
-        <f>D112*C112</f>
+      <c r="E121" s="77">
+        <f>D121*C121</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="89"/>
-      <c r="B113" t="s">
+    <row r="122" spans="1:5">
+      <c r="A122" s="89"/>
+      <c r="B122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="B114" t="s">
+    <row r="123" spans="1:5">
+      <c r="B123" t="s">
         <v>160</v>
       </c>
-      <c r="E114" s="77">
+      <c r="E123" s="77">
         <f>H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="D116" s="77" t="s">
+        <v>-7337.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="D125" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E116" s="77">
-        <f>SUM(E106:E115)</f>
-        <v>0</v>
+      <c r="E125" s="77">
+        <f>SUM(E115:E124)</f>
+        <v>-7337.5</v>
       </c>
     </row>
   </sheetData>
@@ -55230,10 +55398,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -55264,24 +55432,24 @@
         <v>105</v>
       </c>
       <c r="D2" s="77">
-        <f>SUM(D4:D37)</f>
+        <f>SUM(D4:D39)</f>
         <v>51000</v>
       </c>
       <c r="E2" s="77">
-        <f>SUM(E4:E37)</f>
+        <f>SUM(E4:E39)</f>
         <v>-85166.06</v>
       </c>
       <c r="F2" s="77">
-        <f>SUM(F4:F37)</f>
+        <f>SUM(F4:F39)</f>
         <v>15000</v>
       </c>
       <c r="G2" s="77">
-        <f>SUM(G4:G37)</f>
-        <v>-67351.62</v>
+        <f>SUM(G4:G39)</f>
+        <v>-68411.62</v>
       </c>
       <c r="H2" s="77">
         <f>F2+G2</f>
-        <v>-52351.619999999995</v>
+        <v>-53411.619999999995</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -55308,7 +55476,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="H5" s="77">
-        <f t="shared" ref="H5:H35" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H38" si="0">H4+F5+G5</f>
         <v>-167</v>
       </c>
     </row>
@@ -55379,7 +55547,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="92"/>
       <c r="E9" s="92">
-        <f>E53</f>
+        <f>E55</f>
         <v>-8944.5400000000009</v>
       </c>
       <c r="F9" s="92"/>
@@ -55402,7 +55570,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="92"/>
       <c r="E10" s="92">
-        <f>E70</f>
+        <f>E72</f>
         <v>-26619.52</v>
       </c>
       <c r="F10" s="92"/>
@@ -55583,7 +55751,7 @@
         <v>127</v>
       </c>
       <c r="E22" s="77">
-        <f>E48*-1</f>
+        <f>F50*-1</f>
         <v>0</v>
       </c>
       <c r="H22" s="77">
@@ -55700,291 +55868,317 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="89">
+        <v>45502</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="77">
+        <v>-350</v>
+      </c>
+      <c r="H34" s="77">
+        <f t="shared" si="0"/>
+        <v>-50895.759999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="89">
+        <v>45502</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="77">
+        <v>-710</v>
+      </c>
+      <c r="H35" s="77">
+        <f t="shared" si="0"/>
+        <v>-51605.759999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="89">
         <v>45504</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G34" s="77">
+      <c r="G36" s="77">
         <v>-1805.86</v>
       </c>
-      <c r="H34" s="77">
-        <f t="shared" si="0"/>
-        <v>-52351.619999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="H35" s="77">
-        <f t="shared" si="0"/>
-        <v>-52351.619999999995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75">
-      <c r="B37" s="91"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
+      <c r="H36" s="77">
+        <f t="shared" si="0"/>
+        <v>-53411.619999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="H37" s="77">
+        <f t="shared" si="0"/>
+        <v>-53411.619999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="H38" s="77">
+        <f t="shared" si="0"/>
+        <v>-53411.619999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75">
+      <c r="B39" s="91"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="70" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-    </row>
-    <row r="41" spans="1:8" s="22" customFormat="1">
-      <c r="A41" s="89"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="93">
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+    </row>
+    <row r="43" spans="1:8" s="22" customFormat="1">
+      <c r="A43" s="89"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="93">
         <v>44929</v>
       </c>
-      <c r="B42" s="94" t="s">
+      <c r="B44" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="77">
-        <f>SUM(D43:D48)</f>
+      <c r="C44" s="70"/>
+      <c r="D44" s="77">
+        <f>SUM(D45:D50)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="77">
-        <f>SUM(E43:E48)</f>
+      <c r="E44" s="77">
+        <f>SUM(E45:E51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="89"/>
-      <c r="B43" s="84" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="89"/>
+      <c r="B45" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="22"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
+      <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="84"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="C49" s="84"/>
+      <c r="C50" s="84"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="B51" s="62"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="95"/>
+      <c r="C51" s="84"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="70"/>
-      <c r="B53" s="69" t="s">
+      <c r="B53" s="62"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="B54" s="95"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="70"/>
+      <c r="B55" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="E53" s="77">
-        <f>SUM(E54:E66)</f>
+      <c r="C55" s="70"/>
+      <c r="E55" s="77">
+        <f>SUM(E56:E68)</f>
         <v>-8944.5400000000009</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="96">
-        <v>45348</v>
-      </c>
-      <c r="B55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55">
-        <v>1406</v>
-      </c>
-      <c r="D55" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E55" s="77">
-        <v>-234.33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="96">
-        <v>45373</v>
-      </c>
-      <c r="B56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56">
-        <v>10176.39</v>
-      </c>
-      <c r="D56" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56" s="77">
-        <v>-1130.71</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="96">
-        <v>45375</v>
+        <v>45348</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="C57">
-        <v>5999</v>
+        <v>1406</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E57" s="77">
-        <v>-666.56</v>
+        <v>-234.33</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="96">
-        <v>45358</v>
+        <v>45373</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="C58">
-        <v>2273</v>
+        <v>10176.39</v>
       </c>
       <c r="D58" s="77" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E58" s="77">
-        <v>-378.87</v>
+        <v>-1130.71</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="96">
+        <v>45375</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59">
+        <v>5999</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="77">
+        <v>-666.56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="96">
+        <v>45358</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60">
+        <v>2273</v>
+      </c>
+      <c r="D60" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="77">
+        <v>-378.87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="96">
         <v>45371</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="77" t="s">
+      <c r="D61" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="E59" s="77">
+      <c r="E61" s="77">
         <v>101.77</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="96"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="89">
-        <v>45442</v>
-      </c>
-      <c r="B61" s="326" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C61" s="84"/>
-      <c r="D61" s="77" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E61" s="77">
-        <v>-1054.1400000000001</v>
-      </c>
-    </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B62" s="97" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C62" s="84"/>
-      <c r="D62" s="77" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E62" s="77">
-        <v>-3923.33</v>
-      </c>
+      <c r="A62" s="96"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="89">
         <v>45442</v>
       </c>
-      <c r="B63" s="84" t="s">
-        <v>1267</v>
+      <c r="B63" s="326" t="s">
+        <v>1284</v>
       </c>
       <c r="C63" s="84"/>
+      <c r="D63" s="77" t="s">
+        <v>1256</v>
+      </c>
       <c r="E63" s="77">
-        <v>-278.97000000000003</v>
+        <v>-1054.1400000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="89">
+        <v>45456</v>
+      </c>
+      <c r="B64" s="97" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C64" s="84"/>
+      <c r="D64" s="77" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E64" s="77">
+        <v>-3923.33</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="89">
-        <v>45444</v>
-      </c>
-      <c r="B65" s="97" t="s">
-        <v>1285</v>
+        <v>45442</v>
+      </c>
+      <c r="B65" s="84" t="s">
+        <v>1267</v>
       </c>
       <c r="C65" s="84"/>
       <c r="E65" s="77">
+        <v>-278.97000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="89">
+        <v>45444</v>
+      </c>
+      <c r="B67" s="97" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C67" s="84"/>
+      <c r="E67" s="77">
         <v>-1379.4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15">
-      <c r="A66" s="89">
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="89">
         <v>45447</v>
       </c>
-      <c r="B66" s="97" t="s">
+      <c r="B68" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="77">
+      <c r="D68" s="77">
         <v>4300</v>
       </c>
-      <c r="E66" s="105" t="s">
+      <c r="E68" s="105" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="89"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="89"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-    </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="70"/>
-      <c r="B70" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="70"/>
-      <c r="E70" s="77">
-        <f>SUM(E71:E128)</f>
-        <v>-26619.52</v>
-      </c>
+      <c r="A70" s="89"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="89"/>
@@ -55992,274 +56186,266 @@
       <c r="C71" s="84"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="88">
-        <v>45285</v>
-      </c>
-      <c r="B72" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="84"/>
-      <c r="D72" s="77" t="s">
-        <v>196</v>
-      </c>
+      <c r="A72" s="70"/>
+      <c r="B72" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="70"/>
       <c r="E72" s="77">
-        <v>-3551.68</v>
+        <f>SUM(E73:E130)</f>
+        <v>-26619.52</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="89"/>
-      <c r="B73" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="B73" s="84"/>
       <c r="C73" s="84"/>
-      <c r="D73" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="E73" s="77">
-        <v>-649.78</v>
-      </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="89"/>
-      <c r="B74" s="3" t="s">
-        <v>187</v>
+      <c r="A74" s="88">
+        <v>45285</v>
+      </c>
+      <c r="B74" s="84" t="s">
+        <v>195</v>
       </c>
       <c r="C74" s="84"/>
       <c r="D74" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="E74" s="77">
+        <v>-3551.68</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="89"/>
-      <c r="B75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="C75" s="84"/>
+      <c r="D75" s="77" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E75" s="77">
+        <v>-649.78</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1258</v>
+      <c r="A76" s="89"/>
+      <c r="B76" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C76" s="84"/>
       <c r="D76" s="77" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E76" s="77">
-        <v>-5875</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="89">
-        <v>45456</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1259</v>
-      </c>
+      <c r="A77" s="89"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="84"/>
-      <c r="D77" s="77" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E77" s="77">
-        <v>-4300</v>
-      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="89">
-        <v>45465</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>1267</v>
+        <v>45456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1258</v>
       </c>
       <c r="C78" s="84"/>
+      <c r="D78" s="77" t="s">
+        <v>1256</v>
+      </c>
       <c r="E78" s="77">
-        <v>-483.01</v>
+        <v>-5875</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="89">
-        <v>45436</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>275</v>
+        <v>45456</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1259</v>
       </c>
       <c r="C79" s="84"/>
+      <c r="D79" s="77" t="s">
+        <v>1256</v>
+      </c>
       <c r="E79" s="77">
-        <v>-80</v>
+        <v>-4300</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="89">
-        <v>45436</v>
+        <v>45465</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C80" s="84"/>
       <c r="E80" s="77">
-        <v>-1000</v>
+        <v>-483.01</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="89">
-        <v>45437</v>
+        <v>45436</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1270</v>
+        <v>275</v>
       </c>
       <c r="C81" s="84"/>
       <c r="E81" s="77">
-        <v>-70</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="89">
-        <v>45438</v>
+        <v>45436</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>277</v>
+        <v>1268</v>
       </c>
       <c r="C82" s="84"/>
       <c r="E82" s="77">
-        <v>-232.27</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="89">
-        <v>45438</v>
+        <v>45437</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C83" s="84"/>
       <c r="E83" s="77">
-        <v>-130</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="89">
-        <v>45469</v>
+        <v>45438</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="C84" s="84"/>
       <c r="E84" s="77">
-        <v>-246.8</v>
+        <v>-232.27</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="89">
-        <v>45439</v>
+        <v>45438</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C85" s="84"/>
       <c r="E85" s="77">
-        <v>-70</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="89">
-        <v>45440</v>
+        <v>45469</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C86" s="84">
-        <v>300</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C86" s="84"/>
       <c r="E86" s="77">
-        <v>-300</v>
+        <v>-246.8</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="89">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C87" s="84"/>
       <c r="E87" s="77">
-        <v>-460</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="89">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C88" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C88" s="84">
+        <v>300</v>
+      </c>
       <c r="E88" s="77">
-        <v>-27.66</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="89">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C89" s="84">
-        <v>400</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="C89" s="84"/>
       <c r="E89" s="77">
-        <v>-400</v>
+        <v>-460</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="89">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C90" s="84">
-        <v>200</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C90" s="84"/>
       <c r="E90" s="77">
-        <v>-200</v>
+        <v>-27.66</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="89">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C91" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C91" s="84">
+        <v>400</v>
+      </c>
       <c r="E91" s="77">
-        <v>-80</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="89">
-        <v>45444</v>
+        <v>45442</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C92" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C92" s="84">
+        <v>200</v>
+      </c>
       <c r="E92" s="77">
-        <v>-80</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="89">
-        <v>45444</v>
+        <v>45442</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>277</v>
+        <v>1272</v>
       </c>
       <c r="C93" s="84"/>
       <c r="E93" s="77">
-        <v>-12.26</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -56267,13 +56453,11 @@
         <v>45444</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C94" s="84">
-        <v>350</v>
-      </c>
+        <v>1273</v>
+      </c>
+      <c r="C94" s="84"/>
       <c r="E94" s="77">
-        <v>-350</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -56281,35 +56465,37 @@
         <v>45444</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1274</v>
+        <v>277</v>
       </c>
       <c r="C95" s="84"/>
       <c r="E95" s="77">
-        <v>-300</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="89">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" s="84"/>
+        <v>365</v>
+      </c>
+      <c r="C96" s="84">
+        <v>350</v>
+      </c>
       <c r="E96" s="77">
-        <v>-500</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="89">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="C97" s="84"/>
       <c r="E97" s="77">
-        <v>-70</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -56317,37 +56503,35 @@
         <v>45446</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="C98" s="84"/>
-      <c r="D98" s="77">
-        <v>7949.1</v>
+      <c r="E98" s="77">
+        <v>-500</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="89">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C99" s="84">
-        <v>240</v>
-      </c>
+        <v>1270</v>
+      </c>
+      <c r="C99" s="84"/>
       <c r="E99" s="77">
-        <v>-240</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="89">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1270</v>
+        <v>3</v>
       </c>
       <c r="C100" s="84"/>
-      <c r="E100" s="77">
-        <v>-70</v>
+      <c r="D100" s="77">
+        <v>7949.1</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -56355,63 +56539,64 @@
         <v>45447</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C101" s="84">
+        <v>240</v>
+      </c>
+      <c r="E101" s="77">
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="89">
+        <v>45447</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C102" s="84"/>
+      <c r="E102" s="77">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="89">
+        <v>45447</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="84"/>
-      <c r="D101" s="77">
+      <c r="C103" s="84"/>
+      <c r="D103" s="77">
         <v>11998.63</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="322">
-        <v>45448</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C102">
-        <v>280</v>
-      </c>
-      <c r="E102" s="77">
-        <v>-280</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="322">
-        <v>45448</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="322">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C104">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E104" s="77">
-        <v>-300</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="322">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E105" s="77">
-        <v>-84.7</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="322">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>365</v>
@@ -56425,154 +56610,157 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="322">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1273</v>
+        <v>277</v>
       </c>
       <c r="E107" s="77">
-        <v>-80</v>
+        <v>-84.7</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="322">
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C108">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E108" s="77">
-        <v>-250</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="322">
-        <v>45451</v>
+        <v>45450</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="E109" s="77">
-        <v>-145</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="322">
-        <v>45454</v>
+        <v>45451</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C110">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E110" s="77">
-        <v>-400</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="322">
-        <v>45455</v>
+        <v>45451</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="E111" s="77">
-        <v>-300</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="322">
-        <v>45456</v>
+        <v>45454</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C112">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E112" s="77">
-        <v>-300</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="322">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="E113" s="77">
-        <v>-70</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="322">
-        <v>45459</v>
+        <v>45456</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1273</v>
+        <v>365</v>
+      </c>
+      <c r="C114">
+        <v>300</v>
       </c>
       <c r="E114" s="77">
-        <v>-80</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="322">
-        <v>45460</v>
+        <v>45456</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>277</v>
+        <v>1270</v>
       </c>
       <c r="E115" s="77">
-        <v>-71.95</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="322">
-        <v>45460</v>
+        <v>45459</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>271</v>
+        <v>1273</v>
       </c>
       <c r="E116" s="77">
-        <v>-500</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="322">
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1273</v>
+        <v>277</v>
       </c>
       <c r="E117" s="77">
-        <v>-80</v>
+        <v>-71.95</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="322">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1276</v>
+        <v>271</v>
       </c>
       <c r="E118" s="77">
-        <v>-105</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="322">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="E119" s="77">
-        <v>-800</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -56580,43 +56768,43 @@
         <v>45464</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E120" s="77">
-        <v>-277.5</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="322">
-        <v>45465</v>
+        <v>45464</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E121" s="77">
-        <v>-200</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="322">
-        <v>45466</v>
+        <v>45464</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E122" s="77">
-        <v>-689.5</v>
+        <v>-277.5</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="322">
-        <v>45466</v>
+        <v>45465</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>271</v>
+        <v>1279</v>
       </c>
       <c r="E123" s="77">
-        <v>-500</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -56624,10 +56812,10 @@
         <v>45466</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>355</v>
+        <v>1280</v>
       </c>
       <c r="E124" s="77">
-        <v>-650</v>
+        <v>-689.5</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -56635,32 +56823,32 @@
         <v>45466</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>1281</v>
+        <v>271</v>
       </c>
       <c r="E125" s="77">
-        <v>-134.33000000000001</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="322">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>693</v>
+        <v>355</v>
       </c>
       <c r="E126" s="77">
-        <v>-28.05</v>
+        <v>-650</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="322">
-        <v>45467</v>
+        <v>45466</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E127" s="77">
-        <v>-28.05</v>
+        <v>-134.33000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -56668,98 +56856,92 @@
         <v>45467</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E128" s="77">
+        <v>-28.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="322">
+        <v>45467</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E129" s="77">
+        <v>-28.05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="322">
+        <v>45467</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="E128" s="77">
+      <c r="E130" s="77">
         <v>-186.98</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15">
-      <c r="B129" s="61" t="s">
+    <row r="131" spans="1:5" ht="15">
+      <c r="B131" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="C129" s="3">
-        <f>SUM(C84:C128)</f>
+      <c r="C131" s="3">
+        <f>SUM(C86:C130)</f>
         <v>3320</v>
       </c>
-      <c r="E129" s="105" t="s">
+      <c r="E131" s="105" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="B130" s="3" t="s">
+    <row r="132" spans="1:5">
+      <c r="B132" s="3" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="68" t="s">
+    <row r="133" spans="1:5">
+      <c r="A133" s="68" t="s">
         <v>1289</v>
       </c>
-      <c r="B131" s="69" t="s">
+      <c r="B133" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C131" s="70">
+      <c r="C133" s="70">
         <v>2024</v>
       </c>
-      <c r="D131" s="71"/>
-      <c r="E131" s="72">
-        <f>SUM(E132:E152)</f>
+      <c r="D133" s="71"/>
+      <c r="E133" s="72">
+        <f>SUM(E134:E154)</f>
         <v>981303.72722800006</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="106">
+    <row r="134" spans="1:5">
+      <c r="A134" s="106">
         <v>45474</v>
       </c>
-      <c r="B132" s="22" t="s">
+      <c r="B134" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C132" s="107"/>
-      <c r="D132" s="107"/>
-      <c r="E132" s="107">
+      <c r="C134" s="107"/>
+      <c r="D134" s="107"/>
+      <c r="E134" s="107">
         <v>64000</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="106">
-        <f t="shared" ref="A133:A151" si="1">A132</f>
+    <row r="135" spans="1:5">
+      <c r="A135" s="106">
+        <f t="shared" ref="A135:A153" si="1">A134</f>
         <v>45474</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B135" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C133" s="107"/>
-      <c r="D133" s="107"/>
-      <c r="E133" s="107">
+      <c r="C135" s="107"/>
+      <c r="D135" s="107"/>
+      <c r="E135" s="107">
         <v>150845</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="73">
-        <f t="shared" si="1"/>
-        <v>45474</v>
-      </c>
-      <c r="B134" t="s">
-        <v>85</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="62">
-        <v>12712.47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="73">
-        <f t="shared" si="1"/>
-        <v>45474</v>
-      </c>
-      <c r="B135" t="s">
-        <v>86</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="62">
-        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -56768,12 +56950,12 @@
         <v>45474</v>
       </c>
       <c r="B136" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="62">
-        <v>0</v>
+        <v>12712.47</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -56782,9 +56964,9 @@
         <v>45474</v>
       </c>
       <c r="B137" t="s">
-        <v>87</v>
-      </c>
-      <c r="C137" s="108"/>
+        <v>86</v>
+      </c>
+      <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="62">
         <v>0</v>
@@ -56796,17 +56978,12 @@
         <v>45474</v>
       </c>
       <c r="B138" t="s">
-        <v>88</v>
-      </c>
-      <c r="C138" s="2">
-        <v>74</v>
-      </c>
-      <c r="D138" s="327">
-        <v>677.53942199999995</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
       <c r="E138" s="62">
-        <f>D138*C138</f>
-        <v>50137.917227999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -56815,17 +56992,12 @@
         <v>45474</v>
       </c>
       <c r="B139" t="s">
-        <v>237</v>
-      </c>
-      <c r="C139" s="109">
-        <v>125000</v>
-      </c>
-      <c r="D139" s="327">
-        <v>0.83506999999999998</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C139" s="108"/>
+      <c r="D139" s="2"/>
       <c r="E139" s="62">
-        <f t="shared" ref="E139:E149" si="2">D139*C139</f>
-        <v>104383.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -56834,17 +57006,17 @@
         <v>45474</v>
       </c>
       <c r="B140" t="s">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="C140" s="2">
-        <v>10</v>
-      </c>
-      <c r="D140" s="2">
-        <v>123.7</v>
+        <v>74</v>
+      </c>
+      <c r="D140" s="327">
+        <v>677.53942199999995</v>
       </c>
       <c r="E140" s="62">
-        <f t="shared" si="2"/>
-        <v>1237</v>
+        <f>D140*C140</f>
+        <v>50137.917227999998</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -56853,17 +57025,17 @@
         <v>45474</v>
       </c>
       <c r="B141" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C141" s="2">
-        <v>38</v>
-      </c>
-      <c r="D141" s="2">
-        <v>22.78</v>
+        <v>237</v>
+      </c>
+      <c r="C141" s="109">
+        <v>125000</v>
+      </c>
+      <c r="D141" s="327">
+        <v>0.83506999999999998</v>
       </c>
       <c r="E141" s="62">
-        <f t="shared" si="2"/>
-        <v>865.6400000000001</v>
+        <f t="shared" ref="E141:E151" si="2">D141*C141</f>
+        <v>104383.75</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -56872,17 +57044,17 @@
         <v>45474</v>
       </c>
       <c r="B142" t="s">
-        <v>1291</v>
+        <v>238</v>
       </c>
       <c r="C142" s="2">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D142" s="2">
-        <v>27.26</v>
+        <v>123.7</v>
       </c>
       <c r="E142" s="62">
         <f t="shared" si="2"/>
-        <v>708.76</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -56891,13 +57063,17 @@
         <v>45474</v>
       </c>
       <c r="B143" t="s">
-        <v>96</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+        <v>1290</v>
+      </c>
+      <c r="C143" s="2">
+        <v>38</v>
+      </c>
+      <c r="D143" s="2">
+        <v>22.78</v>
+      </c>
       <c r="E143" s="62">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>865.6400000000001</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -56906,23 +57082,26 @@
         <v>45474</v>
       </c>
       <c r="B144" t="s">
-        <v>239</v>
+        <v>1291</v>
       </c>
       <c r="C144" s="2">
-        <v>7500</v>
+        <v>26</v>
       </c>
       <c r="D144" s="2">
-        <v>24.5</v>
+        <v>27.26</v>
       </c>
       <c r="E144" s="62">
         <f t="shared" si="2"/>
-        <v>183750</v>
+        <v>708.76</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="73">
         <f t="shared" si="1"/>
         <v>45474</v>
+      </c>
+      <c r="B145" t="s">
+        <v>96</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -56936,11 +57115,18 @@
         <f t="shared" si="1"/>
         <v>45474</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="B146" t="s">
+        <v>239</v>
+      </c>
+      <c r="C146" s="2">
+        <v>7500</v>
+      </c>
+      <c r="D146" s="2">
+        <v>24.5</v>
+      </c>
       <c r="E146" s="62">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>183750</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -56948,18 +57134,11 @@
         <f t="shared" si="1"/>
         <v>45474</v>
       </c>
-      <c r="B147" t="s">
-        <v>240</v>
-      </c>
-      <c r="C147" s="2">
-        <v>2375.02</v>
-      </c>
-      <c r="D147" s="2">
-        <v>156</v>
-      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="62">
         <f t="shared" si="2"/>
-        <v>370503.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -56967,18 +57146,11 @@
         <f t="shared" si="1"/>
         <v>45474</v>
       </c>
-      <c r="B148" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C148" s="75">
-        <v>31.963699999999999</v>
-      </c>
-      <c r="D148" s="2">
-        <v>850</v>
-      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
       <c r="E148" s="62">
         <f t="shared" si="2"/>
-        <v>27169.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -56987,18 +57159,17 @@
         <v>45474</v>
       </c>
       <c r="B149" t="s">
-        <v>242</v>
-      </c>
-      <c r="C149" s="75">
-        <f>C148</f>
-        <v>31.963699999999999</v>
+        <v>240</v>
+      </c>
+      <c r="C149" s="2">
+        <v>2375.02</v>
       </c>
       <c r="D149" s="2">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="E149" s="62">
         <f t="shared" si="2"/>
-        <v>7990.9250000000002</v>
+        <v>370503.12</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -57007,17 +57178,17 @@
         <v>45474</v>
       </c>
       <c r="B150" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C150" s="75">
-        <v>34.412100000000002</v>
+        <v>31.963699999999999</v>
       </c>
       <c r="D150" s="2">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="E150" s="62">
-        <f>D150*C150</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>27169.145</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -57026,57 +57197,96 @@
         <v>45474</v>
       </c>
       <c r="B151" t="s">
-        <v>100</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C151" s="75">
+        <f>C150</f>
+        <v>31.963699999999999</v>
+      </c>
+      <c r="D151" s="2">
+        <v>250</v>
+      </c>
       <c r="E151" s="62">
-        <v>3000</v>
+        <f t="shared" si="2"/>
+        <v>7990.9250000000002</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="73">
-        <f>A151</f>
+        <f t="shared" si="1"/>
         <v>45474</v>
       </c>
       <c r="B152" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C152" s="75">
+        <v>34.412100000000002</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="62">
+        <f>D152*C152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="73">
+        <f t="shared" si="1"/>
+        <v>45474</v>
+      </c>
+      <c r="B153" t="s">
+        <v>100</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="62">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="73">
+        <f>A153</f>
+        <v>45474</v>
+      </c>
+      <c r="B154" t="s">
         <v>101</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="62">
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="62">
         <v>4000</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="E153" s="110"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="C154" s="108"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="108"/>
-    </row>
     <row r="155" spans="1:5">
-      <c r="C155" s="108"/>
-      <c r="D155" s="61" t="s">
+      <c r="E155" s="110"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="C156" s="108"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="108"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="C157" s="108"/>
+      <c r="D157" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E155" s="8">
-        <f>SUM(E132:E152)</f>
+      <c r="E157" s="8">
+        <f>SUM(E134:E154)</f>
         <v>981303.72722800006</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="C156" s="111" t="str">
-        <f>A131</f>
+    <row r="158" spans="1:5">
+      <c r="C158" s="111" t="str">
+        <f>A133</f>
         <v>TEMMUZa</v>
       </c>
-      <c r="D156" s="112" t="s">
+      <c r="D158" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="E156" s="113">
+      <c r="E158" s="113">
         <f>H2</f>
-        <v>-52351.619999999995</v>
+        <v>-53411.619999999995</v>
       </c>
     </row>
   </sheetData>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F9EDD-032A-49BC-958E-9A050D8F61BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E21575-77FF-4AA9-A3E2-E56E01FC140A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="26370" windowHeight="12270" tabRatio="633" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="1316">
   <si>
     <t>hacı</t>
   </si>
@@ -4183,6 +4183,51 @@
   </si>
   <si>
     <t>peri ziraat kredi ödemesi taksit 76</t>
+  </si>
+  <si>
+    <t>vergi dairesi</t>
+  </si>
+  <si>
+    <t>vergi ankara</t>
+  </si>
+  <si>
+    <t>yaz okulu</t>
+  </si>
+  <si>
+    <t>tavk dnr</t>
+  </si>
+  <si>
+    <t>motor yağı</t>
+  </si>
+  <si>
+    <t>tat dnr</t>
+  </si>
+  <si>
+    <t>ozcan iskndr</t>
+  </si>
+  <si>
+    <t>petrol</t>
+  </si>
+  <si>
+    <t>mercmk</t>
+  </si>
+  <si>
+    <t>noter suleyman akan</t>
+  </si>
+  <si>
+    <t>oödeme otomtk</t>
+  </si>
+  <si>
+    <t>sofra bezi</t>
+  </si>
+  <si>
+    <t>ceviz</t>
+  </si>
+  <si>
+    <t>bim yağ</t>
+  </si>
+  <si>
+    <t>cevizli yapım</t>
   </si>
 </sst>
 </file>
@@ -6028,7 +6073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -20968,11 +21013,11 @@
       </c>
       <c r="C10" s="23">
         <f>'08_24'!E2</f>
-        <v>-64037.96</v>
+        <v>-75986.290000000008</v>
       </c>
       <c r="D10" s="24">
         <f t="shared" si="0"/>
-        <v>120859.27630699999</v>
+        <v>108910.94630699998</v>
       </c>
       <c r="E10" s="23">
         <f>'08_24'!F2</f>
@@ -21000,7 +21045,7 @@
         <v>13</v>
       </c>
       <c r="N10">
-        <f>'08_24'!E120/1000</f>
+        <f>'08_24'!E127/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -21018,7 +21063,7 @@
       </c>
       <c r="D11" s="24">
         <f t="shared" si="0"/>
-        <v>247555.256307</v>
+        <v>235606.92630699999</v>
       </c>
       <c r="E11" s="23">
         <f>'09_24'!F2</f>
@@ -21067,7 +21112,7 @@
       </c>
       <c r="D12" s="24">
         <f t="shared" si="0"/>
-        <v>254685.99630699999</v>
+        <v>242737.66630699998</v>
       </c>
       <c r="E12" s="23">
         <f>'10_24'!F2</f>
@@ -21116,7 +21161,7 @@
       </c>
       <c r="D13" s="24">
         <f t="shared" si="0"/>
-        <v>491816.73630699998</v>
+        <v>479868.40630699997</v>
       </c>
       <c r="E13" s="23">
         <f>'11_24'!F2</f>
@@ -21165,7 +21210,7 @@
       </c>
       <c r="D14" s="24">
         <f t="shared" si="0"/>
-        <v>477916.71630699997</v>
+        <v>465968.38630699995</v>
       </c>
       <c r="E14" s="23">
         <f>'12_24'!F2</f>
@@ -21210,11 +21255,11 @@
       </c>
       <c r="C15" s="24">
         <f>SUM(C3:C14)</f>
-        <v>-852147.88369300007</v>
+        <v>-864096.21369300003</v>
       </c>
       <c r="D15" s="24">
         <f>B15+C15</f>
-        <v>477916.71630700002</v>
+        <v>465968.38630700007</v>
       </c>
       <c r="E15" s="24">
         <f>SUM(E3:E14)</f>
@@ -21257,7 +21302,7 @@
       </c>
       <c r="C16" s="46">
         <f>C15/A16</f>
-        <v>-71012.323641083334</v>
+        <v>-72008.017807750002</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46">
@@ -37111,8 +37156,8 @@
   </sheetPr>
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E59" sqref="A59:E62"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -37121,7 +37166,8 @@
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="77" customWidth="1"/>
     <col min="5" max="8" width="12.28515625" style="77"/>
-    <col min="11" max="11" width="25.7109375" style="78" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="78" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="78" customWidth="1"/>
     <col min="13" max="14" width="12.28515625" style="78"/>
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
@@ -37229,38 +37275,84 @@
         <f>H7+F8+G8</f>
         <v>0</v>
       </c>
+      <c r="N8" s="78">
+        <f>M14</f>
+        <v>93450</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="81" t="s">
         <v>112</v>
       </c>
       <c r="C9" s="80"/>
-      <c r="K9" s="82"/>
+      <c r="J9" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="78">
+        <v>8</v>
+      </c>
+      <c r="L9" s="83">
+        <v>250</v>
+      </c>
+      <c r="M9" s="78">
+        <f>L9*K9</f>
+        <v>2000</v>
+      </c>
+      <c r="N9" s="78">
+        <f>N8-M9</f>
+        <v>91450</v>
+      </c>
+      <c r="O9" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="81" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="80"/>
-      <c r="L10" s="82"/>
+      <c r="J10" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="83">
+        <v>2</v>
+      </c>
+      <c r="L10" s="83">
+        <v>250</v>
+      </c>
+      <c r="M10" s="78">
+        <f>L10*K10</f>
+        <v>500</v>
+      </c>
+      <c r="N10" s="78">
+        <f t="shared" ref="N10:N14" si="0">N9-M10</f>
+        <v>90950</v>
+      </c>
+      <c r="O10" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="80" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="80"/>
-      <c r="K11" s="82" t="s">
-        <v>115</v>
+      <c r="J11" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="78">
+        <v>11</v>
       </c>
       <c r="L11" s="78">
-        <v>8</v>
-      </c>
-      <c r="M11" s="83">
         <v>250</v>
       </c>
+      <c r="M11" s="78">
+        <f>L11*K11</f>
+        <v>2750</v>
+      </c>
       <c r="N11" s="78">
-        <f>M11*L11</f>
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>88200</v>
       </c>
       <c r="O11" t="s">
         <v>116</v>
@@ -37271,21 +37363,25 @@
         <v>117</v>
       </c>
       <c r="C12" s="80"/>
-      <c r="K12" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="83">
-        <v>2</v>
-      </c>
-      <c r="M12" s="83">
-        <v>250</v>
+      <c r="J12" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="77">
+        <v>1</v>
+      </c>
+      <c r="L12" s="77">
+        <v>8595</v>
+      </c>
+      <c r="M12" s="77">
+        <f>L12*K12</f>
+        <v>8595</v>
       </c>
       <c r="N12" s="78">
-        <f>M12*L12</f>
-        <v>500</v>
-      </c>
-      <c r="O12" t="s">
-        <v>116</v>
+        <f t="shared" si="0"/>
+        <v>79605</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -37293,21 +37389,25 @@
         <v>119</v>
       </c>
       <c r="C13" s="80"/>
-      <c r="K13" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="78">
-        <v>11</v>
-      </c>
-      <c r="M13" s="78">
-        <v>250</v>
+      <c r="J13" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="77">
+        <v>9</v>
+      </c>
+      <c r="L13" s="77">
+        <v>8845</v>
+      </c>
+      <c r="M13" s="77">
+        <f>L13*K13</f>
+        <v>79605</v>
       </c>
       <c r="N13" s="78">
-        <f>M13*L13</f>
-        <v>2750</v>
-      </c>
-      <c r="O13" t="s">
-        <v>116</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -37317,21 +37417,14 @@
         <f>H8+F14+G14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="77">
-        <v>1</v>
-      </c>
-      <c r="M14" s="77">
-        <v>8595</v>
-      </c>
-      <c r="N14" s="77">
-        <f>M14*L14</f>
-        <v>8595</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>122</v>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="86">
+        <f>SUM(M9:M13)</f>
+        <v>93450</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -37345,24 +37438,8 @@
         <v>-150</v>
       </c>
       <c r="H15" s="77">
-        <f t="shared" ref="H15:H37" si="0">H14+F15+G15</f>
+        <f t="shared" ref="H15:H37" si="1">H14+F15+G15</f>
         <v>0</v>
-      </c>
-      <c r="K15" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="77">
-        <v>9</v>
-      </c>
-      <c r="M15" s="77">
-        <v>8845</v>
-      </c>
-      <c r="N15" s="77">
-        <f>M15*L15</f>
-        <v>79605</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -37376,17 +37453,8 @@
         <v>-300</v>
       </c>
       <c r="H16" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="N16" s="86">
-        <f>SUM(N11:N15)</f>
-        <v>93450</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -37400,18 +37468,15 @@
         <v>-100</v>
       </c>
       <c r="H17" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
     </row>
     <row r="18" spans="1:13">
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
       <c r="H18" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="83"/>
@@ -37427,7 +37492,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37440,7 +37505,7 @@
         <v>-1797.26</v>
       </c>
       <c r="H20" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37456,7 +37521,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37470,7 +37535,7 @@
         <v>-6720</v>
       </c>
       <c r="H22" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37484,7 +37549,7 @@
         <v>-6000</v>
       </c>
       <c r="H23" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37497,25 +37562,25 @@
         <v>-1500</v>
       </c>
       <c r="H24" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="H25" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="H26" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="H27" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37524,7 +37589,7 @@
         <v>83</v>
       </c>
       <c r="H28" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37536,7 +37601,7 @@
         <v>-5000</v>
       </c>
       <c r="H29" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37548,7 +37613,7 @@
         <v>-5000</v>
       </c>
       <c r="H30" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37560,13 +37625,13 @@
         <v>-5000</v>
       </c>
       <c r="H31" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="H32" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37578,7 +37643,7 @@
         <v>15000</v>
       </c>
       <c r="H33" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37588,7 +37653,7 @@
         <v>135</v>
       </c>
       <c r="H34" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37601,14 +37666,14 @@
         <v>15000</v>
       </c>
       <c r="H35" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="89"/>
       <c r="H36" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -37620,7 +37685,7 @@
         <v>0.234011</v>
       </c>
       <c r="H37" s="77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -47983,7 +48048,7 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E54" sqref="A54:E57"/>
     </sheetView>
   </sheetViews>
@@ -52633,7 +52698,7 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -53472,7 +53537,7 @@
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -54385,10 +54450,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -54424,7 +54489,7 @@
       </c>
       <c r="E2" s="77">
         <f>SUM(E4:E43)</f>
-        <v>-64037.96</v>
+        <v>-75986.290000000008</v>
       </c>
       <c r="F2" s="77">
         <f>SUM(F4:F43)</f>
@@ -54583,7 +54648,7 @@
       </c>
       <c r="E15" s="77">
         <f>E59</f>
-        <v>-7286.16</v>
+        <v>-8154.2</v>
       </c>
       <c r="H15" s="77">
         <f t="shared" si="0"/>
@@ -54592,14 +54657,14 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="88">
-        <v>45173</v>
+        <v>45509</v>
       </c>
       <c r="B16" s="87" t="s">
         <v>129</v>
       </c>
       <c r="E16" s="77">
         <f>E74</f>
-        <v>-10899.8</v>
+        <v>-21980.090000000004</v>
       </c>
       <c r="H16" s="77">
         <f t="shared" si="0"/>
@@ -54890,49 +54955,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="89"/>
       <c r="B49" s="84" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="22"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="B50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="B51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="B52" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="B53" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="B54" t="s">
         <v>146</v>
       </c>
       <c r="C54" s="84"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="C55" s="84"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="B57" s="62"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="B58" s="95"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="70"/>
       <c r="B59" s="69" t="s">
         <v>147</v>
@@ -54940,10 +55005,10 @@
       <c r="C59" s="70"/>
       <c r="E59" s="77">
         <f>SUM(E60:E71)</f>
-        <v>-7286.16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-8154.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="96">
         <v>45348</v>
       </c>
@@ -54959,8 +55024,11 @@
       <c r="E61" s="77">
         <v>-234.33</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="96">
         <v>45373</v>
       </c>
@@ -54976,8 +55044,11 @@
       <c r="E62" s="77">
         <v>-1130.71</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="96">
         <v>45375</v>
       </c>
@@ -54991,10 +55062,13 @@
         <v>183</v>
       </c>
       <c r="E63" s="77">
-        <v>-666.55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-666.56</v>
+      </c>
+      <c r="F63" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="96">
         <v>45358</v>
       </c>
@@ -55010,8 +55084,11 @@
       <c r="E64" s="77">
         <v>-378.87</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="96">
         <v>45371</v>
       </c>
@@ -55024,8 +55101,11 @@
       <c r="E65" s="77">
         <v>101.77</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="89">
         <v>45442</v>
       </c>
@@ -55039,8 +55119,11 @@
       <c r="E66" s="77">
         <v>-1054.1400000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="89">
         <v>45456</v>
       </c>
@@ -55054,52 +55137,79 @@
       <c r="E67" s="77">
         <v>-3923.33</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="89"/>
-      <c r="B68" s="97"/>
+      <c r="F67" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="89">
+        <v>45470</v>
+      </c>
+      <c r="B68" s="97" t="s">
+        <v>1301</v>
+      </c>
       <c r="C68" s="84"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="89"/>
-      <c r="B69" s="97"/>
+      <c r="E68" s="77">
+        <v>-868.03</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="89">
+        <v>45478</v>
+      </c>
+      <c r="B69" s="97" t="s">
+        <v>3</v>
+      </c>
       <c r="C69" s="84"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="89"/>
-      <c r="B70" s="97"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="D69" s="77">
+        <v>2700.47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15">
+      <c r="A70" s="89">
+        <v>45478</v>
+      </c>
+      <c r="B70" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="77">
+        <v>6244.07</v>
+      </c>
+      <c r="E70" s="105" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="89"/>
       <c r="B71" s="97"/>
       <c r="C71" s="84"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="89"/>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="89"/>
       <c r="B73" s="84"/>
       <c r="C73" s="84"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="70"/>
       <c r="B74" s="69" t="s">
         <v>154</v>
       </c>
       <c r="C74" s="70"/>
       <c r="E74" s="77">
-        <f>SUM(E75:E83)</f>
-        <v>-10899.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <f>SUM(E75:E117)</f>
+        <v>-21980.090000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="89"/>
       <c r="B75" s="84"/>
       <c r="C75" s="84"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="89"/>
       <c r="B76" s="3" t="s">
         <v>185</v>
@@ -55109,28 +55219,27 @@
         <v>186</v>
       </c>
       <c r="E76" s="77">
-        <v>-649.78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-649.79999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="89"/>
       <c r="B77" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C77" s="84"/>
+      <c r="C77" s="84">
+        <v>50</v>
+      </c>
       <c r="D77" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="E77" s="77">
-        <v>49.98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="89"/>
       <c r="B78" s="3"/>
       <c r="C78" s="84"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="89">
         <v>45456</v>
       </c>
@@ -55142,10 +55251,10 @@
         <v>1260</v>
       </c>
       <c r="E79" s="77">
-        <v>-6000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-5875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="89">
         <v>45456</v>
       </c>
@@ -55160,226 +55269,467 @@
         <v>-4300</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="89"/>
-      <c r="B81" s="3"/>
+    <row r="81" spans="1:5">
+      <c r="A81" s="89">
+        <v>45475</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1302</v>
+      </c>
       <c r="C81" s="84"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="89"/>
-      <c r="B82" s="3"/>
+      <c r="E81" s="77">
+        <v>-1129.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="89">
+        <v>45478</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1303</v>
+      </c>
       <c r="C82" s="84"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="E82" s="77">
+        <v>-1060</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="89"/>
       <c r="B83" s="3"/>
       <c r="C83" s="84"/>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="89"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="84"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="89"/>
-      <c r="B85" s="3"/>
+    <row r="84" spans="1:5">
+      <c r="A84" s="89">
+        <v>45467</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C84" s="84">
+        <v>120</v>
+      </c>
+      <c r="E84" s="77">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="89">
+        <v>45467</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1304</v>
+      </c>
       <c r="C85" s="84"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="89"/>
-      <c r="B86" s="3"/>
+      <c r="E85" s="77">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="89">
+        <v>45467</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1305</v>
+      </c>
       <c r="C86" s="84"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="89"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="84"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="89"/>
-      <c r="B88" s="3"/>
+      <c r="E86" s="77">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="89">
+        <v>45468</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C87" s="84">
+        <v>150</v>
+      </c>
+      <c r="E87" s="77">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="89">
+        <v>45468</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1306</v>
+      </c>
       <c r="C88" s="84"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="89"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="84"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="89"/>
-      <c r="B90" s="3"/>
+      <c r="E88" s="77">
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="89">
+        <v>45469</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C89" s="84">
+        <v>250</v>
+      </c>
+      <c r="E89" s="77">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="89">
+        <v>45470</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1307</v>
+      </c>
       <c r="C90" s="84"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="89"/>
-      <c r="B91" s="3"/>
+      <c r="E90" s="77">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="89">
+        <v>45470</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>784</v>
+      </c>
       <c r="C91" s="84"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="89"/>
-      <c r="B92" s="3"/>
+      <c r="E91" s="77">
+        <v>-48.99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="89">
+        <v>45470</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1308</v>
+      </c>
       <c r="C92" s="84"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="89"/>
-      <c r="B93" s="3"/>
+      <c r="E92" s="77">
+        <v>-169.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="89">
+        <v>45471</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>1309</v>
+      </c>
       <c r="C93" s="84"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="89"/>
-      <c r="B94" s="3"/>
+      <c r="E93" s="77">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="89">
+        <v>45473</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="C94" s="84"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="89"/>
-      <c r="B95" s="3"/>
+      <c r="E94" s="77">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="89">
+        <v>45474</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1304</v>
+      </c>
       <c r="C95" s="84"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="89"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="84"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="89"/>
-      <c r="B97" s="3"/>
+      <c r="E95" s="77">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="89">
+        <v>45475</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C96" s="84">
+        <v>440</v>
+      </c>
+      <c r="E96" s="77">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="89">
+        <v>45475</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1310</v>
+      </c>
       <c r="C97" s="84"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="89"/>
-      <c r="B98" s="3"/>
+      <c r="E97" s="77">
+        <v>-1673</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="89">
+        <v>45475</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1307</v>
+      </c>
       <c r="C98" s="84"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="89"/>
-      <c r="B99" s="3"/>
+      <c r="E98" s="77">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="89">
+        <v>45476</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1304</v>
+      </c>
       <c r="C99" s="84"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="89"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="84"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="89"/>
-      <c r="B101" s="3"/>
+      <c r="E99" s="77">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="89">
+        <v>45477</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C100" s="84">
+        <v>10597.81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="89">
+        <v>45478</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1312</v>
+      </c>
       <c r="C101" s="84"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="89"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="84"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="89"/>
-      <c r="B103" s="3"/>
+      <c r="E101" s="77">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="89">
+        <v>45478</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="84">
+        <v>15971.71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="89">
+        <v>45479</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>1314</v>
+      </c>
       <c r="C103" s="84"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="89"/>
-      <c r="B104" s="3"/>
+      <c r="E103" s="77">
+        <v>-325</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="89">
+        <v>45479</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1313</v>
+      </c>
       <c r="C104" s="84"/>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="E104" s="77">
+        <v>-629</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="89"/>
-      <c r="B105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>1315</v>
+      </c>
       <c r="C105" s="84"/>
+      <c r="E105" s="77">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="E106" s="77">
+        <v>-119.74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="E107" s="77">
+        <v>-215.98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="E108" s="77">
+        <v>-104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="E109" s="77">
+        <v>-81.37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="E110" s="77">
+        <v>-65.67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="E111" s="77">
+        <v>-260</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="E112" s="77">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="E113" s="77">
+        <v>-300</v>
+      </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="70"/>
-      <c r="B114" s="69" t="s">
+      <c r="E114" s="77">
+        <v>-37.33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="E115" s="77">
+        <v>-37.33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="E116" s="77">
+        <v>-72.63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15">
+      <c r="D117" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E117" s="77">
+        <v>-176.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15">
+      <c r="D118" s="120"/>
+    </row>
+    <row r="119" spans="1:5" ht="15">
+      <c r="D119" s="120"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="70"/>
+      <c r="B121" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C114" s="70"/>
-      <c r="E114" s="77">
-        <f>SUM(E115:E122)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="89"/>
-      <c r="B115" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="89"/>
-      <c r="B116" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="89"/>
-      <c r="B117" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="89"/>
-      <c r="B118" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="89"/>
-      <c r="B119" t="s">
-        <v>156</v>
-      </c>
-      <c r="D119" s="77">
-        <v>111</v>
-      </c>
-      <c r="E119" s="77">
-        <f>D119*C119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="89"/>
-      <c r="B120" t="s">
-        <v>157</v>
-      </c>
-      <c r="D120" s="77">
-        <v>850</v>
-      </c>
-      <c r="E120" s="77">
-        <f>D120*C120</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="89"/>
-      <c r="B121" t="s">
-        <v>158</v>
-      </c>
-      <c r="D121" s="77">
-        <v>100</v>
-      </c>
+      <c r="C121" s="70"/>
       <c r="E121" s="77">
-        <f>D121*C121</f>
+        <f>SUM(E122:E129)</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="89"/>
       <c r="B122" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="89"/>
+      <c r="B123" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="89"/>
+      <c r="B124" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="89"/>
+      <c r="B125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="89"/>
+      <c r="B126" t="s">
+        <v>156</v>
+      </c>
+      <c r="D126" s="77">
+        <v>111</v>
+      </c>
+      <c r="E126" s="77">
+        <f>D126*C126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="89"/>
+      <c r="B127" t="s">
+        <v>157</v>
+      </c>
+      <c r="D127" s="77">
+        <v>850</v>
+      </c>
+      <c r="E127" s="77">
+        <f>D127*C127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="89"/>
+      <c r="B128" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="77">
+        <v>100</v>
+      </c>
+      <c r="E128" s="77">
+        <f>D128*C128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="89"/>
+      <c r="B129" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="B123" t="s">
+    <row r="130" spans="1:5">
+      <c r="B130" t="s">
         <v>160</v>
       </c>
-      <c r="E123" s="77">
+      <c r="E130" s="77">
         <f>H2</f>
         <v>-7337.5</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="D125" s="77" t="s">
+    <row r="132" spans="1:5">
+      <c r="D132" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="E125" s="77">
-        <f>SUM(E115:E124)</f>
+      <c r="E132" s="77">
+        <f>SUM(E122:E131)</f>
         <v>-7337.5</v>
       </c>
     </row>
@@ -55400,8 +55750,8 @@
   </sheetPr>
   <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aaGitMe_main-2024-08\tdy-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD6B649-2AEB-4163-A780-FFBE8D6C8348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5F5D66-C668-4782-A28E-7980E6B72C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -59,8 +59,17 @@
     <sheet name="22_1" sheetId="44" r:id="rId44"/>
     <sheet name="PROCESS" sheetId="45" r:id="rId45"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -69,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="1463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="1466">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -4713,6 +4722,15 @@
   <si>
     <t>KÜLTÜR VERGİSİ</t>
   </si>
+  <si>
+    <t>yasemin 2 maaş 17000*2</t>
+  </si>
+  <si>
+    <t>t-cross kurban sinana</t>
+  </si>
+  <si>
+    <t>temmuz artış</t>
+  </si>
 </sst>
 </file>
 
@@ -4742,7 +4760,7 @@
     <numFmt numFmtId="184" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="185" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="186" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="188" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="187" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -5723,7 +5741,7 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6200,12 +6218,13 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="45" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6645,10 +6664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A51" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -6706,7 +6725,7 @@
         <v>3450</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:F69" si="0">F5+D6-E6</f>
+        <f t="shared" ref="F6:F71" si="0">F5+D6-E6</f>
         <v>-2378</v>
       </c>
     </row>
@@ -7376,8 +7395,8 @@
       <c r="B57" t="s">
         <v>36</v>
       </c>
-      <c r="C57">
-        <v>6500</v>
+      <c r="C57" t="s">
+        <v>102</v>
       </c>
       <c r="E57" s="2">
         <v>5600</v>
@@ -7395,76 +7414,76 @@
         <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>1403</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2">
-        <v>36500</v>
+        <v>30000</v>
       </c>
       <c r="F58" s="2">
-        <f>F57+D58-E58</f>
-        <v>365000</v>
+        <f t="shared" si="0"/>
+        <v>371500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>45580</v>
+        <v>45565</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
         <v>1403</v>
       </c>
       <c r="E59" s="2">
-        <v>36500</v>
+        <v>6500</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="0"/>
-        <v>328500</v>
+        <v>365000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>45611</v>
+        <v>45580</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
         <v>1403</v>
       </c>
       <c r="E60" s="2">
-        <v>36500</v>
+        <v>30000</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="0"/>
-        <v>292000</v>
+        <v>335000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>45641</v>
+        <v>45595</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
         <v>1403</v>
       </c>
       <c r="E61" s="2">
-        <v>36500</v>
+        <v>6500</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="0"/>
-        <v>255500</v>
+        <v>328500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>45672</v>
+        <v>45611</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
         <v>1403</v>
@@ -7474,15 +7493,15 @@
       </c>
       <c r="F62" s="2">
         <f t="shared" si="0"/>
-        <v>219000</v>
+        <v>292000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>45703</v>
+        <v>45641</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
         <v>1403</v>
@@ -7492,15 +7511,15 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="0"/>
-        <v>182500</v>
+        <v>255500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>45731</v>
+        <v>45672</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
         <v>1403</v>
@@ -7510,15 +7529,15 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="0"/>
-        <v>146000</v>
+        <v>219000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>45762</v>
+        <v>45703</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
         <v>1403</v>
@@ -7528,15 +7547,15 @@
       </c>
       <c r="F65" s="2">
         <f t="shared" si="0"/>
-        <v>109500</v>
+        <v>182500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>45792</v>
+        <v>45731</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
         <v>1403</v>
@@ -7546,15 +7565,15 @@
       </c>
       <c r="F66" s="2">
         <f t="shared" si="0"/>
-        <v>73000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>45823</v>
+        <v>45762</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
         <v>1403</v>
@@ -7564,15 +7583,15 @@
       </c>
       <c r="F67" s="2">
         <f t="shared" si="0"/>
-        <v>36500</v>
+        <v>109500</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>45853</v>
+        <v>45792</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
         <v>1403</v>
@@ -7582,370 +7601,406 @@
       </c>
       <c r="F68" s="2">
         <f t="shared" si="0"/>
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>45823</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E69" s="2">
+        <v>36500</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="0"/>
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E70" s="2">
+        <v>36500</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="F69" s="2">
+    <row r="71" spans="1:6">
+      <c r="F71" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="B76" t="s">
+    <row r="78" spans="1:6">
+      <c r="B78" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D78" s="2">
         <v>1466500</v>
       </c>
-      <c r="F76" s="2">
-        <f t="shared" ref="F76:F81" si="1">F75+D76-E76</f>
+      <c r="F78" s="2">
+        <f t="shared" ref="F78:F83" si="1">F77+D78-E78</f>
         <v>1466500</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="B77" t="s">
+    <row r="79" spans="1:6">
+      <c r="B79" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D79" s="2">
         <v>11631</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F79" s="2">
         <f t="shared" si="1"/>
         <v>1478131</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="B78" t="s">
+    <row r="80" spans="1:6">
+      <c r="B80" t="s">
         <v>49</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D80" s="2">
         <v>15500</v>
       </c>
-      <c r="F78" s="2">
-        <f t="shared" si="1"/>
-        <v>1493631</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="F79" s="2">
-        <f t="shared" si="1"/>
-        <v>1493631</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
       <c r="F80" s="2">
         <f t="shared" si="1"/>
         <v>1493631</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13">
+      <c r="F81" s="2">
         <f t="shared" si="1"/>
         <v>1493631</v>
       </c>
     </row>
+    <row r="82" spans="2:6">
+      <c r="F82" s="2">
+        <f t="shared" si="1"/>
+        <v>1493631</v>
+      </c>
+    </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="292" t="s">
+      <c r="B83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13">
+        <f t="shared" si="1"/>
+        <v>1493631</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="292" t="s">
         <v>1414</v>
       </c>
-      <c r="C83" s="292" t="s">
+      <c r="C85" s="292" t="s">
         <v>1415</v>
       </c>
-      <c r="D83" s="318"/>
-      <c r="E83" s="319" t="s">
+      <c r="D85" s="318"/>
+      <c r="E85" s="319" t="s">
         <v>1416</v>
       </c>
-      <c r="F83" s="319" t="s">
+      <c r="F85" s="319" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="84" spans="2:6">
-      <c r="F84" s="14">
-        <f>F81+D84-E84</f>
+    <row r="86" spans="2:6">
+      <c r="F86" s="14">
+        <f>F83+D86-E86</f>
         <v>1493631</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
-      <c r="F85" s="2">
-        <f>F84-E85</f>
+    <row r="87" spans="2:6">
+      <c r="F87" s="2">
+        <f>F86-E87</f>
         <v>1493631</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
-      <c r="B86" t="s">
+    <row r="88" spans="2:6">
+      <c r="B88" t="s">
         <v>1424</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>1420</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E88" s="2">
         <f>E44+E45</f>
         <v>134783.84</v>
       </c>
-      <c r="F86" s="2">
-        <f t="shared" ref="F86:F99" si="2">F85-E86</f>
+      <c r="F88" s="2">
+        <f t="shared" ref="F88:F101" si="2">F87-E88</f>
         <v>1358847.16</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="F87" s="2">
-        <f t="shared" si="2"/>
-        <v>1358847.16</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F88" s="2">
-        <f t="shared" si="2"/>
-        <v>1258847.1599999999</v>
       </c>
     </row>
     <row r="89" spans="2:6">
       <c r="F89" s="2">
         <f t="shared" si="2"/>
-        <v>1258847.1599999999</v>
+        <v>1358847.16</v>
       </c>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" t="s">
-        <v>1412</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2">
-        <v>11631</v>
+        <v>100000</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" si="2"/>
-        <v>1247216.1599999999</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B91" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C91" t="s">
-        <v>76</v>
-      </c>
-      <c r="E91" s="2">
-        <v>15500</v>
-      </c>
+        <v>1258847.1599999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
       <c r="F91" s="2">
         <f t="shared" si="2"/>
+        <v>1258847.1599999999</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C92" t="s">
+        <v>76</v>
+      </c>
+      <c r="E92" s="2">
+        <v>11631</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="2"/>
+        <v>1247216.1599999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B93" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="2">
+        <v>15500</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="2"/>
         <v>1231716.1599999999</v>
       </c>
     </row>
-    <row r="92" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B92" s="333"/>
-      <c r="C92" s="334"/>
-      <c r="D92" s="335" t="s">
+    <row r="94" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B94" s="333"/>
+      <c r="C94" s="334"/>
+      <c r="D94" s="335" t="s">
         <v>1427</v>
       </c>
-      <c r="E92" s="327">
-        <f>SUM(E86:E91)</f>
+      <c r="E94" s="327">
+        <f>SUM(E88:E93)</f>
         <v>261914.84</v>
       </c>
     </row>
-    <row r="94" spans="2:6">
-      <c r="F94" s="13">
-        <f>F91-E94</f>
+    <row r="96" spans="2:6">
+      <c r="F96" s="13">
+        <f>F93-E96</f>
         <v>1231716.1599999999</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
-      <c r="B95" t="s">
+    <row r="97" spans="2:6">
+      <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>1418</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E97" s="2">
         <v>84313</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F97" s="2">
         <f t="shared" si="2"/>
         <v>1147403.1599999999</v>
       </c>
     </row>
-    <row r="96" spans="2:6">
-      <c r="B96" t="s">
+    <row r="98" spans="2:6">
+      <c r="B98" t="s">
         <v>1417</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>1418</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E98" s="2">
         <v>68000</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F98" s="2">
         <f t="shared" si="2"/>
         <v>1079403.1599999999</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
-      <c r="B97" t="s">
+    <row r="99" spans="2:6">
+      <c r="B99" t="s">
         <v>52</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>1418</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E99" s="2">
         <f>F33*-1</f>
         <v>91403.16</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F99" s="2">
         <f t="shared" si="2"/>
         <v>987999.99999999988</v>
       </c>
     </row>
-    <row r="98" spans="2:6">
-      <c r="B98" t="s">
+    <row r="100" spans="2:6">
+      <c r="B100" t="s">
         <v>1419</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>1418</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E100" s="2">
         <v>550000</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F100" s="2">
         <f t="shared" si="2"/>
         <v>437999.99999999988</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B99" t="s">
+    <row r="101" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B101" t="s">
         <v>1425</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C101" t="s">
         <v>1418</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E101" s="2">
         <v>438000</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F101" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B100" s="333"/>
-      <c r="C100" s="334"/>
-      <c r="D100" s="335" t="s">
+    <row r="102" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B102" s="333"/>
+      <c r="C102" s="334"/>
+      <c r="D102" s="335" t="s">
         <v>1426</v>
       </c>
-      <c r="E100" s="327">
-        <f>SUM(E95:E99)</f>
+      <c r="E102" s="327">
+        <f>SUM(E97:E101)</f>
         <v>1231716.1600000001</v>
       </c>
     </row>
-    <row r="117" spans="2:6">
-      <c r="B117" t="s">
+    <row r="119" spans="2:6">
+      <c r="B119" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="119" spans="2:6">
-      <c r="F119" s="2">
-        <f t="shared" ref="F119:F124" si="3">F118+D119-E119</f>
+    <row r="121" spans="2:6">
+      <c r="F121" s="2">
+        <f t="shared" ref="F121:F126" si="3">F120+D121-E121</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:6">
-      <c r="B120" t="s">
+    <row r="122" spans="2:6">
+      <c r="B122" t="s">
         <v>54</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D122" s="2">
         <v>50000</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F122" s="2">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="121" spans="2:6">
-      <c r="B121" t="s">
+    <row r="123" spans="2:6">
+      <c r="B123" t="s">
         <v>55</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D123" s="2">
         <v>140000</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F123" s="2">
         <f t="shared" si="3"/>
         <v>190000</v>
       </c>
     </row>
-    <row r="122" spans="2:6">
-      <c r="B122" t="s">
+    <row r="124" spans="2:6">
+      <c r="B124" t="s">
         <v>56</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D124" s="2">
         <v>195000</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F124" s="2">
         <f t="shared" si="3"/>
         <v>385000</v>
       </c>
     </row>
-    <row r="123" spans="2:6">
-      <c r="B123" t="s">
+    <row r="125" spans="2:6">
+      <c r="B125" t="s">
         <v>112</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E125" s="2">
         <v>310000</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F125" s="2">
         <f t="shared" si="3"/>
         <v>75000</v>
       </c>
     </row>
-    <row r="124" spans="2:6">
-      <c r="B124" s="3" t="s">
+    <row r="126" spans="2:6">
+      <c r="B126" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13">
+      <c r="C126" s="3"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13">
         <f t="shared" si="3"/>
         <v>75000</v>
       </c>
     </row>
-    <row r="125" spans="2:6">
-      <c r="B125" s="3" t="s">
+    <row r="127" spans="2:6">
+      <c r="B127" s="3" t="s">
         <v>1431</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="13">
-        <f>E86-F123</f>
+      <c r="C127" s="3"/>
+      <c r="D127" s="13">
+        <f>E88-F125</f>
         <v>59783.839999999997</v>
       </c>
-      <c r="F125" s="2">
-        <f t="shared" ref="F125" si="4">F123+D125-E125</f>
+      <c r="F127" s="2">
+        <f t="shared" ref="F127" si="4">F125+D127-E127</f>
         <v>134783.84</v>
       </c>
     </row>
-    <row r="126" spans="2:6">
-      <c r="E126" s="70" t="s">
+    <row r="128" spans="2:6">
+      <c r="E128" s="70" t="s">
         <v>1429</v>
       </c>
-      <c r="F126" s="13">
-        <f>F125</f>
+      <c r="F128" s="13">
+        <f>F127</f>
         <v>134783.84</v>
       </c>
     </row>
@@ -38646,15 +38701,15 @@
   </sheetPr>
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
@@ -38664,7 +38719,7 @@
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="7" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" style="2" customWidth="1"/>
     <col min="14" max="14" width="6" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
@@ -38687,10 +38742,10 @@
       <c r="K1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="338" t="s">
+      <c r="L1" s="340" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="338"/>
+      <c r="M1" s="340"/>
       <c r="N1" t="s">
         <v>119</v>
       </c>
@@ -38952,9 +39007,9 @@
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="44" t="e">
+      <c r="M7" s="44">
         <f>E19/1000</f>
-        <v>#REF!</v>
+        <v>25.99053</v>
       </c>
       <c r="N7">
         <f>'05_24'!E101/1000</f>
@@ -39108,7 +39163,7 @@
       </c>
       <c r="B11" s="34">
         <f>'09_24'!D2</f>
-        <v>171984.15</v>
+        <v>36484.15</v>
       </c>
       <c r="C11" s="34">
         <f>'09_24'!E2</f>
@@ -39116,19 +39171,19 @@
       </c>
       <c r="D11" s="35">
         <f t="shared" si="0"/>
-        <v>208578.56630699994</v>
+        <v>73078.566306999972</v>
       </c>
       <c r="E11" s="34">
         <f>'09_24'!F2</f>
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="F11" s="34">
         <f>'09_24'!G2</f>
-        <v>-48796.14</v>
+        <v>-58906.14</v>
       </c>
       <c r="G11" s="35">
         <f t="shared" si="1"/>
-        <v>-64263.933692999984</v>
+        <v>-25373.933692999984</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37" t="s">
@@ -39147,7 +39202,7 @@
       </c>
       <c r="M11" s="40"/>
       <c r="N11">
-        <f>'09_24'!E121/1000</f>
+        <f>'09_24'!E111/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -39165,7 +39220,7 @@
       </c>
       <c r="D12" s="35">
         <f t="shared" si="0"/>
-        <v>53033.456306999928</v>
+        <v>-82466.543693000043</v>
       </c>
       <c r="E12" s="34">
         <f>'10_24'!F2</f>
@@ -39177,7 +39232,7 @@
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
-        <v>-64263.933692999984</v>
+        <v>-25373.933692999984</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="37" t="s">
@@ -39214,7 +39269,7 @@
       </c>
       <c r="D13" s="35">
         <f t="shared" si="0"/>
-        <v>275931.84630699991</v>
+        <v>140431.84630699997</v>
       </c>
       <c r="E13" s="34">
         <f>'11_24'!F2</f>
@@ -39226,7 +39281,7 @@
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>-64263.933692999984</v>
+        <v>-25373.933692999984</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="37" t="s">
@@ -39263,7 +39318,7 @@
       </c>
       <c r="D14" s="35">
         <f t="shared" si="0"/>
-        <v>249355.97630699992</v>
+        <v>113855.97630699998</v>
       </c>
       <c r="E14" s="34">
         <f>'12_24'!F2</f>
@@ -39275,7 +39330,7 @@
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>-64263.933692999984</v>
+        <v>-25373.933692999984</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="46" t="s">
@@ -39304,7 +39359,7 @@
       </c>
       <c r="B15" s="35">
         <f>SUM(B3:B14)</f>
-        <v>1343485.35</v>
+        <v>1207985.3500000001</v>
       </c>
       <c r="C15" s="35">
         <f>SUM(C3:C14)</f>
@@ -39312,19 +39367,19 @@
       </c>
       <c r="D15" s="35">
         <f>B15+C15</f>
-        <v>249355.97630700003</v>
+        <v>113855.97630700003</v>
       </c>
       <c r="E15" s="35">
         <f>SUM(E3:E14)</f>
-        <v>662396.10000000009</v>
+        <v>711396.10000000009</v>
       </c>
       <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
-        <v>-726660.03369299998</v>
+        <v>-736770.03369299998</v>
       </c>
       <c r="G15" s="35">
         <f>E15+F15</f>
-        <v>-64263.933692999883</v>
+        <v>-25373.933692999883</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
@@ -39340,9 +39395,9 @@
         <f>SUM(L4:L14)</f>
         <v>814.31603999999993</v>
       </c>
-      <c r="M15" s="54" t="e">
+      <c r="M15" s="54">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>#REF!</v>
+        <v>354.17371999999995</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -39351,7 +39406,7 @@
       </c>
       <c r="B16" s="56">
         <f>B15/A16</f>
-        <v>111957.1125</v>
+        <v>100665.44583333335</v>
       </c>
       <c r="C16" s="57">
         <f>C15/A16</f>
@@ -39360,15 +39415,15 @@
       <c r="D16" s="57"/>
       <c r="E16" s="57">
         <f>E15/A16</f>
-        <v>55199.67500000001</v>
+        <v>59283.008333333339</v>
       </c>
       <c r="F16" s="57">
         <f>F15/A16</f>
-        <v>-60555.002807749996</v>
+        <v>-61397.502807749996</v>
       </c>
       <c r="G16" s="57">
         <f>G15/A16</f>
-        <v>-5355.3278077499899</v>
+        <v>-2114.4944744166569</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
@@ -39384,9 +39439,9 @@
         <f>L15/12</f>
         <v>67.859669999999994</v>
       </c>
-      <c r="M16" s="63" t="e">
+      <c r="M16" s="63">
         <f>M15/12</f>
-        <v>#REF!</v>
+        <v>29.514476666666663</v>
       </c>
       <c r="N16" s="64">
         <f>AVERAGE(N2:N15)</f>
@@ -39402,11 +39457,11 @@
       <c r="K17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="339" t="e">
+      <c r="L17" s="341">
         <f>L15+M15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="339"/>
+        <v>1168.4897599999999</v>
+      </c>
+      <c r="M17" s="341"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="66" t="s">
@@ -39421,9 +39476,9 @@
         <v>151</v>
       </c>
       <c r="L18" s="67"/>
-      <c r="M18" s="68" t="e">
+      <c r="M18" s="68">
         <f>L17/12</f>
-        <v>#REF!</v>
+        <v>97.374146666666661</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -39431,18 +39486,18 @@
       <c r="D19" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="9" t="e">
-        <f>'07_24'!F29+'08_24'!F19+'09_24'!#REF!+'10_24'!F24+'11_24'!F24+'12_24'!F29</f>
-        <v>#REF!</v>
+      <c r="E19" s="9">
+        <f>'07_24'!F30+'08_24'!F24+'09_24'!F19+'10_24'!F24+'11_24'!F24+'12_24'!F29</f>
+        <v>25990.53</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="D20" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="13" t="e">
+      <c r="E20" s="13">
         <f>SUM(E18:E19)</f>
-        <v>#REF!</v>
+        <v>104923.72</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15">
@@ -39480,6 +39535,25 @@
       <c r="D24" s="74">
         <f>D23+B22</f>
         <v>10427.620161375</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="C25" s="342">
+        <f>(D27/D24)-1</f>
+        <v>0.24730089883567064</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="C26" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="C27" t="s">
+        <v>620</v>
+      </c>
+      <c r="D27">
+        <v>13006.38</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -51226,7 +51300,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="341">
+      <c r="A39" s="339">
         <v>45655</v>
       </c>
       <c r="B39" t="s">
@@ -51240,7 +51314,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="341">
+      <c r="A40" s="339">
         <v>45686</v>
       </c>
       <c r="B40" t="s">
@@ -51254,7 +51328,7 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="341">
+      <c r="A41" s="339">
         <v>45716</v>
       </c>
       <c r="B41" t="s">
@@ -51268,7 +51342,7 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="341">
+      <c r="A42" s="339">
         <v>45745</v>
       </c>
       <c r="B42" t="s">
@@ -51282,7 +51356,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="341">
+      <c r="A43" s="339">
         <v>45776</v>
       </c>
       <c r="B43" t="s">
@@ -51296,7 +51370,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="341"/>
+      <c r="A44" s="339"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="336"/>
@@ -56183,7 +56257,7 @@
   </sheetPr>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -57042,7 +57116,7 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -57880,10 +57954,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -57914,24 +57988,24 @@
         <v>191</v>
       </c>
       <c r="D2" s="85">
-        <f>SUM(D4:D38)</f>
-        <v>171984.15</v>
+        <f>SUM(D4:D27)</f>
+        <v>36484.15</v>
       </c>
       <c r="E2" s="85">
-        <f>SUM(E4:E38)</f>
+        <f>SUM(E4:E27)</f>
         <v>-81346.3</v>
       </c>
       <c r="F2" s="85">
-        <f>SUM(F4:F38)</f>
-        <v>0</v>
+        <f>SUM(F4:F27)</f>
+        <v>49000</v>
       </c>
       <c r="G2" s="85">
-        <f>SUM(G4:G38)</f>
-        <v>-48796.14</v>
+        <f>SUM(G4:G27)</f>
+        <v>-58906.14</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-48796.14</v>
+        <v>-9906.14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -57971,650 +58045,709 @@
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
       <c r="H5" s="85">
-        <f t="shared" ref="H5:H30" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H28" si="0">H4+F5+G5</f>
         <v>-162.11000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="336"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="96">
+        <v>45538</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>214</v>
+      </c>
       <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="E6" s="86">
+        <f>E59</f>
+        <v>-21576.400000000001</v>
+      </c>
       <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
+      <c r="G6" s="86">
+        <f>E6</f>
+        <v>-21576.400000000001</v>
+      </c>
       <c r="H6" s="85">
         <f t="shared" si="0"/>
-        <v>-162.11000000000001</v>
+        <v>-21738.510000000002</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="96">
-        <v>45538</v>
+      <c r="A7" s="336">
+        <v>45539</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86">
-        <f>E69</f>
-        <v>-21576.400000000001</v>
+        <f>E44</f>
+        <v>-8037.9</v>
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="86">
         <f>E7</f>
-        <v>-21576.400000000001</v>
+        <v>-8037.9</v>
       </c>
       <c r="H7" s="85">
         <f t="shared" si="0"/>
-        <v>-21738.510000000002</v>
+        <v>-29776.410000000003</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="336">
-        <v>45539</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86">
-        <f>E54</f>
-        <v>-8037.9</v>
-      </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86">
-        <f>E8</f>
-        <v>-8037.9</v>
+      <c r="A8" s="336"/>
+      <c r="B8" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="E8" s="338">
+        <v>-1500</v>
+      </c>
+      <c r="F8" s="338"/>
+      <c r="G8" s="338">
+        <v>-1514.73</v>
       </c>
       <c r="H8" s="85">
         <f t="shared" si="0"/>
-        <v>-29776.410000000003</v>
+        <v>-31291.140000000003</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="336"/>
       <c r="B9" s="88" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="C9" s="88"/>
-      <c r="E9" s="340">
-        <v>-1500</v>
-      </c>
-      <c r="F9" s="340"/>
-      <c r="G9" s="340">
-        <v>-1514.73</v>
-      </c>
-      <c r="H9" s="340">
-        <f t="shared" si="0"/>
-        <v>-31291.140000000003</v>
+      <c r="E9" s="338">
+        <v>-17500</v>
+      </c>
+      <c r="F9" s="338"/>
+      <c r="G9" s="338">
+        <v>-17500</v>
+      </c>
+      <c r="H9" s="85">
+        <f t="shared" si="0"/>
+        <v>-48791.14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="336"/>
-      <c r="B10" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="E10" s="340">
-        <v>-17500</v>
-      </c>
-      <c r="F10" s="340"/>
-      <c r="G10" s="340">
-        <v>-17500</v>
-      </c>
-      <c r="H10" s="340">
-        <f t="shared" si="0"/>
-        <v>-48791.14</v>
+      <c r="B10" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="85">
+        <f>E39*-1</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86">
+        <v>-5</v>
+      </c>
+      <c r="H10" s="85">
+        <f t="shared" si="0"/>
+        <v>-48796.14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="336"/>
-      <c r="B11" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="85">
-        <f>E49*-1</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86">
-        <v>-5</v>
-      </c>
-      <c r="H11" s="340">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
+      <c r="A11" s="336">
+        <v>45544</v>
+      </c>
+      <c r="B11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" t="s">
+        <v>489</v>
+      </c>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86">
+        <v>15000</v>
+      </c>
+      <c r="G11" s="86"/>
+      <c r="H11" s="85">
+        <f t="shared" si="0"/>
+        <v>-33796.14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="336"/>
-      <c r="B12" s="43"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="340">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
+      <c r="A12" s="336">
+        <v>45551</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="338">
+        <v>-300</v>
+      </c>
+      <c r="F12" s="338"/>
+      <c r="G12" s="338">
+        <v>-76</v>
+      </c>
+      <c r="H12" s="85">
+        <f t="shared" si="0"/>
+        <v>-33872.14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="85">
+      <c r="A13" s="336">
+        <v>45551</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="338">
+        <v>-100</v>
+      </c>
+      <c r="F13" s="338"/>
+      <c r="G13" s="338">
+        <v>-34</v>
+      </c>
+      <c r="H13" s="85">
+        <f t="shared" si="0"/>
+        <v>-33906.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="336">
+        <v>45552</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F14" s="338">
+        <v>34000</v>
+      </c>
+      <c r="H14" s="85">
+        <f t="shared" si="0"/>
+        <v>93.860000000000582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="336"/>
+      <c r="B15" s="94" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G15" s="85">
         <v>-10000</v>
       </c>
-      <c r="H13" s="340">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="88" t="s">
+      <c r="H15" s="85">
+        <f t="shared" si="0"/>
+        <v>-9906.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="85">
+        <v>-6500</v>
+      </c>
+      <c r="H16" s="85">
+        <f t="shared" si="0"/>
+        <v>-9906.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="85">
+        <v>-6500</v>
+      </c>
+      <c r="H17" s="85">
+        <f t="shared" si="0"/>
+        <v>-9906.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="85">
+        <v>-6500</v>
+      </c>
+      <c r="H18" s="85">
+        <f t="shared" si="0"/>
+        <v>-9906.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="85">
+        <v>12984.15</v>
+      </c>
+      <c r="H19" s="85">
+        <f t="shared" si="0"/>
+        <v>-9906.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="97"/>
+      <c r="B20" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="E14" s="85">
+      <c r="C20" s="88"/>
+      <c r="E20" s="85">
         <v>-400</v>
       </c>
-      <c r="H14" s="340">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="88" t="s">
+      <c r="H20" s="85">
+        <f t="shared" si="0"/>
+        <v>-9906.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="97"/>
+      <c r="B21" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="E15" s="85">
+      <c r="C21" s="88"/>
+      <c r="E21" s="85">
         <v>-500</v>
       </c>
-      <c r="H15" s="85">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="H16" s="85">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="85">
-        <v>-150</v>
-      </c>
-      <c r="H17" s="85">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="85">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="85">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="85">
-        <v>-100</v>
-      </c>
-      <c r="H19" s="85">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="H20" s="85">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="336">
+      <c r="H21" s="85">
+        <f t="shared" si="0"/>
+        <v>-9906.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="336">
         <v>45564</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>1452</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>1453</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E22" s="85">
         <v>-1380</v>
       </c>
-      <c r="H21" s="85">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
       <c r="H22" s="85">
         <f t="shared" si="0"/>
-        <v>-48796.14</v>
+        <v>-9906.14</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="85">
-        <v>-6500</v>
-      </c>
       <c r="H23" s="85">
         <f t="shared" si="0"/>
-        <v>-48796.14</v>
+        <v>-9906.14</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="85">
-        <v>-6500</v>
+      <c r="B24" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106">
+        <v>8500</v>
       </c>
       <c r="H24" s="85">
         <f t="shared" si="0"/>
-        <v>-48796.14</v>
+        <v>-9906.14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="85">
-        <v>-6500</v>
+        <v>256</v>
+      </c>
+      <c r="D25" s="85">
+        <v>15000</v>
       </c>
       <c r="H25" s="85">
         <f t="shared" si="0"/>
-        <v>-48796.14</v>
+        <v>-9906.14</v>
       </c>
     </row>
     <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="85">
+        <v>-10000</v>
+      </c>
       <c r="H26" s="85">
         <f t="shared" si="0"/>
-        <v>-48796.14</v>
+        <v>-9906.14</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="85">
-        <v>12984.15</v>
+      <c r="B27" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="85">
+        <v>-150</v>
       </c>
       <c r="H27" s="85">
         <f t="shared" si="0"/>
-        <v>-48796.14</v>
+        <v>-9906.14</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="97"/>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>257</v>
+      </c>
+      <c r="C28" s="98">
+        <v>0.234011</v>
+      </c>
+      <c r="D28" s="85">
+        <v>144000</v>
       </c>
       <c r="H28" s="85">
         <f t="shared" si="0"/>
-        <v>-48796.14</v>
+        <v>-9906.14</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="97"/>
-      <c r="B29" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="85">
-        <v>15000</v>
-      </c>
-      <c r="H29" s="85">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
-      </c>
+      <c r="C29" s="98"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="97"/>
-      <c r="H30" s="85">
-        <f t="shared" si="0"/>
-        <v>-48796.14</v>
+      <c r="B30" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>257</v>
-      </c>
-      <c r="C31" s="98">
-        <v>0.234011</v>
-      </c>
-      <c r="D31" s="85">
-        <v>144000</v>
-      </c>
-      <c r="H31" s="85">
-        <f t="shared" ref="H31" si="1">H30+F31+G31</f>
-        <v>-48796.14</v>
-      </c>
+      <c r="A31" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
     </row>
     <row r="32" spans="1:8">
+      <c r="A32" s="97"/>
       <c r="C32" s="98"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75">
-      <c r="B38" s="99"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="100">
+        <v>44929</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="78"/>
+      <c r="D33" s="85">
+        <f>SUM(D34:D39)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="85">
+        <f>SUM(E34:E39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="97"/>
+      <c r="B34" s="94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="94"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
+      <c r="C40" s="94"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="97"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="100">
-        <v>44929</v>
-      </c>
-      <c r="B43" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="85">
-        <f>SUM(D44:D49)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="85">
-        <f>SUM(E44:E49)</f>
-        <v>0</v>
-      </c>
+      <c r="B43" s="102"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="97"/>
-      <c r="B44" s="94" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45" t="s">
-        <v>226</v>
+      <c r="A44" s="78"/>
+      <c r="B44" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="E44" s="85">
+        <f>SUM(E45:E56)</f>
+        <v>-8037.9</v>
       </c>
     </row>
     <row r="46" spans="1:5">
+      <c r="A46" s="20">
+        <v>45348</v>
+      </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>258</v>
+      </c>
+      <c r="C46">
+        <v>1406</v>
+      </c>
+      <c r="D46" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="E46" s="85">
+        <v>-234.35</v>
       </c>
     </row>
     <row r="47" spans="1:5">
+      <c r="A47" s="20">
+        <v>45373</v>
+      </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="C47">
+        <v>10176.39</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" s="85">
+        <v>-1130.71</v>
       </c>
     </row>
     <row r="48" spans="1:5">
+      <c r="A48" s="20">
+        <v>45375</v>
+      </c>
       <c r="B48" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="C48">
+        <v>5999</v>
+      </c>
+      <c r="D48" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" s="85">
+        <v>-666.56</v>
       </c>
     </row>
     <row r="49" spans="1:5">
+      <c r="A49" s="20">
+        <v>45358</v>
+      </c>
       <c r="B49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="94"/>
+        <v>261</v>
+      </c>
+      <c r="C49">
+        <v>2273</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="E49" s="85">
+        <v>-378.87</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="C50" s="94"/>
+      <c r="A50" s="20">
+        <v>45371</v>
+      </c>
+      <c r="B50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" s="85">
+        <v>101.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="97">
+        <v>45456</v>
+      </c>
+      <c r="B51" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="94"/>
+      <c r="D51" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="85">
+        <v>-3923.34</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="B52" s="13"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="B53" s="102"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" s="94">
+        <v>8154.2</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="78"/>
-      <c r="B54" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="78"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="103" t="s">
+        <v>848</v>
+      </c>
+      <c r="C54" s="94"/>
       <c r="E54" s="85">
-        <f>SUM(E55:E66)</f>
-        <v>-8037.9</v>
-      </c>
+        <v>-1805.86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="97"/>
+      <c r="B55" s="103"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="20">
-        <v>45348</v>
-      </c>
-      <c r="B56" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56">
-        <v>1406</v>
-      </c>
-      <c r="D56" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="E56" s="85">
-        <v>-234.35</v>
-      </c>
+      <c r="A56" s="97"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="94"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="20">
-        <v>45373</v>
-      </c>
-      <c r="B57" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57">
-        <v>10176.39</v>
-      </c>
-      <c r="D57" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="E57" s="85">
-        <v>-1130.71</v>
-      </c>
+      <c r="A57" s="97"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="20">
-        <v>45375</v>
-      </c>
-      <c r="B58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C58">
-        <v>5999</v>
-      </c>
-      <c r="D58" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="E58" s="85">
-        <v>-666.56</v>
-      </c>
+      <c r="A58" s="97"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="20">
-        <v>45358</v>
-      </c>
-      <c r="B59" t="s">
-        <v>261</v>
-      </c>
-      <c r="C59">
-        <v>2273</v>
-      </c>
-      <c r="D59" s="85" t="s">
-        <v>259</v>
-      </c>
+      <c r="A59" s="78"/>
+      <c r="B59" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="78"/>
       <c r="E59" s="85">
-        <v>-378.87</v>
+        <f>SUM(E60:E68)</f>
+        <v>-21576.400000000001</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="20">
-        <v>45371</v>
-      </c>
-      <c r="B60" t="s">
-        <v>262</v>
-      </c>
-      <c r="D60" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="E60" s="85">
-        <v>101.79</v>
-      </c>
+      <c r="A60" s="97"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="94"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="97">
-        <v>45456</v>
-      </c>
-      <c r="B61" s="103" t="s">
-        <v>263</v>
-      </c>
+      <c r="A61" s="97"/>
+      <c r="B61" s="94"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="85" t="s">
-        <v>264</v>
-      </c>
       <c r="E61" s="85">
-        <v>-3923.34</v>
+        <v>-21576.400000000001</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="97"/>
-      <c r="B62" s="94"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="94"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="97"/>
-      <c r="B63" s="103" t="s">
-        <v>285</v>
-      </c>
-      <c r="C63" s="94">
-        <v>8154.2</v>
-      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="94"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="97"/>
-      <c r="B64" s="103" t="s">
-        <v>848</v>
-      </c>
+      <c r="B64" s="3"/>
       <c r="C64" s="94"/>
-      <c r="E64" s="85">
-        <v>-1805.86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="97"/>
-      <c r="B65" s="103"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="B65" s="3"/>
+      <c r="C65" s="94"/>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="97"/>
-      <c r="B66" s="103"/>
+      <c r="B66" s="3"/>
       <c r="C66" s="94"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:3">
       <c r="A67" s="97"/>
       <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="C67" s="94"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="97"/>
-      <c r="B68" s="94"/>
+      <c r="B68" s="3"/>
       <c r="C68" s="94"/>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="78"/>
-      <c r="B69" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="C69" s="78"/>
-      <c r="E69" s="85">
-        <f>SUM(E70:E78)</f>
-        <v>-21576.400000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+    <row r="69" spans="1:3">
+      <c r="A69" s="97"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="94"/>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="97"/>
-      <c r="B70" s="94"/>
+      <c r="B70" s="3"/>
       <c r="C70" s="94"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:3">
       <c r="A71" s="97"/>
-      <c r="B71" s="94"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="94"/>
-      <c r="E71" s="85">
-        <v>-21576.400000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="97"/>
       <c r="B72" s="3"/>
       <c r="C72" s="94"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:3">
       <c r="A73" s="97"/>
       <c r="B73" s="3"/>
       <c r="C73" s="94"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:3">
       <c r="A74" s="97"/>
       <c r="B74" s="3"/>
       <c r="C74" s="94"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:3">
       <c r="A75" s="97"/>
       <c r="B75" s="3"/>
       <c r="C75" s="94"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:3">
       <c r="A76" s="97"/>
       <c r="B76" s="3"/>
       <c r="C76" s="94"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:3">
       <c r="A77" s="97"/>
       <c r="B77" s="3"/>
       <c r="C77" s="94"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:3">
       <c r="A78" s="97"/>
       <c r="B78" s="3"/>
       <c r="C78" s="94"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:3">
       <c r="A79" s="97"/>
       <c r="B79" s="3"/>
       <c r="C79" s="94"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:3">
       <c r="A80" s="97"/>
       <c r="B80" s="3"/>
       <c r="C80" s="94"/>
@@ -58669,426 +58802,376 @@
       <c r="B90" s="3"/>
       <c r="C90" s="94"/>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="97"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="94"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="97"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="94"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="97"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="94"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="97"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="94"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="97"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="94"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="97"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="94"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="97"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="94"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="97"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="94"/>
-    </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="97"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="94"/>
+      <c r="A99" s="76" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B99" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C99" s="78">
+        <v>2024</v>
+      </c>
+      <c r="D99" s="79"/>
+      <c r="E99" s="80">
+        <f>SUM(E100:E119)</f>
+        <v>412438.42000000004</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="97"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="94"/>
+      <c r="A100" s="81">
+        <v>45534</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="81">
+        <f t="shared" ref="A101:A119" si="1">A100</f>
+        <v>45534</v>
+      </c>
+      <c r="B101" t="s">
+        <v>310</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="81">
+        <f t="shared" si="1"/>
+        <v>45534</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="13">
+        <v>5105.2299999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="81">
+        <f>A101</f>
+        <v>45534</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C103" s="2">
+        <v>288</v>
+      </c>
+      <c r="D103" s="111">
+        <v>732.60648300000003</v>
+      </c>
+      <c r="E103" s="13">
+        <v>211121.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="81">
+        <f>A102</f>
+        <v>45534</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C104" s="112">
+        <v>125000</v>
+      </c>
+      <c r="D104" s="111">
+        <v>0.77971599999999996</v>
+      </c>
+      <c r="E104" s="13">
+        <v>99989.38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="81">
+        <f>A103</f>
+        <v>45534</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C105" s="2">
+        <v>10</v>
+      </c>
+      <c r="D105" s="2">
+        <v>103.7</v>
+      </c>
+      <c r="E105" s="13">
+        <f t="shared" ref="E105:E117" si="2">D105*C105</f>
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="81">
+        <f t="shared" si="1"/>
+        <v>45534</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C106" s="2">
+        <v>38</v>
+      </c>
+      <c r="D106" s="2">
+        <v>21.42</v>
+      </c>
+      <c r="E106" s="13">
+        <f t="shared" si="2"/>
+        <v>813.96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="81">
+        <f t="shared" si="1"/>
+        <v>45534</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C107" s="2">
+        <v>26</v>
+      </c>
+      <c r="D107" s="2">
+        <v>25.92</v>
+      </c>
+      <c r="E107" s="13">
+        <f t="shared" si="2"/>
+        <v>673.92000000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="81">
+        <f t="shared" si="1"/>
+        <v>45534</v>
+      </c>
+      <c r="B108" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="76" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B109" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="C109" s="78">
-        <v>2024</v>
-      </c>
-      <c r="D109" s="79"/>
-      <c r="E109" s="80">
-        <f>SUM(E110:E129)</f>
-        <v>412438.42000000004</v>
+      <c r="A109" s="81">
+        <f t="shared" si="1"/>
+        <v>45534</v>
+      </c>
+      <c r="B109" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="81">
+        <f t="shared" si="1"/>
         <v>45534</v>
-      </c>
-      <c r="B110" t="s">
-        <v>84</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="2">
+      <c r="E110" s="13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="81">
-        <f t="shared" ref="A111:A129" si="2">A110</f>
+        <f t="shared" si="1"/>
         <v>45534</v>
-      </c>
-      <c r="B111" t="s">
-        <v>310</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="2">
+      <c r="E111" s="13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45534</v>
       </c>
       <c r="B112" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+        <v>1442</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2697.73</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
       <c r="E112" s="13">
-        <v>5105.2299999999996</v>
+        <f>D112*C112</f>
+        <v>2697.73</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="81">
-        <f>A111</f>
+        <f t="shared" si="1"/>
         <v>45534</v>
       </c>
       <c r="B113" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C113" s="2">
-        <v>288</v>
-      </c>
-      <c r="D113" s="111">
-        <v>732.60648300000003</v>
+        <v>4500</v>
+      </c>
+      <c r="D113" s="2">
+        <v>16</v>
       </c>
       <c r="E113" s="13">
-        <v>211121.2</v>
+        <f>D113*C113</f>
+        <v>72000</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="81">
+        <f t="shared" si="1"/>
+        <v>45534</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C114" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+      <c r="E114" s="13">
+        <f>D114*C114</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="81">
+        <f t="shared" si="1"/>
+        <v>45534</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="13"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="81">
         <f>A112</f>
         <v>45534</v>
       </c>
-      <c r="B114" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C114" s="112">
-        <v>125000</v>
-      </c>
-      <c r="D114" s="111">
-        <v>0.77971599999999996</v>
-      </c>
-      <c r="E114" s="13">
-        <v>99989.38</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="81">
-        <f>A113</f>
-        <v>45534</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C115" s="2">
-        <v>10</v>
-      </c>
-      <c r="D115" s="2">
-        <v>103.7</v>
-      </c>
-      <c r="E115" s="13">
-        <f t="shared" ref="E115:E127" si="3">D115*C115</f>
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="81">
-        <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
       <c r="B116" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C116" s="2">
-        <v>38</v>
+        <v>1444</v>
+      </c>
+      <c r="C116" s="337">
+        <v>33.250599999999999</v>
       </c>
       <c r="D116" s="2">
-        <v>21.42</v>
-      </c>
-      <c r="E116" s="13">
-        <f t="shared" si="3"/>
-        <v>813.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="81">
+        <f t="shared" si="1"/>
+        <v>45534</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C117" s="337">
+        <v>36.854999999999997</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="13">
         <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C117" s="2">
-        <v>26</v>
-      </c>
-      <c r="D117" s="2">
-        <v>25.92</v>
-      </c>
-      <c r="E117" s="13">
-        <f t="shared" si="3"/>
-        <v>673.92000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45534</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45534</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
-      </c>
-      <c r="C119" s="2">
-        <v>28.5</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
       <c r="E119" s="13">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="81">
-        <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E120" s="113"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="81">
-        <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="C121" s="110"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="110"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="81">
-        <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C122" s="2">
-        <v>2697.73</v>
-      </c>
-      <c r="D122" s="2">
-        <v>1</v>
-      </c>
-      <c r="E122" s="13">
-        <f>D122*C122</f>
-        <v>2697.73</v>
+      <c r="C122" s="110"/>
+      <c r="D122" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E122" s="8">
+        <f>SUM(E100:E119)</f>
+        <v>412438.42000000004</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="81">
-        <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C123" s="2">
-        <v>4500</v>
-      </c>
-      <c r="D123" s="2">
-        <v>16</v>
-      </c>
-      <c r="E123" s="13">
-        <f>D123*C123</f>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="81">
-        <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C124" s="2">
-        <v>18000</v>
-      </c>
-      <c r="D124" s="2">
-        <v>1</v>
-      </c>
-      <c r="E124" s="13">
-        <f>D124*C124</f>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="81">
-        <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="13"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="81">
-        <f>A122</f>
-        <v>45534</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C126" s="337">
-        <v>33.250599999999999</v>
-      </c>
-      <c r="D126" s="2">
-        <v>0</v>
-      </c>
-      <c r="E126" s="13"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="81">
-        <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C127" s="337">
-        <v>36.854999999999997</v>
-      </c>
-      <c r="D127" s="2">
-        <v>0</v>
-      </c>
-      <c r="E127" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="81">
-        <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
-      <c r="B128" t="s">
-        <v>187</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="81">
-        <f t="shared" si="2"/>
-        <v>45534</v>
-      </c>
-      <c r="B129" t="s">
-        <v>94</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="E130" s="113"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="C131" s="110"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="110"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="C132" s="110"/>
-      <c r="D132" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="E132" s="8">
-        <f>SUM(E110:E129)</f>
-        <v>412438.42000000004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="C133" s="114" t="str">
-        <f>A109</f>
+      <c r="C123" s="114" t="str">
+        <f>A99</f>
         <v>EYLÜLe</v>
       </c>
-      <c r="D133" s="115" t="s">
+      <c r="D123" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="E133" s="116">
+      <c r="E123" s="116">
         <f>H2</f>
-        <v>-48796.14</v>
+        <v>-9906.14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -59099,12 +59182,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF9BC2E6"/>
+    <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -61026,8 +61109,8 @@
   </sheetPr>
   <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A18" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5F5D66-C668-4782-A28E-7980E6B72C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663B3B0-6D5E-49DA-B7B8-9AE459DD9706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="1466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3740" uniqueCount="1467">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -4730,6 +4730,9 @@
   </si>
   <si>
     <t>temmuz artış</t>
+  </si>
+  <si>
+    <t>yasemin okul kk denizbnk</t>
   </si>
 </sst>
 </file>
@@ -6220,11 +6223,11 @@
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="45" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="45" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -38701,7 +38704,7 @@
   </sheetPr>
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -38742,10 +38745,10 @@
       <c r="K1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="340" t="s">
+      <c r="L1" s="341" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="340"/>
+      <c r="M1" s="341"/>
       <c r="N1" t="s">
         <v>119</v>
       </c>
@@ -39212,15 +39215,15 @@
       </c>
       <c r="B12" s="34">
         <f>'10_24'!D2</f>
-        <v>147984.15</v>
+        <v>27984.149999999994</v>
       </c>
       <c r="C12" s="34">
         <f>'10_24'!E2</f>
-        <v>-303529.26</v>
+        <v>-124918.56</v>
       </c>
       <c r="D12" s="35">
         <f t="shared" si="0"/>
-        <v>-82466.543693000043</v>
+        <v>-23855.843693000032</v>
       </c>
       <c r="E12" s="34">
         <f>'10_24'!F2</f>
@@ -39228,11 +39231,11 @@
       </c>
       <c r="F12" s="34">
         <f>'10_24'!G2</f>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
-        <v>-25373.933692999984</v>
+        <v>-25571.333692999986</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="37" t="s">
@@ -39265,11 +39268,11 @@
       </c>
       <c r="C13" s="34">
         <f>'11_24'!E2</f>
-        <v>-55085.760000000002</v>
+        <v>-174329.98</v>
       </c>
       <c r="D13" s="35">
         <f t="shared" si="0"/>
-        <v>140431.84630699997</v>
+        <v>79798.326306999981</v>
       </c>
       <c r="E13" s="34">
         <f>'11_24'!F2</f>
@@ -39281,7 +39284,7 @@
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>-25373.933692999984</v>
+        <v>-25571.333692999986</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="37" t="s">
@@ -39318,7 +39321,7 @@
       </c>
       <c r="D14" s="35">
         <f t="shared" si="0"/>
-        <v>113855.97630699998</v>
+        <v>53222.456306999979</v>
       </c>
       <c r="E14" s="34">
         <f>'12_24'!F2</f>
@@ -39330,7 +39333,7 @@
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>-25373.933692999984</v>
+        <v>-25571.333692999986</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="46" t="s">
@@ -39359,15 +39362,15 @@
       </c>
       <c r="B15" s="35">
         <f>SUM(B3:B14)</f>
-        <v>1207985.3500000001</v>
+        <v>1087985.3500000001</v>
       </c>
       <c r="C15" s="35">
         <f>SUM(C3:C14)</f>
-        <v>-1094129.3736930001</v>
+        <v>-1034762.8936930001</v>
       </c>
       <c r="D15" s="35">
         <f>B15+C15</f>
-        <v>113855.97630700003</v>
+        <v>53222.456307000015</v>
       </c>
       <c r="E15" s="35">
         <f>SUM(E3:E14)</f>
@@ -39375,11 +39378,11 @@
       </c>
       <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
-        <v>-736770.03369299998</v>
+        <v>-736967.433693</v>
       </c>
       <c r="G15" s="35">
         <f>E15+F15</f>
-        <v>-25373.933692999883</v>
+        <v>-25571.333692999906</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
@@ -39406,11 +39409,11 @@
       </c>
       <c r="B16" s="56">
         <f>B15/A16</f>
-        <v>100665.44583333335</v>
+        <v>90665.445833333346</v>
       </c>
       <c r="C16" s="57">
         <f>C15/A16</f>
-        <v>-91177.44780775001</v>
+        <v>-86230.241141083345</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57">
@@ -39419,11 +39422,11 @@
       </c>
       <c r="F16" s="57">
         <f>F15/A16</f>
-        <v>-61397.502807749996</v>
+        <v>-61413.95280775</v>
       </c>
       <c r="G16" s="57">
         <f>G15/A16</f>
-        <v>-2114.4944744166569</v>
+        <v>-2130.944474416659</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
@@ -39457,11 +39460,11 @@
       <c r="K17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="341">
+      <c r="L17" s="342">
         <f>L15+M15</f>
         <v>1168.4897599999999</v>
       </c>
-      <c r="M17" s="341"/>
+      <c r="M17" s="342"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="66" t="s">
@@ -39538,7 +39541,7 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="C25" s="342">
+      <c r="C25" s="340">
         <f>(D27/D24)-1</f>
         <v>0.24730089883567064</v>
       </c>
@@ -56257,8 +56260,8 @@
   </sheetPr>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A16" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -56294,7 +56297,7 @@
       </c>
       <c r="E2" s="85">
         <f>SUM(E4:E36)</f>
-        <v>-55085.760000000002</v>
+        <v>-174329.98</v>
       </c>
       <c r="F2" s="85">
         <f>SUM(F4:F36)</f>
@@ -56469,7 +56472,7 @@
       </c>
       <c r="E16" s="85">
         <f>E67</f>
-        <v>0</v>
+        <v>-119244.22</v>
       </c>
       <c r="H16" s="85">
         <f t="shared" si="0"/>
@@ -56843,7 +56846,7 @@
       <c r="C67" s="78"/>
       <c r="E67" s="85">
         <f>SUM(E68:E76)</f>
-        <v>0</v>
+        <v>-119244.22</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -56852,14 +56855,24 @@
       <c r="C68" s="94"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="97"/>
-      <c r="B69" s="94"/>
+      <c r="A69" s="97">
+        <v>45560</v>
+      </c>
+      <c r="B69" s="94" t="s">
+        <v>250</v>
+      </c>
       <c r="C69" s="94"/>
+      <c r="E69" s="85">
+        <v>-118966.5</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="97"/>
       <c r="B70" s="3"/>
       <c r="C70" s="94"/>
+      <c r="E70" s="85">
+        <v>-277.72000000000003</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="97"/>
@@ -57116,8 +57129,8 @@
   </sheetPr>
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+    <sheetView topLeftCell="A16" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -57149,11 +57162,11 @@
       </c>
       <c r="D2" s="85">
         <f>SUM(D4:D34)</f>
-        <v>147984.15</v>
+        <v>27984.149999999994</v>
       </c>
       <c r="E2" s="85">
         <f>SUM(E4:E34)</f>
-        <v>-303529.26</v>
+        <v>-124918.56</v>
       </c>
       <c r="F2" s="85">
         <f>SUM(F4:F34)</f>
@@ -57161,11 +57174,11 @@
       </c>
       <c r="G2" s="85">
         <f>SUM(G4:G34)</f>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -57181,14 +57194,6 @@
       <c r="H4" s="85">
         <f>H3+F4+G4</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="85">
-        <v>-10000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -57328,7 +57333,7 @@
       </c>
       <c r="E16" s="85">
         <f>E65</f>
-        <v>0</v>
+        <v>-71389.3</v>
       </c>
       <c r="H16" s="85">
         <f t="shared" si="0"/>
@@ -57379,10 +57384,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E21" s="85">
-        <v>-250000</v>
+        <v>1466</v>
+      </c>
+      <c r="D21" s="338">
+        <v>-120000</v>
       </c>
       <c r="H21" s="85">
         <f t="shared" si="0"/>
@@ -57408,9 +57413,18 @@
       </c>
     </row>
     <row r="23" spans="1:8">
+      <c r="A23" s="336">
+        <v>45565</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G23" s="85">
+        <v>-197.4</v>
+      </c>
       <c r="H23" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -57422,7 +57436,7 @@
       </c>
       <c r="H24" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -57434,7 +57448,7 @@
       </c>
       <c r="H25" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -57446,13 +57460,13 @@
       </c>
       <c r="H26" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -57464,7 +57478,7 @@
       </c>
       <c r="H28" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -57474,7 +57488,7 @@
       </c>
       <c r="H29" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -57487,14 +57501,14 @@
       </c>
       <c r="H30" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="97"/>
       <c r="H31" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -57509,7 +57523,15 @@
       </c>
       <c r="H32" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-197.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="85">
+        <v>-10000</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75">
@@ -57683,13 +57705,16 @@
       <c r="C65" s="78"/>
       <c r="E65" s="85">
         <f>SUM(E66:E74)</f>
-        <v>0</v>
+        <v>-71389.3</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="97"/>
       <c r="B66" s="94"/>
       <c r="C66" s="94"/>
+      <c r="E66" s="85">
+        <v>-71389.3</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="97"/>
@@ -57927,7 +57952,7 @@
       </c>
       <c r="E114" s="85">
         <f>H2</f>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -57936,12 +57961,12 @@
       </c>
       <c r="E116" s="85">
         <f>SUM(E106:E115)</f>
-        <v>0</v>
+        <v>-197.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -57956,8 +57981,8 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -59186,7 +59211,7 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02937935-E8B5-40A4-B460-6BDDC3324CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4EC01C-A7B6-40E2-8FCA-9A69E9BA28B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -59,17 +59,8 @@
     <sheet name="22_1" sheetId="44" r:id="rId44"/>
     <sheet name="PROCESS" sheetId="45" r:id="rId45"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -5828,7 +5819,7 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6304,18 +6295,21 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="45" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="2" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="2" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -8659,11 +8653,11 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="97"/>
-      <c r="B32" s="342" t="s">
+      <c r="B32" s="339" t="s">
         <v>322</v>
       </c>
-      <c r="C32" s="342"/>
-      <c r="D32" s="344">
+      <c r="C32" s="339"/>
+      <c r="D32" s="341">
         <v>15000</v>
       </c>
       <c r="E32" s="86"/>
@@ -38834,10 +38828,10 @@
       <c r="K1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="340" t="s">
+      <c r="L1" s="344" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="340"/>
+      <c r="M1" s="344"/>
       <c r="N1" t="s">
         <v>119</v>
       </c>
@@ -39320,11 +39314,11 @@
       </c>
       <c r="F12" s="34">
         <f>'10_24'!G2</f>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
-        <v>-24838.07369299998</v>
+        <v>-99293.943692999979</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="37" t="s">
@@ -39373,7 +39367,7 @@
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>-24838.07369299998</v>
+        <v>-99293.943692999979</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="37" t="s">
@@ -39422,7 +39416,7 @@
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>-24838.07369299998</v>
+        <v>-99293.943692999979</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="46" t="s">
@@ -39467,11 +39461,11 @@
       </c>
       <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
-        <v>-749240.55369299999</v>
+        <v>-823696.42369299999</v>
       </c>
       <c r="G15" s="35">
         <f>E15+F15</f>
-        <v>-24838.073692999897</v>
+        <v>-99293.943692999892</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
@@ -39511,11 +39505,11 @@
       </c>
       <c r="F16" s="57">
         <f>F15/A16</f>
-        <v>-62436.712807750002</v>
+        <v>-68641.368641083332</v>
       </c>
       <c r="G16" s="57">
         <f>G15/A16</f>
-        <v>-2069.839474416658</v>
+        <v>-8274.4953077499904</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
@@ -39549,11 +39543,11 @@
       <c r="K17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="341">
+      <c r="L17" s="345">
         <f>L15+M15</f>
         <v>1181.49614</v>
       </c>
-      <c r="M17" s="341"/>
+      <c r="M17" s="345"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="66" t="s">
@@ -39630,7 +39624,7 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="C25" s="339">
+      <c r="C25" s="338">
         <f>(D27/D24)-1</f>
         <v>0.24730089883567064</v>
       </c>
@@ -51392,7 +51386,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="338">
+      <c r="A39" s="337">
         <v>45655</v>
       </c>
       <c r="B39" t="s">
@@ -51406,7 +51400,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="338">
+      <c r="A40" s="337">
         <v>45686</v>
       </c>
       <c r="B40" t="s">
@@ -51420,7 +51414,7 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="338">
+      <c r="A41" s="337">
         <v>45716</v>
       </c>
       <c r="B41" t="s">
@@ -51434,7 +51428,7 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="338">
+      <c r="A42" s="337">
         <v>45745</v>
       </c>
       <c r="B42" t="s">
@@ -51448,7 +51442,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="338">
+      <c r="A43" s="337">
         <v>45776</v>
       </c>
       <c r="B43" t="s">
@@ -51462,7 +51456,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="338"/>
+      <c r="A44" s="337"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="335"/>
@@ -57219,7 +57213,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -57263,11 +57257,11 @@
       </c>
       <c r="G2" s="85">
         <f>SUM(G4:G35)</f>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -57287,7 +57281,7 @@
       <c r="C5" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="337">
+      <c r="E5" s="86">
         <v>-250</v>
       </c>
       <c r="H5" s="85">
@@ -57303,7 +57297,7 @@
         <v>216</v>
       </c>
       <c r="C6" s="88"/>
-      <c r="E6" s="337">
+      <c r="E6" s="86">
         <v>-1500</v>
       </c>
       <c r="G6" s="85">
@@ -57315,35 +57309,47 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="96">
+      <c r="A7" s="346">
         <v>45569</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="85">
+      <c r="C7" s="347"/>
+      <c r="D7" s="348"/>
+      <c r="E7" s="348">
         <f>E66</f>
         <v>-71389.3</v>
       </c>
+      <c r="F7" s="348"/>
+      <c r="G7" s="348">
+        <v>-71389.3</v>
+      </c>
       <c r="H7" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-72902.42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="335">
+      <c r="A8" s="349">
         <v>45572</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="85">
+      <c r="C8" s="347"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348">
         <f>E51</f>
         <v>-3066.5699999999997</v>
       </c>
+      <c r="F8" s="348"/>
+      <c r="G8" s="348">
+        <v>-3066.57</v>
+      </c>
       <c r="H8" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -57356,7 +57362,7 @@
       </c>
       <c r="H9" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -57369,43 +57375,43 @@
       </c>
       <c r="H10" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
-      <c r="E11" s="337"/>
+      <c r="E11" s="86"/>
       <c r="H11" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="88"/>
       <c r="C12" s="88"/>
-      <c r="E12" s="337"/>
+      <c r="E12" s="86"/>
       <c r="H12" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="88"/>
       <c r="C13" s="88"/>
-      <c r="E13" s="337"/>
+      <c r="E13" s="86"/>
       <c r="H13" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="88"/>
       <c r="C14" s="88"/>
-      <c r="E14" s="337"/>
+      <c r="E14" s="86"/>
       <c r="H14" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -57418,7 +57424,7 @@
       </c>
       <c r="H15" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -57431,13 +57437,13 @@
       </c>
       <c r="H16" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="H17" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -57452,7 +57458,7 @@
       </c>
       <c r="H18" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -57467,7 +57473,7 @@
       </c>
       <c r="H19" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -57482,7 +57488,7 @@
       </c>
       <c r="H20" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -57490,19 +57496,19 @@
       <c r="C21" s="88"/>
       <c r="H21" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>1465</v>
       </c>
-      <c r="D22" s="337">
+      <c r="D22" s="86">
         <v>-120000</v>
       </c>
       <c r="H22" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -57520,7 +57526,7 @@
       </c>
       <c r="H23" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -57535,7 +57541,7 @@
       </c>
       <c r="H24" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -57547,7 +57553,7 @@
       </c>
       <c r="H25" s="85">
         <f t="shared" si="0"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -57558,8 +57564,8 @@
         <v>-6500</v>
       </c>
       <c r="H26" s="85">
-        <f t="shared" ref="H19:H33" si="1">H25+F26+G26</f>
-        <v>-1513.12</v>
+        <f t="shared" ref="H26:H33" si="1">H25+F26+G26</f>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -57571,13 +57577,13 @@
       </c>
       <c r="H27" s="85">
         <f t="shared" si="1"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="H28" s="85">
         <f t="shared" si="1"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -57589,14 +57595,14 @@
       </c>
       <c r="H29" s="85">
         <f t="shared" si="1"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="97"/>
       <c r="H30" s="85">
         <f t="shared" si="1"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -57609,14 +57615,14 @@
       </c>
       <c r="H31" s="85">
         <f t="shared" si="1"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="97"/>
       <c r="H32" s="85">
         <f t="shared" si="1"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -57631,7 +57637,7 @@
       </c>
       <c r="H33" s="85">
         <f t="shared" si="1"/>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -58316,7 +58322,7 @@
       </c>
       <c r="E120" s="85">
         <f>H2</f>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -58325,7 +58331,7 @@
       </c>
       <c r="E122" s="85">
         <f>SUM(E112:E121)</f>
-        <v>-1513.12</v>
+        <v>-75968.990000000005</v>
       </c>
     </row>
   </sheetData>
@@ -58345,7 +58351,7 @@
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:E26"/>
     </sheetView>
   </sheetViews>
@@ -58488,11 +58494,11 @@
         <v>216</v>
       </c>
       <c r="C8" s="88"/>
-      <c r="E8" s="337">
+      <c r="E8" s="86">
         <v>-1500</v>
       </c>
-      <c r="F8" s="337"/>
-      <c r="G8" s="337">
+      <c r="F8" s="86"/>
+      <c r="G8" s="86">
         <v>-1514.73</v>
       </c>
       <c r="H8" s="85">
@@ -58506,11 +58512,11 @@
         <v>255</v>
       </c>
       <c r="C9" s="88"/>
-      <c r="E9" s="337">
+      <c r="E9" s="86">
         <v>-17500</v>
       </c>
-      <c r="F9" s="337"/>
-      <c r="G9" s="337">
+      <c r="F9" s="86"/>
+      <c r="G9" s="86">
         <v>-17500</v>
       </c>
       <c r="H9" s="85">
@@ -58566,11 +58572,11 @@
       <c r="C12" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="337">
+      <c r="E12" s="86">
         <v>-300</v>
       </c>
-      <c r="F12" s="337"/>
-      <c r="G12" s="337">
+      <c r="F12" s="86"/>
+      <c r="G12" s="86">
         <v>-76</v>
       </c>
       <c r="H12" s="85">
@@ -58588,11 +58594,11 @@
       <c r="C13" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="337">
+      <c r="E13" s="86">
         <v>-100</v>
       </c>
-      <c r="F13" s="337"/>
-      <c r="G13" s="337">
+      <c r="F13" s="86"/>
+      <c r="G13" s="86">
         <v>-34</v>
       </c>
       <c r="H13" s="85">
@@ -58607,7 +58613,7 @@
       <c r="B14" t="s">
         <v>1462</v>
       </c>
-      <c r="F14" s="337">
+      <c r="F14" s="86">
         <v>34000</v>
       </c>
       <c r="H14" s="85">
@@ -58626,11 +58632,11 @@
       <c r="B16" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="337">
+      <c r="E16" s="86">
         <v>-6500</v>
       </c>
-      <c r="F16" s="337"/>
-      <c r="G16" s="337">
+      <c r="F16" s="86"/>
+      <c r="G16" s="86">
         <v>-6500</v>
       </c>
       <c r="H16" s="85">
@@ -58642,11 +58648,11 @@
       <c r="B17" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="337">
+      <c r="E17" s="86">
         <v>-6500</v>
       </c>
-      <c r="F17" s="337"/>
-      <c r="G17" s="337">
+      <c r="F17" s="86"/>
+      <c r="G17" s="86">
         <v>-6500</v>
       </c>
       <c r="H17" s="85">
@@ -58658,11 +58664,11 @@
       <c r="B18" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="337">
+      <c r="E18" s="86">
         <v>-6500</v>
       </c>
-      <c r="F18" s="337"/>
-      <c r="G18" s="337">
+      <c r="F18" s="86"/>
+      <c r="G18" s="86">
         <v>-6500</v>
       </c>
       <c r="H18" s="85">
@@ -58674,11 +58680,11 @@
       <c r="B19" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="337">
+      <c r="D19" s="86">
         <v>12984.15</v>
       </c>
-      <c r="E19" s="337"/>
-      <c r="F19" s="337">
+      <c r="E19" s="86"/>
+      <c r="F19" s="86">
         <v>13006.38</v>
       </c>
       <c r="H19" s="85">
@@ -58692,11 +58698,11 @@
         <v>194</v>
       </c>
       <c r="C20" s="88"/>
-      <c r="E20" s="337">
+      <c r="E20" s="86">
         <v>-400</v>
       </c>
-      <c r="F20" s="337"/>
-      <c r="G20" s="337">
+      <c r="F20" s="86"/>
+      <c r="G20" s="86">
         <v>-455</v>
       </c>
       <c r="H20" s="85">
@@ -58712,11 +58718,11 @@
         <v>195</v>
       </c>
       <c r="C21" s="88"/>
-      <c r="E21" s="337">
+      <c r="E21" s="86">
         <v>-500</v>
       </c>
-      <c r="F21" s="337"/>
-      <c r="G21" s="337">
+      <c r="F21" s="86"/>
+      <c r="G21" s="86">
         <v>-805</v>
       </c>
       <c r="H21" s="85">
@@ -58749,7 +58755,7 @@
       <c r="B23" t="s">
         <v>1468</v>
       </c>
-      <c r="G23" s="337">
+      <c r="G23" s="86">
         <v>-197.4</v>
       </c>
       <c r="H23" s="85">
@@ -58771,11 +58777,11 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="342" t="s">
+      <c r="B25" s="339" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="342"/>
-      <c r="D25" s="343">
+      <c r="C25" s="339"/>
+      <c r="D25" s="340">
         <v>15000</v>
       </c>
       <c r="H25" s="85">
@@ -58784,12 +58790,12 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="342" t="s">
+      <c r="B26" s="339" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="342"/>
-      <c r="D26" s="343"/>
-      <c r="E26" s="343">
+      <c r="C26" s="339"/>
+      <c r="D26" s="340"/>
+      <c r="E26" s="340">
         <v>-10000</v>
       </c>
       <c r="H26" s="85">
@@ -60357,11 +60363,11 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="342" t="s">
+      <c r="B41" s="339" t="s">
         <v>270</v>
       </c>
-      <c r="C41" s="342"/>
-      <c r="D41" s="346">
+      <c r="C41" s="339"/>
+      <c r="D41" s="343">
         <v>15000</v>
       </c>
       <c r="H41" s="86">
@@ -60383,12 +60389,12 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="B43" s="342" t="s">
+      <c r="B43" s="339" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="342"/>
-      <c r="D43" s="343"/>
-      <c r="E43" s="343">
+      <c r="C43" s="339"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340">
         <v>-10000</v>
       </c>
       <c r="H43" s="86">
@@ -62096,7 +62102,7 @@
         <v>268</v>
       </c>
       <c r="C33" s="105"/>
-      <c r="D33" s="345">
+      <c r="D33" s="342">
         <v>15000</v>
       </c>
       <c r="E33" s="86"/>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4EC01C-A7B6-40E2-8FCA-9A69E9BA28B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582FAC5-5F2C-4D5B-81AC-41B6480DBB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="1490">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -4790,6 +4790,9 @@
   </si>
   <si>
     <t>adıgüzeller</t>
+  </si>
+  <si>
+    <t>ali demirel keşif için avukata denizbank havale</t>
   </si>
 </sst>
 </file>
@@ -6306,10 +6309,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -39253,11 +39256,11 @@
       </c>
       <c r="C11" s="34">
         <f>'09_24'!E2</f>
-        <v>-81346.3</v>
+        <v>-81364.900000000009</v>
       </c>
       <c r="D11" s="35">
         <f t="shared" si="0"/>
-        <v>73078.566306999972</v>
+        <v>73059.966306999966</v>
       </c>
       <c r="E11" s="34">
         <f>'09_24'!F2</f>
@@ -39306,7 +39309,7 @@
       </c>
       <c r="D12" s="35">
         <f t="shared" si="0"/>
-        <v>-25170.553693000023</v>
+        <v>-25189.153693000029</v>
       </c>
       <c r="E12" s="34">
         <f>'10_24'!F2</f>
@@ -39314,11 +39317,11 @@
       </c>
       <c r="F12" s="34">
         <f>'10_24'!G2</f>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
-        <v>-99293.943692999979</v>
+        <v>-123995.243693</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="37" t="s">
@@ -39355,7 +39358,7 @@
       </c>
       <c r="D13" s="35">
         <f t="shared" si="0"/>
-        <v>78483.616306999989</v>
+        <v>78465.016306999983</v>
       </c>
       <c r="E13" s="34">
         <f>'11_24'!F2</f>
@@ -39367,7 +39370,7 @@
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>-99293.943692999979</v>
+        <v>-123995.243693</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="37" t="s">
@@ -39404,7 +39407,7 @@
       </c>
       <c r="D14" s="35">
         <f t="shared" si="0"/>
-        <v>51907.746306999987</v>
+        <v>51889.146306999981</v>
       </c>
       <c r="E14" s="34">
         <f>'12_24'!F2</f>
@@ -39416,7 +39419,7 @@
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>-99293.943692999979</v>
+        <v>-123995.243693</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="46" t="s">
@@ -39449,11 +39452,11 @@
       </c>
       <c r="C15" s="35">
         <f>SUM(C3:C14)</f>
-        <v>-1036077.603693</v>
+        <v>-1036096.203693</v>
       </c>
       <c r="D15" s="35">
         <f>B15+C15</f>
-        <v>51907.746307000052</v>
+        <v>51889.146307000075</v>
       </c>
       <c r="E15" s="35">
         <f>SUM(E3:E14)</f>
@@ -39461,11 +39464,11 @@
       </c>
       <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
-        <v>-823696.42369299999</v>
+        <v>-848397.72369300004</v>
       </c>
       <c r="G15" s="35">
         <f>E15+F15</f>
-        <v>-99293.943692999892</v>
+        <v>-123995.24369299994</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
@@ -39496,7 +39499,7 @@
       </c>
       <c r="C16" s="57">
         <f>C15/A16</f>
-        <v>-86339.800307750003</v>
+        <v>-86341.350307750006</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57">
@@ -39505,11 +39508,11 @@
       </c>
       <c r="F16" s="57">
         <f>F15/A16</f>
-        <v>-68641.368641083332</v>
+        <v>-70699.810307749998</v>
       </c>
       <c r="G16" s="57">
         <f>G15/A16</f>
-        <v>-8274.4953077499904</v>
+        <v>-10332.936974416662</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
@@ -57212,8 +57215,8 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -57257,11 +57260,11 @@
       </c>
       <c r="G2" s="85">
         <f>SUM(G4:G35)</f>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -57275,32 +57278,38 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="346"/>
       <c r="B5" s="88" t="s">
         <v>248</v>
       </c>
       <c r="C5" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="86">
+      <c r="D5" s="347"/>
+      <c r="E5" s="347">
         <v>-250</v>
       </c>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
       <c r="H5" s="85">
         <f t="shared" ref="H5:H25" si="0">H4+F5+G5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="335">
+      <c r="A6" s="348">
         <v>45568</v>
       </c>
       <c r="B6" s="88" t="s">
         <v>216</v>
       </c>
       <c r="C6" s="88"/>
-      <c r="E6" s="86">
+      <c r="D6" s="347"/>
+      <c r="E6" s="347">
         <v>-1500</v>
       </c>
-      <c r="G6" s="85">
+      <c r="F6" s="347"/>
+      <c r="G6" s="347">
         <v>-1513.12</v>
       </c>
       <c r="H6" s="85">
@@ -57309,20 +57318,20 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="346">
+      <c r="A7" s="349">
         <v>45569</v>
       </c>
       <c r="B7" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="347"/>
-      <c r="D7" s="348"/>
-      <c r="E7" s="348">
+      <c r="C7" s="346"/>
+      <c r="D7" s="347"/>
+      <c r="E7" s="347">
         <f>E66</f>
         <v>-71389.3</v>
       </c>
-      <c r="F7" s="348"/>
-      <c r="G7" s="348">
+      <c r="F7" s="347"/>
+      <c r="G7" s="347">
         <v>-71389.3</v>
       </c>
       <c r="H7" s="85">
@@ -57331,20 +57340,20 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="349">
+      <c r="A8" s="348">
         <v>45572</v>
       </c>
       <c r="B8" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="347"/>
-      <c r="D8" s="348"/>
-      <c r="E8" s="348">
+      <c r="C8" s="346"/>
+      <c r="D8" s="347"/>
+      <c r="E8" s="347">
         <f>E51</f>
         <v>-3066.5699999999997</v>
       </c>
-      <c r="F8" s="348"/>
-      <c r="G8" s="348">
+      <c r="F8" s="347"/>
+      <c r="G8" s="347">
         <v>-3066.57</v>
       </c>
       <c r="H8" s="85">
@@ -57353,38 +57362,63 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="95" t="s">
+      <c r="A9" s="346"/>
+      <c r="B9" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="85">
+      <c r="C9" s="346"/>
+      <c r="D9" s="347"/>
+      <c r="E9" s="347">
         <f>E46*-1</f>
         <v>0</v>
       </c>
+      <c r="F9" s="347"/>
+      <c r="G9" s="347">
+        <v>0</v>
+      </c>
       <c r="H9" s="85">
         <f t="shared" si="0"/>
         <v>-75968.990000000005</v>
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" s="348">
+        <v>45573</v>
+      </c>
       <c r="B10" s="88" t="s">
         <v>249</v>
       </c>
       <c r="C10" s="88"/>
-      <c r="E10" s="85">
+      <c r="D10" s="347"/>
+      <c r="E10" s="347">
         <v>-17500</v>
       </c>
+      <c r="F10" s="347"/>
+      <c r="G10" s="347">
+        <v>-17500</v>
+      </c>
       <c r="H10" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-93468.99</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="88"/>
+      <c r="A11" s="348">
+        <v>45573</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>1489</v>
+      </c>
       <c r="C11" s="88"/>
-      <c r="E11" s="86"/>
+      <c r="D11" s="347"/>
+      <c r="E11" s="347"/>
+      <c r="F11" s="347"/>
+      <c r="G11" s="347">
+        <v>-7080.3</v>
+      </c>
       <c r="H11" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100549.29000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -57393,7 +57427,7 @@
       <c r="E12" s="86"/>
       <c r="H12" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100549.29000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -57402,7 +57436,7 @@
       <c r="E13" s="86"/>
       <c r="H13" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100549.29000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -57411,7 +57445,7 @@
       <c r="E14" s="86"/>
       <c r="H14" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100549.29000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -57424,7 +57458,7 @@
       </c>
       <c r="H15" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100549.29000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -57437,13 +57471,13 @@
       </c>
       <c r="H16" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100549.29000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="H17" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100549.29000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -57458,10 +57492,13 @@
       </c>
       <c r="H18" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100549.29000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8">
+      <c r="A19" s="335">
+        <v>45582</v>
+      </c>
       <c r="B19" s="94" t="s">
         <v>210</v>
       </c>
@@ -57471,12 +57508,18 @@
       <c r="E19" s="85">
         <v>-300</v>
       </c>
+      <c r="G19" s="85">
+        <v>-78</v>
+      </c>
       <c r="H19" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100627.29000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8">
+      <c r="A20" s="335">
+        <v>45582</v>
+      </c>
       <c r="B20" s="94" t="s">
         <v>211</v>
       </c>
@@ -57486,9 +57529,12 @@
       <c r="E20" s="85">
         <v>-100</v>
       </c>
+      <c r="G20" s="85">
+        <v>-43</v>
+      </c>
       <c r="H20" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -57496,7 +57542,7 @@
       <c r="C21" s="88"/>
       <c r="H21" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -57508,7 +57554,7 @@
       </c>
       <c r="H22" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -57526,7 +57572,7 @@
       </c>
       <c r="H23" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -57541,7 +57587,7 @@
       </c>
       <c r="H24" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -57553,7 +57599,7 @@
       </c>
       <c r="H25" s="85">
         <f t="shared" si="0"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -57565,7 +57611,7 @@
       </c>
       <c r="H26" s="85">
         <f t="shared" ref="H26:H33" si="1">H25+F26+G26</f>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -57577,13 +57623,13 @@
       </c>
       <c r="H27" s="85">
         <f t="shared" si="1"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="H28" s="85">
         <f t="shared" si="1"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -57595,14 +57641,14 @@
       </c>
       <c r="H29" s="85">
         <f t="shared" si="1"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="97"/>
       <c r="H30" s="85">
         <f t="shared" si="1"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -57615,14 +57661,14 @@
       </c>
       <c r="H31" s="85">
         <f t="shared" si="1"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="97"/>
       <c r="H32" s="85">
         <f t="shared" si="1"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -57637,7 +57683,7 @@
       </c>
       <c r="H33" s="85">
         <f t="shared" si="1"/>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -58322,7 +58368,7 @@
       </c>
       <c r="E120" s="85">
         <f>H2</f>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -58331,7 +58377,7 @@
       </c>
       <c r="E122" s="85">
         <f>SUM(E112:E121)</f>
-        <v>-75968.990000000005</v>
+        <v>-100670.29000000001</v>
       </c>
     </row>
   </sheetData>
@@ -58351,8 +58397,8 @@
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -58388,7 +58434,7 @@
       </c>
       <c r="E2" s="85">
         <f>SUM(E4:E27)</f>
-        <v>-81346.3</v>
+        <v>-81364.900000000009</v>
       </c>
       <c r="F2" s="85">
         <f>SUM(F4:F27)</f>
@@ -58740,8 +58786,11 @@
       <c r="C22" t="s">
         <v>1452</v>
       </c>
+      <c r="D22" s="347" t="s">
+        <v>725</v>
+      </c>
       <c r="E22" s="85">
-        <v>-1380</v>
+        <v>-1398.6</v>
       </c>
       <c r="H22" s="85">
         <f t="shared" si="0"/>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582FAC5-5F2C-4D5B-81AC-41B6480DBB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49F7D1A-2D40-40F6-B99C-F5E8D634AF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -59,8 +59,17 @@
     <sheet name="22_1" sheetId="44" r:id="rId44"/>
     <sheet name="PROCESS" sheetId="45" r:id="rId45"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -69,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="1497">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -4793,6 +4802,27 @@
   </si>
   <si>
     <t>ali demirel keşif için avukata denizbank havale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ARALIK 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - KASIM 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - EKİM 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - EYLÜL 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - AĞUSTOS 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - TEMMUZ 2024</t>
+  </si>
+  <si>
+    <t>selanik yemek</t>
   </si>
 </sst>
 </file>
@@ -6305,14 +6335,14 @@
     <xf numFmtId="177" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="2" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6754,7 +6784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -8109,8 +8139,8 @@
   </sheetPr>
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A96" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10050,7 +10080,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -10975,7 +11005,9 @@
       <c r="B69" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C69" s="94"/>
+      <c r="C69" s="94">
+        <v>240</v>
+      </c>
       <c r="E69" s="85">
         <v>-240</v>
       </c>
@@ -11007,7 +11039,9 @@
       <c r="B72" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C72" s="94"/>
+      <c r="C72" s="94">
+        <v>250</v>
+      </c>
       <c r="E72" s="85">
         <v>-250</v>
       </c>
@@ -11103,8 +11137,13 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="97"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="94"/>
+      <c r="B81" s="70" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C81" s="94">
+        <f>SUM(C69:C80)</f>
+        <v>490</v>
+      </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="97"/>
@@ -38831,10 +38870,10 @@
       <c r="K1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="344" t="s">
+      <c r="L1" s="348" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="344"/>
+      <c r="M1" s="348"/>
       <c r="N1" t="s">
         <v>119</v>
       </c>
@@ -39313,7 +39352,7 @@
       </c>
       <c r="E12" s="34">
         <f>'10_24'!F2</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F12" s="34">
         <f>'10_24'!G2</f>
@@ -39321,7 +39360,7 @@
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
-        <v>-123995.243693</v>
+        <v>-108995.243693</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="37" t="s">
@@ -39370,7 +39409,7 @@
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>-123995.243693</v>
+        <v>-108995.243693</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="37" t="s">
@@ -39419,7 +39458,7 @@
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>-123995.243693</v>
+        <v>-108995.243693</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="46" t="s">
@@ -39460,7 +39499,7 @@
       </c>
       <c r="E15" s="35">
         <f>SUM(E3:E14)</f>
-        <v>724402.4800000001</v>
+        <v>739402.4800000001</v>
       </c>
       <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
@@ -39468,7 +39507,7 @@
       </c>
       <c r="G15" s="35">
         <f>E15+F15</f>
-        <v>-123995.24369299994</v>
+        <v>-108995.24369299994</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
@@ -39504,7 +39543,7 @@
       <c r="D16" s="57"/>
       <c r="E16" s="57">
         <f>E15/A16</f>
-        <v>60366.873333333344</v>
+        <v>61616.873333333344</v>
       </c>
       <c r="F16" s="57">
         <f>F15/A16</f>
@@ -39512,7 +39551,7 @@
       </c>
       <c r="G16" s="57">
         <f>G15/A16</f>
-        <v>-10332.936974416662</v>
+        <v>-9082.9369744166615</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
@@ -39546,11 +39585,11 @@
       <c r="K17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="345">
+      <c r="L17" s="349">
         <f>L15+M15</f>
         <v>1181.49614</v>
       </c>
-      <c r="M17" s="345"/>
+      <c r="M17" s="349"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="66" t="s">
@@ -50861,7 +50900,7 @@
   <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -50890,7 +50929,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>1490</v>
       </c>
       <c r="C2" s="87" t="s">
         <v>191</v>
@@ -56346,8 +56385,8 @@
   </sheetPr>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -56372,7 +56411,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>1491</v>
       </c>
       <c r="C2" s="87" t="s">
         <v>191</v>
@@ -57215,8 +57254,8 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -57241,7 +57280,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>1492</v>
       </c>
       <c r="C2" s="87" t="s">
         <v>191</v>
@@ -57256,7 +57295,7 @@
       </c>
       <c r="F2" s="85">
         <f>SUM(F4:F35)</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G2" s="85">
         <f>SUM(G4:G35)</f>
@@ -57264,7 +57303,7 @@
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -57278,38 +57317,38 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="346"/>
+      <c r="A5" s="344"/>
       <c r="B5" s="88" t="s">
         <v>248</v>
       </c>
       <c r="C5" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347">
+      <c r="D5" s="345"/>
+      <c r="E5" s="345">
         <v>-250</v>
       </c>
-      <c r="F5" s="347"/>
-      <c r="G5" s="347"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
       <c r="H5" s="85">
         <f t="shared" ref="H5:H25" si="0">H4+F5+G5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="348">
+      <c r="A6" s="346">
         <v>45568</v>
       </c>
       <c r="B6" s="88" t="s">
         <v>216</v>
       </c>
       <c r="C6" s="88"/>
-      <c r="D6" s="347"/>
-      <c r="E6" s="347">
+      <c r="D6" s="345"/>
+      <c r="E6" s="345">
         <v>-1500</v>
       </c>
-      <c r="F6" s="347"/>
-      <c r="G6" s="347">
+      <c r="F6" s="345"/>
+      <c r="G6" s="345">
         <v>-1513.12</v>
       </c>
       <c r="H6" s="85">
@@ -57318,20 +57357,20 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="349">
+      <c r="A7" s="347">
         <v>45569</v>
       </c>
       <c r="B7" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="346"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="347">
+      <c r="C7" s="344"/>
+      <c r="D7" s="345"/>
+      <c r="E7" s="345">
         <f>E66</f>
         <v>-71389.3</v>
       </c>
-      <c r="F7" s="347"/>
-      <c r="G7" s="347">
+      <c r="F7" s="345"/>
+      <c r="G7" s="345">
         <v>-71389.3</v>
       </c>
       <c r="H7" s="85">
@@ -57340,20 +57379,20 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="348">
+      <c r="A8" s="346">
         <v>45572</v>
       </c>
       <c r="B8" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="346"/>
-      <c r="D8" s="347"/>
-      <c r="E8" s="347">
+      <c r="C8" s="344"/>
+      <c r="D8" s="345"/>
+      <c r="E8" s="345">
         <f>E51</f>
         <v>-3066.5699999999997</v>
       </c>
-      <c r="F8" s="347"/>
-      <c r="G8" s="347">
+      <c r="F8" s="345"/>
+      <c r="G8" s="345">
         <v>-3066.57</v>
       </c>
       <c r="H8" s="85">
@@ -57362,18 +57401,18 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="346"/>
+      <c r="A9" s="344"/>
       <c r="B9" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="346"/>
-      <c r="D9" s="347"/>
-      <c r="E9" s="347">
+      <c r="C9" s="344"/>
+      <c r="D9" s="345"/>
+      <c r="E9" s="345">
         <f>E46*-1</f>
         <v>0</v>
       </c>
-      <c r="F9" s="347"/>
-      <c r="G9" s="347">
+      <c r="F9" s="345"/>
+      <c r="G9" s="345">
         <v>0</v>
       </c>
       <c r="H9" s="85">
@@ -57382,19 +57421,19 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="348">
+      <c r="A10" s="346">
         <v>45573</v>
       </c>
       <c r="B10" s="88" t="s">
         <v>249</v>
       </c>
       <c r="C10" s="88"/>
-      <c r="D10" s="347"/>
-      <c r="E10" s="347">
+      <c r="D10" s="345"/>
+      <c r="E10" s="345">
         <v>-17500</v>
       </c>
-      <c r="F10" s="347"/>
-      <c r="G10" s="347">
+      <c r="F10" s="345"/>
+      <c r="G10" s="345">
         <v>-17500</v>
       </c>
       <c r="H10" s="85">
@@ -57403,17 +57442,17 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="348">
+      <c r="A11" s="346">
         <v>45573</v>
       </c>
       <c r="B11" s="88" t="s">
         <v>1489</v>
       </c>
       <c r="C11" s="88"/>
-      <c r="D11" s="347"/>
-      <c r="E11" s="347"/>
-      <c r="F11" s="347"/>
-      <c r="G11" s="347">
+      <c r="D11" s="345"/>
+      <c r="E11" s="345"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="345">
         <v>-7080.3</v>
       </c>
       <c r="H11" s="85">
@@ -57422,12 +57461,22 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
+      <c r="A12" s="335">
+        <v>45574</v>
+      </c>
+      <c r="B12" s="339" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>896</v>
+      </c>
       <c r="E12" s="86"/>
+      <c r="F12" s="85">
+        <v>15000</v>
+      </c>
       <c r="H12" s="85">
         <f t="shared" si="0"/>
-        <v>-100549.29000000001</v>
+        <v>-85549.290000000008</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -57436,7 +57485,7 @@
       <c r="E13" s="86"/>
       <c r="H13" s="85">
         <f t="shared" si="0"/>
-        <v>-100549.29000000001</v>
+        <v>-85549.290000000008</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -57445,7 +57494,7 @@
       <c r="E14" s="86"/>
       <c r="H14" s="85">
         <f t="shared" si="0"/>
-        <v>-100549.29000000001</v>
+        <v>-85549.290000000008</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -57458,7 +57507,7 @@
       </c>
       <c r="H15" s="85">
         <f t="shared" si="0"/>
-        <v>-100549.29000000001</v>
+        <v>-85549.290000000008</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -57471,13 +57520,13 @@
       </c>
       <c r="H16" s="85">
         <f t="shared" si="0"/>
-        <v>-100549.29000000001</v>
+        <v>-85549.290000000008</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="H17" s="85">
         <f t="shared" si="0"/>
-        <v>-100549.29000000001</v>
+        <v>-85549.290000000008</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -57492,7 +57541,7 @@
       </c>
       <c r="H18" s="85">
         <f t="shared" si="0"/>
-        <v>-100549.29000000001</v>
+        <v>-85549.290000000008</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -57513,7 +57562,7 @@
       </c>
       <c r="H19" s="85">
         <f t="shared" si="0"/>
-        <v>-100627.29000000001</v>
+        <v>-85627.290000000008</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -57534,7 +57583,7 @@
       </c>
       <c r="H20" s="85">
         <f t="shared" si="0"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -57542,7 +57591,7 @@
       <c r="C21" s="88"/>
       <c r="H21" s="85">
         <f t="shared" si="0"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -57554,7 +57603,7 @@
       </c>
       <c r="H22" s="85">
         <f t="shared" si="0"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -57572,7 +57621,7 @@
       </c>
       <c r="H23" s="85">
         <f t="shared" si="0"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -57587,7 +57636,7 @@
       </c>
       <c r="H24" s="85">
         <f t="shared" si="0"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -57599,7 +57648,7 @@
       </c>
       <c r="H25" s="85">
         <f t="shared" si="0"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -57611,7 +57660,7 @@
       </c>
       <c r="H26" s="85">
         <f t="shared" ref="H26:H33" si="1">H25+F26+G26</f>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -57623,13 +57672,13 @@
       </c>
       <c r="H27" s="85">
         <f t="shared" si="1"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="H28" s="85">
         <f t="shared" si="1"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -57641,14 +57690,14 @@
       </c>
       <c r="H29" s="85">
         <f t="shared" si="1"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="97"/>
       <c r="H30" s="85">
         <f t="shared" si="1"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -57661,14 +57710,14 @@
       </c>
       <c r="H31" s="85">
         <f t="shared" si="1"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="97"/>
       <c r="H32" s="85">
         <f t="shared" si="1"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -57683,7 +57732,7 @@
       </c>
       <c r="H33" s="85">
         <f t="shared" si="1"/>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -58368,7 +58417,7 @@
       </c>
       <c r="E120" s="85">
         <f>H2</f>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -58377,7 +58426,7 @@
       </c>
       <c r="E122" s="85">
         <f>SUM(E112:E121)</f>
-        <v>-100670.29000000001</v>
+        <v>-85670.290000000008</v>
       </c>
     </row>
   </sheetData>
@@ -58393,12 +58442,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF9BC2E6"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A48" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -58423,7 +58472,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>1493</v>
       </c>
       <c r="C2" s="87" t="s">
         <v>191</v>
@@ -58786,7 +58835,7 @@
       <c r="C22" t="s">
         <v>1452</v>
       </c>
-      <c r="D22" s="347" t="s">
+      <c r="D22" s="345" t="s">
         <v>725</v>
       </c>
       <c r="E22" s="85">
@@ -58826,11 +58875,14 @@
       </c>
     </row>
     <row r="25" spans="1:8">
+      <c r="A25" s="335">
+        <v>45574</v>
+      </c>
       <c r="B25" s="339" t="s">
         <v>256</v>
       </c>
       <c r="C25" s="339"/>
-      <c r="D25" s="340">
+      <c r="D25" s="343">
         <v>15000</v>
       </c>
       <c r="H25" s="85">
@@ -58868,10 +58920,13 @@
       </c>
     </row>
     <row r="28" spans="1:8">
+      <c r="A28" s="335">
+        <v>45574</v>
+      </c>
       <c r="B28" s="103" t="s">
         <v>1463</v>
       </c>
-      <c r="G28" s="85">
+      <c r="G28" s="345">
         <v>-10000</v>
       </c>
       <c r="H28" s="85">
@@ -59675,12 +59730,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
+    <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A100" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -59705,7 +59760,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>1494</v>
       </c>
       <c r="C2" s="87" t="s">
         <v>191</v>
@@ -61033,7 +61088,6 @@
       <c r="B100" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C100" s="94"/>
       <c r="E100" s="85">
         <v>-1673</v>
       </c>
@@ -61171,6 +61225,13 @@
       </c>
     </row>
     <row r="117" spans="1:5">
+      <c r="B117" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" s="94">
+        <f>SUM(C87:C99)</f>
+        <v>960</v>
+      </c>
       <c r="E117" s="85">
         <v>-37.33</v>
       </c>
@@ -61604,8 +61665,8 @@
   </sheetPr>
   <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A71" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -61630,7 +61691,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="87" t="s">
         <v>191</v>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49F7D1A-2D40-40F6-B99C-F5E8D634AF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF872B6-BCE3-46B2-9518-60A3FC6394BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -6784,7 +6784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -57254,8 +57254,8 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -57471,7 +57471,7 @@
         <v>896</v>
       </c>
       <c r="E12" s="86"/>
-      <c r="F12" s="85">
+      <c r="F12" s="345">
         <v>15000</v>
       </c>
       <c r="H12" s="85">
@@ -58446,7 +58446,7 @@
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF872B6-BCE3-46B2-9518-60A3FC6394BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1513268B-FF4E-47AD-AD31-49F95C62250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="75" windowWidth="26145" windowHeight="10365" tabRatio="500" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -6784,7 +6784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -10079,7 +10079,7 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -11580,7 +11580,7 @@
   </sheetPr>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A86" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -22291,7 +22291,7 @@
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7A8C3D-E9CD-4759-B3A0-425FFF6FA32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BF961-0D32-48DB-9A8B-5B6588103A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="851" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -59,8 +59,17 @@
     <sheet name="22_1" sheetId="44" r:id="rId44"/>
     <sheet name="PROCESS" sheetId="45" r:id="rId45"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -69,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="1513">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -6374,10 +6383,6 @@
     <xf numFmtId="177" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="2" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -6387,6 +6392,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7551,7 +7560,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="352">
+      <c r="A57" s="350">
         <v>45536</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -7570,7 +7579,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="352">
+      <c r="A58" s="350">
         <v>45550</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -7589,7 +7598,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="352">
+      <c r="A59" s="350">
         <v>45565</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -7608,7 +7617,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="352">
+      <c r="A60" s="350">
         <v>45580</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -7627,7 +7636,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="352">
+      <c r="A61" s="350">
         <v>45595</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -7808,15 +7817,15 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="E71" s="348"/>
-      <c r="F71" s="349">
+      <c r="E71" s="346"/>
+      <c r="F71" s="347">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" thickBot="1">
-      <c r="E72" s="350"/>
-      <c r="F72" s="351" t="s">
+      <c r="E72" s="348"/>
+      <c r="F72" s="349" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -20637,7 +20646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B2:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -38968,10 +38977,10 @@
       <c r="K1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="344" t="s">
+      <c r="L1" s="351" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="344"/>
+      <c r="M1" s="351"/>
       <c r="N1" t="s">
         <v>119</v>
       </c>
@@ -39503,11 +39512,11 @@
       </c>
       <c r="F13" s="34">
         <f>'11_24'!G2</f>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>-249157.75369300001</v>
+        <v>-250669.88369300001</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="37" t="s">
@@ -39556,7 +39565,7 @@
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>-249157.75369300001</v>
+        <v>-250669.88369300001</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="46" t="s">
@@ -39601,11 +39610,11 @@
       </c>
       <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
-        <v>-1001566.6136930001</v>
+        <v>-1003078.7436930001</v>
       </c>
       <c r="G15" s="35">
         <f>E15+F15</f>
-        <v>-249157.75369299995</v>
+        <v>-250669.88369299995</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
@@ -39645,11 +39654,11 @@
       </c>
       <c r="F16" s="57">
         <f>F15/A16</f>
-        <v>-83463.884474416671</v>
+        <v>-83589.895307750005</v>
       </c>
       <c r="G16" s="57">
         <f>G15/A16</f>
-        <v>-20763.146141083329</v>
+        <v>-20889.156974416663</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
@@ -39683,11 +39692,11 @@
       <c r="K17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="345">
+      <c r="L17" s="352">
         <f>L15+M15</f>
         <v>1181.49614</v>
       </c>
-      <c r="M17" s="345"/>
+      <c r="M17" s="352"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="66" t="s">
@@ -56483,8 +56492,8 @@
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -56528,21 +56537,21 @@
       </c>
       <c r="G2" s="85">
         <f>SUM(G4:G39)</f>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="347"/>
-      <c r="E4" s="347">
+      <c r="B4" s="344"/>
+      <c r="C4" s="344"/>
+      <c r="D4" s="345"/>
+      <c r="E4" s="345">
         <v>0</v>
       </c>
       <c r="H4" s="85">
@@ -56551,10 +56560,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="346"/>
-      <c r="C5" s="346"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347">
+      <c r="B5" s="344"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="345">
         <v>0</v>
       </c>
       <c r="H5" s="85">
@@ -56569,8 +56578,8 @@
       <c r="C6" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="347"/>
-      <c r="E6" s="347">
+      <c r="D6" s="345"/>
+      <c r="E6" s="345">
         <v>-250</v>
       </c>
       <c r="H6" s="85">
@@ -56585,17 +56594,17 @@
       <c r="B7" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="346"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="347">
+      <c r="C7" s="344"/>
+      <c r="D7" s="345"/>
+      <c r="E7" s="345">
         <f>E70</f>
         <v>-129000.63</v>
       </c>
-      <c r="F7" s="347"/>
-      <c r="G7" s="347">
+      <c r="F7" s="345"/>
+      <c r="G7" s="345">
         <v>-129000.63</v>
       </c>
-      <c r="H7" s="347">
+      <c r="H7" s="345">
         <f t="shared" si="0"/>
         <v>-129000.63</v>
       </c>
@@ -56605,9 +56614,12 @@
       <c r="B8" s="88" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="347">
-        <f t="shared" si="0"/>
-        <v>-129000.63</v>
+      <c r="G8" s="345">
+        <v>-1512.13</v>
+      </c>
+      <c r="H8" s="345">
+        <f t="shared" si="0"/>
+        <v>-130512.76000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -56624,24 +56636,24 @@
       <c r="G9" s="85">
         <v>-1797.26</v>
       </c>
-      <c r="H9" s="347">
-        <f t="shared" si="0"/>
-        <v>-130797.89</v>
+      <c r="H9" s="345">
+        <f t="shared" si="0"/>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="346"/>
-      <c r="D10" s="347"/>
-      <c r="E10" s="347">
+      <c r="C10" s="344"/>
+      <c r="D10" s="345"/>
+      <c r="E10" s="345">
         <f>E50*-1</f>
         <v>0</v>
       </c>
       <c r="H10" s="85">
         <f t="shared" si="0"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -56652,26 +56664,26 @@
         <v>243</v>
       </c>
       <c r="C11" s="88"/>
-      <c r="E11" s="347">
+      <c r="E11" s="345">
         <v>-17500</v>
       </c>
       <c r="H11" s="85">
         <f t="shared" si="0"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="88"/>
       <c r="H12" s="85">
         <f t="shared" si="0"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="88"/>
       <c r="H13" s="85">
         <f t="shared" si="0"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -56684,7 +56696,7 @@
       </c>
       <c r="H14" s="85">
         <f t="shared" si="0"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -56697,13 +56709,13 @@
       </c>
       <c r="H15" s="85">
         <f t="shared" si="0"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="H16" s="85">
         <f t="shared" si="0"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -56711,7 +56723,7 @@
       <c r="C17" s="88"/>
       <c r="H17" s="85">
         <f t="shared" si="0"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -56726,7 +56738,7 @@
       </c>
       <c r="H18" s="85">
         <f t="shared" si="0"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -56741,7 +56753,7 @@
       </c>
       <c r="H19" s="85">
         <f t="shared" si="0"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -56756,7 +56768,7 @@
       </c>
       <c r="H20" s="85">
         <f t="shared" ref="H20:H37" si="1">H19+F20+G20</f>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -56764,13 +56776,13 @@
       <c r="C21" s="88"/>
       <c r="H21" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="H22" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -56779,7 +56791,7 @@
       </c>
       <c r="H23" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -56797,7 +56809,7 @@
       </c>
       <c r="H24" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -56812,7 +56824,7 @@
       </c>
       <c r="H25" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -56827,13 +56839,13 @@
       </c>
       <c r="H26" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -56842,7 +56854,7 @@
       </c>
       <c r="H28" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -56854,7 +56866,7 @@
       </c>
       <c r="H29" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -56866,7 +56878,7 @@
       </c>
       <c r="H30" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -56878,13 +56890,13 @@
       </c>
       <c r="H31" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="H32" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -56896,17 +56908,14 @@
       </c>
       <c r="H33" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="97"/>
-      <c r="B34" t="s">
-        <v>219</v>
-      </c>
       <c r="H34" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -56919,7 +56928,7 @@
       </c>
       <c r="H35" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -56929,7 +56938,7 @@
       </c>
       <c r="H36" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -56944,7 +56953,7 @@
       </c>
       <c r="H37" s="85">
         <f t="shared" si="1"/>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -57564,7 +57573,7 @@
       </c>
       <c r="E119" s="85">
         <f>H2</f>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -57573,12 +57582,12 @@
       </c>
       <c r="E121" s="85">
         <f>SUM(E111:E120)</f>
-        <v>-130797.89</v>
+        <v>-132310.02000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="77" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BF961-0D32-48DB-9A8B-5B6588103A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F147424E-24C1-43C4-9CAE-3AA78FEA3E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="1513">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -5900,7 +5900,7 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6396,6 +6396,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -10144,7 +10145,7 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -11645,7 +11646,7 @@
   </sheetPr>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -38936,8 +38937,8 @@
   </sheetPr>
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -38947,7 +38948,7 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="0.85546875" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" customWidth="1"/>
@@ -39284,13 +39285,13 @@
         <v>136</v>
       </c>
       <c r="J8">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K8" s="41"/>
       <c r="L8" s="42"/>
       <c r="M8" s="40">
         <f>J8/4</f>
-        <v>56.25</v>
+        <v>58.75</v>
       </c>
       <c r="N8">
         <f>'06_24'!E118/1000</f>
@@ -39379,13 +39380,13 @@
         <v>140</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="42"/>
       <c r="M10" s="40">
         <f>J10*0.13</f>
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <f>'08_24'!E130/1000</f>
@@ -39425,15 +39426,15 @@
         <v>142</v>
       </c>
       <c r="J11">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K11" s="41">
         <f>J11*$K$2</f>
-        <v>11.7692</v>
+        <v>37.661439999999999</v>
       </c>
       <c r="L11" s="42">
         <f>J11-K11</f>
-        <v>38.230800000000002</v>
+        <v>122.33856</v>
       </c>
       <c r="M11" s="40"/>
       <c r="N11">
@@ -39500,11 +39501,11 @@
       </c>
       <c r="C13" s="34">
         <f>'11_24'!E2</f>
-        <v>-182427.39</v>
+        <v>-182434.39</v>
       </c>
       <c r="D13" s="35">
         <f t="shared" si="0"/>
-        <v>70367.60630699998</v>
+        <v>70360.60630699998</v>
       </c>
       <c r="E13" s="34">
         <f>'11_24'!F2</f>
@@ -39512,11 +39513,11 @@
       </c>
       <c r="F13" s="34">
         <f>'11_24'!G2</f>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>-250669.88369300001</v>
+        <v>-268169.88369300001</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="37" t="s">
@@ -39535,7 +39536,7 @@
       </c>
       <c r="M13" s="45"/>
       <c r="N13">
-        <f>'11_24'!E123/1000</f>
+        <f>'11_24'!E118/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -39553,7 +39554,7 @@
       </c>
       <c r="D14" s="35">
         <f t="shared" si="0"/>
-        <v>43791.736306999977</v>
+        <v>43784.736306999977</v>
       </c>
       <c r="E14" s="34">
         <f>'12_24'!F2</f>
@@ -39565,22 +39566,22 @@
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>-250669.88369300001</v>
+        <v>-268169.88369300001</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="46" t="s">
         <v>148</v>
       </c>
       <c r="J14" s="47">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="K14" s="41">
         <f>J14*$K$2</f>
-        <v>80.030560000000008</v>
+        <v>64.024448000000007</v>
       </c>
       <c r="L14" s="42">
         <f>J14-K14</f>
-        <v>259.96943999999996</v>
+        <v>207.97555199999999</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14">
@@ -39598,11 +39599,11 @@
       </c>
       <c r="C15" s="35">
         <f>SUM(C3:C14)</f>
-        <v>-1044193.6136930001</v>
+        <v>-1044200.6136930001</v>
       </c>
       <c r="D15" s="35">
         <f>B15+C15</f>
-        <v>43791.736307000043</v>
+        <v>43784.736307000043</v>
       </c>
       <c r="E15" s="35">
         <f>SUM(E3:E14)</f>
@@ -39610,29 +39611,29 @@
       </c>
       <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
-        <v>-1003078.7436930001</v>
+        <v>-1020578.7436930001</v>
       </c>
       <c r="G15" s="35">
         <f>E15+F15</f>
-        <v>-250669.88369299995</v>
+        <v>-268169.88369299995</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
       <c r="J15" s="51">
         <f>SUM(J3:J14)</f>
-        <v>1570</v>
+        <v>2022</v>
       </c>
       <c r="K15" s="52">
         <f>SUM(K4:K14)</f>
-        <v>250.68396000000004</v>
+        <v>260.57008800000006</v>
       </c>
       <c r="L15" s="53">
         <f>SUM(L4:L14)</f>
-        <v>814.31603999999993</v>
+        <v>846.42991199999994</v>
       </c>
       <c r="M15" s="54">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>367.18009999999998</v>
+        <v>421.68009999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -39645,7 +39646,7 @@
       </c>
       <c r="C16" s="57">
         <f>C15/A16</f>
-        <v>-87016.134474416671</v>
+        <v>-87016.717807749999</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57">
@@ -39654,29 +39655,29 @@
       </c>
       <c r="F16" s="57">
         <f>F15/A16</f>
-        <v>-83589.895307750005</v>
+        <v>-85048.228641083333</v>
       </c>
       <c r="G16" s="57">
         <f>G15/A16</f>
-        <v>-20889.156974416663</v>
+        <v>-22347.490307749995</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
       <c r="J16" s="60">
         <f>J15/12</f>
-        <v>130.83333333333334</v>
+        <v>168.5</v>
       </c>
       <c r="K16" s="61">
         <f>K15/12</f>
-        <v>20.890330000000002</v>
+        <v>21.714174000000003</v>
       </c>
       <c r="L16" s="62">
         <f>L15/12</f>
-        <v>67.859669999999994</v>
+        <v>70.535826</v>
       </c>
       <c r="M16" s="63">
         <f>M15/12</f>
-        <v>30.598341666666666</v>
+        <v>35.140008333333334</v>
       </c>
       <c r="N16" s="64">
         <f>AVERAGE(N2:N15)</f>
@@ -39694,7 +39695,7 @@
       </c>
       <c r="L17" s="352">
         <f>L15+M15</f>
-        <v>1181.49614</v>
+        <v>1268.1100119999999</v>
       </c>
       <c r="M17" s="352"/>
     </row>
@@ -39713,7 +39714,7 @@
       <c r="L18" s="67"/>
       <c r="M18" s="68">
         <f>L17/12</f>
-        <v>98.458011666666664</v>
+        <v>105.67583433333333</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -39722,7 +39723,7 @@
         <v>152</v>
       </c>
       <c r="E19" s="9">
-        <f>'07_24'!F30+'08_24'!F24+'09_24'!F19+'10_24'!F25+'11_24'!F27+'12_24'!F29</f>
+        <f>'07_24'!F30+'08_24'!F24+'09_24'!F19+'10_24'!F25+'11_24'!F22+'12_24'!F29</f>
         <v>38996.909999999996</v>
       </c>
     </row>
@@ -56490,10 +56491,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -56524,24 +56525,24 @@
         <v>191</v>
       </c>
       <c r="D2" s="85">
-        <f>SUM(D4:D39)</f>
+        <f>SUM(D4:D34)</f>
         <v>277984.15000000002</v>
       </c>
       <c r="E2" s="85">
-        <f>SUM(E4:E39)</f>
-        <v>-182427.39</v>
+        <f>SUM(E4:E34)</f>
+        <v>-182434.39</v>
       </c>
       <c r="F2" s="85">
-        <f>SUM(F4:F39)</f>
+        <f>SUM(F4:F34)</f>
         <v>0</v>
       </c>
       <c r="G2" s="85">
-        <f>SUM(G4:G39)</f>
-        <v>-132310.02000000002</v>
+        <f>SUM(G4:G34)</f>
+        <v>-149810.02000000002</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -56567,7 +56568,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="85">
-        <f t="shared" ref="H5:H19" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H25" si="0">H4+F5+G5</f>
         <v>0</v>
       </c>
     </row>
@@ -56597,7 +56598,7 @@
       <c r="C7" s="344"/>
       <c r="D7" s="345"/>
       <c r="E7" s="345">
-        <f>E70</f>
+        <f>E65</f>
         <v>-129000.63</v>
       </c>
       <c r="F7" s="345"/>
@@ -56623,17 +56624,20 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="335">
+      <c r="A9" s="353">
         <v>45569</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="85">
-        <f>E55</f>
+      <c r="C9" s="344"/>
+      <c r="D9" s="345"/>
+      <c r="E9" s="345">
+        <f>E50</f>
         <v>-1797.26</v>
       </c>
-      <c r="G9" s="85">
+      <c r="F9" s="345"/>
+      <c r="G9" s="345">
         <v>-1797.26</v>
       </c>
       <c r="H9" s="345">
@@ -56648,7 +56652,7 @@
       <c r="C10" s="344"/>
       <c r="D10" s="345"/>
       <c r="E10" s="345">
-        <f>E50*-1</f>
+        <f>E45*-1</f>
         <v>0</v>
       </c>
       <c r="H10" s="85">
@@ -56667,23 +56671,26 @@
       <c r="E11" s="345">
         <v>-17500</v>
       </c>
+      <c r="G11" s="85">
+        <v>-17500</v>
+      </c>
       <c r="H11" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="88"/>
       <c r="H12" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="88"/>
       <c r="H13" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -56696,7 +56703,7 @@
       </c>
       <c r="H14" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -56709,578 +56716,588 @@
       </c>
       <c r="H15" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8">
+      <c r="B16" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="85">
+        <v>-150</v>
+      </c>
       <c r="H16" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
+      <c r="B17" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="85">
+        <v>-300</v>
+      </c>
       <c r="H17" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="88" t="s">
+      <c r="B18" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="94" t="s">
         <v>209</v>
       </c>
       <c r="E18" s="85">
-        <v>-150</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="B19" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>209</v>
+      <c r="A19" s="335">
+        <v>45625</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1457</v>
       </c>
       <c r="E19" s="85">
-        <v>-300</v>
+        <v>-1380</v>
       </c>
       <c r="H19" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>209</v>
+      <c r="A20" s="335">
+        <v>45626</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>1459</v>
       </c>
       <c r="E20" s="85">
-        <v>-100</v>
+        <v>-1415</v>
       </c>
       <c r="H20" s="85">
-        <f t="shared" ref="H20:H37" si="1">H19+F20+G20</f>
-        <v>-132310.02000000002</v>
+        <f t="shared" si="0"/>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
+      <c r="A21" s="335">
+        <v>45626</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E21" s="85">
+        <v>-141.5</v>
+      </c>
       <c r="H21" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <f t="shared" si="0"/>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="H22" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <f t="shared" si="0"/>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="E23" s="85">
-        <v>7</v>
-      </c>
       <c r="H23" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <f t="shared" si="0"/>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="335">
-        <v>45625</v>
-      </c>
       <c r="B24" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1457</v>
+        <v>84</v>
       </c>
       <c r="E24" s="85">
-        <v>-1380</v>
+        <v>-6500</v>
       </c>
       <c r="H24" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <f t="shared" si="0"/>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="335">
-        <v>45626</v>
-      </c>
-      <c r="B25" s="88" t="s">
-        <v>1459</v>
+      <c r="B25" t="s">
+        <v>172</v>
       </c>
       <c r="E25" s="85">
-        <v>-1415</v>
+        <v>-6500</v>
       </c>
       <c r="H25" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <f t="shared" si="0"/>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="335">
-        <v>45626</v>
-      </c>
-      <c r="B26" s="88" t="s">
-        <v>1460</v>
+      <c r="B26" t="s">
+        <v>217</v>
       </c>
       <c r="E26" s="85">
-        <v>-141.5</v>
+        <v>-6500</v>
       </c>
       <c r="H26" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <f t="shared" ref="H18:H32" si="1">H25+F26+G26</f>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>84</v>
+        <v>218</v>
+      </c>
+      <c r="D28" s="86">
+        <v>12984.15</v>
       </c>
       <c r="H28" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="85">
-        <v>-6500</v>
-      </c>
+      <c r="A29" s="97"/>
       <c r="H29" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8">
+      <c r="A30" s="97"/>
       <c r="B30" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="85">
-        <v>-6500</v>
+        <v>244</v>
+      </c>
+      <c r="D30" s="85">
+        <v>15000</v>
       </c>
       <c r="H30" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>217</v>
-      </c>
-      <c r="E31" s="85">
-        <v>-6500</v>
+      <c r="A31" s="97"/>
+      <c r="B31" s="43" t="s">
+        <v>1496</v>
       </c>
       <c r="H31" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="98">
+        <v>0.234011</v>
+      </c>
+      <c r="D32" s="85">
+        <v>250000</v>
+      </c>
       <c r="H32" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-149810.02000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="86">
-        <v>12984.15</v>
-      </c>
-      <c r="H33" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="97"/>
-      <c r="H34" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="97"/>
-      <c r="B35" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" s="85">
-        <v>15000</v>
-      </c>
-      <c r="H35" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="97"/>
-      <c r="B36" s="43" t="s">
-        <v>1496</v>
-      </c>
-      <c r="H36" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="98">
-        <v>0.234011</v>
-      </c>
-      <c r="D37" s="85">
-        <v>250000</v>
-      </c>
-      <c r="H37" s="85">
-        <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="85">
+      <c r="E33" s="85">
         <v>-10000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75">
-      <c r="B39" s="99"/>
-    </row>
-    <row r="41" spans="1:8">
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="B34" s="99"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="97"/>
+      <c r="C38" s="98"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="100">
+        <v>44929</v>
+      </c>
+      <c r="B39" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="85">
+        <f>SUM(D40:D45)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="85">
+        <f>SUM(E40:E45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="97"/>
+      <c r="B40" s="94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="97"/>
-      <c r="C43" s="98"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="100">
-        <v>44929</v>
-      </c>
-      <c r="B44" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="85">
-        <f>SUM(D45:D50)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="85">
-        <f>SUM(E45:E50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="97"/>
-      <c r="B45" s="94" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="B47" t="s">
+    <row r="42" spans="1:5">
+      <c r="B42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="B48" t="s">
+    <row r="43" spans="1:5">
+      <c r="B43" t="s">
         <v>228</v>
       </c>
     </row>
+    <row r="44" spans="1:5">
+      <c r="B44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="94"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46" s="94"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="B48" s="13"/>
+    </row>
     <row r="49" spans="1:5">
-      <c r="B49" t="s">
-        <v>229</v>
-      </c>
+      <c r="B49" s="102"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="B50" t="s">
-        <v>230</v>
-      </c>
-      <c r="C50" s="94"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="C51" s="94"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="78"/>
+      <c r="E50" s="85">
+        <f>SUM(E51:E62)</f>
+        <v>-1797.26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="20">
+        <v>45373</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52">
+        <v>10176.39</v>
+      </c>
+      <c r="D52" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="E52" s="85">
+        <v>-1130.71</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="B53" s="13"/>
+      <c r="A53" s="20">
+        <v>45375</v>
+      </c>
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53">
+        <v>5999</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" s="85">
+        <v>-666.55</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="B54" s="102"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="78"/>
-      <c r="B55" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="78"/>
-      <c r="E55" s="85">
-        <f>SUM(E56:E67)</f>
-        <v>-1797.26</v>
+      <c r="A54" s="20"/>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="D55" s="108" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="20">
-        <v>45373</v>
-      </c>
-      <c r="B57" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57">
-        <v>10176.39</v>
-      </c>
-      <c r="D57" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="E57" s="85">
-        <v>-1130.71</v>
-      </c>
+      <c r="A57" s="97"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="20">
-        <v>45375</v>
-      </c>
-      <c r="B58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C58">
-        <v>5999</v>
-      </c>
-      <c r="D58" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="85">
-        <v>-666.55</v>
-      </c>
+      <c r="A58" s="97"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="20"/>
-    </row>
-    <row r="60" spans="1:5" ht="15">
-      <c r="D60" s="108" t="s">
-        <v>285</v>
-      </c>
+      <c r="A59" s="97"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="94"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="97"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="94"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="97"/>
+      <c r="B61" s="103"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="97"/>
-      <c r="B62" s="94"/>
+      <c r="B62" s="103"/>
       <c r="C62" s="94"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="97"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="97"/>
-      <c r="B64" s="103"/>
+      <c r="B64" s="94"/>
       <c r="C64" s="94"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="97"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="94"/>
+      <c r="A65" s="78"/>
+      <c r="B65" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C65" s="78"/>
+      <c r="E65" s="85">
+        <f>SUM(E66:E97)</f>
+        <v>-129000.63</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="97"/>
-      <c r="B66" s="103"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="94"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="97"/>
-      <c r="B67" s="103"/>
+      <c r="A67" s="97">
+        <v>45560</v>
+      </c>
+      <c r="B67" s="94" t="s">
+        <v>250</v>
+      </c>
       <c r="C67" s="94"/>
+      <c r="E67" s="85">
+        <v>-118966.5</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="97"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" s="94"/>
+      <c r="E68" s="85">
+        <v>-277.72000000000003</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="97"/>
-      <c r="B69" s="94"/>
+      <c r="B69" s="3" t="s">
+        <v>1497</v>
+      </c>
       <c r="C69" s="94"/>
+      <c r="E69" s="85">
+        <v>-1398.6</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="78"/>
-      <c r="B70" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="78"/>
+      <c r="A70" s="97"/>
+      <c r="B70" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C70" s="94"/>
       <c r="E70" s="85">
-        <f>SUM(E71:E102)</f>
-        <v>-129000.63</v>
+        <v>-1855</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="97"/>
-      <c r="B71" s="94"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="94"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="97">
-        <v>45560</v>
-      </c>
-      <c r="B72" s="94" t="s">
-        <v>250</v>
+      <c r="A72" s="97"/>
+      <c r="B72" s="3" t="s">
+        <v>1499</v>
       </c>
       <c r="C72" s="94"/>
       <c r="E72" s="85">
-        <v>-118966.5</v>
+        <v>-480</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="97"/>
-      <c r="B73" s="94" t="s">
-        <v>250</v>
+      <c r="B73" s="3" t="s">
+        <v>1500</v>
       </c>
       <c r="C73" s="94"/>
       <c r="E73" s="85">
-        <v>-277.72000000000003</v>
+        <v>-147.80000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="97"/>
       <c r="B74" s="3" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C74" s="94"/>
+        <v>1500</v>
+      </c>
+      <c r="C74" s="94">
+        <v>17.59</v>
+      </c>
       <c r="E74" s="85">
-        <v>-1398.6</v>
+        <v>-17.59</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="97"/>
       <c r="B75" s="3" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C75" s="94"/>
+        <v>1501</v>
+      </c>
+      <c r="C75" s="94">
+        <v>330</v>
+      </c>
       <c r="E75" s="85">
-        <v>-1855</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="97"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="94"/>
+      <c r="B76" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C76" s="94">
+        <v>-130</v>
+      </c>
+      <c r="E76" s="85">
+        <v>-130</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="97"/>
       <c r="B77" s="3" t="s">
-        <v>1499</v>
+        <v>97</v>
       </c>
       <c r="C77" s="94"/>
-      <c r="E77" s="85">
-        <v>-480</v>
+      <c r="D77" s="85">
+        <v>71389.3</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="97"/>
       <c r="B78" s="3" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="C78" s="94"/>
       <c r="E78" s="85">
-        <v>-147.80000000000001</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="97"/>
       <c r="B79" s="3" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C79" s="94">
-        <v>17.59</v>
+        <v>750</v>
       </c>
       <c r="E79" s="85">
-        <v>-17.59</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="97"/>
       <c r="B80" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C80" s="94">
-        <v>330</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="C80" s="94"/>
       <c r="E80" s="85">
-        <v>-330</v>
+        <v>-253.55</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="97"/>
       <c r="B81" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C81" s="94">
-        <v>-130</v>
-      </c>
+        <v>1504</v>
+      </c>
+      <c r="C81" s="94"/>
       <c r="E81" s="85">
-        <v>-130</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="97"/>
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>1505</v>
       </c>
       <c r="C82" s="94"/>
-      <c r="D82" s="85">
-        <v>71389.3</v>
+      <c r="E82" s="85">
+        <v>-400</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="97"/>
       <c r="B83" s="3" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="C83" s="94"/>
       <c r="E83" s="85">
-        <v>-140</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="97"/>
       <c r="B84" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C84" s="94">
-        <v>750</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="C84" s="94"/>
       <c r="E84" s="85">
-        <v>-750</v>
+        <v>-68.5</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -57288,85 +57305,91 @@
       <c r="B85" s="3" t="s">
         <v>1500</v>
       </c>
-      <c r="C85" s="94"/>
+      <c r="C85" s="94">
+        <v>43.13</v>
+      </c>
       <c r="E85" s="85">
-        <v>-253.55</v>
+        <v>-43.13</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="97"/>
       <c r="B86" s="3" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C86" s="94"/>
+        <v>1501</v>
+      </c>
+      <c r="C86" s="94">
+        <v>235</v>
+      </c>
       <c r="E86" s="85">
-        <v>-250</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="97"/>
       <c r="B87" s="3" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C87" s="94"/>
+        <v>1502</v>
+      </c>
+      <c r="C87" s="94">
+        <v>375</v>
+      </c>
       <c r="E87" s="85">
-        <v>-400</v>
+        <v>-375</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="97"/>
       <c r="B88" s="3" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C88" s="94"/>
+        <v>1500</v>
+      </c>
+      <c r="C88" s="94">
+        <v>79.84</v>
+      </c>
       <c r="E88" s="85">
-        <v>-100</v>
+        <v>-79.84</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="97"/>
       <c r="B89" s="3" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C89" s="94"/>
+        <v>1501</v>
+      </c>
+      <c r="C89" s="94">
+        <v>235</v>
+      </c>
       <c r="E89" s="85">
-        <v>-68.5</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="97"/>
       <c r="B90" s="3" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="C90" s="94">
-        <v>43.13</v>
+        <v>210</v>
       </c>
       <c r="E90" s="85">
-        <v>-43.13</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="97"/>
       <c r="B91" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C91" s="94">
-        <v>235</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="C91" s="94"/>
       <c r="E91" s="85">
-        <v>-235</v>
+        <v>-112.3</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="97"/>
       <c r="B92" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C92" s="94">
-        <v>375</v>
-      </c>
+        <v>1505</v>
+      </c>
+      <c r="C92" s="94"/>
       <c r="E92" s="85">
-        <v>-375</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -57374,215 +57397,159 @@
       <c r="B93" s="3" t="s">
         <v>1500</v>
       </c>
-      <c r="C93" s="94">
-        <v>79.84</v>
-      </c>
+      <c r="C93" s="94"/>
       <c r="E93" s="85">
-        <v>-79.84</v>
+        <v>-187.2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="97"/>
       <c r="B94" s="3" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="C94" s="94">
-        <v>235</v>
+        <v>1062.9000000000001</v>
       </c>
       <c r="E94" s="85">
-        <v>-235</v>
+        <v>-1062.9000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="97"/>
       <c r="B95" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C95" s="94">
-        <v>210</v>
-      </c>
+        <v>1507</v>
+      </c>
+      <c r="C95" s="94"/>
       <c r="E95" s="85">
-        <v>-210</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="97"/>
       <c r="B96" s="3" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
       <c r="C96" s="94"/>
       <c r="E96" s="85">
-        <v>-112.3</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="97"/>
       <c r="B97" s="3" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C97" s="94"/>
+        <v>1502</v>
+      </c>
+      <c r="C97">
+        <v>145</v>
+      </c>
       <c r="E97" s="85">
-        <v>-230</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="97"/>
-      <c r="B98" s="3" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C98" s="94"/>
-      <c r="E98" s="85">
-        <v>-187.2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="97"/>
-      <c r="B99" s="3" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C99" s="94">
-        <v>1062.9000000000001</v>
-      </c>
-      <c r="E99" s="85">
-        <v>-1062.9000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="97"/>
-      <c r="B100" s="3" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C100" s="94"/>
-      <c r="E100" s="85">
-        <v>-240</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="97"/>
-      <c r="B101" s="3" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C101" s="94"/>
-      <c r="E101" s="85">
-        <v>-280</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="B102" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C102">
-        <v>145</v>
-      </c>
-      <c r="E102" s="85">
         <v>-145</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15">
-      <c r="C103">
-        <f>SUM(C78:C102)</f>
+    <row r="98" spans="1:5" ht="15">
+      <c r="C98">
+        <f>SUM(C73:C97)</f>
         <v>3353.4599999999996</v>
       </c>
-      <c r="D103" s="108" t="s">
+      <c r="D98" s="108" t="s">
         <v>285</v>
       </c>
     </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="78"/>
+      <c r="B105" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C105" s="78"/>
+      <c r="E105" s="85">
+        <f>SUM(E106:E113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="97"/>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="97"/>
+      <c r="B107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="97"/>
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="97"/>
+      <c r="B109" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="78"/>
-      <c r="B110" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="C110" s="78"/>
+      <c r="A110" s="97"/>
+      <c r="B110" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="85">
+        <v>111</v>
+      </c>
       <c r="E110" s="85">
-        <f>SUM(E111:E118)</f>
+        <f>D110*C110</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="97"/>
       <c r="B111" t="s">
-        <v>84</v>
+        <v>238</v>
+      </c>
+      <c r="D111" s="85">
+        <v>850</v>
+      </c>
+      <c r="E111" s="85">
+        <f>D111*C111</f>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="97"/>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>239</v>
+      </c>
+      <c r="D112" s="85">
+        <v>100</v>
+      </c>
+      <c r="E112" s="85">
+        <f>D112*C112</f>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="97"/>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="97"/>
       <c r="B114" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="97"/>
-      <c r="B115" t="s">
-        <v>237</v>
-      </c>
-      <c r="D115" s="85">
-        <v>111</v>
-      </c>
-      <c r="E115" s="85">
-        <f>D115*C115</f>
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="E114" s="85">
+        <f>H2</f>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="97"/>
-      <c r="B116" t="s">
-        <v>238</v>
-      </c>
-      <c r="D116" s="85">
-        <v>850</v>
+      <c r="D116" s="85" t="s">
+        <v>189</v>
       </c>
       <c r="E116" s="85">
-        <f>D116*C116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="97"/>
-      <c r="B117" t="s">
-        <v>239</v>
-      </c>
-      <c r="D117" s="85">
-        <v>100</v>
-      </c>
-      <c r="E117" s="85">
-        <f>D117*C117</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="97"/>
-      <c r="B118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="B119" t="s">
-        <v>241</v>
-      </c>
-      <c r="E119" s="85">
-        <f>H2</f>
-        <v>-132310.02000000002</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="D121" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="E121" s="85">
-        <f>SUM(E111:E120)</f>
-        <v>-132310.02000000002</v>
+        <f>SUM(E106:E115)</f>
+        <v>-149810.02000000002</v>
       </c>
     </row>
   </sheetData>
@@ -58874,7 +58841,7 @@
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BF961-0D32-48DB-9A8B-5B6588103A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C653D4-68F9-4E81-B61B-BEE05DAC4469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="851" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -59,17 +59,8 @@
     <sheet name="22_1" sheetId="44" r:id="rId44"/>
     <sheet name="PROCESS" sheetId="45" r:id="rId45"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -5900,7 +5891,7 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6383,8 +6374,6 @@
     <xf numFmtId="177" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="2" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -6396,6 +6385,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7560,7 +7550,7 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="350">
+      <c r="A57" s="348">
         <v>45536</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -7579,7 +7569,7 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="350">
+      <c r="A58" s="348">
         <v>45550</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -7598,7 +7588,7 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="350">
+      <c r="A59" s="348">
         <v>45565</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -7617,7 +7607,7 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="350">
+      <c r="A60" s="348">
         <v>45580</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -7636,7 +7626,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="350">
+      <c r="A61" s="348">
         <v>45595</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -7817,15 +7807,15 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="E71" s="346"/>
-      <c r="F71" s="347">
+      <c r="E71" s="344"/>
+      <c r="F71" s="345">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" thickBot="1">
-      <c r="E72" s="348"/>
-      <c r="F72" s="349" t="s">
+      <c r="E72" s="346"/>
+      <c r="F72" s="347" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -38977,10 +38967,10 @@
       <c r="K1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="351" t="s">
+      <c r="L1" s="349" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="351"/>
+      <c r="M1" s="349"/>
       <c r="N1" t="s">
         <v>119</v>
       </c>
@@ -39512,11 +39502,11 @@
       </c>
       <c r="F13" s="34">
         <f>'11_24'!G2</f>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>-250669.88369300001</v>
+        <v>-268169.88369300001</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="37" t="s">
@@ -39565,7 +39555,7 @@
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>-250669.88369300001</v>
+        <v>-268169.88369300001</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="46" t="s">
@@ -39610,11 +39600,11 @@
       </c>
       <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
-        <v>-1003078.7436930001</v>
+        <v>-1020578.7436930001</v>
       </c>
       <c r="G15" s="35">
         <f>E15+F15</f>
-        <v>-250669.88369299995</v>
+        <v>-268169.88369299995</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
@@ -39654,11 +39644,11 @@
       </c>
       <c r="F16" s="57">
         <f>F15/A16</f>
-        <v>-83589.895307750005</v>
+        <v>-85048.228641083333</v>
       </c>
       <c r="G16" s="57">
         <f>G15/A16</f>
-        <v>-20889.156974416663</v>
+        <v>-22347.490307749995</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
@@ -39692,11 +39682,11 @@
       <c r="K17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="352">
+      <c r="L17" s="350">
         <f>L15+M15</f>
         <v>1181.49614</v>
       </c>
-      <c r="M17" s="352"/>
+      <c r="M17" s="350"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="66" t="s">
@@ -56492,8 +56482,8 @@
   </sheetPr>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -56537,21 +56527,19 @@
       </c>
       <c r="G2" s="85">
         <f>SUM(G4:G39)</f>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="70"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="344"/>
-      <c r="C4" s="344"/>
-      <c r="D4" s="345"/>
-      <c r="E4" s="345">
+      <c r="D4" s="86"/>
+      <c r="E4" s="86">
         <v>0</v>
       </c>
       <c r="H4" s="85">
@@ -56560,10 +56548,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="345"/>
-      <c r="E5" s="345">
+      <c r="D5" s="86"/>
+      <c r="E5" s="86">
         <v>0</v>
       </c>
       <c r="H5" s="85">
@@ -56578,8 +56564,8 @@
       <c r="C6" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86">
         <v>-250</v>
       </c>
       <c r="H6" s="85">
@@ -56594,17 +56580,16 @@
       <c r="B7" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="344"/>
-      <c r="D7" s="345"/>
-      <c r="E7" s="345">
+      <c r="D7" s="86"/>
+      <c r="E7" s="86">
         <f>E70</f>
         <v>-129000.63</v>
       </c>
-      <c r="F7" s="345"/>
-      <c r="G7" s="345">
+      <c r="F7" s="86"/>
+      <c r="G7" s="86">
         <v>-129000.63</v>
       </c>
-      <c r="H7" s="345">
+      <c r="H7" s="86">
         <f t="shared" si="0"/>
         <v>-129000.63</v>
       </c>
@@ -56614,10 +56599,10 @@
       <c r="B8" s="88" t="s">
         <v>216</v>
       </c>
-      <c r="G8" s="345">
+      <c r="G8" s="86">
         <v>-1512.13</v>
       </c>
-      <c r="H8" s="345">
+      <c r="H8" s="86">
         <f t="shared" si="0"/>
         <v>-130512.76000000001</v>
       </c>
@@ -56629,14 +56614,15 @@
       <c r="B9" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="351">
         <f>E55</f>
         <v>-1797.26</v>
       </c>
-      <c r="G9" s="85">
+      <c r="F9" s="351"/>
+      <c r="G9" s="351">
         <v>-1797.26</v>
       </c>
-      <c r="H9" s="345">
+      <c r="H9" s="86">
         <f t="shared" si="0"/>
         <v>-132310.02000000002</v>
       </c>
@@ -56645,9 +56631,8 @@
       <c r="B10" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="344"/>
-      <c r="D10" s="345"/>
-      <c r="E10" s="345">
+      <c r="D10" s="86"/>
+      <c r="E10" s="86">
         <f>E50*-1</f>
         <v>0</v>
       </c>
@@ -56658,32 +56643,35 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="335">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="B11" s="88" t="s">
         <v>243</v>
       </c>
       <c r="C11" s="88"/>
-      <c r="E11" s="345">
+      <c r="E11" s="86">
         <v>-17500</v>
       </c>
+      <c r="G11" s="351">
+        <v>-17500</v>
+      </c>
       <c r="H11" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="88"/>
       <c r="H12" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="88"/>
       <c r="H13" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -56696,7 +56684,7 @@
       </c>
       <c r="H14" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -56709,13 +56697,13 @@
       </c>
       <c r="H15" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="H16" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -56723,7 +56711,7 @@
       <c r="C17" s="88"/>
       <c r="H17" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -56738,7 +56726,7 @@
       </c>
       <c r="H18" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -56753,7 +56741,7 @@
       </c>
       <c r="H19" s="85">
         <f t="shared" si="0"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -56768,7 +56756,7 @@
       </c>
       <c r="H20" s="85">
         <f t="shared" ref="H20:H37" si="1">H19+F20+G20</f>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -56776,13 +56764,13 @@
       <c r="C21" s="88"/>
       <c r="H21" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="H22" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -56791,7 +56779,7 @@
       </c>
       <c r="H23" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -56809,7 +56797,7 @@
       </c>
       <c r="H24" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -56824,7 +56812,7 @@
       </c>
       <c r="H25" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -56839,13 +56827,13 @@
       </c>
       <c r="H26" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="H27" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -56854,7 +56842,7 @@
       </c>
       <c r="H28" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -56866,7 +56854,7 @@
       </c>
       <c r="H29" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -56878,7 +56866,7 @@
       </c>
       <c r="H30" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -56890,13 +56878,13 @@
       </c>
       <c r="H31" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="H32" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -56908,14 +56896,14 @@
       </c>
       <c r="H33" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="97"/>
       <c r="H34" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -56928,7 +56916,7 @@
       </c>
       <c r="H35" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -56938,7 +56926,7 @@
       </c>
       <c r="H36" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -56953,7 +56941,7 @@
       </c>
       <c r="H37" s="85">
         <f t="shared" si="1"/>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -57573,7 +57561,7 @@
       </c>
       <c r="E119" s="85">
         <f>H2</f>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -57582,7 +57570,7 @@
       </c>
       <c r="E121" s="85">
         <f>SUM(E111:E120)</f>
-        <v>-132310.02000000002</v>
+        <v>-149810.02000000002</v>
       </c>
     </row>
   </sheetData>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C653D4-68F9-4E81-B61B-BEE05DAC4469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD34FAFC-A6B1-4170-9F3D-55C9DE51E2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="851" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -59,8 +59,17 @@
     <sheet name="22_1" sheetId="44" r:id="rId44"/>
     <sheet name="PROCESS" sheetId="45" r:id="rId45"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -69,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="1537">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -4862,6 +4871,78 @@
   </si>
   <si>
     <t>KALAN BAKİYE</t>
+  </si>
+  <si>
+    <t>Nazan Kira ödemesi 11 + 8 + 9+ 10</t>
+  </si>
+  <si>
+    <t>tcross pervinden 1</t>
+  </si>
+  <si>
+    <t>tcross pervinden 2</t>
+  </si>
+  <si>
+    <t>tcross pervinden 3</t>
+  </si>
+  <si>
+    <t>tcross pervinden 4</t>
+  </si>
+  <si>
+    <t>tcross pervinden 5</t>
+  </si>
+  <si>
+    <t>tcross pervinden 6</t>
+  </si>
+  <si>
+    <t>tcross pervinden 7</t>
+  </si>
+  <si>
+    <t>700 noksan ÖDENDİ</t>
+  </si>
+  <si>
+    <t>umut winter</t>
+  </si>
+  <si>
+    <t>yasemin winter</t>
+  </si>
+  <si>
+    <t>snyF merdal kipel icra yoluyla avukattan</t>
+  </si>
+  <si>
+    <t>altın.s1</t>
+  </si>
+  <si>
+    <t>iş tte</t>
+  </si>
+  <si>
+    <t>İş 748</t>
+  </si>
+  <si>
+    <t>kasa çeyrek</t>
+  </si>
+  <si>
+    <t>kasa tam</t>
+  </si>
+  <si>
+    <t>kasa gram</t>
+  </si>
+  <si>
+    <t>kasa çeyrek (hasibeden mustafaya)</t>
+  </si>
+  <si>
+    <t>pervinden   16 ad çeyrek *4100</t>
+  </si>
+  <si>
+    <t>pervinden   1 ad tam *16200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pervinden   1 ad gram *2500 </t>
+  </si>
+  <si>
+    <t>2025 Ocağa  Devir</t>
+  </si>
+  <si>
+    <t>2025 Aralığa  Devir</t>
   </si>
 </sst>
 </file>
@@ -5891,7 +5972,7 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6380,12 +6461,18 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="178" fontId="24" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="15" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -6827,8 +6914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A40" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -7550,45 +7637,45 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="348">
+      <c r="A57" s="353">
         <v>45536</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="355" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="355" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9">
+      <c r="D57" s="356"/>
+      <c r="E57" s="356">
         <v>5600</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="356">
         <f t="shared" si="0"/>
         <v>401500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="348">
+      <c r="A58" s="353">
         <v>45550</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="355" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="355" t="s">
         <v>102</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9">
+      <c r="D58" s="356"/>
+      <c r="E58" s="356">
         <v>30000</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="356">
         <f t="shared" si="0"/>
         <v>371500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="348">
+      <c r="A59" s="353">
         <v>45565</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -7607,26 +7694,26 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="348">
+      <c r="A60" s="353">
         <v>45580</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="355" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="355" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9">
+      <c r="D60" s="356"/>
+      <c r="E60" s="356">
         <v>30000</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="356">
         <f t="shared" si="0"/>
         <v>335500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="348">
+      <c r="A61" s="353">
         <v>45595</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -7645,21 +7732,21 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1">
+      <c r="A62" s="354">
         <v>45611</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
       </c>
-      <c r="C62" t="s">
-        <v>1402</v>
+      <c r="C62" s="10" t="s">
+        <v>1521</v>
       </c>
       <c r="E62" s="2">
-        <v>36500</v>
+        <v>35800</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="0"/>
-        <v>293000</v>
+        <v>293700</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7677,7 +7764,7 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="0"/>
-        <v>256500</v>
+        <v>257200</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7695,7 +7782,7 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="0"/>
-        <v>220000</v>
+        <v>220700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7713,7 +7800,7 @@
       </c>
       <c r="F65" s="2">
         <f t="shared" si="0"/>
-        <v>183500</v>
+        <v>184200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7818,7 @@
       </c>
       <c r="F66" s="2">
         <f t="shared" si="0"/>
-        <v>147000</v>
+        <v>147700</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7749,7 +7836,7 @@
       </c>
       <c r="F67" s="2">
         <f t="shared" si="0"/>
-        <v>110500</v>
+        <v>111200</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7767,7 +7854,7 @@
       </c>
       <c r="F68" s="2">
         <f t="shared" si="0"/>
-        <v>74000</v>
+        <v>74700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7785,7 +7872,7 @@
       </c>
       <c r="F69" s="2">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13.5" thickBot="1">
@@ -7803,14 +7890,14 @@
       </c>
       <c r="F70" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="E71" s="344"/>
       <c r="F71" s="345">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" thickBot="1">
@@ -8194,7 +8281,7 @@
   </sheetPr>
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -22378,7 +22465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -38926,8 +39013,8 @@
   </sheetPr>
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -38936,8 +39023,8 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="0.85546875" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" customWidth="1"/>
@@ -39096,15 +39183,15 @@
         <v>128</v>
       </c>
       <c r="J4">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="K4" s="41">
         <f>J4*$K$2</f>
-        <v>20.007640000000002</v>
+        <v>55.315240000000003</v>
       </c>
       <c r="L4" s="42">
         <f>J4-K4</f>
-        <v>64.992359999999991</v>
+        <v>179.68475999999998</v>
       </c>
       <c r="M4" s="40"/>
       <c r="N4">
@@ -39354,7 +39441,7 @@
       </c>
       <c r="E10" s="34">
         <f>'08_24'!F2</f>
-        <v>28006.379999999997</v>
+        <v>63606.38</v>
       </c>
       <c r="F10" s="34">
         <f>'08_24'!G2</f>
@@ -39362,20 +39449,20 @@
       </c>
       <c r="G10" s="35">
         <f t="shared" si="1"/>
-        <v>-15467.793692999985</v>
+        <v>20132.206307000015</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="37" t="s">
         <v>140</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="42"/>
       <c r="M10" s="40">
         <f>J10*0.13</f>
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <f>'08_24'!E130/1000</f>
@@ -39400,7 +39487,7 @@
       </c>
       <c r="E11" s="34">
         <f>'09_24'!F2</f>
-        <v>62006.38</v>
+        <v>98006.38</v>
       </c>
       <c r="F11" s="34">
         <f>'09_24'!G2</f>
@@ -39408,26 +39495,26 @@
       </c>
       <c r="G11" s="35">
         <f t="shared" si="1"/>
-        <v>-23324.953692999981</v>
+        <v>48275.046307000026</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="37" t="s">
         <v>142</v>
       </c>
       <c r="J11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K11" s="41">
         <f>J11*$K$2</f>
-        <v>11.7692</v>
+        <v>0</v>
       </c>
       <c r="L11" s="42">
         <f>J11-K11</f>
-        <v>38.230800000000002</v>
+        <v>0</v>
       </c>
       <c r="M11" s="40"/>
       <c r="N11">
-        <f>'09_24'!E112/1000</f>
+        <f>'09_24'!E113/1000</f>
         <v>0</v>
       </c>
     </row>
@@ -39449,30 +39536,30 @@
       </c>
       <c r="E12" s="34">
         <f>'10_24'!F2</f>
-        <v>28006.379999999997</v>
+        <v>64006.38</v>
       </c>
       <c r="F12" s="34">
         <f>'10_24'!G2</f>
-        <v>-123041.29000000001</v>
+        <v>-123041.59000000001</v>
       </c>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
-        <v>-118359.86369299999</v>
+        <v>-10760.163692999988</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="37" t="s">
         <v>144</v>
       </c>
       <c r="J12">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="K12" s="41">
         <f>J12*$K$2</f>
-        <v>32.012224000000003</v>
+        <v>0</v>
       </c>
       <c r="L12" s="42">
         <f>J12-K12</f>
-        <v>103.987776</v>
+        <v>0</v>
       </c>
       <c r="M12" s="40"/>
       <c r="N12">
@@ -39490,43 +39577,43 @@
       </c>
       <c r="C13" s="34">
         <f>'11_24'!E2</f>
-        <v>-182427.39</v>
+        <v>-182434.39</v>
       </c>
       <c r="D13" s="35">
         <f t="shared" si="0"/>
-        <v>70367.60630699998</v>
+        <v>70360.60630699998</v>
       </c>
       <c r="E13" s="34">
         <f>'11_24'!F2</f>
-        <v>0</v>
+        <v>213806.38</v>
       </c>
       <c r="F13" s="34">
         <f>'11_24'!G2</f>
-        <v>-149810.02000000002</v>
+        <v>-220559.32</v>
       </c>
       <c r="G13" s="35">
         <f t="shared" si="1"/>
-        <v>-268169.88369300001</v>
+        <v>-17513.10369299999</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="37" t="s">
         <v>146</v>
       </c>
       <c r="J13">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K13" s="41">
         <f>J13*$K$2</f>
-        <v>58.846000000000004</v>
+        <v>0</v>
       </c>
       <c r="L13" s="42">
         <f>J13-K13</f>
-        <v>191.154</v>
+        <v>0</v>
       </c>
       <c r="M13" s="45"/>
       <c r="N13">
-        <f>'11_24'!E123/1000</f>
-        <v>0</v>
+        <f>'11_24'!E111/1000</f>
+        <v>418.34126276399996</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -39539,11 +39626,11 @@
       </c>
       <c r="C14" s="34">
         <f>'12_24'!E2</f>
-        <v>-54560.020000000004</v>
+        <v>-69319.02</v>
       </c>
       <c r="D14" s="35">
         <f t="shared" si="0"/>
-        <v>43791.736306999977</v>
+        <v>29025.736306999977</v>
       </c>
       <c r="E14" s="34">
         <f>'12_24'!F2</f>
@@ -39555,27 +39642,27 @@
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>-268169.88369300001</v>
+        <v>-17513.10369299999</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="46" t="s">
         <v>148</v>
       </c>
       <c r="J14" s="47">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="K14" s="41">
         <f>J14*$K$2</f>
-        <v>80.030560000000008</v>
+        <v>0</v>
       </c>
       <c r="L14" s="42">
         <f>J14-K14</f>
-        <v>259.96943999999996</v>
+        <v>0</v>
       </c>
       <c r="M14" s="40"/>
       <c r="N14">
-        <f>'12_24'!E121/1000</f>
-        <v>0</v>
+        <f>'12_24'!E111/1000</f>
+        <v>418.34126276399996</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -39588,41 +39675,41 @@
       </c>
       <c r="C15" s="35">
         <f>SUM(C3:C14)</f>
-        <v>-1044193.6136930001</v>
+        <v>-1058959.6136930001</v>
       </c>
       <c r="D15" s="35">
         <f>B15+C15</f>
-        <v>43791.736307000043</v>
+        <v>29025.736307000043</v>
       </c>
       <c r="E15" s="35">
         <f>SUM(E3:E14)</f>
-        <v>752408.8600000001</v>
+        <v>1073815.2400000002</v>
       </c>
       <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
-        <v>-1020578.7436930001</v>
+        <v>-1091328.343693</v>
       </c>
       <c r="G15" s="35">
         <f>E15+F15</f>
-        <v>-268169.88369299995</v>
+        <v>-17513.103692999808</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
       <c r="J15" s="51">
         <f>SUM(J3:J14)</f>
-        <v>1570</v>
+        <v>1344</v>
       </c>
       <c r="K15" s="52">
         <f>SUM(K4:K14)</f>
-        <v>250.68396000000004</v>
+        <v>103.33357600000001</v>
       </c>
       <c r="L15" s="53">
         <f>SUM(L4:L14)</f>
-        <v>814.31603999999993</v>
+        <v>335.66642400000001</v>
       </c>
       <c r="M15" s="54">
         <f>M10+M8+M6+M5+M3+M7</f>
-        <v>367.18009999999998</v>
+        <v>419.18009999999998</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -39635,42 +39722,42 @@
       </c>
       <c r="C16" s="57">
         <f>C15/A16</f>
-        <v>-87016.134474416671</v>
+        <v>-88246.634474416671</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57">
         <f>E15/A16</f>
-        <v>62700.738333333342</v>
+        <v>89484.603333333347</v>
       </c>
       <c r="F16" s="57">
         <f>F15/A16</f>
-        <v>-85048.228641083333</v>
+        <v>-90944.028641083336</v>
       </c>
       <c r="G16" s="57">
         <f>G15/A16</f>
-        <v>-22347.490307749995</v>
+        <v>-1459.4253077499841</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
       <c r="J16" s="60">
         <f>J15/12</f>
-        <v>130.83333333333334</v>
+        <v>112</v>
       </c>
       <c r="K16" s="61">
         <f>K15/12</f>
-        <v>20.890330000000002</v>
+        <v>8.6111313333333346</v>
       </c>
       <c r="L16" s="62">
         <f>L15/12</f>
-        <v>67.859669999999994</v>
+        <v>27.972201999999999</v>
       </c>
       <c r="M16" s="63">
         <f>M15/12</f>
-        <v>30.598341666666666</v>
+        <v>34.931674999999998</v>
       </c>
       <c r="N16" s="64">
         <f>AVERAGE(N2:N15)</f>
-        <v>510.41040047246156</v>
+        <v>574.77059474384612</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -39684,7 +39771,7 @@
       </c>
       <c r="L17" s="350">
         <f>L15+M15</f>
-        <v>1181.49614</v>
+        <v>754.84652400000004</v>
       </c>
       <c r="M17" s="350"/>
     </row>
@@ -39703,7 +39790,7 @@
       <c r="L18" s="67"/>
       <c r="M18" s="68">
         <f>L17/12</f>
-        <v>98.458011666666664</v>
+        <v>62.903877000000001</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -50994,10 +51081,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A109" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -51032,12 +51119,12 @@
         <v>191</v>
       </c>
       <c r="D2" s="85">
-        <f>SUM(D4:D39)</f>
+        <f>SUM(D4:D43)</f>
         <v>27984.15</v>
       </c>
       <c r="E2" s="85">
-        <f>SUM(E4:E39)</f>
-        <v>-54560.020000000004</v>
+        <f>SUM(E4:E44)</f>
+        <v>-69319.02</v>
       </c>
       <c r="F2" s="85">
         <f>SUM(F4:F39)</f>
@@ -51337,12 +51424,15 @@
       </c>
     </row>
     <row r="20" spans="1:13">
+      <c r="A20" s="335">
+        <v>45631</v>
+      </c>
       <c r="B20" s="95" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="85">
         <f>E62</f>
-        <v>-1797.26</v>
+        <v>-1797.23</v>
       </c>
       <c r="H20" s="85">
         <f t="shared" si="0"/>
@@ -51358,7 +51448,7 @@
       </c>
       <c r="E21" s="85">
         <f>E77</f>
-        <v>0</v>
+        <v>-9239.0300000000007</v>
       </c>
       <c r="H21" s="85">
         <f t="shared" si="0"/>
@@ -51484,9 +51574,6 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="97"/>
-      <c r="B34" t="s">
-        <v>219</v>
-      </c>
       <c r="H34" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -51685,7 +51772,7 @@
       <c r="C62" s="78"/>
       <c r="E62" s="85">
         <f>SUM(E63:E74)</f>
-        <v>-1797.26</v>
+        <v>-1797.23</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -51719,7 +51806,7 @@
         <v>233</v>
       </c>
       <c r="E65" s="85">
-        <v>-666.55</v>
+        <v>-666.52</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -51774,7 +51861,7 @@
       <c r="C77" s="78"/>
       <c r="E77" s="85">
         <f>SUM(E78:E86)</f>
-        <v>0</v>
+        <v>-9239.0300000000007</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -51786,6 +51873,9 @@
       <c r="A79" s="97"/>
       <c r="B79" s="94"/>
       <c r="C79" s="94"/>
+      <c r="E79" s="85">
+        <v>-9239.0300000000007</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="97"/>
@@ -51872,144 +51962,244 @@
       <c r="B96" s="3"/>
       <c r="C96" s="94"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:5">
       <c r="A97" s="97"/>
       <c r="B97" s="3"/>
       <c r="C97" s="94"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:5">
       <c r="A98" s="97"/>
       <c r="B98" s="3"/>
       <c r="C98" s="94"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:5">
       <c r="A99" s="97"/>
       <c r="B99" s="3"/>
       <c r="C99" s="94"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:5">
       <c r="A100" s="97"/>
       <c r="B100" s="3"/>
       <c r="C100" s="94"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:5">
       <c r="A101" s="97"/>
       <c r="B101" s="3"/>
       <c r="C101" s="94"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:5">
       <c r="A102" s="97"/>
       <c r="B102" s="3"/>
       <c r="C102" s="94"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:5">
       <c r="A103" s="97"/>
       <c r="B103" s="3"/>
       <c r="C103" s="94"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:5">
       <c r="A104" s="97"/>
       <c r="B104" s="3"/>
       <c r="C104" s="94"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:5">
       <c r="A105" s="97"/>
       <c r="B105" s="3"/>
       <c r="C105" s="94"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:5">
       <c r="A106" s="97"/>
       <c r="B106" s="3"/>
       <c r="C106" s="94"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:5">
       <c r="A107" s="97"/>
       <c r="B107" s="3"/>
       <c r="C107" s="94"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:5">
       <c r="A108" s="97"/>
       <c r="B108" s="3"/>
       <c r="C108" s="94"/>
     </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="78"/>
+      <c r="B111" s="77" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C111" s="78"/>
+      <c r="E111" s="85">
+        <f>SUM(E112:E126)</f>
+        <v>418341.26276399998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="97"/>
+      <c r="B112" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="85">
+        <v>-34000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="97"/>
+      <c r="B113" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="97"/>
+      <c r="B114" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E114" s="85">
+        <v>22079</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="97"/>
+      <c r="B115" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="97"/>
+      <c r="B116" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C116">
+        <v>4000</v>
+      </c>
+      <c r="D116" s="85">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="E116" s="85">
+        <f>D116*C116</f>
+        <v>129919.99999999999</v>
+      </c>
+    </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="78"/>
-      <c r="B117" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" s="78"/>
+      <c r="A117" s="97"/>
+      <c r="B117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117">
+        <v>62</v>
+      </c>
+      <c r="D117" s="85">
+        <v>823.93972199999996</v>
+      </c>
       <c r="E117" s="85">
-        <f>SUM(E118:E125)</f>
-        <v>0</v>
+        <f>D117*C117</f>
+        <v>51084.262763999999</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="97"/>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>1526</v>
+      </c>
+      <c r="C118">
+        <v>125000</v>
+      </c>
+      <c r="D118" s="85">
+        <v>0.75446400000000002</v>
+      </c>
+      <c r="E118" s="85">
+        <f>D118*C118</f>
+        <v>94308</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="97"/>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>239</v>
+      </c>
+      <c r="E119" s="85">
+        <f t="shared" ref="E119:E126" si="1">D119*C119</f>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="97"/>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>240</v>
+      </c>
+      <c r="E120" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="97"/>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>1528</v>
+      </c>
+      <c r="C121">
+        <v>16</v>
+      </c>
+      <c r="D121" s="85">
+        <v>5000</v>
+      </c>
+      <c r="E121" s="85">
+        <f t="shared" si="1"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="97"/>
       <c r="B122" t="s">
-        <v>237</v>
+        <v>1529</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
       </c>
       <c r="D122" s="85">
-        <v>111</v>
+        <v>22000</v>
       </c>
       <c r="E122" s="85">
-        <f>D122*C122</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>22000</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="97"/>
       <c r="B123" t="s">
-        <v>238</v>
+        <v>1530</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
       </c>
       <c r="D123" s="85">
-        <v>850</v>
+        <v>2950</v>
       </c>
       <c r="E123" s="85">
-        <f>D123*C123</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2950</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="97"/>
       <c r="B124" t="s">
-        <v>239</v>
+        <v>1531</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
       </c>
       <c r="D124" s="85">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="E124" s="85">
-        <f>D124*C124</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>50000</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="97"/>
-      <c r="B125" t="s">
-        <v>240</v>
+      <c r="E125" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -52017,7 +52207,7 @@
         <v>241</v>
       </c>
       <c r="E126" s="85">
-        <f>H2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -52026,9 +52216,27 @@
         <v>189</v>
       </c>
       <c r="E128" s="85">
-        <f>SUM(E118:E127)</f>
-        <v>0</v>
-      </c>
+        <f>SUM(E112:E127)</f>
+        <v>418341.26276399998</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="3" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="3" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -56480,10 +56688,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A101" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -56514,24 +56722,24 @@
         <v>191</v>
       </c>
       <c r="D2" s="85">
-        <f>SUM(D4:D39)</f>
+        <f>SUM(D4:D38)</f>
         <v>277984.15000000002</v>
       </c>
       <c r="E2" s="85">
-        <f>SUM(E4:E39)</f>
-        <v>-182427.39</v>
+        <f>SUM(E4:E38)</f>
+        <v>-182434.39</v>
       </c>
       <c r="F2" s="85">
-        <f>SUM(F4:F39)</f>
-        <v>0</v>
+        <f>SUM(F4:F38)</f>
+        <v>213806.38</v>
       </c>
       <c r="G2" s="85">
-        <f>SUM(G4:G39)</f>
-        <v>-149810.02000000002</v>
+        <f>SUM(G4:G38)</f>
+        <v>-220559.32</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-149810.02000000002</v>
+        <v>-6752.9400000000023</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -56582,7 +56790,7 @@
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86">
-        <f>E70</f>
+        <f>E69</f>
         <v>-129000.63</v>
       </c>
       <c r="F7" s="86"/>
@@ -56595,7 +56803,9 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="96"/>
+      <c r="A8" s="96">
+        <v>45597</v>
+      </c>
       <c r="B8" s="88" t="s">
         <v>216</v>
       </c>
@@ -56614,12 +56824,12 @@
       <c r="B9" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="351">
-        <f>E55</f>
+      <c r="E9" s="348">
+        <f>E54</f>
         <v>-1797.26</v>
       </c>
-      <c r="F9" s="351"/>
-      <c r="G9" s="351">
+      <c r="F9" s="348"/>
+      <c r="G9" s="348">
         <v>-1797.26</v>
       </c>
       <c r="H9" s="86">
@@ -56633,7 +56843,7 @@
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="86">
-        <f>E50*-1</f>
+        <f>E49*-1</f>
         <v>0</v>
       </c>
       <c r="H10" s="85">
@@ -56652,7 +56862,7 @@
       <c r="E11" s="86">
         <v>-17500</v>
       </c>
-      <c r="G11" s="351">
+      <c r="G11" s="348">
         <v>-17500</v>
       </c>
       <c r="H11" s="85">
@@ -56661,17 +56871,39 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" s="335">
+        <v>45605</v>
+      </c>
+      <c r="B12" s="351" t="s">
+        <v>251</v>
+      </c>
       <c r="C12" s="88"/>
+      <c r="E12" s="348"/>
+      <c r="F12" s="348">
+        <v>15000</v>
+      </c>
+      <c r="G12" s="348"/>
       <c r="H12" s="85">
         <f t="shared" si="0"/>
-        <v>-149810.02000000002</v>
+        <v>-134810.02000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" s="335">
+        <v>45600</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>1496</v>
+      </c>
       <c r="C13" s="88"/>
+      <c r="E13" s="348"/>
+      <c r="F13" s="348"/>
+      <c r="G13" s="348">
+        <v>-206.3</v>
+      </c>
       <c r="H13" s="85">
         <f t="shared" si="0"/>
-        <v>-149810.02000000002</v>
+        <v>-135016.32000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -56679,12 +56911,14 @@
         <v>194</v>
       </c>
       <c r="C14" s="88"/>
-      <c r="E14" s="85">
+      <c r="E14" s="348">
         <v>-400</v>
       </c>
+      <c r="F14" s="348"/>
+      <c r="G14" s="348"/>
       <c r="H14" s="85">
         <f t="shared" si="0"/>
-        <v>-149810.02000000002</v>
+        <v>-135016.32000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -56692,94 +56926,149 @@
         <v>195</v>
       </c>
       <c r="C15" s="88"/>
-      <c r="E15" s="85">
+      <c r="E15" s="348">
         <v>-500</v>
       </c>
+      <c r="F15" s="348"/>
+      <c r="G15" s="348"/>
       <c r="H15" s="85">
         <f t="shared" si="0"/>
-        <v>-149810.02000000002</v>
+        <v>-135016.32000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8">
+      <c r="A16" s="335">
+        <v>45607</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E16" s="348"/>
+      <c r="F16" s="348">
+        <v>150000</v>
+      </c>
+      <c r="G16" s="348"/>
       <c r="H16" s="85">
         <f t="shared" si="0"/>
-        <v>-149810.02000000002</v>
+        <v>14983.679999999993</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="88"/>
       <c r="C17" s="88"/>
+      <c r="E17" s="348"/>
+      <c r="F17" s="348"/>
+      <c r="G17" s="348"/>
       <c r="H17" s="85">
         <f t="shared" si="0"/>
-        <v>-149810.02000000002</v>
+        <v>14983.679999999993</v>
       </c>
     </row>
     <row r="18" spans="1:8">
+      <c r="A18" s="335">
+        <v>45617</v>
+      </c>
       <c r="B18" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="85">
+      <c r="C18" s="88"/>
+      <c r="E18" s="348">
         <v>-150</v>
       </c>
+      <c r="F18" s="348"/>
+      <c r="G18" s="348">
+        <v>-146</v>
+      </c>
       <c r="H18" s="85">
         <f t="shared" si="0"/>
-        <v>-149810.02000000002</v>
+        <v>14837.679999999993</v>
       </c>
     </row>
     <row r="19" spans="1:8">
+      <c r="A19" s="335">
+        <v>45614</v>
+      </c>
       <c r="B19" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="85">
+      <c r="C19" s="94"/>
+      <c r="E19" s="348">
         <v>-300</v>
       </c>
+      <c r="F19" s="348"/>
+      <c r="G19" s="348">
+        <v>-850</v>
+      </c>
       <c r="H19" s="85">
         <f t="shared" si="0"/>
-        <v>-149810.02000000002</v>
+        <v>13987.679999999993</v>
       </c>
     </row>
     <row r="20" spans="1:8">
+      <c r="A20" s="335">
+        <v>45614</v>
+      </c>
       <c r="B20" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="85">
+      <c r="C20" s="94"/>
+      <c r="E20" s="348">
         <v>-100</v>
       </c>
+      <c r="F20" s="348"/>
+      <c r="G20" s="348">
+        <v>-25</v>
+      </c>
       <c r="H20" s="85">
-        <f t="shared" ref="H20:H37" si="1">H19+F20+G20</f>
-        <v>-149810.02000000002</v>
+        <f t="shared" ref="H20:H36" si="1">H19+F20+G20</f>
+        <v>13962.679999999993</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="88"/>
       <c r="C21" s="88"/>
+      <c r="E21" s="348"/>
+      <c r="F21" s="348"/>
+      <c r="G21" s="348"/>
       <c r="H21" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>13962.679999999993</v>
       </c>
     </row>
     <row r="22" spans="1:8">
+      <c r="A22" s="335">
+        <v>45620</v>
+      </c>
+      <c r="B22" s="352" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E22" s="348"/>
+      <c r="F22" s="357">
+        <v>35800</v>
+      </c>
+      <c r="G22" s="348"/>
       <c r="H22" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>49762.679999999993</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="E23" s="85">
-        <v>7</v>
+      <c r="A23" s="335">
+        <v>45623</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E23" s="348">
+        <v>-10000</v>
+      </c>
+      <c r="F23" s="348"/>
+      <c r="G23" s="348">
+        <v>-40000</v>
       </c>
       <c r="H23" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>9762.679999999993</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -56792,12 +57081,14 @@
       <c r="C24" t="s">
         <v>1457</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="348">
         <v>-1380</v>
       </c>
+      <c r="F24" s="348"/>
+      <c r="G24" s="348"/>
       <c r="H24" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>9762.679999999993</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -56807,12 +57098,14 @@
       <c r="B25" s="88" t="s">
         <v>1459</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="348">
         <v>-1415</v>
       </c>
+      <c r="F25" s="348"/>
+      <c r="G25" s="348"/>
       <c r="H25" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>9762.679999999993</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -56822,88 +57115,120 @@
       <c r="B26" s="88" t="s">
         <v>1460</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="348">
         <v>-141.5</v>
       </c>
+      <c r="F26" s="348"/>
+      <c r="G26" s="348"/>
       <c r="H26" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>9762.679999999993</v>
       </c>
     </row>
     <row r="27" spans="1:8">
+      <c r="E27" s="348"/>
+      <c r="F27" s="348"/>
+      <c r="G27" s="348"/>
       <c r="H27" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>9762.679999999993</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>84</v>
+        <v>1523</v>
+      </c>
+      <c r="E28" s="348"/>
+      <c r="F28" s="348"/>
+      <c r="G28" s="348">
+        <v>-5000</v>
       </c>
       <c r="H28" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>4762.679999999993</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="348">
         <v>-6500</v>
+      </c>
+      <c r="F29" s="348"/>
+      <c r="G29" s="348">
+        <v>-6511</v>
       </c>
       <c r="H29" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>-1748.320000000007</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="85">
-        <v>-6500</v>
+        <v>1522</v>
+      </c>
+      <c r="E30" s="348"/>
+      <c r="F30" s="348"/>
+      <c r="G30" s="348">
+        <v>-5000</v>
       </c>
       <c r="H30" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>-6748.320000000007</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>217</v>
-      </c>
-      <c r="E31" s="85">
+        <v>172</v>
+      </c>
+      <c r="E31" s="348">
         <v>-6500</v>
+      </c>
+      <c r="F31" s="348"/>
+      <c r="G31" s="348">
+        <v>-6511</v>
       </c>
       <c r="H31" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>-13259.320000000007</v>
       </c>
     </row>
     <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="348">
+        <v>-6500</v>
+      </c>
+      <c r="F32" s="348"/>
+      <c r="G32" s="348">
+        <v>-6500</v>
+      </c>
       <c r="H32" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>-19759.320000000007</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="86">
-        <v>12984.15</v>
-      </c>
       <c r="H33" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>-19759.320000000007</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="97"/>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="86">
+        <v>12984.15</v>
+      </c>
+      <c r="F34" s="85">
+        <v>13006.38</v>
+      </c>
       <c r="H34" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>-6752.9400000000078</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -56916,171 +57241,158 @@
       </c>
       <c r="H35" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
+        <v>-6752.9400000000078</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="97"/>
-      <c r="B36" s="43" t="s">
-        <v>1496</v>
+      <c r="B36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="98">
+        <v>0.234011</v>
+      </c>
+      <c r="D36" s="85">
+        <v>250000</v>
       </c>
       <c r="H36" s="85">
         <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="98">
-        <v>0.234011</v>
-      </c>
-      <c r="D37" s="85">
-        <v>250000</v>
-      </c>
-      <c r="H37" s="85">
-        <f t="shared" si="1"/>
-        <v>-149810.02000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="85">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75">
-      <c r="B39" s="99"/>
+        <v>-6752.9400000000078</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75">
+      <c r="B38" s="99"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>222</v>
-      </c>
+      <c r="A41" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
+      <c r="A42" s="97"/>
+      <c r="C42" s="98"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="97"/>
-      <c r="C43" s="98"/>
+      <c r="A43" s="100">
+        <v>44929</v>
+      </c>
+      <c r="B43" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="78"/>
+      <c r="D43" s="85">
+        <f>SUM(D44:D49)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="85">
+        <f>SUM(E44:E49)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="100">
-        <v>44929</v>
-      </c>
-      <c r="B44" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="85">
-        <f>SUM(D45:D50)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="85">
-        <f>SUM(E45:E50)</f>
-        <v>0</v>
+      <c r="A44" s="97"/>
+      <c r="B44" s="94" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="97"/>
-      <c r="B45" s="94" t="s">
-        <v>225</v>
+      <c r="B45" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="B49" t="s">
-        <v>229</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C49" s="94"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="B50" t="s">
-        <v>230</v>
-      </c>
       <c r="C50" s="94"/>
     </row>
-    <row r="51" spans="1:5">
-      <c r="C51" s="94"/>
+    <row r="52" spans="1:5">
+      <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="B53" s="13"/>
+      <c r="B53" s="102"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="B54" s="102"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="78"/>
-      <c r="B55" s="77" t="s">
+      <c r="A54" s="78"/>
+      <c r="B54" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="E55" s="85">
-        <f>SUM(E56:E67)</f>
+      <c r="C54" s="78"/>
+      <c r="E54" s="85">
+        <f>SUM(E55:E66)</f>
         <v>-1797.26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="20">
+        <v>45373</v>
+      </c>
+      <c r="B56" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56">
+        <v>10176.39</v>
+      </c>
+      <c r="D56" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="E56" s="85">
+        <v>-1130.71</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="20">
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="B57" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C57">
-        <v>10176.39</v>
+        <v>5999</v>
       </c>
       <c r="D57" s="85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E57" s="85">
-        <v>-1130.71</v>
+        <v>-666.55</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="20">
-        <v>45375</v>
-      </c>
-      <c r="B58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C58">
-        <v>5999</v>
-      </c>
-      <c r="D58" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="85">
-        <v>-666.55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="20"/>
-    </row>
-    <row r="60" spans="1:5" ht="15">
-      <c r="D60" s="108" t="s">
+      <c r="A58" s="20"/>
+    </row>
+    <row r="59" spans="1:5" ht="15">
+      <c r="D59" s="108" t="s">
         <v>285</v>
       </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="97"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="94"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="97"/>
@@ -57089,7 +57401,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="97"/>
-      <c r="B63" s="94"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="94"/>
     </row>
     <row r="64" spans="1:5">
@@ -57100,97 +57412,102 @@
     <row r="65" spans="1:5">
       <c r="A65" s="97"/>
       <c r="B65" s="103"/>
-      <c r="C65" s="94"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="97"/>
       <c r="B66" s="103"/>
+      <c r="C66" s="94"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="97"/>
-      <c r="B67" s="103"/>
-      <c r="C67" s="94"/>
+      <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="97"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="94"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="97"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
+      <c r="A69" s="78"/>
+      <c r="B69" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="78"/>
+      <c r="E69" s="85">
+        <f>SUM(E70:E101)</f>
+        <v>-129000.63</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="78"/>
-      <c r="B70" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="78"/>
-      <c r="E70" s="85">
-        <f>SUM(E71:E102)</f>
-        <v>-129000.63</v>
-      </c>
+      <c r="A70" s="97"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="97"/>
-      <c r="B71" s="94"/>
+      <c r="A71" s="97">
+        <v>45560</v>
+      </c>
+      <c r="B71" s="94" t="s">
+        <v>250</v>
+      </c>
       <c r="C71" s="94"/>
+      <c r="E71" s="85">
+        <v>-118966.5</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="97">
-        <v>45560</v>
-      </c>
+      <c r="A72" s="97"/>
       <c r="B72" s="94" t="s">
         <v>250</v>
       </c>
       <c r="C72" s="94"/>
       <c r="E72" s="85">
-        <v>-118966.5</v>
+        <v>-277.72000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="97"/>
-      <c r="B73" s="94" t="s">
-        <v>250</v>
+      <c r="B73" s="3" t="s">
+        <v>1497</v>
       </c>
       <c r="C73" s="94"/>
       <c r="E73" s="85">
-        <v>-277.72000000000003</v>
+        <v>-1398.6</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="97"/>
       <c r="B74" s="3" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C74" s="94"/>
       <c r="E74" s="85">
-        <v>-1398.6</v>
+        <v>-1855</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="97"/>
-      <c r="B75" s="3" t="s">
-        <v>1498</v>
-      </c>
+      <c r="B75" s="3"/>
       <c r="C75" s="94"/>
-      <c r="E75" s="85">
-        <v>-1855</v>
-      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="97"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>1499</v>
+      </c>
       <c r="C76" s="94"/>
+      <c r="E76" s="85">
+        <v>-480</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="97"/>
       <c r="B77" s="3" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C77" s="94"/>
       <c r="E77" s="85">
-        <v>-480</v>
+        <v>-147.80000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -57198,97 +57515,97 @@
       <c r="B78" s="3" t="s">
         <v>1500</v>
       </c>
-      <c r="C78" s="94"/>
+      <c r="C78" s="94">
+        <v>17.59</v>
+      </c>
       <c r="E78" s="85">
-        <v>-147.80000000000001</v>
+        <v>-17.59</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="97"/>
       <c r="B79" s="3" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C79" s="94">
-        <v>17.59</v>
+        <v>330</v>
       </c>
       <c r="E79" s="85">
-        <v>-17.59</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="97"/>
       <c r="B80" s="3" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C80" s="94">
-        <v>330</v>
+        <v>-130</v>
       </c>
       <c r="E80" s="85">
-        <v>-330</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="97"/>
       <c r="B81" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C81" s="94">
-        <v>-130</v>
-      </c>
-      <c r="E81" s="85">
-        <v>-130</v>
+        <v>97</v>
+      </c>
+      <c r="C81" s="94"/>
+      <c r="D81" s="85">
+        <v>71389.3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="97"/>
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>1503</v>
       </c>
       <c r="C82" s="94"/>
-      <c r="D82" s="85">
-        <v>71389.3</v>
+      <c r="E82" s="85">
+        <v>-140</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="97"/>
       <c r="B83" s="3" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C83" s="94"/>
+        <v>1501</v>
+      </c>
+      <c r="C83" s="94">
+        <v>750</v>
+      </c>
       <c r="E83" s="85">
-        <v>-140</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="97"/>
       <c r="B84" s="3" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C84" s="94">
-        <v>750</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="C84" s="94"/>
       <c r="E84" s="85">
-        <v>-750</v>
+        <v>-253.55</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="97"/>
       <c r="B85" s="3" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="C85" s="94"/>
       <c r="E85" s="85">
-        <v>-253.55</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="97"/>
       <c r="B86" s="3" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C86" s="94"/>
       <c r="E86" s="85">
-        <v>-250</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -57298,17 +57615,17 @@
       </c>
       <c r="C87" s="94"/>
       <c r="E87" s="85">
-        <v>-400</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="97"/>
       <c r="B88" s="3" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="C88" s="94"/>
       <c r="E88" s="85">
-        <v>-100</v>
+        <v>-68.5</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -57316,261 +57633,366 @@
       <c r="B89" s="3" t="s">
         <v>1500</v>
       </c>
-      <c r="C89" s="94"/>
+      <c r="C89" s="94">
+        <v>43.13</v>
+      </c>
       <c r="E89" s="85">
-        <v>-68.5</v>
+        <v>-43.13</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="97"/>
       <c r="B90" s="3" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C90" s="94">
-        <v>43.13</v>
+        <v>235</v>
       </c>
       <c r="E90" s="85">
-        <v>-43.13</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="97"/>
       <c r="B91" s="3" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C91" s="94">
-        <v>235</v>
+        <v>375</v>
       </c>
       <c r="E91" s="85">
-        <v>-235</v>
+        <v>-375</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="97"/>
       <c r="B92" s="3" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C92" s="94">
-        <v>375</v>
+        <v>79.84</v>
       </c>
       <c r="E92" s="85">
-        <v>-375</v>
+        <v>-79.84</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="97"/>
       <c r="B93" s="3" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C93" s="94">
-        <v>79.84</v>
+        <v>235</v>
       </c>
       <c r="E93" s="85">
-        <v>-79.84</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="97"/>
       <c r="B94" s="3" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C94" s="94">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="E94" s="85">
-        <v>-235</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="97"/>
       <c r="B95" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C95" s="94">
-        <v>210</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="C95" s="94"/>
       <c r="E95" s="85">
-        <v>-210</v>
+        <v>-112.3</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="97"/>
       <c r="B96" s="3" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="C96" s="94"/>
       <c r="E96" s="85">
-        <v>-112.3</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="97"/>
       <c r="B97" s="3" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="C97" s="94"/>
       <c r="E97" s="85">
-        <v>-230</v>
+        <v>-187.2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="97"/>
       <c r="B98" s="3" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C98" s="94"/>
+        <v>1506</v>
+      </c>
+      <c r="C98" s="94">
+        <v>1062.9000000000001</v>
+      </c>
       <c r="E98" s="85">
-        <v>-187.2</v>
+        <v>-1062.9000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="97"/>
       <c r="B99" s="3" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C99" s="94">
-        <v>1062.9000000000001</v>
-      </c>
+        <v>1507</v>
+      </c>
+      <c r="C99" s="94"/>
       <c r="E99" s="85">
-        <v>-1062.9000000000001</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="97"/>
       <c r="B100" s="3" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C100" s="94"/>
       <c r="E100" s="85">
-        <v>-240</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="97"/>
       <c r="B101" s="3" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C101" s="94"/>
+        <v>1502</v>
+      </c>
+      <c r="C101">
+        <v>145</v>
+      </c>
       <c r="E101" s="85">
-        <v>-280</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="B102" s="3" t="s">
-        <v>1502</v>
-      </c>
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15">
       <c r="C102">
-        <v>145</v>
-      </c>
-      <c r="E102" s="85">
-        <v>-145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15">
-      <c r="C103">
-        <f>SUM(C78:C102)</f>
+        <f>SUM(C77:C101)</f>
         <v>3353.4599999999996</v>
       </c>
-      <c r="D103" s="108" t="s">
+      <c r="D102" s="108" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="78"/>
-      <c r="B110" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="C110" s="78"/>
-      <c r="E110" s="85">
-        <f>SUM(E111:E118)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="97"/>
-      <c r="B111" t="s">
-        <v>84</v>
+      <c r="A111" s="78"/>
+      <c r="B111" s="77" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C111" s="78"/>
+      <c r="E111" s="85">
+        <f>SUM(E112:E127)</f>
+        <v>418341.26276399998</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="97"/>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>84</v>
+      </c>
+      <c r="E112" s="85">
+        <v>-34000</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="97"/>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="97"/>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>1527</v>
+      </c>
+      <c r="E114" s="85">
+        <v>22079</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="97"/>
       <c r="B115" t="s">
-        <v>237</v>
-      </c>
-      <c r="D115" s="85">
-        <v>111</v>
-      </c>
-      <c r="E115" s="85">
-        <f>D115*C115</f>
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="97"/>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>1525</v>
+      </c>
+      <c r="C116">
+        <v>4000</v>
       </c>
       <c r="D116" s="85">
-        <v>850</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="E116" s="85">
         <f>D116*C116</f>
-        <v>0</v>
+        <v>129919.99999999999</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="97"/>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>60</v>
+      </c>
+      <c r="C117">
+        <v>62</v>
       </c>
       <c r="D117" s="85">
-        <v>100</v>
+        <v>823.93972199999996</v>
       </c>
       <c r="E117" s="85">
         <f>D117*C117</f>
-        <v>0</v>
+        <v>51084.262763999999</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="97"/>
       <c r="B118" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C118">
+        <v>125000</v>
+      </c>
+      <c r="D118" s="85">
+        <v>0.75446400000000002</v>
+      </c>
+      <c r="E118" s="85">
+        <f>D118*C118</f>
+        <v>94308</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="97"/>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" s="85">
+        <f t="shared" ref="E119:E126" si="2">D119*C119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="97"/>
+      <c r="B120" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="B119" t="s">
+      <c r="E120" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="97"/>
+      <c r="B121" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C121">
+        <v>16</v>
+      </c>
+      <c r="D121" s="85">
+        <v>5000</v>
+      </c>
+      <c r="E121" s="85">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="97"/>
+      <c r="B122" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" s="85">
+        <v>22000</v>
+      </c>
+      <c r="E122" s="85">
+        <f t="shared" si="2"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="97"/>
+      <c r="B123" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" s="85">
+        <v>2950</v>
+      </c>
+      <c r="E123" s="85">
+        <f t="shared" si="2"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="97"/>
+      <c r="B124" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124" s="85">
+        <v>5000</v>
+      </c>
+      <c r="E124" s="85">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="97"/>
+      <c r="E125" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" t="s">
         <v>241</v>
       </c>
-      <c r="E119" s="85">
-        <f>H2</f>
-        <v>-149810.02000000002</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="D121" s="85" t="s">
+      <c r="E126" s="85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="D128" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="E121" s="85">
-        <f>SUM(E111:E120)</f>
-        <v>-149810.02000000002</v>
+      <c r="E128" s="85">
+        <f>SUM(E112:E127)</f>
+        <v>418341.26276399998</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="3" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="3" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="3" t="s">
+        <v>1534</v>
       </c>
     </row>
   </sheetData>
@@ -57590,8 +58012,8 @@
   </sheetPr>
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -57631,15 +58053,15 @@
       </c>
       <c r="F2" s="85">
         <f>SUM(F4:F35)</f>
-        <v>28006.379999999997</v>
+        <v>64006.38</v>
       </c>
       <c r="G2" s="85">
         <f>SUM(G4:G35)</f>
-        <v>-123041.29000000001</v>
+        <v>-123041.59000000001</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-95034.91</v>
+        <v>-59035.210000000014</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -57820,12 +58242,20 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="88"/>
+      <c r="A14" s="335">
+        <v>45580</v>
+      </c>
+      <c r="B14" s="352" t="s">
+        <v>1518</v>
+      </c>
       <c r="C14" s="88"/>
       <c r="E14" s="86"/>
+      <c r="F14" s="85">
+        <v>30000</v>
+      </c>
       <c r="H14" s="85">
         <f t="shared" si="0"/>
-        <v>-85549.290000000008</v>
+        <v>-55549.290000000008</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -57846,7 +58276,7 @@
       </c>
       <c r="H15" s="85">
         <f t="shared" si="0"/>
-        <v>-85984.290000000008</v>
+        <v>-55984.290000000008</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -57867,7 +58297,7 @@
       </c>
       <c r="H16" s="85">
         <f t="shared" si="0"/>
-        <v>-86769.290000000008</v>
+        <v>-56769.290000000008</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -57885,7 +58315,7 @@
       </c>
       <c r="H17" s="85">
         <f t="shared" si="0"/>
-        <v>-86834.290000000008</v>
+        <v>-56834.290000000008</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -57903,7 +58333,7 @@
       <c r="G18" s="86"/>
       <c r="H18" s="85">
         <f t="shared" si="0"/>
-        <v>-86834.290000000008</v>
+        <v>-56834.290000000008</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -57926,7 +58356,7 @@
       </c>
       <c r="H19" s="85">
         <f t="shared" si="0"/>
-        <v>-86912.290000000008</v>
+        <v>-56912.290000000008</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -57949,7 +58379,7 @@
       </c>
       <c r="H20" s="85">
         <f t="shared" si="0"/>
-        <v>-86955.290000000008</v>
+        <v>-56955.290000000008</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -57961,7 +58391,7 @@
       <c r="G21" s="86"/>
       <c r="H21" s="85">
         <f t="shared" si="0"/>
-        <v>-86955.290000000008</v>
+        <v>-56955.290000000008</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -57974,7 +58404,7 @@
       <c r="G22" s="86"/>
       <c r="H22" s="85">
         <f t="shared" si="0"/>
-        <v>-86955.290000000008</v>
+        <v>-56955.290000000008</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -57999,7 +58429,7 @@
       </c>
       <c r="H23" s="85">
         <f t="shared" si="0"/>
-        <v>-88335.290000000008</v>
+        <v>-58335.290000000008</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -58015,11 +58445,11 @@
       </c>
       <c r="F24" s="86"/>
       <c r="G24" s="86">
-        <v>-206</v>
+        <v>-206.3</v>
       </c>
       <c r="H24" s="85">
         <f t="shared" si="0"/>
-        <v>-88541.290000000008</v>
+        <v>-58541.590000000011</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -58039,7 +58469,7 @@
       </c>
       <c r="H25" s="85">
         <f t="shared" si="0"/>
-        <v>-95041.290000000008</v>
+        <v>-65041.590000000011</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -58059,7 +58489,7 @@
       </c>
       <c r="H26" s="85">
         <f t="shared" ref="H26:H33" si="1">H25+F26+G26</f>
-        <v>-101541.29000000001</v>
+        <v>-71541.590000000011</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -58076,7 +58506,7 @@
       </c>
       <c r="H27" s="85">
         <f t="shared" si="1"/>
-        <v>-108041.29000000001</v>
+        <v>-78041.590000000011</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -58086,7 +58516,7 @@
       <c r="G28" s="86"/>
       <c r="H28" s="85">
         <f t="shared" si="1"/>
-        <v>-108041.29000000001</v>
+        <v>-78041.590000000011</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -58106,14 +58536,22 @@
       <c r="G29" s="86"/>
       <c r="H29" s="85">
         <f t="shared" si="1"/>
-        <v>-95034.91</v>
+        <v>-65035.210000000014</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="97"/>
+      <c r="A30" s="97">
+        <v>45590</v>
+      </c>
+      <c r="B30" s="351" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F30" s="85">
+        <v>6000</v>
+      </c>
       <c r="H30" s="85">
         <f t="shared" si="1"/>
-        <v>-95034.91</v>
+        <v>-59035.210000000014</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -58127,14 +58565,14 @@
       </c>
       <c r="H31" s="85">
         <f t="shared" si="1"/>
-        <v>-95034.91</v>
+        <v>-59035.210000000014</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="97"/>
       <c r="H32" s="85">
         <f t="shared" si="1"/>
-        <v>-95034.91</v>
+        <v>-59035.210000000014</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -58146,7 +58584,7 @@
       </c>
       <c r="H33" s="85">
         <f t="shared" si="1"/>
-        <v>-95034.91</v>
+        <v>-59035.210000000014</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -58833,7 +59271,7 @@
       </c>
       <c r="E120" s="85">
         <f>H2</f>
-        <v>-95034.91</v>
+        <v>-59035.210000000014</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -58842,7 +59280,7 @@
       </c>
       <c r="E122" s="85">
         <f>SUM(E112:E121)</f>
-        <v>-95034.91</v>
+        <v>-59035.210000000014</v>
       </c>
     </row>
   </sheetData>
@@ -58860,10 +59298,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -58894,24 +59332,24 @@
         <v>191</v>
       </c>
       <c r="D2" s="85">
-        <f>SUM(D4:D27)</f>
+        <f>SUM(D4:D28)</f>
         <v>36484.15</v>
       </c>
       <c r="E2" s="85">
-        <f>SUM(E4:E27)</f>
+        <f>SUM(E4:E28)</f>
         <v>-81364.900000000009</v>
       </c>
       <c r="F2" s="85">
-        <f>SUM(F4:F27)</f>
-        <v>62006.38</v>
+        <f>SUM(F4:F28)</f>
+        <v>98006.38</v>
       </c>
       <c r="G2" s="85">
-        <f>SUM(G4:G27)</f>
+        <f>SUM(G4:G28)</f>
         <v>-69863.539999999994</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-7857.1599999999962</v>
+        <v>28142.840000000011</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -58951,7 +59389,7 @@
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
       <c r="H5" s="85">
-        <f t="shared" ref="H5:H29" si="0">H4+F5+G5</f>
+        <f t="shared" ref="H5:H30" si="0">H4+F5+G5</f>
         <v>-162.11000000000001</v>
       </c>
     </row>
@@ -58964,7 +59402,7 @@
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="86">
-        <f>E60</f>
+        <f>E61</f>
         <v>-21576.400000000001</v>
       </c>
       <c r="F6" s="86"/>
@@ -58986,7 +59424,7 @@
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="86">
-        <f>E45</f>
+        <f>E46</f>
         <v>-8037.9</v>
       </c>
       <c r="F7" s="86"/>
@@ -59041,7 +59479,7 @@
         <v>212</v>
       </c>
       <c r="E10" s="85">
-        <f>E40*-1</f>
+        <f>E41*-1</f>
         <v>0</v>
       </c>
       <c r="F10" s="86"/>
@@ -59133,10 +59571,18 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="335"/>
+      <c r="A15" s="335">
+        <v>45550</v>
+      </c>
+      <c r="B15" s="351" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F15" s="85">
+        <v>30000</v>
+      </c>
       <c r="H15" s="85">
         <f t="shared" si="0"/>
-        <v>93.860000000000582</v>
+        <v>30093.86</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -59152,7 +59598,7 @@
       </c>
       <c r="H16" s="85">
         <f t="shared" si="0"/>
-        <v>-6406.1399999999994</v>
+        <v>23593.86</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -59168,7 +59614,7 @@
       </c>
       <c r="H17" s="85">
         <f t="shared" si="0"/>
-        <v>-12906.14</v>
+        <v>17093.86</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -59184,7 +59630,7 @@
       </c>
       <c r="H18" s="85">
         <f t="shared" si="0"/>
-        <v>-19406.14</v>
+        <v>10593.86</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -59200,7 +59646,7 @@
       </c>
       <c r="H19" s="85">
         <f t="shared" si="0"/>
-        <v>-6399.76</v>
+        <v>23600.239999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -59218,7 +59664,7 @@
       </c>
       <c r="H20" s="85">
         <f t="shared" si="0"/>
-        <v>-6854.76</v>
+        <v>23145.239999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -59238,7 +59684,7 @@
       </c>
       <c r="H21" s="85">
         <f t="shared" si="0"/>
-        <v>-7659.76</v>
+        <v>22340.239999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -59259,377 +59705,388 @@
       </c>
       <c r="H22" s="85">
         <f t="shared" si="0"/>
-        <v>-7659.76</v>
+        <v>22340.239999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="335">
+        <v>45564</v>
+      </c>
+      <c r="B23" s="351" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D23" s="86"/>
+      <c r="F23" s="85">
+        <v>6000</v>
+      </c>
+      <c r="H23" s="85">
+        <f t="shared" si="0"/>
+        <v>28340.239999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="335">
         <v>45565</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>1466</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G24" s="86">
         <v>-197.4</v>
       </c>
-      <c r="H23" s="85">
-        <f t="shared" si="0"/>
-        <v>-7857.16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" s="105" t="s">
+      <c r="H24" s="85">
+        <f t="shared" si="0"/>
+        <v>28142.839999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106">
+      <c r="C25" s="105"/>
+      <c r="D25" s="106">
         <v>8500</v>
       </c>
-      <c r="H24" s="85">
-        <f t="shared" si="0"/>
-        <v>-7857.16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="335">
+      <c r="H25" s="85">
+        <f t="shared" si="0"/>
+        <v>28142.839999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="335">
         <v>45574</v>
       </c>
-      <c r="B25" s="339" t="s">
+      <c r="B26" s="339" t="s">
         <v>255</v>
       </c>
-      <c r="C25" s="339"/>
-      <c r="D25" s="343">
+      <c r="C26" s="339"/>
+      <c r="D26" s="343">
         <v>15000</v>
       </c>
-      <c r="H25" s="85">
-        <f t="shared" si="0"/>
-        <v>-7857.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="339" t="s">
+      <c r="H26" s="85">
+        <f t="shared" si="0"/>
+        <v>28142.839999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="339" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="339"/>
-      <c r="D26" s="340"/>
-      <c r="E26" s="340">
+      <c r="C27" s="339"/>
+      <c r="D27" s="340"/>
+      <c r="E27" s="340">
         <v>-10000</v>
       </c>
-      <c r="H26" s="85">
-        <f t="shared" si="0"/>
-        <v>-7857.16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="88" t="s">
+      <c r="H27" s="85">
+        <f t="shared" si="0"/>
+        <v>28142.839999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C28" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E28" s="85">
         <v>-150</v>
       </c>
-      <c r="H27" s="85">
-        <f t="shared" si="0"/>
-        <v>-7857.16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="335">
+      <c r="H28" s="85">
+        <f t="shared" si="0"/>
+        <v>28142.839999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="335">
         <v>45574</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B29" s="103" t="s">
         <v>1462</v>
       </c>
-      <c r="G28" s="86">
+      <c r="G29" s="86">
         <v>-10000</v>
       </c>
-      <c r="H28" s="85">
-        <f t="shared" si="0"/>
-        <v>-17857.16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" t="s">
+      <c r="H29" s="85">
+        <f t="shared" si="0"/>
+        <v>18142.839999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C30" s="98">
         <v>0.234011</v>
       </c>
-      <c r="D29" s="85">
+      <c r="D30" s="85">
         <v>144000</v>
       </c>
-      <c r="H29" s="85">
-        <f t="shared" si="0"/>
-        <v>-17857.16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="C30" s="98"/>
+      <c r="H30" s="85">
+        <f t="shared" si="0"/>
+        <v>18142.839999999997</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" t="s">
+      <c r="C31" s="98"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="78" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="97"/>
-      <c r="C33" s="98"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="100">
+      <c r="A34" s="97"/>
+      <c r="C34" s="98"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="100">
         <v>44929</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B35" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="85">
-        <f>SUM(D35:D40)</f>
+      <c r="C35" s="78"/>
+      <c r="D35" s="85">
+        <f>SUM(D36:D41)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="85">
-        <f>SUM(E35:E40)</f>
+      <c r="E35" s="85">
+        <f>SUM(E36:E41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="97"/>
-      <c r="B35" s="94" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="97"/>
+      <c r="B36" s="94" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="94"/>
-    </row>
-    <row r="41" spans="1:5">
       <c r="C41" s="94"/>
     </row>
-    <row r="43" spans="1:5">
-      <c r="B43" s="13"/>
+    <row r="42" spans="1:5">
+      <c r="C42" s="94"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="B44" s="102"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="78"/>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="102"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="78"/>
+      <c r="B46" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="E45" s="85">
-        <f>SUM(E46:E57)</f>
+      <c r="C46" s="78"/>
+      <c r="E46" s="85">
+        <f>SUM(E47:E58)</f>
         <v>-8037.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="20">
-        <v>45348</v>
-      </c>
-      <c r="B47" t="s">
-        <v>257</v>
-      </c>
-      <c r="C47">
-        <v>1406</v>
-      </c>
-      <c r="D47" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="E47" s="85">
-        <v>-234.35</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="20">
-        <v>45373</v>
+        <v>45348</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C48">
-        <v>10176.39</v>
+        <v>1406</v>
       </c>
       <c r="D48" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E48" s="85">
-        <v>-1130.71</v>
+        <v>-234.35</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="20">
-        <v>45375</v>
+        <v>45373</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C49">
-        <v>5999</v>
+        <v>10176.39</v>
       </c>
       <c r="D49" s="85" t="s">
         <v>259</v>
       </c>
       <c r="E49" s="85">
-        <v>-666.56</v>
+        <v>-1130.71</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="20">
-        <v>45358</v>
+        <v>45375</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C50">
-        <v>2273</v>
+        <v>5999</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E50" s="85">
-        <v>-378.87</v>
+        <v>-666.56</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="20">
-        <v>45371</v>
+        <v>45358</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="C51">
+        <v>2273</v>
       </c>
       <c r="D51" s="85" t="s">
         <v>258</v>
       </c>
       <c r="E51" s="85">
+        <v>-378.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="20">
+        <v>45371</v>
+      </c>
+      <c r="B52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" s="85">
         <v>101.79</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="97">
+    <row r="53" spans="1:5">
+      <c r="A53" s="97">
         <v>45456</v>
       </c>
-      <c r="B52" s="103" t="s">
+      <c r="B53" s="103" t="s">
         <v>262</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="85" t="s">
+      <c r="C53" s="94"/>
+      <c r="D53" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="E52" s="85">
+      <c r="E53" s="85">
         <v>-3923.34</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="97"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="97"/>
-      <c r="B54" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="C54" s="94">
-        <v>8154.2</v>
-      </c>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="97"/>
       <c r="B55" s="103" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="94">
+        <v>8154.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="97"/>
+      <c r="B56" s="103" t="s">
         <v>847</v>
       </c>
-      <c r="C55" s="94"/>
-      <c r="E55" s="85">
+      <c r="C56" s="94"/>
+      <c r="E56" s="85">
         <v>-1805.86</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="97"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="108" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="15">
       <c r="A57" s="97"/>
       <c r="B57" s="103"/>
-      <c r="C57" s="94"/>
+      <c r="C57" s="108" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="97"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="94"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="97"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="78"/>
-      <c r="B60" s="77" t="s">
+      <c r="A60" s="97"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="94"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="78"/>
+      <c r="B61" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="E60" s="85">
-        <f>SUM(E61:E69)</f>
+      <c r="C61" s="78"/>
+      <c r="E61" s="85">
+        <f>SUM(E62:E70)</f>
         <v>-21576.400000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="97"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="94"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="97"/>
       <c r="B62" s="94"/>
       <c r="C62" s="94"/>
-      <c r="E62" s="85">
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="97"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="94"/>
+      <c r="E63" s="85">
         <v>-21576.400000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15">
-      <c r="A63" s="97"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="108" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="97"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="94"/>
+      <c r="C64" s="108" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="97"/>
@@ -59766,42 +60223,33 @@
       <c r="B91" s="3"/>
       <c r="C91" s="94"/>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="76" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="97"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="94"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="76" t="s">
         <v>1438</v>
       </c>
-      <c r="B100" s="77" t="s">
+      <c r="B101" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C100" s="78">
+      <c r="C101" s="78">
         <v>2024</v>
       </c>
-      <c r="D100" s="79"/>
-      <c r="E100" s="80">
-        <f>SUM(E101:E120)</f>
+      <c r="D101" s="79"/>
+      <c r="E101" s="80">
+        <f>SUM(E102:E121)</f>
         <v>412438.42000000004</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="81">
-        <v>45534</v>
-      </c>
-      <c r="B101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="81">
-        <f t="shared" ref="A102:A120" si="1">A101</f>
         <v>45534</v>
       </c>
       <c r="B102" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -59811,34 +60259,30 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="81">
+        <f t="shared" ref="A103:A121" si="1">A102</f>
+        <v>45534</v>
+      </c>
+      <c r="B103" t="s">
+        <v>309</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="81">
         <f t="shared" si="1"/>
         <v>45534</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>1439</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="13">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="13">
         <v>5105.2299999999996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="81">
-        <f>A102</f>
-        <v>45534</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C104" s="2">
-        <v>288</v>
-      </c>
-      <c r="D104" s="111">
-        <v>732.60648300000003</v>
-      </c>
-      <c r="E104" s="13">
-        <v>211121.2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -59847,16 +60291,16 @@
         <v>45534</v>
       </c>
       <c r="B105" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C105" s="112">
-        <v>125000</v>
+        <v>1445</v>
+      </c>
+      <c r="C105" s="2">
+        <v>288</v>
       </c>
       <c r="D105" s="111">
-        <v>0.77971599999999996</v>
+        <v>732.60648300000003</v>
       </c>
       <c r="E105" s="13">
-        <v>99989.38</v>
+        <v>211121.2</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -59865,36 +60309,35 @@
         <v>45534</v>
       </c>
       <c r="B106" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C106" s="2">
-        <v>10</v>
-      </c>
-      <c r="D106" s="2">
-        <v>103.7</v>
+        <v>1446</v>
+      </c>
+      <c r="C106" s="112">
+        <v>125000</v>
+      </c>
+      <c r="D106" s="111">
+        <v>0.77971599999999996</v>
       </c>
       <c r="E106" s="13">
-        <f t="shared" ref="E106:E118" si="2">D106*C106</f>
-        <v>1037</v>
+        <v>99989.38</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="81">
-        <f t="shared" si="1"/>
+        <f>A105</f>
         <v>45534</v>
       </c>
       <c r="B107" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C107" s="2">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D107" s="2">
-        <v>21.42</v>
+        <v>103.7</v>
       </c>
       <c r="E107" s="13">
-        <f t="shared" si="2"/>
-        <v>813.96</v>
+        <f t="shared" ref="E107:E119" si="2">D107*C107</f>
+        <v>1037</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -59903,17 +60346,17 @@
         <v>45534</v>
       </c>
       <c r="B108" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C108" s="2">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D108" s="2">
-        <v>25.92</v>
+        <v>21.42</v>
       </c>
       <c r="E108" s="13">
         <f t="shared" si="2"/>
-        <v>673.92000000000007</v>
+        <v>813.96</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -59922,13 +60365,17 @@
         <v>45534</v>
       </c>
       <c r="B109" t="s">
-        <v>183</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+        <v>1449</v>
+      </c>
+      <c r="C109" s="2">
+        <v>26</v>
+      </c>
+      <c r="D109" s="2">
+        <v>25.92</v>
+      </c>
       <c r="E109" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>673.92000000000007</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -59937,15 +60384,12 @@
         <v>45534</v>
       </c>
       <c r="B110" t="s">
-        <v>315</v>
-      </c>
-      <c r="C110" s="2">
-        <v>28.5</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -59954,10 +60398,16 @@
         <f t="shared" si="1"/>
         <v>45534</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="B111" t="s">
+        <v>315</v>
+      </c>
+      <c r="C111" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
       <c r="E111" s="13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -59978,18 +60428,11 @@
         <f t="shared" si="1"/>
         <v>45534</v>
       </c>
-      <c r="B113" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C113" s="2">
-        <v>2697.73</v>
-      </c>
-      <c r="D113" s="2">
-        <v>1</v>
-      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
       <c r="E113" s="13">
-        <f>D113*C113</f>
-        <v>2697.73</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -59998,17 +60441,17 @@
         <v>45534</v>
       </c>
       <c r="B114" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="C114" s="2">
-        <v>4500</v>
+        <v>2697.73</v>
       </c>
       <c r="D114" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E114" s="13">
         <f>D114*C114</f>
-        <v>72000</v>
+        <v>2697.73</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -60017,17 +60460,17 @@
         <v>45534</v>
       </c>
       <c r="B115" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C115" s="2">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="D115" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E115" s="13">
         <f>D115*C115</f>
-        <v>18000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -60035,44 +60478,44 @@
         <f t="shared" si="1"/>
         <v>45534</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="13"/>
+      <c r="B116" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C116" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+      <c r="E116" s="13">
+        <f>D116*C116</f>
+        <v>18000</v>
+      </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="81">
-        <f>A113</f>
+        <f t="shared" si="1"/>
         <v>45534</v>
       </c>
-      <c r="B117" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C117" s="336">
-        <v>33.250599999999999</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0</v>
-      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
       <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="81">
-        <f t="shared" si="1"/>
+        <f>A114</f>
         <v>45534</v>
       </c>
       <c r="B118" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C118" s="336">
-        <v>36.854999999999997</v>
+        <v>33.250599999999999</v>
       </c>
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="81">
@@ -60080,11 +60523,16 @@
         <v>45534</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+        <v>1441</v>
+      </c>
+      <c r="C119" s="336">
+        <v>36.854999999999997</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
       <c r="E119" s="13">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -60094,43 +60542,57 @@
         <v>45534</v>
       </c>
       <c r="B120" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="81">
+        <f t="shared" si="1"/>
+        <v>45534</v>
+      </c>
+      <c r="B121" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="E121" s="113"/>
-    </row>
     <row r="122" spans="1:5">
-      <c r="C122" s="110"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="110"/>
+      <c r="E122" s="113"/>
     </row>
     <row r="123" spans="1:5">
       <c r="C123" s="110"/>
-      <c r="D123" s="70" t="s">
+      <c r="D123" s="3"/>
+      <c r="E123" s="110"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="C124" s="110"/>
+      <c r="D124" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="E123" s="8">
-        <f>SUM(E101:E120)</f>
+      <c r="E124" s="8">
+        <f>SUM(E102:E121)</f>
         <v>412438.42000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="C124" s="114" t="str">
-        <f>A100</f>
+    <row r="125" spans="1:5">
+      <c r="C125" s="114" t="str">
+        <f>A101</f>
         <v>EYLÜLe</v>
       </c>
-      <c r="D124" s="115" t="s">
+      <c r="D125" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="E124" s="116">
+      <c r="E125" s="116">
         <f>H2</f>
-        <v>-7857.1599999999962</v>
+        <v>28142.840000000011</v>
       </c>
     </row>
   </sheetData>
@@ -60150,8 +60612,8 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -60191,7 +60653,7 @@
       </c>
       <c r="F2" s="85">
         <f>SUM(F4:F46)</f>
-        <v>28006.379999999997</v>
+        <v>63606.38</v>
       </c>
       <c r="G2" s="85">
         <f>SUM(G4:G46)</f>
@@ -60199,7 +60661,7 @@
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>-60375.49</v>
+        <v>-24775.489999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -60389,16 +60851,22 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="97"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="97">
+        <v>45519</v>
+      </c>
+      <c r="B13" s="352" t="s">
+        <v>1514</v>
+      </c>
       <c r="C13" s="88"/>
       <c r="D13" s="86"/>
       <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="F13" s="86">
+        <v>30000</v>
+      </c>
       <c r="G13" s="86"/>
       <c r="H13" s="86">
         <f t="shared" si="0"/>
-        <v>-44383.49</v>
+        <v>-14383.489999999998</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -60417,7 +60885,7 @@
       </c>
       <c r="H14" s="86">
         <f t="shared" si="0"/>
-        <v>-44478.49</v>
+        <v>-14478.489999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -60440,7 +60908,7 @@
       </c>
       <c r="H15" s="86">
         <f t="shared" si="0"/>
-        <v>-44534.49</v>
+        <v>-14534.489999999998</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -60463,7 +60931,7 @@
       </c>
       <c r="H16" s="86">
         <f t="shared" si="0"/>
-        <v>-44562.49</v>
+        <v>-14562.489999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -60484,7 +60952,7 @@
       </c>
       <c r="H17" s="86">
         <f t="shared" si="0"/>
-        <v>-45062.49</v>
+        <v>-15062.489999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -60505,7 +60973,7 @@
       </c>
       <c r="H18" s="86">
         <f t="shared" si="0"/>
-        <v>-45927.49</v>
+        <v>-15927.489999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -60518,7 +60986,7 @@
       <c r="G19" s="86"/>
       <c r="H19" s="86">
         <f t="shared" si="0"/>
-        <v>-45927.49</v>
+        <v>-15927.489999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -60535,7 +61003,7 @@
       </c>
       <c r="H20" s="86">
         <f t="shared" si="0"/>
-        <v>-52427.49</v>
+        <v>-22427.489999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -60552,7 +61020,7 @@
       </c>
       <c r="H21" s="86">
         <f t="shared" si="0"/>
-        <v>-58927.49</v>
+        <v>-28927.489999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -60569,13 +61037,13 @@
       </c>
       <c r="H22" s="86">
         <f t="shared" si="0"/>
-        <v>-65427.49</v>
+        <v>-35427.49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="H23" s="86">
         <f t="shared" si="0"/>
-        <v>-65427.49</v>
+        <v>-35427.49</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -60591,20 +61059,20 @@
       </c>
       <c r="H24" s="86">
         <f t="shared" si="0"/>
-        <v>-52421.11</v>
+        <v>-22421.11</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="97"/>
       <c r="H25" s="86">
         <f t="shared" si="0"/>
-        <v>-52421.11</v>
+        <v>-22421.11</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="H26" s="86">
         <f t="shared" si="0"/>
-        <v>-52421.11</v>
+        <v>-22421.11</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -60628,7 +61096,7 @@
       </c>
       <c r="H27" s="86">
         <f t="shared" si="0"/>
-        <v>-53171.11</v>
+        <v>-23171.11</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -60652,7 +61120,7 @@
       </c>
       <c r="H28" s="86">
         <f t="shared" si="0"/>
-        <v>-55308.61</v>
+        <v>-25308.61</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -60676,7 +61144,7 @@
       </c>
       <c r="H29" s="86">
         <f t="shared" si="0"/>
-        <v>-56233.61</v>
+        <v>-26233.61</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -60700,7 +61168,7 @@
       </c>
       <c r="H30" s="86">
         <f t="shared" si="0"/>
-        <v>-56858.61</v>
+        <v>-26858.61</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -60724,7 +61192,7 @@
       </c>
       <c r="H31" s="86">
         <f t="shared" si="0"/>
-        <v>-57933.61</v>
+        <v>-27933.61</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -60748,7 +61216,7 @@
       </c>
       <c r="H32" s="86">
         <f t="shared" si="0"/>
-        <v>-59758.61</v>
+        <v>-29758.61</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -60759,7 +61227,7 @@
       <c r="G33" s="86"/>
       <c r="H33" s="86">
         <f t="shared" si="0"/>
-        <v>-59758.61</v>
+        <v>-29758.61</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -60784,7 +61252,7 @@
       </c>
       <c r="H34" s="86">
         <f t="shared" si="0"/>
-        <v>-59894.69</v>
+        <v>-29894.690000000002</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -60809,7 +61277,7 @@
       </c>
       <c r="H35" s="86">
         <f t="shared" si="0"/>
-        <v>-60153.3</v>
+        <v>-30153.300000000003</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -60834,7 +61302,7 @@
       </c>
       <c r="H36" s="86">
         <f t="shared" si="0"/>
-        <v>-60272.37</v>
+        <v>-30272.370000000003</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -60859,27 +61327,36 @@
       </c>
       <c r="H37" s="86">
         <f t="shared" si="0"/>
-        <v>-60375.490000000005</v>
+        <v>-30375.49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="C38" s="98"/>
       <c r="H38" s="86">
         <f t="shared" si="0"/>
-        <v>-60375.490000000005</v>
+        <v>-30375.49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
+      <c r="A39" s="335">
+        <v>45535</v>
+      </c>
+      <c r="B39" s="352" t="s">
+        <v>1515</v>
+      </c>
       <c r="C39" s="98"/>
+      <c r="F39" s="85">
+        <v>5600</v>
+      </c>
       <c r="H39" s="86">
         <f t="shared" si="0"/>
-        <v>-60375.490000000005</v>
+        <v>-24775.49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="H40" s="86">
         <f t="shared" si="0"/>
-        <v>-60375.490000000005</v>
+        <v>-24775.49</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -60892,7 +61369,7 @@
       </c>
       <c r="H41" s="86">
         <f t="shared" si="0"/>
-        <v>-60375.490000000005</v>
+        <v>-24775.49</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -60905,7 +61382,7 @@
       </c>
       <c r="H42" s="86">
         <f t="shared" si="0"/>
-        <v>-60375.490000000005</v>
+        <v>-24775.49</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -60919,7 +61396,7 @@
       </c>
       <c r="H43" s="86">
         <f t="shared" si="0"/>
-        <v>-60375.490000000005</v>
+        <v>-24775.49</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -60934,7 +61411,7 @@
       </c>
       <c r="H44" s="86">
         <f t="shared" si="0"/>
-        <v>-60375.490000000005</v>
+        <v>-24775.49</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -60949,13 +61426,13 @@
       </c>
       <c r="H45" s="86">
         <f t="shared" si="0"/>
-        <v>-60375.490000000005</v>
+        <v>-24775.49</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="H46" s="86">
         <f t="shared" si="0"/>
-        <v>-60375.490000000005</v>
+        <v>-24775.49</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -62061,7 +62538,7 @@
       </c>
       <c r="E149" s="116">
         <f>H2</f>
-        <v>-60375.49</v>
+        <v>-24775.489999999998</v>
       </c>
     </row>
   </sheetData>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD34FAFC-A6B1-4170-9F3D-55C9DE51E2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2889FF9-3E6E-4776-9EC5-73AD37126E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="851" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -59,17 +59,8 @@
     <sheet name="22_1" sheetId="44" r:id="rId44"/>
     <sheet name="PROCESS" sheetId="45" r:id="rId45"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -5972,7 +5963,7 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6461,18 +6452,16 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="178" fontId="24" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="15" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="15" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="19" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -7637,45 +7626,45 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="353">
+      <c r="A57" s="350">
         <v>45536</v>
       </c>
-      <c r="B57" s="355" t="s">
+      <c r="B57" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="355" t="s">
+      <c r="C57" s="352" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="356"/>
-      <c r="E57" s="356">
+      <c r="D57" s="353"/>
+      <c r="E57" s="353">
         <v>5600</v>
       </c>
-      <c r="F57" s="356">
+      <c r="F57" s="353">
         <f t="shared" si="0"/>
         <v>401500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="353">
+      <c r="A58" s="350">
         <v>45550</v>
       </c>
-      <c r="B58" s="355" t="s">
+      <c r="B58" s="352" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="355" t="s">
+      <c r="C58" s="352" t="s">
         <v>102</v>
       </c>
-      <c r="D58" s="356"/>
-      <c r="E58" s="356">
+      <c r="D58" s="353"/>
+      <c r="E58" s="353">
         <v>30000</v>
       </c>
-      <c r="F58" s="356">
+      <c r="F58" s="353">
         <f t="shared" si="0"/>
         <v>371500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="353">
+      <c r="A59" s="350">
         <v>45565</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -7694,26 +7683,26 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="353">
+      <c r="A60" s="350">
         <v>45580</v>
       </c>
-      <c r="B60" s="355" t="s">
+      <c r="B60" s="352" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="355" t="s">
+      <c r="C60" s="352" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="356"/>
-      <c r="E60" s="356">
+      <c r="D60" s="353"/>
+      <c r="E60" s="353">
         <v>30000</v>
       </c>
-      <c r="F60" s="356">
+      <c r="F60" s="353">
         <f t="shared" si="0"/>
         <v>335500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="353">
+      <c r="A61" s="350">
         <v>45595</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -7732,7 +7721,7 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="354">
+      <c r="A62" s="351">
         <v>45611</v>
       </c>
       <c r="B62" t="s">
@@ -39013,7 +39002,7 @@
   </sheetPr>
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -39054,10 +39043,10 @@
       <c r="K1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="349" t="s">
+      <c r="L1" s="354" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="349"/>
+      <c r="M1" s="354"/>
       <c r="N1" t="s">
         <v>119</v>
       </c>
@@ -39626,11 +39615,11 @@
       </c>
       <c r="C14" s="34">
         <f>'12_24'!E2</f>
-        <v>-69319.02</v>
+        <v>-69167.02</v>
       </c>
       <c r="D14" s="35">
         <f t="shared" si="0"/>
-        <v>29025.736306999977</v>
+        <v>29177.736306999977</v>
       </c>
       <c r="E14" s="34">
         <f>'12_24'!F2</f>
@@ -39675,11 +39664,11 @@
       </c>
       <c r="C15" s="35">
         <f>SUM(C3:C14)</f>
-        <v>-1058959.6136930001</v>
+        <v>-1058807.6136930001</v>
       </c>
       <c r="D15" s="35">
         <f>B15+C15</f>
-        <v>29025.736307000043</v>
+        <v>29177.736307000043</v>
       </c>
       <c r="E15" s="35">
         <f>SUM(E3:E14)</f>
@@ -39722,7 +39711,7 @@
       </c>
       <c r="C16" s="57">
         <f>C15/A16</f>
-        <v>-88246.634474416671</v>
+        <v>-88233.967807749999</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57">
@@ -39769,11 +39758,11 @@
       <c r="K17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="350">
+      <c r="L17" s="355">
         <f>L15+M15</f>
         <v>754.84652400000004</v>
       </c>
-      <c r="M17" s="350"/>
+      <c r="M17" s="355"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="66" t="s">
@@ -51083,8 +51072,8 @@
   </sheetPr>
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -51124,7 +51113,7 @@
       </c>
       <c r="E2" s="85">
         <f>SUM(E4:E44)</f>
-        <v>-69319.02</v>
+        <v>-69167.02</v>
       </c>
       <c r="F2" s="85">
         <f>SUM(F4:F39)</f>
@@ -51145,9 +51134,6 @@
     <row r="4" spans="1:15">
       <c r="B4" s="43" t="s">
         <v>192</v>
-      </c>
-      <c r="E4" s="85">
-        <v>-152</v>
       </c>
       <c r="H4" s="85">
         <f>H3+F4+G4</f>
@@ -56690,7 +56676,7 @@
   </sheetPr>
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
@@ -56824,12 +56810,12 @@
       <c r="B9" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="348">
+      <c r="E9" s="86">
         <f>E54</f>
         <v>-1797.26</v>
       </c>
-      <c r="F9" s="348"/>
-      <c r="G9" s="348">
+      <c r="F9" s="86"/>
+      <c r="G9" s="86">
         <v>-1797.26</v>
       </c>
       <c r="H9" s="86">
@@ -56862,7 +56848,7 @@
       <c r="E11" s="86">
         <v>-17500</v>
       </c>
-      <c r="G11" s="348">
+      <c r="G11" s="86">
         <v>-17500</v>
       </c>
       <c r="H11" s="85">
@@ -56874,15 +56860,15 @@
       <c r="A12" s="335">
         <v>45605</v>
       </c>
-      <c r="B12" s="351" t="s">
+      <c r="B12" s="348" t="s">
         <v>251</v>
       </c>
       <c r="C12" s="88"/>
-      <c r="E12" s="348"/>
-      <c r="F12" s="348">
+      <c r="E12" s="86"/>
+      <c r="F12" s="86">
         <v>15000</v>
       </c>
-      <c r="G12" s="348"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="85">
         <f t="shared" si="0"/>
         <v>-134810.02000000002</v>
@@ -56896,9 +56882,9 @@
         <v>1496</v>
       </c>
       <c r="C13" s="88"/>
-      <c r="E13" s="348"/>
-      <c r="F13" s="348"/>
-      <c r="G13" s="348">
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86">
         <v>-206.3</v>
       </c>
       <c r="H13" s="85">
@@ -56911,11 +56897,11 @@
         <v>194</v>
       </c>
       <c r="C14" s="88"/>
-      <c r="E14" s="348">
+      <c r="E14" s="86">
         <v>-400</v>
       </c>
-      <c r="F14" s="348"/>
-      <c r="G14" s="348"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="85">
         <f t="shared" si="0"/>
         <v>-135016.32000000001</v>
@@ -56926,11 +56912,11 @@
         <v>195</v>
       </c>
       <c r="C15" s="88"/>
-      <c r="E15" s="348">
+      <c r="E15" s="86">
         <v>-500</v>
       </c>
-      <c r="F15" s="348"/>
-      <c r="G15" s="348"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="85">
         <f t="shared" si="0"/>
         <v>-135016.32000000001</v>
@@ -56943,11 +56929,11 @@
       <c r="B16" s="88" t="s">
         <v>1524</v>
       </c>
-      <c r="E16" s="348"/>
-      <c r="F16" s="348">
+      <c r="E16" s="86"/>
+      <c r="F16" s="86">
         <v>150000</v>
       </c>
-      <c r="G16" s="348"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="85">
         <f t="shared" si="0"/>
         <v>14983.679999999993</v>
@@ -56956,9 +56942,9 @@
     <row r="17" spans="1:8">
       <c r="B17" s="88"/>
       <c r="C17" s="88"/>
-      <c r="E17" s="348"/>
-      <c r="F17" s="348"/>
-      <c r="G17" s="348"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="85">
         <f t="shared" si="0"/>
         <v>14983.679999999993</v>
@@ -56972,11 +56958,11 @@
         <v>208</v>
       </c>
       <c r="C18" s="88"/>
-      <c r="E18" s="348">
+      <c r="E18" s="86">
         <v>-150</v>
       </c>
-      <c r="F18" s="348"/>
-      <c r="G18" s="348">
+      <c r="F18" s="86"/>
+      <c r="G18" s="86">
         <v>-146</v>
       </c>
       <c r="H18" s="85">
@@ -56992,11 +56978,11 @@
         <v>210</v>
       </c>
       <c r="C19" s="94"/>
-      <c r="E19" s="348">
+      <c r="E19" s="86">
         <v>-300</v>
       </c>
-      <c r="F19" s="348"/>
-      <c r="G19" s="348">
+      <c r="F19" s="86"/>
+      <c r="G19" s="86">
         <v>-850</v>
       </c>
       <c r="H19" s="85">
@@ -57012,11 +56998,11 @@
         <v>211</v>
       </c>
       <c r="C20" s="94"/>
-      <c r="E20" s="348">
+      <c r="E20" s="86">
         <v>-100</v>
       </c>
-      <c r="F20" s="348"/>
-      <c r="G20" s="348">
+      <c r="F20" s="86"/>
+      <c r="G20" s="86">
         <v>-25</v>
       </c>
       <c r="H20" s="85">
@@ -57027,9 +57013,9 @@
     <row r="21" spans="1:8">
       <c r="B21" s="88"/>
       <c r="C21" s="88"/>
-      <c r="E21" s="348"/>
-      <c r="F21" s="348"/>
-      <c r="G21" s="348"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="85">
         <f t="shared" si="1"/>
         <v>13962.679999999993</v>
@@ -57039,14 +57025,14 @@
       <c r="A22" s="335">
         <v>45620</v>
       </c>
-      <c r="B22" s="352" t="s">
+      <c r="B22" s="349" t="s">
         <v>1520</v>
       </c>
-      <c r="E22" s="348"/>
-      <c r="F22" s="357">
+      <c r="E22" s="86"/>
+      <c r="F22" s="341">
         <v>35800</v>
       </c>
-      <c r="G22" s="348"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="85">
         <f t="shared" si="1"/>
         <v>49762.679999999993</v>
@@ -57059,11 +57045,11 @@
       <c r="B23" t="s">
         <v>1513</v>
       </c>
-      <c r="E23" s="348">
+      <c r="E23" s="86">
         <v>-10000</v>
       </c>
-      <c r="F23" s="348"/>
-      <c r="G23" s="348">
+      <c r="F23" s="86"/>
+      <c r="G23" s="86">
         <v>-40000</v>
       </c>
       <c r="H23" s="85">
@@ -57081,11 +57067,11 @@
       <c r="C24" t="s">
         <v>1457</v>
       </c>
-      <c r="E24" s="348">
+      <c r="E24" s="86">
         <v>-1380</v>
       </c>
-      <c r="F24" s="348"/>
-      <c r="G24" s="348"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="85">
         <f t="shared" si="1"/>
         <v>9762.679999999993</v>
@@ -57098,11 +57084,11 @@
       <c r="B25" s="88" t="s">
         <v>1459</v>
       </c>
-      <c r="E25" s="348">
+      <c r="E25" s="86">
         <v>-1415</v>
       </c>
-      <c r="F25" s="348"/>
-      <c r="G25" s="348"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="85">
         <f t="shared" si="1"/>
         <v>9762.679999999993</v>
@@ -57115,20 +57101,20 @@
       <c r="B26" s="88" t="s">
         <v>1460</v>
       </c>
-      <c r="E26" s="348">
+      <c r="E26" s="86">
         <v>-141.5</v>
       </c>
-      <c r="F26" s="348"/>
-      <c r="G26" s="348"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="85">
         <f t="shared" si="1"/>
         <v>9762.679999999993</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="E27" s="348"/>
-      <c r="F27" s="348"/>
-      <c r="G27" s="348"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="85">
         <f t="shared" si="1"/>
         <v>9762.679999999993</v>
@@ -57138,9 +57124,9 @@
       <c r="B28" t="s">
         <v>1523</v>
       </c>
-      <c r="E28" s="348"/>
-      <c r="F28" s="348"/>
-      <c r="G28" s="348">
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86">
         <v>-5000</v>
       </c>
       <c r="H28" s="85">
@@ -57152,11 +57138,11 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="348">
+      <c r="E29" s="86">
         <v>-6500</v>
       </c>
-      <c r="F29" s="348"/>
-      <c r="G29" s="348">
+      <c r="F29" s="86"/>
+      <c r="G29" s="86">
         <v>-6511</v>
       </c>
       <c r="H29" s="85">
@@ -57168,9 +57154,9 @@
       <c r="B30" t="s">
         <v>1522</v>
       </c>
-      <c r="E30" s="348"/>
-      <c r="F30" s="348"/>
-      <c r="G30" s="348">
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86">
         <v>-5000</v>
       </c>
       <c r="H30" s="85">
@@ -57182,11 +57168,11 @@
       <c r="B31" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="348">
+      <c r="E31" s="86">
         <v>-6500</v>
       </c>
-      <c r="F31" s="348"/>
-      <c r="G31" s="348">
+      <c r="F31" s="86"/>
+      <c r="G31" s="86">
         <v>-6511</v>
       </c>
       <c r="H31" s="85">
@@ -57198,11 +57184,11 @@
       <c r="B32" t="s">
         <v>217</v>
       </c>
-      <c r="E32" s="348">
+      <c r="E32" s="86">
         <v>-6500</v>
       </c>
-      <c r="F32" s="348"/>
-      <c r="G32" s="348">
+      <c r="F32" s="86"/>
+      <c r="G32" s="86">
         <v>-6500</v>
       </c>
       <c r="H32" s="85">
@@ -58245,7 +58231,7 @@
       <c r="A14" s="335">
         <v>45580</v>
       </c>
-      <c r="B14" s="352" t="s">
+      <c r="B14" s="349" t="s">
         <v>1518</v>
       </c>
       <c r="C14" s="88"/>
@@ -58543,7 +58529,7 @@
       <c r="A30" s="97">
         <v>45590</v>
       </c>
-      <c r="B30" s="351" t="s">
+      <c r="B30" s="348" t="s">
         <v>1519</v>
       </c>
       <c r="F30" s="85">
@@ -59574,7 +59560,7 @@
       <c r="A15" s="335">
         <v>45550</v>
       </c>
-      <c r="B15" s="351" t="s">
+      <c r="B15" s="348" t="s">
         <v>1516</v>
       </c>
       <c r="F15" s="85">
@@ -59712,7 +59698,7 @@
       <c r="A23" s="335">
         <v>45564</v>
       </c>
-      <c r="B23" s="351" t="s">
+      <c r="B23" s="348" t="s">
         <v>1517</v>
       </c>
       <c r="D23" s="86"/>
@@ -60854,7 +60840,7 @@
       <c r="A13" s="97">
         <v>45519</v>
       </c>
-      <c r="B13" s="352" t="s">
+      <c r="B13" s="349" t="s">
         <v>1514</v>
       </c>
       <c r="C13" s="88"/>
@@ -61341,7 +61327,7 @@
       <c r="A39" s="335">
         <v>45535</v>
       </c>
-      <c r="B39" s="352" t="s">
+      <c r="B39" s="349" t="s">
         <v>1515</v>
       </c>
       <c r="C39" s="98"/>

--- a/04-24-Gnlkson.xlsx
+++ b/04-24-Gnlkson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comprg\aagitme\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2889FF9-3E6E-4776-9EC5-73AD37126E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049D494C-F71E-4B5C-B5D8-B87A63C955CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="851" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="510" windowWidth="19320" windowHeight="10320" tabRatio="851" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PERI_24" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="1537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="1544">
   <si>
     <t>hesaba yazılmayan</t>
   </si>
@@ -4934,6 +4934,27 @@
   </si>
   <si>
     <t>2025 Aralığa  Devir</t>
+  </si>
+  <si>
+    <t>koctas</t>
+  </si>
+  <si>
+    <t>koton</t>
+  </si>
+  <si>
+    <t>tcross benzn</t>
+  </si>
+  <si>
+    <t>dürümle</t>
+  </si>
+  <si>
+    <t>mrkt erenler</t>
+  </si>
+  <si>
+    <t>tcdd tkt-ist-tkt bsnss</t>
+  </si>
+  <si>
+    <t>dnxkk</t>
   </si>
 </sst>
 </file>
@@ -5963,7 +5984,7 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6462,6 +6483,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -39615,11 +39638,11 @@
       </c>
       <c r="C14" s="34">
         <f>'12_24'!E2</f>
-        <v>-69167.02</v>
+        <v>-62452.759999999995</v>
       </c>
       <c r="D14" s="35">
         <f t="shared" si="0"/>
-        <v>29177.736306999977</v>
+        <v>35891.996306999987</v>
       </c>
       <c r="E14" s="34">
         <f>'12_24'!F2</f>
@@ -39627,11 +39650,11 @@
       </c>
       <c r="F14" s="34">
         <f>'12_24'!G2</f>
-        <v>0</v>
+        <v>-12548.39</v>
       </c>
       <c r="G14" s="35">
         <f t="shared" si="1"/>
-        <v>-17513.10369299999</v>
+        <v>-30061.493692999989</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="46" t="s">
@@ -39650,7 +39673,7 @@
       </c>
       <c r="M14" s="40"/>
       <c r="N14">
-        <f>'12_24'!E111/1000</f>
+        <f>'12_24'!E118/1000</f>
         <v>418.34126276399996</v>
       </c>
     </row>
@@ -39664,11 +39687,11 @@
       </c>
       <c r="C15" s="35">
         <f>SUM(C3:C14)</f>
-        <v>-1058807.6136930001</v>
+        <v>-1052093.353693</v>
       </c>
       <c r="D15" s="35">
         <f>B15+C15</f>
-        <v>29177.736307000043</v>
+        <v>35891.996307000052</v>
       </c>
       <c r="E15" s="35">
         <f>SUM(E3:E14)</f>
@@ -39676,11 +39699,11 @@
       </c>
       <c r="F15" s="35">
         <f>SUM(F3:F14)</f>
-        <v>-1091328.343693</v>
+        <v>-1103876.7336929999</v>
       </c>
       <c r="G15" s="35">
         <f>E15+F15</f>
-        <v>-17513.103692999808</v>
+        <v>-30061.493692999706</v>
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="50"/>
@@ -39711,7 +39734,7 @@
       </c>
       <c r="C16" s="57">
         <f>C15/A16</f>
-        <v>-88233.967807749999</v>
+        <v>-87674.446141083332</v>
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="57">
@@ -39720,11 +39743,11 @@
       </c>
       <c r="F16" s="57">
         <f>F15/A16</f>
-        <v>-90944.028641083336</v>
+        <v>-91989.727807749994</v>
       </c>
       <c r="G16" s="57">
         <f>G15/A16</f>
-        <v>-1459.4253077499841</v>
+        <v>-2505.124474416642</v>
       </c>
       <c r="H16" s="58"/>
       <c r="I16" s="59"/>
@@ -39788,7 +39811,7 @@
         <v>152</v>
       </c>
       <c r="E19" s="9">
-        <f>'07_24'!F30+'08_24'!F24+'09_24'!F19+'10_24'!F25+'11_24'!F27+'12_24'!F29</f>
+        <f>'07_24'!F30+'08_24'!F24+'09_24'!F19+'10_24'!F25+'11_24'!F27+'12_24'!F37</f>
         <v>38996.909999999996</v>
       </c>
     </row>
@@ -51070,10 +51093,10 @@
   <sheetPr>
     <tabColor rgb="FF9BC2E6"/>
   </sheetPr>
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -51089,7 +51112,7 @@
     <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:8">
       <c r="F1" s="85" t="s">
         <v>120</v>
       </c>
@@ -51100,7 +51123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1488</v>
       </c>
@@ -51108,731 +51131,764 @@
         <v>191</v>
       </c>
       <c r="D2" s="85">
-        <f>SUM(D4:D43)</f>
+        <f>SUM(D4:D50)</f>
         <v>27984.15</v>
       </c>
       <c r="E2" s="85">
-        <f>SUM(E4:E44)</f>
-        <v>-69167.02</v>
+        <f>SUM(E4:E51)</f>
+        <v>-62452.759999999995</v>
       </c>
       <c r="F2" s="85">
-        <f>SUM(F4:F39)</f>
+        <f>SUM(F4:F46)</f>
         <v>0</v>
       </c>
       <c r="G2" s="85">
-        <f>SUM(G4:G39)</f>
-        <v>0</v>
+        <f>SUM(G4:G46)</f>
+        <v>-12548.39</v>
       </c>
       <c r="H2" s="85">
         <f>F2+G2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" s="70"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="B4" s="43" t="s">
-        <v>192</v>
-      </c>
+    <row r="4" spans="1:8">
+      <c r="B4" s="43"/>
       <c r="H4" s="85">
         <f>H3+F4+G4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="B5" t="s">
-        <v>193</v>
+    <row r="5" spans="1:8">
+      <c r="A5" s="335">
+        <v>45631</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>213</v>
       </c>
       <c r="E5" s="85">
-        <v>-11030.76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="88"/>
+        <f>E69</f>
+        <v>-1797.23</v>
+      </c>
+      <c r="G5" s="85">
+        <f>E5</f>
+        <v>-1797.23</v>
+      </c>
+      <c r="H5" s="85">
+        <f t="shared" ref="H5:H24" si="0">H4+F5+G5</f>
+        <v>-1797.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="96">
+        <v>45630</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>214</v>
+      </c>
       <c r="E6" s="85">
-        <v>-400</v>
+        <f>E84</f>
+        <v>-9239.0299999999988</v>
+      </c>
+      <c r="G6" s="85">
+        <f>E6</f>
+        <v>-9239.0299999999988</v>
       </c>
       <c r="H6" s="85">
-        <f>H4+F6+G6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <f t="shared" si="0"/>
+        <v>-11036.259999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="335">
+        <v>45630</v>
+      </c>
       <c r="B7" s="88" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C7" s="88"/>
       <c r="E7" s="85">
-        <v>-500</v>
+        <v>-1500</v>
+      </c>
+      <c r="G7" s="85">
+        <v>-1512.13</v>
       </c>
       <c r="H7" s="85">
-        <f>H6+F7+G7</f>
+        <f t="shared" si="0"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="88" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="E8" s="85">
+        <v>-17500</v>
+      </c>
+      <c r="H8" s="85">
+        <f t="shared" si="0"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="85">
+        <f>E64*-1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="88" t="s">
+      <c r="H9" s="85">
+        <f t="shared" si="0"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="H10" s="85">
+        <f t="shared" si="0"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="335">
+        <v>45630</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E11" s="85">
+        <v>-1380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="335">
+        <v>45630</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E12" s="86">
+        <v>-1380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="335">
+        <v>45630</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E13" s="86">
+        <v>-1415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="335">
+        <v>45630</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E14" s="86">
+        <v>-141.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="H21" s="85">
+        <f>H10+F21+G21</f>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C22" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E22" s="85">
         <v>-250</v>
       </c>
-      <c r="H8" s="85">
-        <f>H7+F8+G8</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="86">
-        <f>M14</f>
+      <c r="H22" s="85">
+        <f t="shared" si="0"/>
+        <v>-12548.39</v>
+      </c>
+      <c r="N22" s="86">
+        <f>M28</f>
         <v>93450</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="B9" s="89" t="s">
+    <row r="23" spans="2:15">
+      <c r="B23" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="J9" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" s="86">
-        <v>8</v>
-      </c>
-      <c r="L9" s="91">
-        <v>250</v>
-      </c>
-      <c r="M9" s="86">
-        <f>L9*K9</f>
-        <v>2000</v>
-      </c>
-      <c r="N9" s="86">
-        <f>N8-M9</f>
-        <v>91450</v>
-      </c>
-      <c r="O9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="J10" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="K10" s="91">
-        <v>2</v>
-      </c>
-      <c r="L10" s="91">
-        <v>250</v>
-      </c>
-      <c r="M10" s="86">
-        <f>L10*K10</f>
-        <v>500</v>
-      </c>
-      <c r="N10" s="86">
-        <f>N9-M10</f>
-        <v>90950</v>
-      </c>
-      <c r="O10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="J11" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="K11" s="86">
-        <v>11</v>
-      </c>
-      <c r="L11" s="86">
-        <v>250</v>
-      </c>
-      <c r="M11" s="86">
-        <f>L11*K11</f>
-        <v>2750</v>
-      </c>
-      <c r="N11" s="86">
-        <f>N10-M11</f>
-        <v>88200</v>
-      </c>
-      <c r="O11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="88"/>
-      <c r="J12" s="90" t="s">
-        <v>205</v>
-      </c>
-      <c r="K12" s="85">
-        <v>1</v>
-      </c>
-      <c r="L12" s="85">
-        <v>8595</v>
-      </c>
-      <c r="M12" s="85">
-        <f>L12*K12</f>
-        <v>8595</v>
-      </c>
-      <c r="N12" s="86">
-        <f>N11-M12</f>
-        <v>79605</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="J13" s="90" t="s">
-        <v>205</v>
-      </c>
-      <c r="K13" s="85">
-        <v>9</v>
-      </c>
-      <c r="L13" s="85">
-        <v>8845</v>
-      </c>
-      <c r="M13" s="85">
-        <f>L13*K13</f>
-        <v>79605</v>
-      </c>
-      <c r="N13" s="86">
-        <f>N12-M13</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="H14" s="85">
-        <f>H8+F14+G14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="M14" s="93">
-        <f>SUM(M9:M13)</f>
-        <v>93450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="85">
-        <v>-150</v>
-      </c>
-      <c r="H15" s="85">
-        <f t="shared" ref="H15:H37" si="0">H14+F15+G15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="85">
-        <v>-300</v>
-      </c>
-      <c r="H16" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="B17" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="85">
-        <v>-100</v>
-      </c>
-      <c r="H17" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="H18" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="B19" s="95" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="85">
-        <f>E57*-1</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="335">
-        <v>45631</v>
-      </c>
-      <c r="B20" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="85">
-        <f>E62</f>
-        <v>-1797.23</v>
-      </c>
-      <c r="H20" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="96">
-        <v>45173</v>
-      </c>
-      <c r="B21" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="85">
-        <f>E77</f>
-        <v>-9239.0300000000007</v>
-      </c>
-      <c r="H21" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="97"/>
-      <c r="B22" s="88" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="E22" s="85">
-        <v>-17500</v>
-      </c>
-      <c r="H22" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="97"/>
-      <c r="B23" s="88"/>
       <c r="C23" s="88"/>
       <c r="H23" s="85">
         <f t="shared" si="0"/>
+        <v>-12548.39</v>
+      </c>
+      <c r="J23" s="90" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" s="86">
+        <v>8</v>
+      </c>
+      <c r="L23" s="91">
+        <v>250</v>
+      </c>
+      <c r="M23" s="86">
+        <f>L23*K23</f>
+        <v>2000</v>
+      </c>
+      <c r="N23" s="86">
+        <f>N22-M23</f>
+        <v>91450</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="88"/>
+      <c r="H24" s="85">
+        <f t="shared" si="0"/>
+        <v>-12548.39</v>
+      </c>
+      <c r="J24" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="91">
+        <v>2</v>
+      </c>
+      <c r="L24" s="91">
+        <v>250</v>
+      </c>
+      <c r="M24" s="86">
+        <f>L24*K24</f>
+        <v>500</v>
+      </c>
+      <c r="N24" s="86">
+        <f>N23-M24</f>
+        <v>90950</v>
+      </c>
+      <c r="O24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="88"/>
+      <c r="H25" s="85">
+        <f t="shared" ref="H25" si="1">H24+F25+G25</f>
+        <v>-12548.39</v>
+      </c>
+      <c r="J25" s="90" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" s="86">
+        <v>11</v>
+      </c>
+      <c r="L25" s="86">
+        <v>250</v>
+      </c>
+      <c r="M25" s="86">
+        <f>L25*K25</f>
+        <v>2750</v>
+      </c>
+      <c r="N25" s="86">
+        <f>N24-M25</f>
+        <v>88200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="88"/>
+      <c r="J26" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" s="85">
+        <v>1</v>
+      </c>
+      <c r="L26" s="85">
+        <v>8595</v>
+      </c>
+      <c r="M26" s="85">
+        <f>L26*K26</f>
+        <v>8595</v>
+      </c>
+      <c r="N26" s="86">
+        <f>N25-M26</f>
+        <v>79605</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="J27" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" s="85">
+        <v>9</v>
+      </c>
+      <c r="L27" s="85">
+        <v>8845</v>
+      </c>
+      <c r="M27" s="85">
+        <f>L27*K27</f>
+        <v>79605</v>
+      </c>
+      <c r="N27" s="86">
+        <f>N26-M27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="88"/>
-      <c r="E24" s="85">
-        <v>-1500</v>
-      </c>
-      <c r="H24" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="H25" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="H26" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="H27" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="B28" t="s">
+      <c r="O27" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="H28" s="85">
+        <f>H22+F28+G28</f>
+        <v>-12548.39</v>
+      </c>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="M28" s="93">
+        <f>SUM(M23:M27)</f>
+        <v>93450</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="356"/>
+      <c r="M29" s="357"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="88"/>
+      <c r="E30" s="85">
+        <v>-400</v>
+      </c>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="356"/>
+      <c r="M30" s="357"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="E31" s="85">
+        <v>-500</v>
+      </c>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="356"/>
+      <c r="M31" s="357"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="85">
+        <v>-150</v>
+      </c>
+      <c r="H32" s="85">
+        <f>H28+F32+G32</f>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="85">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="85">
+        <f t="shared" ref="H33:H44" si="2">H32+F33+G33</f>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" s="85">
+        <v>-100</v>
+      </c>
+      <c r="H34" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="H35" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="B29" t="s">
+      <c r="H36" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E37" s="85">
         <v>-6500</v>
       </c>
-      <c r="H29" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="B30" t="s">
+      <c r="H37" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="85">
+      <c r="E38" s="85">
         <v>-6500</v>
       </c>
-      <c r="H30" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="H38" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" t="s">
         <v>217</v>
       </c>
-      <c r="E31" s="85">
+      <c r="E39" s="85">
         <v>-6500</v>
       </c>
-      <c r="H31" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="H32" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" t="s">
+      <c r="H39" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="H40" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" t="s">
         <v>218</v>
       </c>
-      <c r="D33" s="86">
+      <c r="D41" s="86">
         <v>12984.15</v>
       </c>
-      <c r="H33" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="97"/>
-      <c r="H34" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="97"/>
-      <c r="B35" t="s">
+      <c r="H41" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="97"/>
+      <c r="B42" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="85">
+      <c r="D42" s="85">
         <v>15000</v>
       </c>
-      <c r="H35" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="97"/>
-      <c r="H36" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" t="s">
+      <c r="H42" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="97"/>
+      <c r="H43" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" t="s">
         <v>221</v>
       </c>
-      <c r="C37" s="98">
+      <c r="C44" s="98">
         <v>0.234011</v>
       </c>
-      <c r="H37" s="85">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="337">
+      <c r="H44" s="85">
+        <f t="shared" si="2"/>
+        <v>-12548.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="337">
         <v>45655</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B46" t="s">
         <v>1450</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C46" t="s">
         <v>1453</v>
       </c>
-      <c r="E39" s="85">
+      <c r="E46" s="85">
         <v>-1380</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="337">
+    <row r="47" spans="1:13">
+      <c r="A47" s="337">
         <v>45686</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B47" t="s">
         <v>1450</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C47" t="s">
         <v>1452</v>
       </c>
-      <c r="E40" s="85">
+      <c r="E47" s="85">
         <v>-1380</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="337">
+    <row r="48" spans="1:13">
+      <c r="A48" s="337">
         <v>45716</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B48" t="s">
         <v>1450</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C48" t="s">
         <v>1454</v>
       </c>
-      <c r="E41" s="85">
+      <c r="E48" s="85">
         <v>-1380</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="337">
+    <row r="49" spans="1:5">
+      <c r="A49" s="337">
         <v>45745</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B49" t="s">
         <v>1450</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C49" t="s">
         <v>1455</v>
       </c>
-      <c r="E42" s="85">
+      <c r="E49" s="85">
         <v>-1380</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="337">
+    <row r="50" spans="1:5">
+      <c r="A50" s="337">
         <v>45776</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B50" t="s">
         <v>1450</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C50" t="s">
         <v>1456</v>
       </c>
-      <c r="E43" s="85">
+      <c r="E50" s="85">
         <v>-1380</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="337"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="335"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="335"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="97"/>
-      <c r="C50" s="98"/>
-    </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="100">
-        <v>44929</v>
-      </c>
-      <c r="B51" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="85">
-        <f>SUM(D52:D57)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="85">
-        <f>SUM(E52:E57)</f>
-        <v>0</v>
-      </c>
+      <c r="A51" s="337"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="97"/>
-      <c r="B52" s="94" t="s">
-        <v>225</v>
-      </c>
+      <c r="A52" s="335"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="B53" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" t="s">
-        <v>227</v>
-      </c>
+      <c r="A53" s="335"/>
     </row>
     <row r="55" spans="1:5">
       <c r="B55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="97"/>
+      <c r="C57" s="98"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="100">
+        <v>44929</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="78"/>
+      <c r="D58" s="85">
+        <f>SUM(D59:D64)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="85">
+        <f>SUM(E59:E64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="97"/>
+      <c r="B59" s="94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="B56" t="s">
+    <row r="63" spans="1:5">
+      <c r="B63" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="B57" t="s">
+    <row r="64" spans="1:5">
+      <c r="B64" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="94"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="C58" s="94"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="B60" s="13"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="B61" s="102"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="78"/>
-      <c r="B62" s="77" t="s">
+      <c r="C64" s="94"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="C65" s="94"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="13"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" s="102"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="78"/>
+      <c r="B69" s="77" t="s">
         <v>231</v>
       </c>
-      <c r="C62" s="78"/>
-      <c r="E62" s="85">
-        <f>SUM(E63:E74)</f>
+      <c r="C69" s="78"/>
+      <c r="E69" s="85">
+        <f>SUM(E70:E81)</f>
         <v>-1797.23</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="20">
+    <row r="71" spans="1:5">
+      <c r="A71" s="20">
         <v>45373</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B71" t="s">
         <v>232</v>
       </c>
-      <c r="C64">
+      <c r="C71">
         <v>10176.39</v>
       </c>
-      <c r="D64" s="85" t="s">
+      <c r="D71" s="85" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="85">
+      <c r="E71" s="85">
         <v>-1130.71</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="20">
+    <row r="72" spans="1:5">
+      <c r="A72" s="20">
         <v>45375</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B72" t="s">
         <v>234</v>
       </c>
-      <c r="C65">
+      <c r="C72">
         <v>5999</v>
       </c>
-      <c r="D65" s="85" t="s">
+      <c r="D72" s="85" t="s">
         <v>233</v>
       </c>
-      <c r="E65" s="85">
+      <c r="E72" s="85">
         <v>-666.52</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="20"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="20"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="97"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="97"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="97"/>
-      <c r="B71" s="103"/>
-      <c r="C71" s="94"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="97"/>
-      <c r="B72" s="103"/>
-      <c r="C72" s="94"/>
-    </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="97"/>
-      <c r="B73" s="103"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="97"/>
-      <c r="B74" s="103"/>
-      <c r="C74" s="94"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="97"/>
-      <c r="B75" s="3"/>
+      <c r="A73" s="20"/>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="20"/>
+      <c r="C74" s="108" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="97"/>
@@ -51840,153 +51896,231 @@
       <c r="C76" s="94"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="78"/>
-      <c r="B77" s="77" t="s">
-        <v>235</v>
-      </c>
-      <c r="C77" s="78"/>
-      <c r="E77" s="85">
-        <f>SUM(E78:E86)</f>
-        <v>-9239.0300000000007</v>
-      </c>
+      <c r="A77" s="97"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="97"/>
-      <c r="B78" s="94"/>
+      <c r="B78" s="103"/>
       <c r="C78" s="94"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="97"/>
-      <c r="B79" s="94"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="94"/>
-      <c r="E79" s="85">
-        <v>-9239.0300000000007</v>
-      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="97"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="94"/>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="B80" s="103"/>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="97"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="103"/>
       <c r="C81" s="94"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:5">
       <c r="A82" s="97"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="94"/>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="97"/>
-      <c r="B83" s="3"/>
+      <c r="B83" s="94"/>
       <c r="C83" s="94"/>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="97"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="94"/>
-    </row>
-    <row r="85" spans="1:3">
+    <row r="84" spans="1:5">
+      <c r="A84" s="78"/>
+      <c r="B84" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" s="78"/>
+      <c r="E84" s="85">
+        <f>SUM(E85:E103)</f>
+        <v>-9239.0299999999988</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="97"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="94"/>
       <c r="C85" s="94"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:5">
       <c r="A86" s="97"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="94"/>
       <c r="C86" s="94"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:5">
       <c r="A87" s="97"/>
-      <c r="B87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>1537</v>
+      </c>
       <c r="C87" s="94"/>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="E87" s="85">
+        <v>-429.88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="97"/>
-      <c r="B88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>1538</v>
+      </c>
       <c r="C88" s="94"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="E88" s="85">
+        <v>-654.99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="97"/>
-      <c r="B89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>1539</v>
+      </c>
       <c r="C89" s="94"/>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="E89" s="85">
+        <v>-1600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="97"/>
-      <c r="B90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="C90" s="94"/>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="E90" s="85">
+        <v>-125.48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="97"/>
-      <c r="B91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="C91" s="94"/>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="E91" s="85">
+        <v>-297.45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="97"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="C92" s="94"/>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="E92" s="85">
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="97"/>
-      <c r="B93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="C93" s="94"/>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="E93" s="85">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="97"/>
-      <c r="B94" s="3"/>
+      <c r="B94" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="C94" s="94"/>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="E94" s="85">
+        <v>-29.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="97"/>
-      <c r="B95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>1540</v>
+      </c>
       <c r="C95" s="94"/>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="E95" s="85">
+        <v>-525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="97"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="C96" s="94"/>
+      <c r="E96" s="85">
+        <v>-257.33</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="97"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>1541</v>
+      </c>
       <c r="C97" s="94"/>
+      <c r="E97" s="85">
+        <v>-84.95</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="97"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="94"/>
+      <c r="B98" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="94">
+        <v>129000.63</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="97"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>743</v>
+      </c>
       <c r="C99" s="94"/>
+      <c r="E99" s="85">
+        <v>-500</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="97"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>1541</v>
+      </c>
       <c r="C100" s="94"/>
+      <c r="E100" s="85">
+        <v>-886.3</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="97"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>1541</v>
+      </c>
       <c r="C101" s="94"/>
+      <c r="E101" s="85">
+        <v>-99.75</v>
+      </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="97"/>
-      <c r="B102" s="3"/>
+      <c r="A102" s="97">
+        <v>45606</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>1542</v>
+      </c>
       <c r="C102" s="94"/>
+      <c r="E102" s="85">
+        <v>-3525</v>
+      </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="97"/>
       <c r="B103" s="3"/>
       <c r="C103" s="94"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="15">
       <c r="A104" s="97"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="94"/>
+      <c r="C104" s="108" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="97"/>
@@ -52008,221 +52142,256 @@
       <c r="B108" s="3"/>
       <c r="C108" s="94"/>
     </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="97"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="94"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="97"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="94"/>
+    </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="78"/>
-      <c r="B111" s="77" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C111" s="78"/>
-      <c r="E111" s="85">
-        <f>SUM(E112:E126)</f>
-        <v>418341.26276399998</v>
-      </c>
+      <c r="A111" s="97"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="94"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="97"/>
-      <c r="B112" t="s">
-        <v>84</v>
-      </c>
-      <c r="E112" s="85">
-        <v>-34000</v>
-      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="94"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="97"/>
-      <c r="B113" t="s">
-        <v>172</v>
-      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="94"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="97"/>
-      <c r="B114" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E114" s="85">
-        <v>22079</v>
-      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="94"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="97"/>
-      <c r="B115" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="97"/>
-      <c r="B116" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C116">
-        <v>4000</v>
-      </c>
-      <c r="D116" s="85">
-        <v>32.479999999999997</v>
-      </c>
-      <c r="E116" s="85">
-        <f>D116*C116</f>
-        <v>129919.99999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="97"/>
-      <c r="B117" t="s">
-        <v>60</v>
-      </c>
-      <c r="C117">
-        <v>62</v>
-      </c>
-      <c r="D117" s="85">
-        <v>823.93972199999996</v>
-      </c>
-      <c r="E117" s="85">
-        <f>D117*C117</f>
-        <v>51084.262763999999</v>
-      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="94"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="97"/>
-      <c r="B118" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C118">
-        <v>125000</v>
-      </c>
-      <c r="D118" s="85">
-        <v>0.75446400000000002</v>
-      </c>
+      <c r="A118" s="78"/>
+      <c r="B118" s="77" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C118" s="78"/>
       <c r="E118" s="85">
-        <f>D118*C118</f>
-        <v>94308</v>
+        <f>SUM(E119:E133)</f>
+        <v>418341.26276399998</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="97"/>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="E119" s="85">
-        <f t="shared" ref="E119:E126" si="1">D119*C119</f>
-        <v>0</v>
+        <v>-34000</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="97"/>
       <c r="B120" t="s">
-        <v>240</v>
-      </c>
-      <c r="E120" s="85">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="97"/>
       <c r="B121" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C121">
-        <v>16</v>
-      </c>
-      <c r="D121" s="85">
-        <v>5000</v>
+        <v>1527</v>
       </c>
       <c r="E121" s="85">
-        <f t="shared" si="1"/>
-        <v>80000</v>
+        <v>22079</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="97"/>
       <c r="B122" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122" s="85">
-        <v>22000</v>
-      </c>
-      <c r="E122" s="85">
-        <f t="shared" si="1"/>
-        <v>22000</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="97"/>
       <c r="B123" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="D123" s="85">
-        <v>2950</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="E123" s="85">
-        <f t="shared" si="1"/>
-        <v>2950</v>
+        <f>D123*C123</f>
+        <v>129919.99999999999</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="97"/>
       <c r="B124" t="s">
-        <v>1531</v>
+        <v>60</v>
       </c>
       <c r="C124">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D124" s="85">
-        <v>5000</v>
+        <v>823.93972199999996</v>
       </c>
       <c r="E124" s="85">
-        <f t="shared" si="1"/>
-        <v>50000</v>
+        <f>D124*C124</f>
+        <v>51084.262763999999</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="97"/>
+      <c r="B125" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C125">
+        <v>125000</v>
+      </c>
+      <c r="D125" s="85">
+        <v>0.75446400000000002</v>
+      </c>
       <c r="E125" s="85">
-        <f t="shared" si="1"/>
+        <f>D125*C125</f>
+        <v>94308</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="97"/>
+      <c r="B126" t="s">
+        <v>239</v>
+      </c>
+      <c r="E126" s="85">
+        <f t="shared" ref="E126:E133" si="3">D126*C126</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="B126" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" s="97"/>
+      <c r="B127" t="s">
+        <v>240</v>
+      </c>
+      <c r="E127" s="85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="97"/>
+      <c r="B128" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+      <c r="D128" s="85">
+        <v>5000</v>
+      </c>
+      <c r="E128" s="85">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="97"/>
+      <c r="B129" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" s="85">
+        <v>22000</v>
+      </c>
+      <c r="E129" s="85">
+        <f t="shared" si="3"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="97"/>
+      <c r="B130" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" s="85">
+        <v>2950</v>
+      </c>
+      <c r="E130" s="85">
+        <f t="shared" si="3"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="97"/>
+      <c r="B131" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131" s="85">
+        <v>5000</v>
+      </c>
+      <c r="E131" s="85">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="97"/>
+      <c r="E132" s="85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="B133" t="s">
         <v>241</v>
       </c>
-      <c r="E126" s="85">
-        <f t="shared" si="1"/>
+      <c r="E133" s="85">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="D128" s="85" t="s">
+    <row r="135" spans="1:5">
+      <c r="D135" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="E128" s="85">
-        <f>SUM(E112:E127)</f>
+      <c r="E135" s="85">
+        <f>SUM(E119:E134)</f>
         <v>418341.26276399998</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="3" t="s">
+    <row r="137" spans="1:5">
+      <c r="B137" s="3" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="3" t="s">
+    <row r="138" spans="1:5">
+      <c r="B138" s="3" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="3" t="s">
+    <row r="139" spans="1:5">
+      <c r="B139" s="3" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="11"/>
+    <row r="140" spans="1:5">
+      <c r="B140" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
@@ -56676,8 +56845,8 @@
   </sheetPr>
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
